--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -16,14 +16,14 @@
     <sheet name="FD_REPORT" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">IAM_MENU_PERMISSION!$G$1:$G$318</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">IAM_MENU_PERMISSION!$I$1:$I$302</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="486">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -991,15 +991,6 @@
     <t>devops-service.devops-git.createBranch</t>
   </si>
   <si>
-    <t>base-service.project-relationship.getProjUnderGroup</t>
-  </si>
-  <si>
-    <t>base-service.project-relationship.delete</t>
-  </si>
-  <si>
-    <t>base-service.project-relationship.create</t>
-  </si>
-  <si>
     <t>agile-service.sprint.queryByProjectId</t>
   </si>
   <si>
@@ -1211,30 +1202,6 @@
   </si>
   <si>
     <t>agile-service.issue.exportProgramIssues</t>
-  </si>
-  <si>
-    <t>agile-service.art.queryArtList</t>
-  </si>
-  <si>
-    <t>agile-service.art.createArt</t>
-  </si>
-  <si>
-    <t>agile-service.art.checkName</t>
-  </si>
-  <si>
-    <t>agile-service.art.queryArt</t>
-  </si>
-  <si>
-    <t>agile-service.art.updateArt</t>
-  </si>
-  <si>
-    <t>agile-service.art.beforeStop</t>
-  </si>
-  <si>
-    <t>agile-service.art.startArt</t>
-  </si>
-  <si>
-    <t>agile-service.art.stopArt</t>
   </si>
   <si>
     <r>
@@ -1551,10 +1518,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1660,7 +1627,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1674,16 +1657,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1697,6 +1680,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1705,9 +1696,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1737,7 +1735,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1745,37 +1743,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1804,6 +1771,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1816,25 +1849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1846,37 +1861,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1888,7 +1873,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1900,85 +1939,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1994,9 +1961,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2018,11 +1987,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2038,30 +2005,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2084,8 +2027,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2095,10 +2062,10 @@
     <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2107,133 +2074,133 @@
     <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6691,10 +6658,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:I318"/>
+  <dimension ref="D7:I302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" topLeftCell="D274" workbookViewId="0">
+      <selection activeCell="G301" sqref="G301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -7374,9 +7341,9 @@
     </row>
     <row r="66" spans="6:9">
       <c r="F66" t="s">
-        <v>123</v>
-      </c>
-      <c r="G66" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G66" s="13" t="s">
         <v>317</v>
       </c>
       <c r="I66">
@@ -7385,35 +7352,35 @@
     </row>
     <row r="67" spans="6:9">
       <c r="F67" t="s">
-        <v>123</v>
-      </c>
-      <c r="G67" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G67" s="13" t="s">
         <v>318</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="6:9">
       <c r="F68" t="s">
-        <v>123</v>
-      </c>
-      <c r="G68" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G68" s="13" t="s">
         <v>319</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="6:9">
       <c r="F69" t="s">
-        <v>123</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>18</v>
+        <v>124</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>320</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="6:9">
@@ -7421,10 +7388,10 @@
         <v>124</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="6:9">
@@ -7432,51 +7399,51 @@
         <v>124</v>
       </c>
       <c r="G71" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="6:9">
+      <c r="F72" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="6:9">
+      <c r="F73" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="6:9">
+      <c r="F74" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G74" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="6:9">
-      <c r="F72" t="s">
-        <v>124</v>
-      </c>
-      <c r="G72" s="13" t="s">
+      <c r="I74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="6:9">
+      <c r="F75" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G75" s="13" t="s">
         <v>322</v>
-      </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="6:9">
-      <c r="F73" t="s">
-        <v>124</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="6:9">
-      <c r="F74" t="s">
-        <v>124</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="6:9">
-      <c r="F75" t="s">
-        <v>124</v>
-      </c>
-      <c r="G75" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -7487,10 +7454,10 @@
         <v>125</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="6:9">
@@ -7498,7 +7465,10 @@
         <v>125</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>320</v>
+        <v>323</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -7509,7 +7479,7 @@
         <v>125</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>324</v>
+        <v>268</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -7520,7 +7490,7 @@
         <v>125</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -7531,7 +7501,7 @@
         <v>125</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -7542,13 +7512,10 @@
         <v>125</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="H81">
-        <v>1</v>
+        <v>295</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="6:9">
@@ -7556,7 +7523,7 @@
         <v>125</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>268</v>
+        <v>324</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -7567,7 +7534,7 @@
         <v>125</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>262</v>
+        <v>325</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -7578,7 +7545,7 @@
         <v>125</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -7589,10 +7556,10 @@
         <v>125</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="6:9">
@@ -7600,7 +7567,7 @@
         <v>125</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -7611,10 +7578,10 @@
         <v>125</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>328</v>
+        <v>287</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="6:9">
@@ -7622,7 +7589,10 @@
         <v>125</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>329</v>
+        <v>327</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -7633,7 +7603,7 @@
         <v>125</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -7655,10 +7625,10 @@
         <v>125</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="6:9">
@@ -7666,10 +7636,7 @@
         <v>125</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="H92">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -7680,7 +7647,7 @@
         <v>125</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -7691,10 +7658,10 @@
         <v>125</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="6:9">
@@ -7702,7 +7669,7 @@
         <v>125</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -7713,7 +7680,7 @@
         <v>125</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -7727,15 +7694,15 @@
         <v>332</v>
       </c>
       <c r="I97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="6:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" ht="13.2" customHeight="1" spans="6:9">
       <c r="F98" s="6" t="s">
         <v>125</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>272</v>
+        <v>333</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -7746,7 +7713,7 @@
         <v>125</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>333</v>
+        <v>24</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -7754,7 +7721,7 @@
     </row>
     <row r="100" spans="6:9">
       <c r="F100" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G100" s="13" t="s">
         <v>334</v>
@@ -7765,32 +7732,35 @@
     </row>
     <row r="101" spans="6:9">
       <c r="F101" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G101" s="13" t="s">
         <v>335</v>
       </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
       <c r="I101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" ht="13.2" customHeight="1" spans="6:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="6:9">
       <c r="F102" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="6:9">
       <c r="F103" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>24</v>
+        <v>336</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -7801,7 +7771,7 @@
         <v>126</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -7812,10 +7782,7 @@
         <v>126</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="H105">
-        <v>1</v>
+        <v>317</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -7826,7 +7793,7 @@
         <v>126</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -7837,7 +7804,7 @@
         <v>126</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -7859,7 +7826,7 @@
         <v>126</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I109">
         <v>1</v>
@@ -7870,7 +7837,7 @@
         <v>126</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>285</v>
+        <v>337</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -7881,7 +7848,7 @@
         <v>126</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>328</v>
+        <v>262</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -7892,7 +7859,7 @@
         <v>126</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -7903,7 +7870,7 @@
         <v>126</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -7914,7 +7881,7 @@
         <v>126</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -7925,7 +7892,7 @@
         <v>126</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -7936,10 +7903,10 @@
         <v>126</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="6:9">
@@ -7947,7 +7914,7 @@
         <v>126</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>268</v>
+        <v>340</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -7961,7 +7928,7 @@
         <v>341</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="6:9">
@@ -7969,10 +7936,10 @@
         <v>126</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>263</v>
+        <v>342</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="6:9">
@@ -7980,10 +7947,10 @@
         <v>126</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="6:9">
@@ -7991,10 +7958,10 @@
         <v>126</v>
       </c>
       <c r="G121" s="13" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="6:9">
@@ -8002,7 +7969,7 @@
         <v>126</v>
       </c>
       <c r="G122" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -8013,7 +7980,7 @@
         <v>126</v>
       </c>
       <c r="G123" s="13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -8024,7 +7991,7 @@
         <v>126</v>
       </c>
       <c r="G124" s="13" t="s">
-        <v>346</v>
+        <v>27</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -8032,21 +7999,21 @@
     </row>
     <row r="125" spans="6:9">
       <c r="F125" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G125" s="13" t="s">
-        <v>347</v>
+        <v>30</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="6:9">
       <c r="F126" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -8054,10 +8021,10 @@
     </row>
     <row r="127" spans="6:9">
       <c r="F127" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G127" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -8065,13 +8032,13 @@
     </row>
     <row r="128" spans="6:9">
       <c r="F128" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>27</v>
+        <v>349</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="6:9">
@@ -8079,10 +8046,10 @@
         <v>127</v>
       </c>
       <c r="G129" s="13" t="s">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="6:9">
@@ -8090,7 +8057,7 @@
         <v>127</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -8101,7 +8068,7 @@
         <v>127</v>
       </c>
       <c r="G131" s="13" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -8112,7 +8079,7 @@
         <v>127</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -8123,7 +8090,7 @@
         <v>127</v>
       </c>
       <c r="G133" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -8134,10 +8101,10 @@
         <v>127</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="6:9">
@@ -8145,10 +8112,10 @@
         <v>127</v>
       </c>
       <c r="G135" s="13" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="6:9">
@@ -8156,51 +8123,51 @@
         <v>127</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="6:9">
-      <c r="F137" s="6" t="s">
-        <v>127</v>
+      <c r="F137" t="s">
+        <v>128</v>
       </c>
       <c r="G137" s="13" t="s">
-        <v>355</v>
+        <v>268</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="6:9">
-      <c r="F138" s="6" t="s">
-        <v>127</v>
+      <c r="F138" t="s">
+        <v>128</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="6:9">
-      <c r="F139" s="6" t="s">
-        <v>127</v>
+      <c r="F139" t="s">
+        <v>128</v>
       </c>
       <c r="G139" s="13" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="6:9">
-      <c r="F140" s="6" t="s">
-        <v>127</v>
+      <c r="F140" t="s">
+        <v>128</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="I140">
         <v>1</v>
@@ -8211,7 +8178,7 @@
         <v>128</v>
       </c>
       <c r="G141" s="13" t="s">
-        <v>268</v>
+        <v>354</v>
       </c>
       <c r="I141">
         <v>1</v>
@@ -8222,10 +8189,10 @@
         <v>128</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="6:9">
@@ -8233,10 +8200,10 @@
         <v>128</v>
       </c>
       <c r="G143" s="13" t="s">
-        <v>282</v>
+        <v>355</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="6:9">
@@ -8244,10 +8211,10 @@
         <v>128</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="6:9">
@@ -8266,73 +8233,73 @@
         <v>128</v>
       </c>
       <c r="G146" s="13" t="s">
-        <v>295</v>
+        <v>33</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="6:9">
-      <c r="F147" t="s">
-        <v>128</v>
+      <c r="F147" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="G147" s="13" t="s">
         <v>358</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="6:9">
-      <c r="F148" t="s">
-        <v>128</v>
+      <c r="F148" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="G148" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="6:9">
+      <c r="F149" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G149" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="6:9">
+      <c r="F150" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G150" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="I148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="6:9">
-      <c r="F149" t="s">
-        <v>128</v>
-      </c>
-      <c r="G149" s="13" t="s">
+      <c r="I150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="6:9">
+      <c r="F151" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G151" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="6:9">
+      <c r="F152" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G152" s="13" t="s">
         <v>360</v>
-      </c>
-      <c r="I149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="6:9">
-      <c r="F150" t="s">
-        <v>128</v>
-      </c>
-      <c r="G150" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="6:9">
-      <c r="F151" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="G151" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="I151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="6:9">
-      <c r="F152" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="G152" s="13" t="s">
-        <v>51</v>
       </c>
       <c r="I152">
         <v>1</v>
@@ -8340,57 +8307,57 @@
     </row>
     <row r="153" spans="6:9">
       <c r="F153" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G153" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="6:9">
+      <c r="F154" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G154" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="6:9">
+      <c r="F155" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G155" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="I153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="6:9">
-      <c r="F154" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G154" s="13" t="s">
+      <c r="I155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="6:9">
+      <c r="F156" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G156" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="6:9">
-      <c r="F155" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G155" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="6:9">
-      <c r="F156" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G156" s="13" t="s">
+      <c r="I156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="6:9">
+      <c r="F157" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G157" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="I156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="6:9">
-      <c r="F157" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G157" s="13" t="s">
-        <v>57</v>
-      </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="6:9">
@@ -8398,54 +8365,54 @@
         <v>137</v>
       </c>
       <c r="G158" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="6:9">
+      <c r="F159" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G159" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="I158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="6:9">
-      <c r="F159" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G159" s="13" t="s">
-        <v>364</v>
-      </c>
       <c r="I159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="6:9">
-      <c r="F160" s="14" t="s">
-        <v>137</v>
+      <c r="F160" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="I160">
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="6:9">
-      <c r="F161" s="14" t="s">
-        <v>137</v>
+      <c r="F161" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="G161" s="13" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I161">
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="6:9">
-      <c r="F162" s="14" t="s">
-        <v>137</v>
+      <c r="F162" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="G162" s="13" t="s">
-        <v>60</v>
+        <v>363</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="6:9">
@@ -8453,7 +8420,7 @@
         <v>138</v>
       </c>
       <c r="G163" s="13" t="s">
-        <v>288</v>
+        <v>63</v>
       </c>
       <c r="I163">
         <v>1</v>
@@ -8461,7 +8428,7 @@
     </row>
     <row r="164" spans="6:9">
       <c r="F164" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G164" s="13" t="s">
         <v>364</v>
@@ -8472,7 +8439,7 @@
     </row>
     <row r="165" spans="6:9">
       <c r="F165" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G165" s="13" t="s">
         <v>365</v>
@@ -8483,7 +8450,7 @@
     </row>
     <row r="166" spans="6:9">
       <c r="F166" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G166" s="13" t="s">
         <v>366</v>
@@ -8494,10 +8461,10 @@
     </row>
     <row r="167" spans="6:9">
       <c r="F167" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G167" s="13" t="s">
-        <v>63</v>
+        <v>262</v>
       </c>
       <c r="I167">
         <v>1</v>
@@ -8508,40 +8475,40 @@
         <v>139</v>
       </c>
       <c r="G168" s="13" t="s">
-        <v>367</v>
+        <v>66</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="6:9">
       <c r="F169" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G169" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="6:9">
       <c r="F170" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G170" s="13" t="s">
-        <v>369</v>
+        <v>69</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="6:9">
       <c r="F171" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G171" s="13" t="s">
-        <v>262</v>
+        <v>328</v>
       </c>
       <c r="I171">
         <v>1</v>
@@ -8549,35 +8516,35 @@
     </row>
     <row r="172" spans="6:9">
       <c r="F172" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G172" s="13" t="s">
-        <v>66</v>
+        <v>368</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="6:9">
       <c r="F173" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G173" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="6:9">
       <c r="F174" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G174" s="13" t="s">
-        <v>69</v>
+        <v>370</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="6:9">
@@ -8585,51 +8552,57 @@
         <v>141</v>
       </c>
       <c r="G175" s="13" t="s">
-        <v>331</v>
+        <v>72</v>
       </c>
       <c r="I175">
         <v>1</v>
       </c>
     </row>
     <row r="176" spans="6:9">
-      <c r="F176" s="9" t="s">
-        <v>141</v>
+      <c r="F176" s="14" t="s">
+        <v>143</v>
       </c>
       <c r="G176" s="13" t="s">
         <v>371</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="6:9">
-      <c r="F177" s="9" t="s">
-        <v>141</v>
+      <c r="F177" s="14" t="s">
+        <v>143</v>
       </c>
       <c r="G177" s="13" t="s">
         <v>372</v>
       </c>
+      <c r="H177">
+        <v>1</v>
+      </c>
       <c r="I177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="6:9">
-      <c r="F178" s="9" t="s">
-        <v>141</v>
+      <c r="F178" s="14" t="s">
+        <v>143</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>373</v>
+        <v>268</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="6:9">
-      <c r="F179" s="9" t="s">
-        <v>141</v>
+      <c r="F179" s="14" t="s">
+        <v>143</v>
       </c>
       <c r="G179" s="13" t="s">
-        <v>72</v>
+        <v>335</v>
+      </c>
+      <c r="H179">
+        <v>1</v>
       </c>
       <c r="I179">
         <v>1</v>
@@ -8640,7 +8613,7 @@
         <v>143</v>
       </c>
       <c r="G180" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I180">
         <v>1</v>
@@ -8651,10 +8624,7 @@
         <v>143</v>
       </c>
       <c r="G181" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="H181">
-        <v>1</v>
+        <v>338</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -8665,7 +8635,7 @@
         <v>143</v>
       </c>
       <c r="G182" s="13" t="s">
-        <v>268</v>
+        <v>374</v>
       </c>
       <c r="I182">
         <v>1</v>
@@ -8676,10 +8646,7 @@
         <v>143</v>
       </c>
       <c r="G183" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="H183">
-        <v>1</v>
+        <v>375</v>
       </c>
       <c r="I183">
         <v>1</v>
@@ -8701,7 +8668,7 @@
         <v>143</v>
       </c>
       <c r="G185" s="13" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="I185">
         <v>1</v>
@@ -8712,7 +8679,7 @@
         <v>143</v>
       </c>
       <c r="G186" s="13" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="I186">
         <v>1</v>
@@ -8723,10 +8690,10 @@
         <v>143</v>
       </c>
       <c r="G187" s="13" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="6:9">
@@ -8734,10 +8701,10 @@
         <v>143</v>
       </c>
       <c r="G188" s="13" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="6:9">
@@ -8745,10 +8712,10 @@
         <v>143</v>
       </c>
       <c r="G189" s="13" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="6:9">
@@ -8756,7 +8723,10 @@
         <v>143</v>
       </c>
       <c r="G190" s="13" t="s">
-        <v>346</v>
+        <v>273</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
       </c>
       <c r="I190">
         <v>1</v>
@@ -8767,10 +8737,13 @@
         <v>143</v>
       </c>
       <c r="G191" s="13" t="s">
-        <v>347</v>
+        <v>274</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="6:9">
@@ -8778,10 +8751,10 @@
         <v>143</v>
       </c>
       <c r="G192" s="13" t="s">
-        <v>348</v>
+        <v>275</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="6:9">
@@ -8789,7 +8762,7 @@
         <v>143</v>
       </c>
       <c r="G193" s="13" t="s">
-        <v>349</v>
+        <v>276</v>
       </c>
       <c r="I193">
         <v>0</v>
@@ -8800,13 +8773,10 @@
         <v>143</v>
       </c>
       <c r="G194" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="H194">
-        <v>1</v>
+        <v>277</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="6:9">
@@ -8814,10 +8784,7 @@
         <v>143</v>
       </c>
       <c r="G195" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="H195">
-        <v>1</v>
+        <v>278</v>
       </c>
       <c r="I195">
         <v>1</v>
@@ -8828,7 +8795,7 @@
         <v>143</v>
       </c>
       <c r="G196" s="13" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="I196">
         <v>1</v>
@@ -8839,10 +8806,10 @@
         <v>143</v>
       </c>
       <c r="G197" s="13" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="6:9">
@@ -8850,10 +8817,10 @@
         <v>143</v>
       </c>
       <c r="G198" s="13" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="6:9">
@@ -8861,7 +8828,7 @@
         <v>143</v>
       </c>
       <c r="G199" s="13" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I199">
         <v>1</v>
@@ -8872,7 +8839,7 @@
         <v>143</v>
       </c>
       <c r="G200" s="13" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="I200">
         <v>1</v>
@@ -8883,7 +8850,7 @@
         <v>143</v>
       </c>
       <c r="G201" s="13" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="I201">
         <v>1</v>
@@ -8894,7 +8861,7 @@
         <v>143</v>
       </c>
       <c r="G202" s="13" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="I202">
         <v>1</v>
@@ -8905,7 +8872,7 @@
         <v>143</v>
       </c>
       <c r="G203" s="13" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="I203">
         <v>1</v>
@@ -8916,7 +8883,7 @@
         <v>143</v>
       </c>
       <c r="G204" s="13" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I204">
         <v>1</v>
@@ -8927,7 +8894,7 @@
         <v>143</v>
       </c>
       <c r="G205" s="13" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="I205">
         <v>1</v>
@@ -8938,7 +8905,7 @@
         <v>143</v>
       </c>
       <c r="G206" s="13" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="I206">
         <v>1</v>
@@ -8949,10 +8916,10 @@
         <v>143</v>
       </c>
       <c r="G207" s="13" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="6:9">
@@ -8960,10 +8927,10 @@
         <v>143</v>
       </c>
       <c r="G208" s="13" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="6:9">
@@ -8971,10 +8938,10 @@
         <v>143</v>
       </c>
       <c r="G209" s="13" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="6:9">
@@ -8982,7 +8949,7 @@
         <v>143</v>
       </c>
       <c r="G210" s="13" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="I210">
         <v>1</v>
@@ -8993,10 +8960,10 @@
         <v>143</v>
       </c>
       <c r="G211" s="13" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="6:9">
@@ -9004,7 +8971,7 @@
         <v>143</v>
       </c>
       <c r="G212" s="13" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -9015,7 +8982,7 @@
         <v>143</v>
       </c>
       <c r="G213" s="13" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -9026,10 +8993,10 @@
         <v>143</v>
       </c>
       <c r="G214" s="13" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="6:9">
@@ -9037,10 +9004,10 @@
         <v>143</v>
       </c>
       <c r="G215" s="13" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="6:9">
@@ -9048,7 +9015,7 @@
         <v>143</v>
       </c>
       <c r="G216" s="13" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="I216">
         <v>0</v>
@@ -9059,7 +9026,7 @@
         <v>143</v>
       </c>
       <c r="G217" s="13" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="I217">
         <v>0</v>
@@ -9070,10 +9037,10 @@
         <v>143</v>
       </c>
       <c r="G218" s="13" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="6:9">
@@ -9081,7 +9048,7 @@
         <v>143</v>
       </c>
       <c r="G219" s="13" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="I219">
         <v>0</v>
@@ -9092,7 +9059,7 @@
         <v>143</v>
       </c>
       <c r="G220" s="13" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="I220">
         <v>0</v>
@@ -9103,7 +9070,7 @@
         <v>143</v>
       </c>
       <c r="G221" s="13" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="I221">
         <v>0</v>
@@ -9114,10 +9081,10 @@
         <v>143</v>
       </c>
       <c r="G222" s="13" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="6:9">
@@ -9125,7 +9092,7 @@
         <v>143</v>
       </c>
       <c r="G223" s="13" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="I223">
         <v>0</v>
@@ -9136,7 +9103,7 @@
         <v>143</v>
       </c>
       <c r="G224" s="13" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="I224">
         <v>0</v>
@@ -9147,10 +9114,10 @@
         <v>143</v>
       </c>
       <c r="G225" s="13" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="6:9">
@@ -9158,7 +9125,7 @@
         <v>143</v>
       </c>
       <c r="G226" s="13" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="I226">
         <v>0</v>
@@ -9169,10 +9136,10 @@
         <v>143</v>
       </c>
       <c r="G227" s="13" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="I227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="6:9">
@@ -9180,7 +9147,7 @@
         <v>143</v>
       </c>
       <c r="G228" s="13" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="I228">
         <v>0</v>
@@ -9191,10 +9158,10 @@
         <v>143</v>
       </c>
       <c r="G229" s="13" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="6:9">
@@ -9202,10 +9169,10 @@
         <v>143</v>
       </c>
       <c r="G230" s="13" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="6:9">
@@ -9213,7 +9180,7 @@
         <v>143</v>
       </c>
       <c r="G231" s="13" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="I231">
         <v>1</v>
@@ -9224,10 +9191,10 @@
         <v>143</v>
       </c>
       <c r="G232" s="13" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="I232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="6:9">
@@ -9235,10 +9202,10 @@
         <v>143</v>
       </c>
       <c r="G233" s="13" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="6:9">
@@ -9246,7 +9213,7 @@
         <v>143</v>
       </c>
       <c r="G234" s="13" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="I234">
         <v>1</v>
@@ -9257,18 +9224,18 @@
         <v>143</v>
       </c>
       <c r="G235" s="13" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="6:9">
       <c r="F236" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="G236" s="13" t="s">
-        <v>313</v>
+      <c r="G236" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="I236">
         <v>1</v>
@@ -9276,10 +9243,10 @@
     </row>
     <row r="237" spans="6:9">
       <c r="F237" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G237" s="13" t="s">
-        <v>314</v>
+        <v>144</v>
+      </c>
+      <c r="G237" s="12" t="s">
+        <v>377</v>
       </c>
       <c r="I237">
         <v>1</v>
@@ -9287,10 +9254,10 @@
     </row>
     <row r="238" spans="6:9">
       <c r="F238" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G238" s="13" t="s">
-        <v>315</v>
+        <v>144</v>
+      </c>
+      <c r="G238" s="12" t="s">
+        <v>377</v>
       </c>
       <c r="I238">
         <v>1</v>
@@ -9298,21 +9265,21 @@
     </row>
     <row r="239" spans="6:9">
       <c r="F239" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G239" s="13" t="s">
-        <v>316</v>
+        <v>144</v>
+      </c>
+      <c r="G239" s="12" t="s">
+        <v>264</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="6:9">
       <c r="F240" s="14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G240" s="12" t="s">
-        <v>75</v>
+        <v>268</v>
       </c>
       <c r="I240">
         <v>1</v>
@@ -9323,7 +9290,7 @@
         <v>144</v>
       </c>
       <c r="G241" s="12" t="s">
-        <v>380</v>
+        <v>269</v>
       </c>
       <c r="I241">
         <v>1</v>
@@ -9334,7 +9301,7 @@
         <v>144</v>
       </c>
       <c r="G242" s="12" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I242">
         <v>1</v>
@@ -9345,7 +9312,7 @@
         <v>144</v>
       </c>
       <c r="G243" s="12" t="s">
-        <v>264</v>
+        <v>324</v>
       </c>
       <c r="I243">
         <v>1</v>
@@ -9356,10 +9323,10 @@
         <v>144</v>
       </c>
       <c r="G244" s="12" t="s">
-        <v>268</v>
+        <v>378</v>
       </c>
       <c r="I244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="6:9">
@@ -9367,7 +9334,7 @@
         <v>144</v>
       </c>
       <c r="G245" s="12" t="s">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="I245">
         <v>1</v>
@@ -9375,10 +9342,10 @@
     </row>
     <row r="246" spans="6:9">
       <c r="F246" s="14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G246" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I246">
         <v>1</v>
@@ -9386,10 +9353,10 @@
     </row>
     <row r="247" spans="6:9">
       <c r="F247" s="14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G247" s="12" t="s">
-        <v>327</v>
+        <v>380</v>
       </c>
       <c r="I247">
         <v>1</v>
@@ -9397,24 +9364,24 @@
     </row>
     <row r="248" spans="6:9">
       <c r="F248" s="14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G248" s="12" t="s">
         <v>381</v>
       </c>
       <c r="I248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="6:9">
       <c r="F249" s="14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G249" s="12" t="s">
-        <v>77</v>
+        <v>382</v>
       </c>
       <c r="I249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="6:9">
@@ -9422,10 +9389,10 @@
         <v>145</v>
       </c>
       <c r="G250" s="12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="6:9">
@@ -9433,10 +9400,10 @@
         <v>145</v>
       </c>
       <c r="G251" s="12" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="6:9">
@@ -9444,7 +9411,7 @@
         <v>145</v>
       </c>
       <c r="G252" s="12" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I252">
         <v>1</v>
@@ -9455,10 +9422,10 @@
         <v>145</v>
       </c>
       <c r="G253" s="12" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="6:9">
@@ -9466,10 +9433,13 @@
         <v>145</v>
       </c>
       <c r="G254" s="12" t="s">
-        <v>386</v>
+        <v>372</v>
+      </c>
+      <c r="H254">
+        <v>1</v>
       </c>
       <c r="I254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="6:9">
@@ -9477,10 +9447,10 @@
         <v>145</v>
       </c>
       <c r="G255" s="12" t="s">
-        <v>387</v>
+        <v>268</v>
       </c>
       <c r="I255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="6:9">
@@ -9488,7 +9458,10 @@
         <v>145</v>
       </c>
       <c r="G256" s="12" t="s">
-        <v>388</v>
+        <v>335</v>
+      </c>
+      <c r="H256">
+        <v>1</v>
       </c>
       <c r="I256">
         <v>1</v>
@@ -9499,7 +9472,7 @@
         <v>145</v>
       </c>
       <c r="G257" s="12" t="s">
-        <v>389</v>
+        <v>338</v>
       </c>
       <c r="I257">
         <v>1</v>
@@ -9510,13 +9483,10 @@
         <v>145</v>
       </c>
       <c r="G258" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="H258">
-        <v>1</v>
+        <v>295</v>
       </c>
       <c r="I258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="6:9">
@@ -9524,10 +9494,10 @@
         <v>145</v>
       </c>
       <c r="G259" s="12" t="s">
-        <v>268</v>
+        <v>355</v>
       </c>
       <c r="I259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="6:9">
@@ -9535,10 +9505,7 @@
         <v>145</v>
       </c>
       <c r="G260" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="H260">
-        <v>1</v>
+        <v>324</v>
       </c>
       <c r="I260">
         <v>1</v>
@@ -9549,7 +9516,7 @@
         <v>145</v>
       </c>
       <c r="G261" s="12" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="I261">
         <v>1</v>
@@ -9560,10 +9527,10 @@
         <v>145</v>
       </c>
       <c r="G262" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="6:9">
@@ -9571,10 +9538,10 @@
         <v>145</v>
       </c>
       <c r="G263" s="12" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="I263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="6:9">
@@ -9582,7 +9549,7 @@
         <v>145</v>
       </c>
       <c r="G264" s="12" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="I264">
         <v>1</v>
@@ -9593,282 +9560,282 @@
         <v>145</v>
       </c>
       <c r="G265" s="12" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="I265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="6:9">
       <c r="F266" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="G266" s="12" t="s">
-        <v>293</v>
+      <c r="G266" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="I266">
         <v>1</v>
       </c>
     </row>
     <row r="267" spans="6:9">
-      <c r="F267" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="G267" s="12" t="s">
-        <v>379</v>
+      <c r="F267" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G267" s="11" t="s">
+        <v>388</v>
       </c>
       <c r="I267">
         <v>1</v>
       </c>
     </row>
     <row r="268" spans="6:9">
-      <c r="F268" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="G268" s="12" t="s">
-        <v>337</v>
+      <c r="F268" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G268" s="11" t="s">
+        <v>389</v>
       </c>
       <c r="I268">
         <v>1</v>
       </c>
     </row>
     <row r="269" spans="6:9">
-      <c r="F269" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="G269" s="12" t="s">
+      <c r="F269" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G269" s="11" t="s">
         <v>390</v>
       </c>
       <c r="I269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="6:9">
-      <c r="F270" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="G270" s="14" t="s">
-        <v>80</v>
+      <c r="F270" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G270" s="11" t="s">
+        <v>391</v>
       </c>
       <c r="I270">
         <v>1</v>
       </c>
     </row>
     <row r="271" spans="6:9">
-      <c r="F271" t="s">
-        <v>149</v>
-      </c>
-      <c r="G271" s="12" t="s">
-        <v>391</v>
+      <c r="F271" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G271" s="13" t="s">
+        <v>392</v>
       </c>
       <c r="I271">
         <v>1</v>
       </c>
     </row>
     <row r="272" spans="6:9">
-      <c r="F272" t="s">
-        <v>149</v>
-      </c>
-      <c r="G272" s="12" t="s">
+      <c r="F272" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G272" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="6:9">
+      <c r="F273" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G273" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="I272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="6:9">
-      <c r="F273" t="s">
-        <v>149</v>
-      </c>
-      <c r="G273" s="12" t="s">
+      <c r="I273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="6:9">
+      <c r="F274" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G274" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="I273">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="6:9">
-      <c r="F274" t="s">
-        <v>149</v>
-      </c>
-      <c r="G274" s="12" t="s">
-        <v>391</v>
-      </c>
       <c r="I274">
         <v>0</v>
       </c>
     </row>
     <row r="275" spans="6:9">
-      <c r="F275" t="s">
-        <v>149</v>
-      </c>
-      <c r="G275" s="12" t="s">
+      <c r="F275" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G275" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="6:9">
+      <c r="F276" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G276" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="I275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="6:9">
-      <c r="F276" t="s">
-        <v>149</v>
-      </c>
-      <c r="G276" s="12" t="s">
+      <c r="I276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="6:9">
+      <c r="F277" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G277" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="6:9">
+      <c r="F278" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G278" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="I276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="6:9">
-      <c r="F277" t="s">
-        <v>149</v>
-      </c>
-      <c r="G277" s="12" t="s">
+      <c r="I278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="6:9">
+      <c r="F279" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G279" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="6:9">
+      <c r="F280" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G280" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="I277">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="6:9">
-      <c r="F278" t="s">
-        <v>149</v>
-      </c>
-      <c r="G278" s="12" t="s">
+      <c r="I280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="6:9">
+      <c r="F281" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G281" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="6:9">
+      <c r="F282" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G282" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="I278">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="6:9">
-      <c r="F279" t="s">
-        <v>149</v>
-      </c>
-      <c r="G279" s="12" t="s">
+      <c r="I282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="6:9">
+      <c r="F283" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G283" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="I279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="6:9">
-      <c r="F280" t="s">
-        <v>149</v>
-      </c>
-      <c r="G280" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="I280">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="6:9">
-      <c r="F281" t="s">
-        <v>149</v>
-      </c>
-      <c r="G281" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="I281">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="6:9">
-      <c r="F282" t="s">
-        <v>149</v>
-      </c>
-      <c r="G282" t="s">
-        <v>87</v>
-      </c>
-      <c r="I282">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="6:9">
-      <c r="F283" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="G283" s="11" t="s">
+      <c r="I283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="6:9">
+      <c r="F284" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G284" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="I283">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="6:9">
-      <c r="F284" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="G284" s="11" t="s">
+      <c r="I284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="6:9">
+      <c r="F285" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G285" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="I284">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="6:9">
-      <c r="F285" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="G285" s="11" t="s">
-        <v>401</v>
-      </c>
       <c r="I285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="6:9">
-      <c r="F286" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="G286" s="11" t="s">
-        <v>402</v>
+      <c r="F286" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G286" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="I286">
         <v>1</v>
       </c>
     </row>
     <row r="287" spans="6:9">
-      <c r="F287" s="14" t="s">
-        <v>151</v>
+      <c r="F287" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="G287" s="13" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="I287">
         <v>1</v>
       </c>
     </row>
     <row r="288" spans="6:9">
-      <c r="F288" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="G288" s="14" t="s">
-        <v>93</v>
+      <c r="F288" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G288" s="13" t="s">
+        <v>398</v>
       </c>
       <c r="I288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="6:9">
       <c r="F289" s="10" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G289" s="13" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="6:9">
       <c r="F290" s="10" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G290" s="13" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="I290">
         <v>0</v>
@@ -9876,21 +9843,21 @@
     </row>
     <row r="291" spans="6:9">
       <c r="F291" s="10" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G291" s="13" t="s">
-        <v>95</v>
+        <v>400</v>
       </c>
       <c r="I291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="6:9">
       <c r="F292" s="10" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G292" s="13" t="s">
-        <v>405</v>
+        <v>107</v>
       </c>
       <c r="I292">
         <v>1</v>
@@ -9898,287 +9865,111 @@
     </row>
     <row r="293" spans="6:9">
       <c r="F293" s="10" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G293" s="13" t="s">
-        <v>97</v>
+        <v>402</v>
       </c>
       <c r="I293">
         <v>1</v>
       </c>
     </row>
     <row r="294" spans="6:9">
-      <c r="F294" s="14" t="s">
-        <v>154</v>
+      <c r="F294" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="G294" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="6:9">
+      <c r="F295" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G295" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="6:9">
+      <c r="F296" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G296" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="6:9">
+      <c r="F297" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G297" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="6:9">
+      <c r="F298" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G298" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="I294">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="6:9">
-      <c r="F295" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="G295" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="I295">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="6:9">
-      <c r="F296" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G296" s="13" t="s">
+      <c r="I298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="6:9">
+      <c r="F299" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G299" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="I296">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="6:9">
-      <c r="F297" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G297" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="I297">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="6:9">
-      <c r="F298" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G298" s="13" t="s">
+      <c r="I299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="6:9">
+      <c r="F300" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G300" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="I298">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="6:9">
-      <c r="F299" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G299" s="13" t="s">
+      <c r="I300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="6:9">
+      <c r="F301" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G301" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="I299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="6:9">
-      <c r="F300" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G300" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="I300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="6:9">
-      <c r="F301" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G301" s="13" t="s">
-        <v>411</v>
-      </c>
       <c r="I301">
         <v>0</v>
       </c>
     </row>
     <row r="302" spans="6:9">
-      <c r="F302" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G302" s="13" t="s">
-        <v>104</v>
+      <c r="F302" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G302" t="s">
+        <v>113</v>
       </c>
       <c r="I302">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="6:9">
-      <c r="F303" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="G303" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="I303">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="6:9">
-      <c r="F304" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="G304" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="I304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="6:9">
-      <c r="F305" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="G305" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="I305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="6:9">
-      <c r="F306" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="G306" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="I306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="6:9">
-      <c r="F307" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="G307" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="I307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="6:9">
-      <c r="F308" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="G308" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="I308">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="6:9">
-      <c r="F309" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="G309" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="I309">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="6:9">
-      <c r="F310" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="G310" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="I310">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="6:9">
-      <c r="F311" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="G311" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="I311">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="6:9">
-      <c r="F312" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="G312" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="I312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="6:9">
-      <c r="F313" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="G313" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="I313">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="6:9">
-      <c r="F314" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="G314" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="I314">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="6:9">
-      <c r="F315" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="G315" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="I315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="6:9">
-      <c r="F316" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="G316" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="I316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="6:9">
-      <c r="F317" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="G317" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="I317">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="6:9">
-      <c r="F318" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="G318" t="s">
-        <v>113</v>
-      </c>
-      <c r="I318">
         <v>1</v>
       </c>
     </row>
@@ -10212,13 +10003,13 @@
   <sheetData>
     <row r="7" ht="13.95" customHeight="1" spans="4:8">
       <c r="D7" s="5" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>260</v>
@@ -10231,7 +10022,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>12</v>
@@ -10241,7 +10032,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>21</v>
@@ -10251,7 +10042,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>24</v>
@@ -10261,7 +10052,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>27</v>
@@ -10271,7 +10062,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>33</v>
@@ -10281,7 +10072,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>36</v>
@@ -10291,7 +10082,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>39</v>
@@ -10301,7 +10092,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>42</v>
@@ -10311,7 +10102,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>45</v>
@@ -10321,7 +10112,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>48</v>
@@ -10331,7 +10122,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>75</v>
@@ -10341,7 +10132,7 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>77</v>
@@ -10351,7 +10142,7 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>80</v>
@@ -10361,7 +10152,7 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>83</v>
@@ -10371,7 +10162,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>85</v>
@@ -10381,7 +10172,7 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>90</v>
@@ -10389,7 +10180,7 @@
     </row>
     <row r="24" spans="6:7">
       <c r="F24" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>12</v>
@@ -10397,7 +10188,7 @@
     </row>
     <row r="25" spans="6:7">
       <c r="F25" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>18</v>
@@ -10405,7 +10196,7 @@
     </row>
     <row r="26" spans="6:7">
       <c r="F26" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>21</v>
@@ -10413,7 +10204,7 @@
     </row>
     <row r="27" spans="6:7">
       <c r="F27" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>24</v>
@@ -10421,7 +10212,7 @@
     </row>
     <row r="28" spans="6:7">
       <c r="F28" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>27</v>
@@ -10429,7 +10220,7 @@
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>30</v>
@@ -10437,7 +10228,7 @@
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>33</v>
@@ -10445,7 +10236,7 @@
     </row>
     <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>36</v>
@@ -10453,7 +10244,7 @@
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>39</v>
@@ -10461,7 +10252,7 @@
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>42</v>
@@ -10469,7 +10260,7 @@
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>45</v>
@@ -10477,7 +10268,7 @@
     </row>
     <row r="35" spans="6:7">
       <c r="F35" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>48</v>
@@ -10485,7 +10276,7 @@
     </row>
     <row r="36" spans="6:7">
       <c r="F36" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>51</v>
@@ -10493,7 +10284,7 @@
     </row>
     <row r="37" spans="6:7">
       <c r="F37" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>54</v>
@@ -10501,7 +10292,7 @@
     </row>
     <row r="38" spans="6:7">
       <c r="F38" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>57</v>
@@ -10509,7 +10300,7 @@
     </row>
     <row r="39" spans="6:7">
       <c r="F39" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>60</v>
@@ -10517,7 +10308,7 @@
     </row>
     <row r="40" spans="6:7">
       <c r="F40" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>63</v>
@@ -10525,7 +10316,7 @@
     </row>
     <row r="41" spans="6:7">
       <c r="F41" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>66</v>
@@ -10533,7 +10324,7 @@
     </row>
     <row r="42" spans="6:7">
       <c r="F42" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>69</v>
@@ -10541,7 +10332,7 @@
     </row>
     <row r="43" spans="6:7">
       <c r="F43" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>72</v>
@@ -10549,7 +10340,7 @@
     </row>
     <row r="44" spans="6:7">
       <c r="F44" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>75</v>
@@ -10557,7 +10348,7 @@
     </row>
     <row r="45" spans="6:7">
       <c r="F45" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>77</v>
@@ -10565,7 +10356,7 @@
     </row>
     <row r="46" spans="6:7">
       <c r="F46" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>80</v>
@@ -10573,7 +10364,7 @@
     </row>
     <row r="47" spans="6:7">
       <c r="F47" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>83</v>
@@ -10581,7 +10372,7 @@
     </row>
     <row r="48" spans="6:7">
       <c r="F48" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>85</v>
@@ -10589,7 +10380,7 @@
     </row>
     <row r="49" spans="6:7">
       <c r="F49" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>87</v>
@@ -10597,7 +10388,7 @@
     </row>
     <row r="50" spans="6:7">
       <c r="F50" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>90</v>
@@ -10605,7 +10396,7 @@
     </row>
     <row r="51" spans="6:7">
       <c r="F51" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>93</v>
@@ -10613,7 +10404,7 @@
     </row>
     <row r="52" spans="6:7">
       <c r="F52" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="G52" s="10" t="s">
         <v>95</v>
@@ -10621,7 +10412,7 @@
     </row>
     <row r="53" spans="6:7">
       <c r="F53" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>97</v>
@@ -10629,7 +10420,7 @@
     </row>
     <row r="54" spans="6:7">
       <c r="F54" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="G54" s="10" t="s">
         <v>98</v>
@@ -10637,7 +10428,7 @@
     </row>
     <row r="55" spans="6:7">
       <c r="F55" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>101</v>
@@ -10645,7 +10436,7 @@
     </row>
     <row r="56" spans="6:7">
       <c r="F56" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>104</v>
@@ -10653,7 +10444,7 @@
     </row>
     <row r="57" spans="6:7">
       <c r="F57" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>107</v>
@@ -10661,7 +10452,7 @@
     </row>
     <row r="58" spans="6:7">
       <c r="F58" s="11" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>110</v>
@@ -10669,7 +10460,7 @@
     </row>
     <row r="59" spans="6:7">
       <c r="F59" s="11" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>113</v>
@@ -10709,7 +10500,7 @@
   <sheetData>
     <row r="7" spans="4:18">
       <c r="D7" s="3" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1</v>
@@ -10718,7 +10509,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>166</v>
@@ -10727,13 +10518,13 @@
         <v>167</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>6</v>
@@ -10745,33 +10536,33 @@
         <v>173</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="5:17">
       <c r="E8" s="3" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>189</v>
@@ -10780,10 +10571,10 @@
         <v>15</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="O8" s="3">
         <v>1</v>
@@ -10797,22 +10588,22 @@
     </row>
     <row r="9" spans="5:17">
       <c r="E9" s="3" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>189</v>
@@ -10821,10 +10612,10 @@
         <v>15</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="O9" s="3">
         <v>2</v>
@@ -10838,22 +10629,22 @@
     </row>
     <row r="10" spans="5:17">
       <c r="E10" s="3" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>189</v>
@@ -10862,7 +10653,7 @@
         <v>15</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>200</v>
@@ -10879,22 +10670,22 @@
     </row>
     <row r="11" spans="5:17">
       <c r="E11" s="3" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>189</v>
@@ -10903,10 +10694,10 @@
         <v>15</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="O11" s="3">
         <v>4</v>
@@ -10920,22 +10711,22 @@
     </row>
     <row r="12" spans="5:17">
       <c r="E12" s="3" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>189</v>
@@ -10944,10 +10735,10 @@
         <v>15</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="O12" s="3">
         <v>5</v>
@@ -10961,22 +10752,22 @@
     </row>
     <row r="13" spans="5:18">
       <c r="E13" s="3" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>189</v>
@@ -10985,10 +10776,10 @@
         <v>15</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="O13" s="3">
         <v>6</v>
@@ -11000,27 +10791,27 @@
         <v>1</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="5:18">
       <c r="E14" s="3" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>189</v>
@@ -11029,10 +10820,10 @@
         <v>15</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="O14" s="3">
         <v>7</v>
@@ -11044,7 +10835,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -11074,45 +10865,45 @@
   <sheetData>
     <row r="7" spans="4:11">
       <c r="D7" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>172</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="6:11">
       <c r="F8" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="J8" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="K8">
         <v>10</v>
@@ -11120,19 +10911,19 @@
     </row>
     <row r="9" spans="6:11">
       <c r="F9" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="J9" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="K9">
         <v>20</v>
@@ -11140,19 +10931,19 @@
     </row>
     <row r="10" spans="6:11">
       <c r="F10" t="s">
+        <v>450</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="J10" t="s">
         <v>461</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="J10" t="s">
-        <v>472</v>
       </c>
       <c r="K10">
         <v>30</v>
@@ -11160,19 +10951,19 @@
     </row>
     <row r="11" spans="6:11">
       <c r="F11" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="J11" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="K11">
         <v>40</v>
@@ -11180,19 +10971,19 @@
     </row>
     <row r="12" spans="6:11">
       <c r="F12" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="J12" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="K12">
         <v>50</v>
@@ -11200,19 +10991,19 @@
     </row>
     <row r="13" spans="6:11">
       <c r="F13" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="G13" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="J13" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="K13">
         <v>60</v>
@@ -11220,19 +11011,19 @@
     </row>
     <row r="14" spans="6:11">
       <c r="F14" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="G14" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="J14" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="K14">
         <v>70</v>
@@ -11240,19 +11031,19 @@
     </row>
     <row r="15" spans="6:11">
       <c r="F15" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="G15" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="J15" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="K15">
         <v>80</v>
@@ -11260,19 +11051,19 @@
     </row>
     <row r="16" spans="6:11">
       <c r="F16" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="G16" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="J16" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="K16">
         <v>90</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="1000" activeTab="3"/>
+    <workbookView windowWidth="21450" windowHeight="12285" tabRatio="1000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,14 @@
     <sheet name="FD_REPORT" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">IAM_MENU_PERMISSION!$I$1:$I$302</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">IAM_MENU_PERMISSION!$I$1:$I$310</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="494">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -844,6 +844,30 @@
     <t>agile-service.board.move</t>
   </si>
   <si>
+    <t>agile-service.board-column.createBoardColumn</t>
+  </si>
+  <si>
+    <t>agile-service.issue-status.createStatus</t>
+  </si>
+  <si>
+    <t>agile-service.issue-status.updateStatus</t>
+  </si>
+  <si>
+    <t>agile-service.issue-status.deleteStatus</t>
+  </si>
+  <si>
+    <t>agile-service.board-column.columnSortByProgram</t>
+  </si>
+  <si>
+    <t>agile-service.issue-status.moveStatusToColumn</t>
+  </si>
+  <si>
+    <t>agile-service.project-info.updateProjectInfo</t>
+  </si>
+  <si>
+    <t>agile-service.board.deleteScrumBoard</t>
+  </si>
+  <si>
     <t>agile-service.scheme.queryIssueTypesWithStateMachineIdByProjectId</t>
   </si>
   <si>
@@ -1518,9 +1542,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
@@ -1606,16 +1630,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1627,7 +1659,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1649,14 +1695,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1666,7 +1704,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1677,6 +1715,37 @@
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1697,7 +1766,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1710,51 +1779,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1765,19 +1789,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1789,13 +1819,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1813,7 +1861,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1825,127 +1957,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1961,11 +1985,59 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1994,21 +2066,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2023,184 +2080,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6658,10 +6682,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:I302"/>
+  <dimension ref="D7:I310"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" topLeftCell="D274" workbookViewId="0">
-      <selection activeCell="G301" sqref="G301"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="G8" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -6758,58 +6782,58 @@
         <v>267</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="6:9">
       <c r="F14" t="s">
         <v>121</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" t="s">
         <v>268</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="6:9">
       <c r="F15" t="s">
         <v>121</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" t="s">
         <v>269</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="6:9">
       <c r="F16" t="s">
         <v>121</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" t="s">
         <v>270</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="6:9">
       <c r="F17" t="s">
         <v>121</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" t="s">
         <v>271</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="6:9">
       <c r="F18" t="s">
         <v>121</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" t="s">
         <v>272</v>
       </c>
       <c r="I18">
@@ -6820,39 +6844,33 @@
       <c r="F19" t="s">
         <v>121</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" t="s">
         <v>273</v>
       </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="6:9">
       <c r="F20" t="s">
         <v>121</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" t="s">
         <v>274</v>
       </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="6:9">
       <c r="F21" t="s">
         <v>121</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" t="s">
         <v>275</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="6:9">
@@ -6863,7 +6881,7 @@
         <v>276</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="6:9">
@@ -6874,7 +6892,7 @@
         <v>277</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="6:9">
@@ -6915,7 +6933,10 @@
         <v>121</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>268</v>
+        <v>281</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -6926,7 +6947,10 @@
         <v>121</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>281</v>
+        <v>282</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -6937,7 +6961,7 @@
         <v>121</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -6948,7 +6972,7 @@
         <v>121</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -6959,7 +6983,7 @@
         <v>121</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -6970,7 +6994,7 @@
         <v>121</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -6981,7 +7005,7 @@
         <v>121</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -6992,7 +7016,7 @@
         <v>121</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -7003,7 +7027,7 @@
         <v>121</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -7039,7 +7063,7 @@
         <v>291</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="6:9">
@@ -7050,7 +7074,7 @@
         <v>292</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="6:9">
@@ -7072,7 +7096,7 @@
         <v>294</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="6:9">
@@ -7083,7 +7107,7 @@
         <v>295</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="6:9">
@@ -7094,7 +7118,7 @@
         <v>296</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="6:9">
@@ -7105,7 +7129,7 @@
         <v>297</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="6:9">
@@ -7116,7 +7140,7 @@
         <v>298</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="6:9">
@@ -7127,7 +7151,7 @@
         <v>299</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="6:9">
@@ -7149,7 +7173,7 @@
         <v>301</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="6:9">
@@ -7160,7 +7184,7 @@
         <v>302</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="6:9">
@@ -7182,7 +7206,7 @@
         <v>304</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="6:9">
@@ -7193,7 +7217,7 @@
         <v>305</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="6:9">
@@ -7204,7 +7228,7 @@
         <v>306</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="6:9">
@@ -7215,7 +7239,7 @@
         <v>307</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="6:9">
@@ -7226,7 +7250,7 @@
         <v>308</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="6:9">
@@ -7248,7 +7272,7 @@
         <v>310</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="6:9">
@@ -7259,7 +7283,7 @@
         <v>311</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="6:9">
@@ -7267,7 +7291,7 @@
         <v>121</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -7278,10 +7302,10 @@
         <v>121</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="6:9">
@@ -7289,7 +7313,7 @@
         <v>121</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -7300,7 +7324,7 @@
         <v>121</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -7311,7 +7335,7 @@
         <v>121</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -7322,10 +7346,10 @@
         <v>121</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="6:9">
@@ -7333,7 +7357,7 @@
         <v>121</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -7341,10 +7365,10 @@
     </row>
     <row r="66" spans="6:9">
       <c r="F66" t="s">
-        <v>124</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>317</v>
+        <v>121</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>319</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -7352,10 +7376,10 @@
     </row>
     <row r="67" spans="6:9">
       <c r="F67" t="s">
-        <v>124</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>318</v>
+        <v>121</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>289</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -7363,10 +7387,10 @@
     </row>
     <row r="68" spans="6:9">
       <c r="F68" t="s">
-        <v>124</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>319</v>
+        <v>121</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>320</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -7374,123 +7398,120 @@
     </row>
     <row r="69" spans="6:9">
       <c r="F69" t="s">
-        <v>124</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>320</v>
+        <v>121</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>321</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="6:9">
       <c r="F70" t="s">
-        <v>124</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>295</v>
+        <v>121</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>322</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="6:9">
       <c r="F71" t="s">
+        <v>121</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="6:9">
+      <c r="F72" t="s">
+        <v>121</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="6:9">
+      <c r="F73" t="s">
+        <v>121</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="6:9">
+      <c r="F74" t="s">
         <v>124</v>
       </c>
-      <c r="G71" s="13" t="s">
+      <c r="G74" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="6:9">
+      <c r="F75" t="s">
+        <v>124</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="6:9">
+      <c r="F76" t="s">
+        <v>124</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="6:9">
+      <c r="F77" t="s">
+        <v>124</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="6:9">
+      <c r="F78" t="s">
+        <v>124</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="6:9">
+      <c r="F79" t="s">
+        <v>124</v>
+      </c>
+      <c r="G79" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="6:9">
-      <c r="F72" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G72" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="6:9">
-      <c r="F73" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="6:9">
-      <c r="F74" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="6:9">
-      <c r="F75" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G75" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="6:9">
-      <c r="F76" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G76" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="I76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="6:9">
-      <c r="F77" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="6:9">
-      <c r="F78" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G78" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="I78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="6:9">
-      <c r="F79" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G79" s="13" t="s">
-        <v>262</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -7501,10 +7522,10 @@
         <v>125</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="6:9">
@@ -7512,10 +7533,10 @@
         <v>125</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="6:9">
@@ -7523,7 +7544,7 @@
         <v>125</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -7534,7 +7555,7 @@
         <v>125</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -7545,7 +7566,7 @@
         <v>125</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -7556,7 +7577,10 @@
         <v>125</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>282</v>
+        <v>331</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -7567,7 +7591,7 @@
         <v>125</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -7578,10 +7602,10 @@
         <v>125</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="6:9">
@@ -7589,10 +7613,7 @@
         <v>125</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="H88">
-        <v>1</v>
+        <v>326</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -7603,7 +7624,7 @@
         <v>125</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -7614,7 +7635,7 @@
         <v>125</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>285</v>
+        <v>332</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -7625,7 +7646,7 @@
         <v>125</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -7636,7 +7657,7 @@
         <v>125</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -7647,7 +7668,7 @@
         <v>125</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -7658,10 +7679,10 @@
         <v>125</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="6:9">
@@ -7669,7 +7690,7 @@
         <v>125</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -7680,7 +7701,10 @@
         <v>125</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>331</v>
+        <v>335</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -7691,21 +7715,21 @@
         <v>125</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="I97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" ht="13.2" customHeight="1" spans="6:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="6:9">
       <c r="F98" s="6" t="s">
         <v>125</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="6:9">
@@ -7713,7 +7737,7 @@
         <v>125</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>24</v>
+        <v>336</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -7721,10 +7745,10 @@
     </row>
     <row r="100" spans="6:9">
       <c r="F100" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -7732,13 +7756,10 @@
     </row>
     <row r="101" spans="6:9">
       <c r="F101" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="H101">
-        <v>1</v>
+        <v>337</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -7746,10 +7767,10 @@
     </row>
     <row r="102" spans="6:9">
       <c r="F102" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -7757,10 +7778,10 @@
     </row>
     <row r="103" spans="6:9">
       <c r="F103" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -7768,10 +7789,10 @@
     </row>
     <row r="104" spans="6:9">
       <c r="F104" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -7779,32 +7800,32 @@
     </row>
     <row r="105" spans="6:9">
       <c r="F105" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="I105">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="6:9">
+    <row r="106" ht="13.2" customHeight="1" spans="6:9">
       <c r="F106" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>285</v>
+        <v>341</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="6:9">
       <c r="F107" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>325</v>
+        <v>24</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -7815,7 +7836,7 @@
         <v>126</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -7826,7 +7847,10 @@
         <v>126</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>318</v>
+        <v>343</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
       </c>
       <c r="I109">
         <v>1</v>
@@ -7837,7 +7861,7 @@
         <v>126</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -7848,7 +7872,7 @@
         <v>126</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>262</v>
+        <v>344</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -7859,7 +7883,7 @@
         <v>126</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -7870,7 +7894,7 @@
         <v>126</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>268</v>
+        <v>325</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -7881,7 +7905,7 @@
         <v>126</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -7892,7 +7916,7 @@
         <v>126</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>263</v>
+        <v>333</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -7903,10 +7927,10 @@
         <v>126</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="6:9">
@@ -7914,7 +7938,7 @@
         <v>126</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -7925,10 +7949,10 @@
         <v>126</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="6:9">
@@ -7936,10 +7960,10 @@
         <v>126</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>342</v>
+        <v>262</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="6:9">
@@ -7947,7 +7971,7 @@
         <v>126</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -7958,10 +7982,10 @@
         <v>126</v>
       </c>
       <c r="G121" s="13" t="s">
-        <v>344</v>
+        <v>276</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="6:9">
@@ -7969,10 +7993,10 @@
         <v>126</v>
       </c>
       <c r="G122" s="13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="6:9">
@@ -7980,10 +8004,10 @@
         <v>126</v>
       </c>
       <c r="G123" s="13" t="s">
-        <v>346</v>
+        <v>263</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="6:9">
@@ -7991,7 +8015,7 @@
         <v>126</v>
       </c>
       <c r="G124" s="13" t="s">
-        <v>27</v>
+        <v>347</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -7999,10 +8023,10 @@
     </row>
     <row r="125" spans="6:9">
       <c r="F125" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G125" s="13" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I125">
         <v>1</v>
@@ -8010,79 +8034,79 @@
     </row>
     <row r="126" spans="6:9">
       <c r="F126" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="6:9">
       <c r="F127" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G127" s="13" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="6:9">
       <c r="F128" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="6:9">
       <c r="F129" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G129" s="13" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="6:9">
       <c r="F130" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="6:9">
       <c r="F131" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G131" s="13" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="6:9">
       <c r="F132" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>320</v>
+        <v>27</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="6:9">
@@ -8090,10 +8114,10 @@
         <v>127</v>
       </c>
       <c r="G133" s="13" t="s">
-        <v>352</v>
+        <v>30</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="6:9">
@@ -8101,7 +8125,7 @@
         <v>127</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="I134">
         <v>1</v>
@@ -8112,7 +8136,7 @@
         <v>127</v>
       </c>
       <c r="G135" s="13" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -8123,98 +8147,98 @@
         <v>127</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="6:9">
-      <c r="F137" t="s">
-        <v>128</v>
+      <c r="F137" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="G137" s="13" t="s">
-        <v>268</v>
+        <v>358</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="6:9">
-      <c r="F138" t="s">
-        <v>128</v>
+      <c r="F138" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="6:9">
-      <c r="F139" t="s">
-        <v>128</v>
+      <c r="F139" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="G139" s="13" t="s">
-        <v>282</v>
+        <v>341</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="6:9">
-      <c r="F140" t="s">
-        <v>128</v>
+      <c r="F140" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="6:9">
-      <c r="F141" t="s">
-        <v>128</v>
+      <c r="F141" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="G141" s="13" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="6:9">
-      <c r="F142" t="s">
-        <v>128</v>
+      <c r="F142" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="6:9">
-      <c r="F143" t="s">
-        <v>128</v>
+      <c r="F143" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="G143" s="13" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="6:9">
-      <c r="F144" t="s">
-        <v>128</v>
+      <c r="F144" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="6:9">
@@ -8222,7 +8246,7 @@
         <v>128</v>
       </c>
       <c r="G145" s="13" t="s">
-        <v>357</v>
+        <v>276</v>
       </c>
       <c r="I145">
         <v>1</v>
@@ -8233,95 +8257,95 @@
         <v>128</v>
       </c>
       <c r="G146" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="6:9">
+      <c r="F147" t="s">
+        <v>128</v>
+      </c>
+      <c r="G147" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="6:9">
+      <c r="F148" t="s">
+        <v>128</v>
+      </c>
+      <c r="G148" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="6:9">
+      <c r="F149" t="s">
+        <v>128</v>
+      </c>
+      <c r="G149" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="6:9">
+      <c r="F150" t="s">
+        <v>128</v>
+      </c>
+      <c r="G150" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="6:9">
+      <c r="F151" t="s">
+        <v>128</v>
+      </c>
+      <c r="G151" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="6:9">
+      <c r="F152" t="s">
+        <v>128</v>
+      </c>
+      <c r="G152" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="6:9">
+      <c r="F153" t="s">
+        <v>128</v>
+      </c>
+      <c r="G153" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="6:9">
+      <c r="F154" t="s">
+        <v>128</v>
+      </c>
+      <c r="G154" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="I146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="6:9">
-      <c r="F147" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="G147" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="I147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="6:9">
-      <c r="F148" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="G148" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="6:9">
-      <c r="F149" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G149" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="I149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="6:9">
-      <c r="F150" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G150" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="6:9">
-      <c r="F151" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G151" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="6:9">
-      <c r="F152" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G152" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="I152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="6:9">
-      <c r="F153" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G153" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="6:9">
-      <c r="F154" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G154" s="13" t="s">
-        <v>288</v>
       </c>
       <c r="I154">
         <v>1</v>
@@ -8329,43 +8353,43 @@
     </row>
     <row r="155" spans="6:9">
       <c r="F155" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G155" s="13" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="6:9">
       <c r="F156" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G156" s="13" t="s">
-        <v>362</v>
+        <v>51</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="6:9">
-      <c r="F157" s="14" t="s">
-        <v>137</v>
+      <c r="F157" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="G157" s="13" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="6:9">
-      <c r="F158" s="14" t="s">
-        <v>137</v>
+      <c r="F158" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="G158" s="13" t="s">
-        <v>60</v>
+        <v>367</v>
       </c>
       <c r="I158">
         <v>1</v>
@@ -8373,10 +8397,10 @@
     </row>
     <row r="159" spans="6:9">
       <c r="F159" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G159" s="13" t="s">
-        <v>288</v>
+        <v>54</v>
       </c>
       <c r="I159">
         <v>1</v>
@@ -8384,87 +8408,87 @@
     </row>
     <row r="160" spans="6:9">
       <c r="F160" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="6:9">
       <c r="F161" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G161" s="13" t="s">
-        <v>362</v>
+        <v>57</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="6:9">
-      <c r="F162" s="9" t="s">
-        <v>138</v>
+      <c r="F162" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="G162" s="13" t="s">
-        <v>363</v>
+        <v>296</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="6:9">
-      <c r="F163" s="9" t="s">
-        <v>138</v>
+      <c r="F163" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="G163" s="13" t="s">
-        <v>63</v>
+        <v>369</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="6:9">
-      <c r="F164" s="9" t="s">
-        <v>139</v>
+      <c r="F164" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="G164" s="13" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="6:9">
-      <c r="F165" s="9" t="s">
-        <v>139</v>
+      <c r="F165" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="G165" s="13" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="6:9">
-      <c r="F166" s="9" t="s">
-        <v>139</v>
+      <c r="F166" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="G166" s="13" t="s">
-        <v>366</v>
+        <v>60</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="6:9">
       <c r="F167" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G167" s="13" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="I167">
         <v>1</v>
@@ -8472,21 +8496,21 @@
     </row>
     <row r="168" spans="6:9">
       <c r="F168" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G168" s="13" t="s">
-        <v>66</v>
+        <v>369</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="6:9">
       <c r="F169" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G169" s="13" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I169">
         <v>1</v>
@@ -8494,10 +8518,10 @@
     </row>
     <row r="170" spans="6:9">
       <c r="F170" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G170" s="13" t="s">
-        <v>69</v>
+        <v>371</v>
       </c>
       <c r="I170">
         <v>1</v>
@@ -8505,10 +8529,10 @@
     </row>
     <row r="171" spans="6:9">
       <c r="F171" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G171" s="13" t="s">
-        <v>328</v>
+        <v>63</v>
       </c>
       <c r="I171">
         <v>1</v>
@@ -8516,137 +8540,131 @@
     </row>
     <row r="172" spans="6:9">
       <c r="F172" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G172" s="13" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="6:9">
       <c r="F173" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G173" s="13" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="6:9">
       <c r="F174" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G174" s="13" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="6:9">
       <c r="F175" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G175" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="6:9">
+      <c r="F176" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G176" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="6:9">
+      <c r="F177" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G177" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="6:9">
+      <c r="F178" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G178" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="6:9">
+      <c r="F179" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G175" s="13" t="s">
+      <c r="G179" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="6:9">
+      <c r="F180" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G180" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="6:9">
+      <c r="F181" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G181" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="6:9">
+      <c r="F182" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G182" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="6:9">
+      <c r="F183" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G183" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="I175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="6:9">
-      <c r="F176" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G176" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="I176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="6:9">
-      <c r="F177" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G177" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="H177">
-        <v>1</v>
-      </c>
-      <c r="I177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="6:9">
-      <c r="F178" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G178" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="I178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="6:9">
-      <c r="F179" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G179" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="H179">
-        <v>1</v>
-      </c>
-      <c r="I179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="6:9">
-      <c r="F180" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G180" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="I180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="6:9">
-      <c r="F181" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G181" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="I181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="6:9">
-      <c r="F182" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G182" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="I182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="6:9">
-      <c r="F183" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G183" s="13" t="s">
-        <v>375</v>
       </c>
       <c r="I183">
         <v>1</v>
@@ -8657,7 +8675,7 @@
         <v>143</v>
       </c>
       <c r="G184" s="13" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I184">
         <v>1</v>
@@ -8668,7 +8686,10 @@
         <v>143</v>
       </c>
       <c r="G185" s="13" t="s">
-        <v>334</v>
+        <v>380</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
       </c>
       <c r="I185">
         <v>1</v>
@@ -8679,7 +8700,7 @@
         <v>143</v>
       </c>
       <c r="G186" s="13" t="s">
-        <v>343</v>
+        <v>276</v>
       </c>
       <c r="I186">
         <v>1</v>
@@ -8690,10 +8711,13 @@
         <v>143</v>
       </c>
       <c r="G187" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
+      </c>
+      <c r="H187">
+        <v>1</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="6:9">
@@ -8701,10 +8725,10 @@
         <v>143</v>
       </c>
       <c r="G188" s="13" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="6:9">
@@ -8715,7 +8739,7 @@
         <v>346</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="6:9">
@@ -8723,10 +8747,7 @@
         <v>143</v>
       </c>
       <c r="G190" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="H190">
-        <v>1</v>
+        <v>382</v>
       </c>
       <c r="I190">
         <v>1</v>
@@ -8737,10 +8758,7 @@
         <v>143</v>
       </c>
       <c r="G191" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="H191">
-        <v>1</v>
+        <v>383</v>
       </c>
       <c r="I191">
         <v>1</v>
@@ -8751,7 +8769,7 @@
         <v>143</v>
       </c>
       <c r="G192" s="13" t="s">
-        <v>275</v>
+        <v>384</v>
       </c>
       <c r="I192">
         <v>1</v>
@@ -8762,10 +8780,10 @@
         <v>143</v>
       </c>
       <c r="G193" s="13" t="s">
-        <v>276</v>
+        <v>342</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="6:9">
@@ -8773,10 +8791,10 @@
         <v>143</v>
       </c>
       <c r="G194" s="13" t="s">
-        <v>277</v>
+        <v>351</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="6:9">
@@ -8784,7 +8802,7 @@
         <v>143</v>
       </c>
       <c r="G195" s="13" t="s">
-        <v>278</v>
+        <v>352</v>
       </c>
       <c r="I195">
         <v>1</v>
@@ -8795,7 +8813,7 @@
         <v>143</v>
       </c>
       <c r="G196" s="13" t="s">
-        <v>279</v>
+        <v>353</v>
       </c>
       <c r="I196">
         <v>1</v>
@@ -8806,7 +8824,7 @@
         <v>143</v>
       </c>
       <c r="G197" s="13" t="s">
-        <v>280</v>
+        <v>354</v>
       </c>
       <c r="I197">
         <v>1</v>
@@ -8817,7 +8835,10 @@
         <v>143</v>
       </c>
       <c r="G198" s="13" t="s">
-        <v>268</v>
+        <v>281</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
       </c>
       <c r="I198">
         <v>1</v>
@@ -8828,7 +8849,10 @@
         <v>143</v>
       </c>
       <c r="G199" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
       </c>
       <c r="I199">
         <v>1</v>
@@ -8839,7 +8863,7 @@
         <v>143</v>
       </c>
       <c r="G200" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I200">
         <v>1</v>
@@ -8850,7 +8874,7 @@
         <v>143</v>
       </c>
       <c r="G201" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I201">
         <v>1</v>
@@ -8861,7 +8885,7 @@
         <v>143</v>
       </c>
       <c r="G202" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I202">
         <v>1</v>
@@ -8872,7 +8896,7 @@
         <v>143</v>
       </c>
       <c r="G203" s="13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I203">
         <v>1</v>
@@ -8883,7 +8907,7 @@
         <v>143</v>
       </c>
       <c r="G204" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I204">
         <v>1</v>
@@ -8894,7 +8918,7 @@
         <v>143</v>
       </c>
       <c r="G205" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I205">
         <v>1</v>
@@ -8905,7 +8929,7 @@
         <v>143</v>
       </c>
       <c r="G206" s="13" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="I206">
         <v>1</v>
@@ -8919,7 +8943,7 @@
         <v>289</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="6:9">
@@ -8930,7 +8954,7 @@
         <v>290</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="6:9">
@@ -8941,7 +8965,7 @@
         <v>291</v>
       </c>
       <c r="I209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="6:9">
@@ -8974,7 +8998,7 @@
         <v>294</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="6:9">
@@ -8985,7 +9009,7 @@
         <v>295</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="6:9">
@@ -8996,7 +9020,7 @@
         <v>296</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="6:9">
@@ -9007,7 +9031,7 @@
         <v>297</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="6:9">
@@ -9018,7 +9042,7 @@
         <v>298</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="6:9">
@@ -9029,7 +9053,7 @@
         <v>299</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="6:9">
@@ -9051,7 +9075,7 @@
         <v>301</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="6:9">
@@ -9062,7 +9086,7 @@
         <v>302</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="6:9">
@@ -9073,7 +9097,7 @@
         <v>303</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="6:9">
@@ -9084,7 +9108,7 @@
         <v>304</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="6:9">
@@ -9095,7 +9119,7 @@
         <v>305</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="6:9">
@@ -9106,7 +9130,7 @@
         <v>306</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="6:9">
@@ -9117,7 +9141,7 @@
         <v>307</v>
       </c>
       <c r="I225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="6:9">
@@ -9128,7 +9152,7 @@
         <v>308</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="6:9">
@@ -9150,7 +9174,7 @@
         <v>310</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="6:9">
@@ -9161,7 +9185,7 @@
         <v>311</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="6:9">
@@ -9169,7 +9193,7 @@
         <v>143</v>
       </c>
       <c r="G230" s="13" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="I230">
         <v>1</v>
@@ -9180,7 +9204,7 @@
         <v>143</v>
       </c>
       <c r="G231" s="13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I231">
         <v>1</v>
@@ -9191,7 +9215,7 @@
         <v>143</v>
       </c>
       <c r="G232" s="13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I232">
         <v>1</v>
@@ -9202,7 +9226,7 @@
         <v>143</v>
       </c>
       <c r="G233" s="13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I233">
         <v>1</v>
@@ -9213,7 +9237,7 @@
         <v>143</v>
       </c>
       <c r="G234" s="13" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I234">
         <v>1</v>
@@ -9224,18 +9248,18 @@
         <v>143</v>
       </c>
       <c r="G235" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="6:9">
       <c r="F236" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="G236" s="12" t="s">
-        <v>75</v>
+      <c r="G236" s="13" t="s">
+        <v>318</v>
       </c>
       <c r="I236">
         <v>1</v>
@@ -9243,10 +9267,10 @@
     </row>
     <row r="237" spans="6:9">
       <c r="F237" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G237" s="12" t="s">
-        <v>377</v>
+        <v>143</v>
+      </c>
+      <c r="G237" s="13" t="s">
+        <v>319</v>
       </c>
       <c r="I237">
         <v>1</v>
@@ -9254,10 +9278,10 @@
     </row>
     <row r="238" spans="6:9">
       <c r="F238" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G238" s="12" t="s">
-        <v>377</v>
+        <v>143</v>
+      </c>
+      <c r="G238" s="13" t="s">
+        <v>289</v>
       </c>
       <c r="I238">
         <v>1</v>
@@ -9265,10 +9289,10 @@
     </row>
     <row r="239" spans="6:9">
       <c r="F239" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G239" s="12" t="s">
-        <v>264</v>
+        <v>143</v>
+      </c>
+      <c r="G239" s="13" t="s">
+        <v>320</v>
       </c>
       <c r="I239">
         <v>1</v>
@@ -9276,10 +9300,10 @@
     </row>
     <row r="240" spans="6:9">
       <c r="F240" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G240" s="12" t="s">
-        <v>268</v>
+        <v>143</v>
+      </c>
+      <c r="G240" s="13" t="s">
+        <v>321</v>
       </c>
       <c r="I240">
         <v>1</v>
@@ -9287,10 +9311,10 @@
     </row>
     <row r="241" spans="6:9">
       <c r="F241" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G241" s="12" t="s">
-        <v>269</v>
+        <v>143</v>
+      </c>
+      <c r="G241" s="13" t="s">
+        <v>322</v>
       </c>
       <c r="I241">
         <v>1</v>
@@ -9298,10 +9322,10 @@
     </row>
     <row r="242" spans="6:9">
       <c r="F242" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G242" s="12" t="s">
-        <v>377</v>
+        <v>143</v>
+      </c>
+      <c r="G242" s="13" t="s">
+        <v>323</v>
       </c>
       <c r="I242">
         <v>1</v>
@@ -9309,9 +9333,9 @@
     </row>
     <row r="243" spans="6:9">
       <c r="F243" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G243" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G243" s="13" t="s">
         <v>324</v>
       </c>
       <c r="I243">
@@ -9320,13 +9344,13 @@
     </row>
     <row r="244" spans="6:9">
       <c r="F244" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G244" s="12" t="s">
-        <v>378</v>
+        <v>75</v>
       </c>
       <c r="I244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="6:9">
@@ -9334,7 +9358,7 @@
         <v>144</v>
       </c>
       <c r="G245" s="12" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="I245">
         <v>1</v>
@@ -9342,10 +9366,10 @@
     </row>
     <row r="246" spans="6:9">
       <c r="F246" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G246" s="12" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="I246">
         <v>1</v>
@@ -9353,10 +9377,10 @@
     </row>
     <row r="247" spans="6:9">
       <c r="F247" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G247" s="12" t="s">
-        <v>380</v>
+        <v>264</v>
       </c>
       <c r="I247">
         <v>1</v>
@@ -9364,10 +9388,10 @@
     </row>
     <row r="248" spans="6:9">
       <c r="F248" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G248" s="12" t="s">
-        <v>381</v>
+        <v>276</v>
       </c>
       <c r="I248">
         <v>1</v>
@@ -9375,43 +9399,43 @@
     </row>
     <row r="249" spans="6:9">
       <c r="F249" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G249" s="12" t="s">
-        <v>382</v>
+        <v>277</v>
       </c>
       <c r="I249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="6:9">
       <c r="F250" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G250" s="12" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="I250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="6:9">
       <c r="F251" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G251" s="12" t="s">
-        <v>384</v>
+        <v>332</v>
       </c>
       <c r="I251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="6:9">
       <c r="F252" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G252" s="12" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I252">
         <v>1</v>
@@ -9419,10 +9443,10 @@
     </row>
     <row r="253" spans="6:9">
       <c r="F253" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G253" s="12" t="s">
-        <v>386</v>
+        <v>77</v>
       </c>
       <c r="I253">
         <v>1</v>
@@ -9433,10 +9457,7 @@
         <v>145</v>
       </c>
       <c r="G254" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="H254">
-        <v>1</v>
+        <v>387</v>
       </c>
       <c r="I254">
         <v>1</v>
@@ -9447,7 +9468,7 @@
         <v>145</v>
       </c>
       <c r="G255" s="12" t="s">
-        <v>268</v>
+        <v>388</v>
       </c>
       <c r="I255">
         <v>1</v>
@@ -9458,10 +9479,7 @@
         <v>145</v>
       </c>
       <c r="G256" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="H256">
-        <v>1</v>
+        <v>389</v>
       </c>
       <c r="I256">
         <v>1</v>
@@ -9472,7 +9490,7 @@
         <v>145</v>
       </c>
       <c r="G257" s="12" t="s">
-        <v>338</v>
+        <v>390</v>
       </c>
       <c r="I257">
         <v>1</v>
@@ -9483,10 +9501,10 @@
         <v>145</v>
       </c>
       <c r="G258" s="12" t="s">
-        <v>295</v>
+        <v>391</v>
       </c>
       <c r="I258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="6:9">
@@ -9494,10 +9512,10 @@
         <v>145</v>
       </c>
       <c r="G259" s="12" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="I259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="6:9">
@@ -9505,7 +9523,7 @@
         <v>145</v>
       </c>
       <c r="G260" s="12" t="s">
-        <v>324</v>
+        <v>393</v>
       </c>
       <c r="I260">
         <v>1</v>
@@ -9516,7 +9534,7 @@
         <v>145</v>
       </c>
       <c r="G261" s="12" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="I261">
         <v>1</v>
@@ -9527,7 +9545,10 @@
         <v>145</v>
       </c>
       <c r="G262" s="12" t="s">
-        <v>293</v>
+        <v>380</v>
+      </c>
+      <c r="H262">
+        <v>1</v>
       </c>
       <c r="I262">
         <v>1</v>
@@ -9538,7 +9559,7 @@
         <v>145</v>
       </c>
       <c r="G263" s="12" t="s">
-        <v>376</v>
+        <v>276</v>
       </c>
       <c r="I263">
         <v>1</v>
@@ -9549,7 +9570,10 @@
         <v>145</v>
       </c>
       <c r="G264" s="12" t="s">
-        <v>334</v>
+        <v>343</v>
+      </c>
+      <c r="H264">
+        <v>1</v>
       </c>
       <c r="I264">
         <v>1</v>
@@ -9560,62 +9584,62 @@
         <v>145</v>
       </c>
       <c r="G265" s="12" t="s">
-        <v>387</v>
+        <v>346</v>
       </c>
       <c r="I265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="6:9">
       <c r="F266" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="G266" s="14" t="s">
-        <v>80</v>
+      <c r="G266" s="12" t="s">
+        <v>303</v>
       </c>
       <c r="I266">
         <v>1</v>
       </c>
     </row>
     <row r="267" spans="6:9">
-      <c r="F267" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="G267" s="11" t="s">
-        <v>388</v>
+      <c r="F267" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G267" s="12" t="s">
+        <v>363</v>
       </c>
       <c r="I267">
         <v>1</v>
       </c>
     </row>
     <row r="268" spans="6:9">
-      <c r="F268" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="G268" s="11" t="s">
-        <v>389</v>
+      <c r="F268" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G268" s="12" t="s">
+        <v>332</v>
       </c>
       <c r="I268">
         <v>1</v>
       </c>
     </row>
     <row r="269" spans="6:9">
-      <c r="F269" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="G269" s="11" t="s">
-        <v>390</v>
+      <c r="F269" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G269" s="12" t="s">
+        <v>383</v>
       </c>
       <c r="I269">
         <v>1</v>
       </c>
     </row>
     <row r="270" spans="6:9">
-      <c r="F270" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="G270" s="11" t="s">
-        <v>391</v>
+      <c r="F270" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G270" s="12" t="s">
+        <v>301</v>
       </c>
       <c r="I270">
         <v>1</v>
@@ -9623,10 +9647,10 @@
     </row>
     <row r="271" spans="6:9">
       <c r="F271" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="G271" s="13" t="s">
-        <v>392</v>
+        <v>145</v>
+      </c>
+      <c r="G271" s="12" t="s">
+        <v>384</v>
       </c>
       <c r="I271">
         <v>1</v>
@@ -9634,76 +9658,76 @@
     </row>
     <row r="272" spans="6:9">
       <c r="F272" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="G272" s="14" t="s">
-        <v>93</v>
+        <v>145</v>
+      </c>
+      <c r="G272" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="I272">
         <v>1</v>
       </c>
     </row>
     <row r="273" spans="6:9">
-      <c r="F273" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G273" s="13" t="s">
-        <v>392</v>
+      <c r="F273" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G273" s="12" t="s">
+        <v>395</v>
       </c>
       <c r="I273">
         <v>1</v>
       </c>
     </row>
     <row r="274" spans="6:9">
-      <c r="F274" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G274" s="13" t="s">
-        <v>393</v>
+      <c r="F274" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G274" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="I274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="6:9">
-      <c r="F275" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G275" s="13" t="s">
-        <v>95</v>
+      <c r="F275" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G275" s="11" t="s">
+        <v>396</v>
       </c>
       <c r="I275">
         <v>1</v>
       </c>
     </row>
     <row r="276" spans="6:9">
-      <c r="F276" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="G276" s="13" t="s">
-        <v>394</v>
+      <c r="F276" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G276" s="11" t="s">
+        <v>397</v>
       </c>
       <c r="I276">
         <v>1</v>
       </c>
     </row>
     <row r="277" spans="6:9">
-      <c r="F277" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="G277" s="13" t="s">
-        <v>97</v>
+      <c r="F277" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G277" s="11" t="s">
+        <v>398</v>
       </c>
       <c r="I277">
         <v>1</v>
       </c>
     </row>
     <row r="278" spans="6:9">
-      <c r="F278" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="G278" s="13" t="s">
-        <v>395</v>
+      <c r="F278" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G278" s="11" t="s">
+        <v>399</v>
       </c>
       <c r="I278">
         <v>1</v>
@@ -9711,10 +9735,10 @@
     </row>
     <row r="279" spans="6:9">
       <c r="F279" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="G279" s="14" t="s">
-        <v>98</v>
+        <v>151</v>
+      </c>
+      <c r="G279" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="I279">
         <v>1</v>
@@ -9722,21 +9746,21 @@
     </row>
     <row r="280" spans="6:9">
       <c r="F280" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G280" s="13" t="s">
-        <v>396</v>
+        <v>151</v>
+      </c>
+      <c r="G280" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="I280">
         <v>1</v>
       </c>
     </row>
     <row r="281" spans="6:9">
-      <c r="F281" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G281" s="14" t="s">
-        <v>101</v>
+      <c r="F281" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G281" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="I281">
         <v>1</v>
@@ -9744,10 +9768,10 @@
     </row>
     <row r="282" spans="6:9">
       <c r="F282" s="10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G282" s="13" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="I282">
         <v>1</v>
@@ -9755,109 +9779,109 @@
     </row>
     <row r="283" spans="6:9">
       <c r="F283" s="10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G283" s="13" t="s">
-        <v>398</v>
+        <v>95</v>
       </c>
       <c r="I283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="6:9">
       <c r="F284" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G284" s="13" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="I284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="6:9">
       <c r="F285" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G285" s="13" t="s">
-        <v>400</v>
+        <v>97</v>
       </c>
       <c r="I285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="6:9">
-      <c r="F286" s="10" t="s">
-        <v>156</v>
+      <c r="F286" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="G286" s="13" t="s">
-        <v>104</v>
+        <v>403</v>
       </c>
       <c r="I286">
         <v>1</v>
       </c>
     </row>
     <row r="287" spans="6:9">
-      <c r="F287" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="G287" s="13" t="s">
-        <v>396</v>
+      <c r="F287" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G287" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="I287">
         <v>1</v>
       </c>
     </row>
     <row r="288" spans="6:9">
-      <c r="F288" s="10" t="s">
-        <v>157</v>
+      <c r="F288" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="G288" s="13" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="I288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="6:9">
-      <c r="F289" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="G289" s="13" t="s">
-        <v>399</v>
+      <c r="F289" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G289" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="I289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="6:9">
       <c r="F290" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G290" s="13" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="I290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="6:9">
       <c r="F291" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G291" s="13" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="I291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="6:9">
       <c r="F292" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G292" s="13" t="s">
-        <v>107</v>
+        <v>407</v>
       </c>
       <c r="I292">
         <v>1</v>
@@ -9865,10 +9889,10 @@
     </row>
     <row r="293" spans="6:9">
       <c r="F293" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G293" s="13" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="I293">
         <v>1</v>
@@ -9876,100 +9900,188 @@
     </row>
     <row r="294" spans="6:9">
       <c r="F294" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G294" s="13" t="s">
-        <v>403</v>
+        <v>104</v>
       </c>
       <c r="I294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="6:9">
       <c r="F295" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G295" s="13" t="s">
         <v>404</v>
       </c>
       <c r="I295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="6:9">
       <c r="F296" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G296" s="13" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="6:9">
       <c r="F297" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G297" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="I297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="6:9">
+      <c r="F298" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G298" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="I298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="6:9">
+      <c r="F299" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G299" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="I299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="6:9">
+      <c r="F300" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G300" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="6:9">
+      <c r="F301" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="G297" s="13" t="s">
+      <c r="G301" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="I301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="6:9">
+      <c r="F302" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G302" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="I302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="6:9">
+      <c r="F303" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G303" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="I303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="6:9">
+      <c r="F304" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G304" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="I304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="6:9">
+      <c r="F305" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G305" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="I297">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="6:9">
-      <c r="F298" s="14" t="s">
+      <c r="I305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="6:9">
+      <c r="F306" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="G298" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="I298">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="6:9">
-      <c r="F299" s="14" t="s">
+      <c r="G306" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="I306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="6:9">
+      <c r="F307" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="G299" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="I299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="6:9">
-      <c r="F300" s="14" t="s">
+      <c r="G307" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="I307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="6:9">
+      <c r="F308" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="G300" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="I300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="6:9">
-      <c r="F301" s="14" t="s">
+      <c r="G308" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="I308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="6:9">
+      <c r="F309" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="G301" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="I301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="6:9">
-      <c r="F302" s="14" t="s">
+      <c r="G309" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="I309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="6:9">
+      <c r="F310" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="G302" t="s">
+      <c r="G310" t="s">
         <v>113</v>
       </c>
-      <c r="I302">
+      <c r="I310">
         <v>1</v>
       </c>
     </row>
@@ -10003,13 +10115,13 @@
   <sheetData>
     <row r="7" ht="13.95" customHeight="1" spans="4:8">
       <c r="D7" s="5" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>260</v>
@@ -10022,7 +10134,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>12</v>
@@ -10032,7 +10144,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>21</v>
@@ -10042,7 +10154,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>24</v>
@@ -10052,7 +10164,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>27</v>
@@ -10062,7 +10174,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>33</v>
@@ -10072,7 +10184,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>36</v>
@@ -10082,7 +10194,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>39</v>
@@ -10092,7 +10204,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>42</v>
@@ -10102,7 +10214,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>45</v>
@@ -10112,7 +10224,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>48</v>
@@ -10122,7 +10234,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>75</v>
@@ -10132,7 +10244,7 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>77</v>
@@ -10142,7 +10254,7 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>80</v>
@@ -10152,7 +10264,7 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>83</v>
@@ -10162,7 +10274,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>85</v>
@@ -10172,7 +10284,7 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>90</v>
@@ -10180,7 +10292,7 @@
     </row>
     <row r="24" spans="6:7">
       <c r="F24" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>12</v>
@@ -10188,7 +10300,7 @@
     </row>
     <row r="25" spans="6:7">
       <c r="F25" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>18</v>
@@ -10196,7 +10308,7 @@
     </row>
     <row r="26" spans="6:7">
       <c r="F26" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>21</v>
@@ -10204,7 +10316,7 @@
     </row>
     <row r="27" spans="6:7">
       <c r="F27" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>24</v>
@@ -10212,7 +10324,7 @@
     </row>
     <row r="28" spans="6:7">
       <c r="F28" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>27</v>
@@ -10220,7 +10332,7 @@
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>30</v>
@@ -10228,7 +10340,7 @@
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>33</v>
@@ -10236,7 +10348,7 @@
     </row>
     <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>36</v>
@@ -10244,7 +10356,7 @@
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>39</v>
@@ -10252,7 +10364,7 @@
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>42</v>
@@ -10260,7 +10372,7 @@
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>45</v>
@@ -10268,7 +10380,7 @@
     </row>
     <row r="35" spans="6:7">
       <c r="F35" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>48</v>
@@ -10276,7 +10388,7 @@
     </row>
     <row r="36" spans="6:7">
       <c r="F36" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>51</v>
@@ -10284,7 +10396,7 @@
     </row>
     <row r="37" spans="6:7">
       <c r="F37" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>54</v>
@@ -10292,7 +10404,7 @@
     </row>
     <row r="38" spans="6:7">
       <c r="F38" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>57</v>
@@ -10300,7 +10412,7 @@
     </row>
     <row r="39" spans="6:7">
       <c r="F39" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>60</v>
@@ -10308,7 +10420,7 @@
     </row>
     <row r="40" spans="6:7">
       <c r="F40" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>63</v>
@@ -10316,7 +10428,7 @@
     </row>
     <row r="41" spans="6:7">
       <c r="F41" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>66</v>
@@ -10324,7 +10436,7 @@
     </row>
     <row r="42" spans="6:7">
       <c r="F42" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>69</v>
@@ -10332,7 +10444,7 @@
     </row>
     <row r="43" spans="6:7">
       <c r="F43" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>72</v>
@@ -10340,7 +10452,7 @@
     </row>
     <row r="44" spans="6:7">
       <c r="F44" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>75</v>
@@ -10348,7 +10460,7 @@
     </row>
     <row r="45" spans="6:7">
       <c r="F45" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>77</v>
@@ -10356,7 +10468,7 @@
     </row>
     <row r="46" spans="6:7">
       <c r="F46" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>80</v>
@@ -10364,7 +10476,7 @@
     </row>
     <row r="47" spans="6:7">
       <c r="F47" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>83</v>
@@ -10372,7 +10484,7 @@
     </row>
     <row r="48" spans="6:7">
       <c r="F48" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>85</v>
@@ -10380,7 +10492,7 @@
     </row>
     <row r="49" spans="6:7">
       <c r="F49" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>87</v>
@@ -10388,7 +10500,7 @@
     </row>
     <row r="50" spans="6:7">
       <c r="F50" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>90</v>
@@ -10396,7 +10508,7 @@
     </row>
     <row r="51" spans="6:7">
       <c r="F51" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>93</v>
@@ -10404,7 +10516,7 @@
     </row>
     <row r="52" spans="6:7">
       <c r="F52" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="G52" s="10" t="s">
         <v>95</v>
@@ -10412,7 +10524,7 @@
     </row>
     <row r="53" spans="6:7">
       <c r="F53" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>97</v>
@@ -10420,7 +10532,7 @@
     </row>
     <row r="54" spans="6:7">
       <c r="F54" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="G54" s="10" t="s">
         <v>98</v>
@@ -10428,7 +10540,7 @@
     </row>
     <row r="55" spans="6:7">
       <c r="F55" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>101</v>
@@ -10436,7 +10548,7 @@
     </row>
     <row r="56" spans="6:7">
       <c r="F56" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>104</v>
@@ -10444,7 +10556,7 @@
     </row>
     <row r="57" spans="6:7">
       <c r="F57" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>107</v>
@@ -10452,7 +10564,7 @@
     </row>
     <row r="58" spans="6:7">
       <c r="F58" s="11" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>110</v>
@@ -10460,7 +10572,7 @@
     </row>
     <row r="59" spans="6:7">
       <c r="F59" s="11" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>113</v>
@@ -10500,7 +10612,7 @@
   <sheetData>
     <row r="7" spans="4:18">
       <c r="D7" s="3" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1</v>
@@ -10509,7 +10621,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>166</v>
@@ -10518,13 +10630,13 @@
         <v>167</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>6</v>
@@ -10536,33 +10648,33 @@
         <v>173</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="5:17">
       <c r="E8" s="3" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>189</v>
@@ -10571,10 +10683,10 @@
         <v>15</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="O8" s="3">
         <v>1</v>
@@ -10588,22 +10700,22 @@
     </row>
     <row r="9" spans="5:17">
       <c r="E9" s="3" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>189</v>
@@ -10612,10 +10724,10 @@
         <v>15</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="O9" s="3">
         <v>2</v>
@@ -10629,22 +10741,22 @@
     </row>
     <row r="10" spans="5:17">
       <c r="E10" s="3" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>189</v>
@@ -10653,7 +10765,7 @@
         <v>15</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>200</v>
@@ -10670,22 +10782,22 @@
     </row>
     <row r="11" spans="5:17">
       <c r="E11" s="3" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>189</v>
@@ -10694,10 +10806,10 @@
         <v>15</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="O11" s="3">
         <v>4</v>
@@ -10711,22 +10823,22 @@
     </row>
     <row r="12" spans="5:17">
       <c r="E12" s="3" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>189</v>
@@ -10735,10 +10847,10 @@
         <v>15</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="O12" s="3">
         <v>5</v>
@@ -10752,22 +10864,22 @@
     </row>
     <row r="13" spans="5:18">
       <c r="E13" s="3" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>189</v>
@@ -10776,10 +10888,10 @@
         <v>15</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="O13" s="3">
         <v>6</v>
@@ -10791,27 +10903,27 @@
         <v>1</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="5:18">
       <c r="E14" s="3" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>189</v>
@@ -10820,10 +10932,10 @@
         <v>15</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="O14" s="3">
         <v>7</v>
@@ -10835,7 +10947,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -10865,45 +10977,45 @@
   <sheetData>
     <row r="7" spans="4:11">
       <c r="D7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>172</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="6:11">
       <c r="F8" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="J8" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="K8">
         <v>10</v>
@@ -10911,19 +11023,19 @@
     </row>
     <row r="9" spans="6:11">
       <c r="F9" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="J9" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="K9">
         <v>20</v>
@@ -10931,19 +11043,19 @@
     </row>
     <row r="10" spans="6:11">
       <c r="F10" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="J10" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="K10">
         <v>30</v>
@@ -10951,19 +11063,19 @@
     </row>
     <row r="11" spans="6:11">
       <c r="F11" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="J11" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="K11">
         <v>40</v>
@@ -10971,19 +11083,19 @@
     </row>
     <row r="12" spans="6:11">
       <c r="F12" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="J12" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="K12">
         <v>50</v>
@@ -10991,19 +11103,19 @@
     </row>
     <row r="13" spans="6:11">
       <c r="F13" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="G13" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="J13" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="K13">
         <v>60</v>
@@ -11011,19 +11123,19 @@
     </row>
     <row r="14" spans="6:11">
       <c r="F14" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="G14" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="J14" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="K14">
         <v>70</v>
@@ -11031,19 +11143,19 @@
     </row>
     <row r="15" spans="6:11">
       <c r="F15" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="G15" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="J15" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="K15">
         <v>80</v>
@@ -11051,19 +11163,19 @@
     </row>
     <row r="16" spans="6:11">
       <c r="F16" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="G16" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="J16" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="K16">
         <v>90</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21450" windowHeight="12285" tabRatio="1000" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="1000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -628,7 +628,7 @@
     <t>Story Map</t>
   </si>
   <si>
-    <t>usermap</t>
+    <t>map</t>
   </si>
   <si>
     <t>choerodon.code.program</t>
@@ -1542,9 +1542,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
@@ -1630,6 +1630,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1643,6 +1657,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1651,22 +1672,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1674,68 +1682,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1766,6 +1712,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1774,7 +1751,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1789,7 +1789,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1801,25 +1957,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1831,145 +1969,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2016,13 +2016,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2059,172 +2072,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5330,8 +5330,8 @@
   <sheetPr/>
   <dimension ref="D7:Q46"/>
   <sheetViews>
-    <sheetView zoomScale="97" zoomScaleNormal="97" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" topLeftCell="J6" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -6684,7 +6684,7 @@
   <sheetPr/>
   <dimension ref="D7:I310"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="G8" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="G8" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="1000" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="1000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,14 @@
     <sheet name="FD_REPORT" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">IAM_MENU_PERMISSION!$I$1:$I$310</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">IAM_MENU_PERMISSION!$I$1:$I$312</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="495">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -1066,12 +1066,12 @@
     <t>agile-service.product-version.updateVersion</t>
   </si>
   <si>
+    <t>agile-service.scheme.queryDefaultByOrganizationId</t>
+  </si>
+  <si>
     <t>agile-service.personal-filter.listByProjectId</t>
   </si>
   <si>
-    <t>agile-service.scheme.queryDefaultByOrganizationId</t>
-  </si>
-  <si>
     <t>agile-service.field-value.getIssueHeadForAgile</t>
   </si>
   <si>
@@ -1124,6 +1124,9 @@
   </si>
   <si>
     <t>agile-service.product-version.listByProjectId</t>
+  </si>
+  <si>
+    <t>agile-service.product-version.listByOptions</t>
   </si>
   <si>
     <t>agile-service.story-map.queryStoryMapDemand</t>
@@ -1270,7 +1273,7 @@
     <t>agile-service.state-machine.pagingQuery</t>
   </si>
   <si>
-    <t>agile-service.state-machine.queryStatusList</t>
+    <t>agile-service.status.queryStatusList</t>
   </si>
   <si>
     <t>agile-service.state-machine.create</t>
@@ -1542,9 +1545,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
@@ -1630,7 +1633,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1638,27 +1641,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1672,16 +1654,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1703,24 +1685,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1729,14 +1695,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1751,7 +1709,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1772,9 +1730,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1789,7 +1792,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1801,19 +1912,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1825,37 +1930,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1873,7 +1954,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1885,91 +1972,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1986,71 +1989,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2072,6 +2012,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2080,151 +2029,205 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5330,7 +5333,7 @@
   <sheetPr/>
   <dimension ref="D7:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" topLeftCell="J6" workbookViewId="0">
+    <sheetView zoomScale="97" zoomScaleNormal="97" topLeftCell="J6" workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
@@ -6682,10 +6685,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:I310"/>
+  <dimension ref="D7:I312"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="G8" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E197" workbookViewId="0">
+      <selection activeCell="H221" sqref="H221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -7820,23 +7823,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="6:9">
+    <row r="107" customFormat="1" ht="13.2" customHeight="1" spans="6:9">
       <c r="F107" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="G107" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="G107" t="s">
+        <v>342</v>
+      </c>
+      <c r="H107"/>
       <c r="I107">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="6:9">
       <c r="F108" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>342</v>
+        <v>24</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -7849,9 +7853,6 @@
       <c r="G109" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="H109">
-        <v>1</v>
-      </c>
       <c r="I109">
         <v>1</v>
       </c>
@@ -7861,7 +7862,10 @@
         <v>126</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>329</v>
+        <v>342</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -7872,7 +7876,7 @@
         <v>126</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -7883,7 +7887,7 @@
         <v>126</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -7894,7 +7898,7 @@
         <v>126</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -7905,7 +7909,7 @@
         <v>126</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -7916,7 +7920,7 @@
         <v>126</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -7927,7 +7931,7 @@
         <v>126</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I116">
         <v>1</v>
@@ -7938,7 +7942,7 @@
         <v>126</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -7949,7 +7953,7 @@
         <v>126</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="I118">
         <v>1</v>
@@ -7960,7 +7964,7 @@
         <v>126</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>262</v>
+        <v>345</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -7971,7 +7975,7 @@
         <v>126</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>334</v>
+        <v>262</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -7982,7 +7986,7 @@
         <v>126</v>
       </c>
       <c r="G121" s="13" t="s">
-        <v>276</v>
+        <v>334</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -7993,7 +7997,7 @@
         <v>126</v>
       </c>
       <c r="G122" s="13" t="s">
-        <v>346</v>
+        <v>276</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -8004,7 +8008,7 @@
         <v>126</v>
       </c>
       <c r="G123" s="13" t="s">
-        <v>263</v>
+        <v>346</v>
       </c>
       <c r="I123">
         <v>1</v>
@@ -8015,7 +8019,7 @@
         <v>126</v>
       </c>
       <c r="G124" s="13" t="s">
-        <v>347</v>
+        <v>263</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -8026,7 +8030,7 @@
         <v>126</v>
       </c>
       <c r="G125" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I125">
         <v>1</v>
@@ -8037,7 +8041,7 @@
         <v>126</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -8048,7 +8052,7 @@
         <v>126</v>
       </c>
       <c r="G127" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -8059,7 +8063,7 @@
         <v>126</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -8070,7 +8074,7 @@
         <v>126</v>
       </c>
       <c r="G129" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -8081,7 +8085,7 @@
         <v>126</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I130">
         <v>1</v>
@@ -8092,7 +8096,7 @@
         <v>126</v>
       </c>
       <c r="G131" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I131">
         <v>1</v>
@@ -8103,7 +8107,7 @@
         <v>126</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>27</v>
+        <v>354</v>
       </c>
       <c r="I132">
         <v>1</v>
@@ -8111,10 +8115,10 @@
     </row>
     <row r="133" spans="6:9">
       <c r="F133" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G133" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I133">
         <v>1</v>
@@ -8125,7 +8129,7 @@
         <v>127</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>355</v>
+        <v>30</v>
       </c>
       <c r="I134">
         <v>1</v>
@@ -8136,7 +8140,7 @@
         <v>127</v>
       </c>
       <c r="G135" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -8147,7 +8151,7 @@
         <v>127</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I136">
         <v>1</v>
@@ -8158,7 +8162,7 @@
         <v>127</v>
       </c>
       <c r="G137" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I137">
         <v>1</v>
@@ -8169,7 +8173,7 @@
         <v>127</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I138">
         <v>1</v>
@@ -8180,7 +8184,7 @@
         <v>127</v>
       </c>
       <c r="G139" s="13" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="I139">
         <v>1</v>
@@ -8191,10 +8195,10 @@
         <v>127</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="6:9">
@@ -8202,10 +8206,10 @@
         <v>127</v>
       </c>
       <c r="G141" s="13" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="6:9">
@@ -8213,7 +8217,7 @@
         <v>127</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I142">
         <v>1</v>
@@ -8224,7 +8228,7 @@
         <v>127</v>
       </c>
       <c r="G143" s="13" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="I143">
         <v>1</v>
@@ -8235,30 +8239,32 @@
         <v>127</v>
       </c>
       <c r="G144" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" customFormat="1" spans="6:9">
+      <c r="F145" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G145" t="s">
+        <v>362</v>
+      </c>
+      <c r="H145"/>
+      <c r="I145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" customFormat="1" spans="6:9">
+      <c r="F146" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G146" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="I144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="6:9">
-      <c r="F145" t="s">
-        <v>128</v>
-      </c>
-      <c r="G145" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="I145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="6:9">
-      <c r="F146" t="s">
-        <v>128</v>
-      </c>
-      <c r="G146" s="13" t="s">
-        <v>333</v>
-      </c>
+      <c r="H146"/>
       <c r="I146">
         <v>1</v>
       </c>
@@ -8268,7 +8274,7 @@
         <v>128</v>
       </c>
       <c r="G147" s="13" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="I147">
         <v>1</v>
@@ -8279,7 +8285,7 @@
         <v>128</v>
       </c>
       <c r="G148" s="13" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="I148">
         <v>1</v>
@@ -8290,7 +8296,7 @@
         <v>128</v>
       </c>
       <c r="G149" s="13" t="s">
-        <v>362</v>
+        <v>290</v>
       </c>
       <c r="I149">
         <v>1</v>
@@ -8301,7 +8307,7 @@
         <v>128</v>
       </c>
       <c r="G150" s="13" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="I150">
         <v>1</v>
@@ -8323,7 +8329,7 @@
         <v>128</v>
       </c>
       <c r="G152" s="13" t="s">
-        <v>364</v>
+        <v>303</v>
       </c>
       <c r="I152">
         <v>1</v>
@@ -8334,7 +8340,7 @@
         <v>128</v>
       </c>
       <c r="G153" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I153">
         <v>1</v>
@@ -8345,15 +8351,15 @@
         <v>128</v>
       </c>
       <c r="G154" s="13" t="s">
-        <v>33</v>
+        <v>365</v>
       </c>
       <c r="I154">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="6:9">
-      <c r="F155" s="14" t="s">
-        <v>134</v>
+      <c r="F155" t="s">
+        <v>128</v>
       </c>
       <c r="G155" s="13" t="s">
         <v>366</v>
@@ -8363,33 +8369,33 @@
       </c>
     </row>
     <row r="156" spans="6:9">
-      <c r="F156" s="14" t="s">
+      <c r="F156" t="s">
+        <v>128</v>
+      </c>
+      <c r="G156" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="6:9">
+      <c r="F157" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="G156" s="13" t="s">
+      <c r="G157" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="6:9">
+      <c r="F158" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G158" s="13" t="s">
         <v>51</v>
-      </c>
-      <c r="I156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="6:9">
-      <c r="F157" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G157" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="I157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="6:9">
-      <c r="F158" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G158" s="13" t="s">
-        <v>367</v>
       </c>
       <c r="I158">
         <v>1</v>
@@ -8400,7 +8406,7 @@
         <v>135</v>
       </c>
       <c r="G159" s="13" t="s">
-        <v>54</v>
+        <v>367</v>
       </c>
       <c r="I159">
         <v>1</v>
@@ -8408,7 +8414,7 @@
     </row>
     <row r="160" spans="6:9">
       <c r="F160" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G160" s="13" t="s">
         <v>368</v>
@@ -8419,35 +8425,35 @@
     </row>
     <row r="161" spans="6:9">
       <c r="F161" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G161" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="6:9">
+      <c r="F162" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G161" s="13" t="s">
+      <c r="G162" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="6:9">
+      <c r="F163" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G163" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="6:9">
-      <c r="F162" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G162" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="I162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="6:9">
-      <c r="F163" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G163" s="13" t="s">
-        <v>369</v>
-      </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="6:9">
@@ -8455,7 +8461,7 @@
         <v>137</v>
       </c>
       <c r="G164" s="13" t="s">
-        <v>370</v>
+        <v>296</v>
       </c>
       <c r="I164">
         <v>1</v>
@@ -8466,10 +8472,10 @@
         <v>137</v>
       </c>
       <c r="G165" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="6:9">
@@ -8477,32 +8483,32 @@
         <v>137</v>
       </c>
       <c r="G166" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="6:9">
+      <c r="F167" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G167" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="6:9">
+      <c r="F168" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G168" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="6:9">
-      <c r="F167" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G167" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="I167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="6:9">
-      <c r="F168" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G168" s="13" t="s">
-        <v>369</v>
-      </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="6:9">
@@ -8510,7 +8516,7 @@
         <v>138</v>
       </c>
       <c r="G169" s="13" t="s">
-        <v>370</v>
+        <v>296</v>
       </c>
       <c r="I169">
         <v>1</v>
@@ -8521,10 +8527,10 @@
         <v>138</v>
       </c>
       <c r="G170" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="6:9">
@@ -8532,7 +8538,7 @@
         <v>138</v>
       </c>
       <c r="G171" s="13" t="s">
-        <v>63</v>
+        <v>371</v>
       </c>
       <c r="I171">
         <v>1</v>
@@ -8540,7 +8546,7 @@
     </row>
     <row r="172" spans="6:9">
       <c r="F172" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G172" s="13" t="s">
         <v>372</v>
@@ -8551,10 +8557,10 @@
     </row>
     <row r="173" spans="6:9">
       <c r="F173" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G173" s="13" t="s">
-        <v>373</v>
+        <v>63</v>
       </c>
       <c r="I173">
         <v>1</v>
@@ -8565,7 +8571,7 @@
         <v>139</v>
       </c>
       <c r="G174" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I174">
         <v>1</v>
@@ -8576,7 +8582,7 @@
         <v>139</v>
       </c>
       <c r="G175" s="13" t="s">
-        <v>262</v>
+        <v>374</v>
       </c>
       <c r="I175">
         <v>1</v>
@@ -8587,7 +8593,7 @@
         <v>139</v>
       </c>
       <c r="G176" s="13" t="s">
-        <v>66</v>
+        <v>375</v>
       </c>
       <c r="I176">
         <v>1</v>
@@ -8595,10 +8601,10 @@
     </row>
     <row r="177" spans="6:9">
       <c r="F177" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G177" s="13" t="s">
-        <v>375</v>
+        <v>262</v>
       </c>
       <c r="I177">
         <v>1</v>
@@ -8606,10 +8612,10 @@
     </row>
     <row r="178" spans="6:9">
       <c r="F178" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I178">
         <v>1</v>
@@ -8617,10 +8623,10 @@
     </row>
     <row r="179" spans="6:9">
       <c r="F179" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G179" s="13" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="I179">
         <v>1</v>
@@ -8628,13 +8634,13 @@
     </row>
     <row r="180" spans="6:9">
       <c r="F180" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G180" s="13" t="s">
-        <v>376</v>
+        <v>69</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="6:9">
@@ -8642,10 +8648,10 @@
         <v>141</v>
       </c>
       <c r="G181" s="13" t="s">
-        <v>377</v>
+        <v>336</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="6:9">
@@ -8653,7 +8659,7 @@
         <v>141</v>
       </c>
       <c r="G182" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -8664,32 +8670,29 @@
         <v>141</v>
       </c>
       <c r="G183" s="13" t="s">
-        <v>72</v>
+        <v>378</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="6:9">
-      <c r="F184" s="14" t="s">
-        <v>143</v>
+      <c r="F184" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="G184" s="13" t="s">
         <v>379</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="6:9">
-      <c r="F185" s="14" t="s">
-        <v>143</v>
+      <c r="F185" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="G185" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="H185">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="I185">
         <v>1</v>
@@ -8700,7 +8703,7 @@
         <v>143</v>
       </c>
       <c r="G186" s="13" t="s">
-        <v>276</v>
+        <v>380</v>
       </c>
       <c r="I186">
         <v>1</v>
@@ -8711,7 +8714,7 @@
         <v>143</v>
       </c>
       <c r="G187" s="13" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -8725,7 +8728,7 @@
         <v>143</v>
       </c>
       <c r="G188" s="13" t="s">
-        <v>381</v>
+        <v>276</v>
       </c>
       <c r="I188">
         <v>1</v>
@@ -8736,7 +8739,10 @@
         <v>143</v>
       </c>
       <c r="G189" s="13" t="s">
-        <v>346</v>
+        <v>342</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
       </c>
       <c r="I189">
         <v>1</v>
@@ -8758,7 +8764,7 @@
         <v>143</v>
       </c>
       <c r="G191" s="13" t="s">
-        <v>383</v>
+        <v>346</v>
       </c>
       <c r="I191">
         <v>1</v>
@@ -8769,7 +8775,7 @@
         <v>143</v>
       </c>
       <c r="G192" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I192">
         <v>1</v>
@@ -8780,7 +8786,7 @@
         <v>143</v>
       </c>
       <c r="G193" s="13" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="I193">
         <v>1</v>
@@ -8791,7 +8797,7 @@
         <v>143</v>
       </c>
       <c r="G194" s="13" t="s">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="I194">
         <v>1</v>
@@ -8802,7 +8808,7 @@
         <v>143</v>
       </c>
       <c r="G195" s="13" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="I195">
         <v>1</v>
@@ -8813,7 +8819,7 @@
         <v>143</v>
       </c>
       <c r="G196" s="13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I196">
         <v>1</v>
@@ -8824,7 +8830,7 @@
         <v>143</v>
       </c>
       <c r="G197" s="13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I197">
         <v>1</v>
@@ -8835,10 +8841,7 @@
         <v>143</v>
       </c>
       <c r="G198" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="H198">
-        <v>1</v>
+        <v>353</v>
       </c>
       <c r="I198">
         <v>1</v>
@@ -8849,10 +8852,7 @@
         <v>143</v>
       </c>
       <c r="G199" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="H199">
-        <v>1</v>
+        <v>354</v>
       </c>
       <c r="I199">
         <v>1</v>
@@ -8863,7 +8863,10 @@
         <v>143</v>
       </c>
       <c r="G200" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
+      </c>
+      <c r="H200">
+        <v>1</v>
       </c>
       <c r="I200">
         <v>1</v>
@@ -8874,7 +8877,10 @@
         <v>143</v>
       </c>
       <c r="G201" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
       </c>
       <c r="I201">
         <v>1</v>
@@ -8885,7 +8891,7 @@
         <v>143</v>
       </c>
       <c r="G202" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I202">
         <v>1</v>
@@ -8896,7 +8902,7 @@
         <v>143</v>
       </c>
       <c r="G203" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I203">
         <v>1</v>
@@ -8907,7 +8913,7 @@
         <v>143</v>
       </c>
       <c r="G204" s="13" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I204">
         <v>1</v>
@@ -8918,7 +8924,7 @@
         <v>143</v>
       </c>
       <c r="G205" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I205">
         <v>1</v>
@@ -8929,7 +8935,7 @@
         <v>143</v>
       </c>
       <c r="G206" s="13" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="I206">
         <v>1</v>
@@ -8940,7 +8946,7 @@
         <v>143</v>
       </c>
       <c r="G207" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I207">
         <v>1</v>
@@ -8951,7 +8957,7 @@
         <v>143</v>
       </c>
       <c r="G208" s="13" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="I208">
         <v>1</v>
@@ -8962,7 +8968,7 @@
         <v>143</v>
       </c>
       <c r="G209" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I209">
         <v>1</v>
@@ -8973,7 +8979,7 @@
         <v>143</v>
       </c>
       <c r="G210" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I210">
         <v>1</v>
@@ -8984,7 +8990,7 @@
         <v>143</v>
       </c>
       <c r="G211" s="13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I211">
         <v>1</v>
@@ -8995,7 +9001,7 @@
         <v>143</v>
       </c>
       <c r="G212" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I212">
         <v>1</v>
@@ -9006,7 +9012,7 @@
         <v>143</v>
       </c>
       <c r="G213" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I213">
         <v>1</v>
@@ -9017,7 +9023,7 @@
         <v>143</v>
       </c>
       <c r="G214" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I214">
         <v>1</v>
@@ -9028,7 +9034,7 @@
         <v>143</v>
       </c>
       <c r="G215" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I215">
         <v>1</v>
@@ -9039,7 +9045,7 @@
         <v>143</v>
       </c>
       <c r="G216" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I216">
         <v>1</v>
@@ -9050,7 +9056,7 @@
         <v>143</v>
       </c>
       <c r="G217" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I217">
         <v>1</v>
@@ -9061,7 +9067,7 @@
         <v>143</v>
       </c>
       <c r="G218" s="13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I218">
         <v>1</v>
@@ -9072,7 +9078,7 @@
         <v>143</v>
       </c>
       <c r="G219" s="13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I219">
         <v>1</v>
@@ -9083,7 +9089,7 @@
         <v>143</v>
       </c>
       <c r="G220" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I220">
         <v>1</v>
@@ -9094,7 +9100,7 @@
         <v>143</v>
       </c>
       <c r="G221" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I221">
         <v>1</v>
@@ -9105,7 +9111,7 @@
         <v>143</v>
       </c>
       <c r="G222" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I222">
         <v>1</v>
@@ -9116,7 +9122,7 @@
         <v>143</v>
       </c>
       <c r="G223" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I223">
         <v>1</v>
@@ -9127,7 +9133,7 @@
         <v>143</v>
       </c>
       <c r="G224" s="13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I224">
         <v>1</v>
@@ -9138,10 +9144,10 @@
         <v>143</v>
       </c>
       <c r="G225" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="6:9">
@@ -9149,7 +9155,7 @@
         <v>143</v>
       </c>
       <c r="G226" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I226">
         <v>1</v>
@@ -9160,10 +9166,10 @@
         <v>143</v>
       </c>
       <c r="G227" s="13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="6:9">
@@ -9171,7 +9177,7 @@
         <v>143</v>
       </c>
       <c r="G228" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I228">
         <v>1</v>
@@ -9182,7 +9188,7 @@
         <v>143</v>
       </c>
       <c r="G229" s="13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I229">
         <v>1</v>
@@ -9193,7 +9199,7 @@
         <v>143</v>
       </c>
       <c r="G230" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I230">
         <v>1</v>
@@ -9204,7 +9210,7 @@
         <v>143</v>
       </c>
       <c r="G231" s="13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I231">
         <v>1</v>
@@ -9215,7 +9221,7 @@
         <v>143</v>
       </c>
       <c r="G232" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I232">
         <v>1</v>
@@ -9226,7 +9232,7 @@
         <v>143</v>
       </c>
       <c r="G233" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I233">
         <v>1</v>
@@ -9237,7 +9243,7 @@
         <v>143</v>
       </c>
       <c r="G234" s="13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I234">
         <v>1</v>
@@ -9248,7 +9254,7 @@
         <v>143</v>
       </c>
       <c r="G235" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I235">
         <v>1</v>
@@ -9259,7 +9265,7 @@
         <v>143</v>
       </c>
       <c r="G236" s="13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I236">
         <v>1</v>
@@ -9270,7 +9276,7 @@
         <v>143</v>
       </c>
       <c r="G237" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I237">
         <v>1</v>
@@ -9281,7 +9287,7 @@
         <v>143</v>
       </c>
       <c r="G238" s="13" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="I238">
         <v>1</v>
@@ -9292,7 +9298,7 @@
         <v>143</v>
       </c>
       <c r="G239" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I239">
         <v>1</v>
@@ -9303,7 +9309,7 @@
         <v>143</v>
       </c>
       <c r="G240" s="13" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="I240">
         <v>1</v>
@@ -9314,7 +9320,7 @@
         <v>143</v>
       </c>
       <c r="G241" s="13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I241">
         <v>1</v>
@@ -9325,7 +9331,7 @@
         <v>143</v>
       </c>
       <c r="G242" s="13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I242">
         <v>1</v>
@@ -9336,7 +9342,7 @@
         <v>143</v>
       </c>
       <c r="G243" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I243">
         <v>1</v>
@@ -9346,8 +9352,8 @@
       <c r="F244" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="G244" s="12" t="s">
-        <v>75</v>
+      <c r="G244" s="13" t="s">
+        <v>323</v>
       </c>
       <c r="I244">
         <v>1</v>
@@ -9355,10 +9361,10 @@
     </row>
     <row r="245" spans="6:9">
       <c r="F245" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G245" s="12" t="s">
-        <v>385</v>
+        <v>143</v>
+      </c>
+      <c r="G245" s="13" t="s">
+        <v>324</v>
       </c>
       <c r="I245">
         <v>1</v>
@@ -9366,10 +9372,10 @@
     </row>
     <row r="246" spans="6:9">
       <c r="F246" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G246" s="12" t="s">
-        <v>385</v>
+        <v>75</v>
       </c>
       <c r="I246">
         <v>1</v>
@@ -9380,7 +9386,7 @@
         <v>144</v>
       </c>
       <c r="G247" s="12" t="s">
-        <v>264</v>
+        <v>386</v>
       </c>
       <c r="I247">
         <v>1</v>
@@ -9391,7 +9397,7 @@
         <v>144</v>
       </c>
       <c r="G248" s="12" t="s">
-        <v>276</v>
+        <v>386</v>
       </c>
       <c r="I248">
         <v>1</v>
@@ -9402,7 +9408,7 @@
         <v>144</v>
       </c>
       <c r="G249" s="12" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="I249">
         <v>1</v>
@@ -9413,7 +9419,7 @@
         <v>144</v>
       </c>
       <c r="G250" s="12" t="s">
-        <v>385</v>
+        <v>276</v>
       </c>
       <c r="I250">
         <v>1</v>
@@ -9424,7 +9430,7 @@
         <v>144</v>
       </c>
       <c r="G251" s="12" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
       <c r="I251">
         <v>1</v>
@@ -9446,7 +9452,7 @@
         <v>144</v>
       </c>
       <c r="G253" s="12" t="s">
-        <v>77</v>
+        <v>332</v>
       </c>
       <c r="I253">
         <v>1</v>
@@ -9454,7 +9460,7 @@
     </row>
     <row r="254" spans="6:9">
       <c r="F254" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G254" s="12" t="s">
         <v>387</v>
@@ -9465,10 +9471,10 @@
     </row>
     <row r="255" spans="6:9">
       <c r="F255" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G255" s="12" t="s">
-        <v>388</v>
+        <v>77</v>
       </c>
       <c r="I255">
         <v>1</v>
@@ -9479,7 +9485,7 @@
         <v>145</v>
       </c>
       <c r="G256" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I256">
         <v>1</v>
@@ -9490,7 +9496,7 @@
         <v>145</v>
       </c>
       <c r="G257" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I257">
         <v>1</v>
@@ -9501,7 +9507,7 @@
         <v>145</v>
       </c>
       <c r="G258" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I258">
         <v>1</v>
@@ -9512,7 +9518,7 @@
         <v>145</v>
       </c>
       <c r="G259" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I259">
         <v>1</v>
@@ -9523,7 +9529,7 @@
         <v>145</v>
       </c>
       <c r="G260" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I260">
         <v>1</v>
@@ -9534,7 +9540,7 @@
         <v>145</v>
       </c>
       <c r="G261" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I261">
         <v>1</v>
@@ -9545,10 +9551,7 @@
         <v>145</v>
       </c>
       <c r="G262" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="H262">
-        <v>1</v>
+        <v>394</v>
       </c>
       <c r="I262">
         <v>1</v>
@@ -9559,7 +9562,7 @@
         <v>145</v>
       </c>
       <c r="G263" s="12" t="s">
-        <v>276</v>
+        <v>395</v>
       </c>
       <c r="I263">
         <v>1</v>
@@ -9570,7 +9573,7 @@
         <v>145</v>
       </c>
       <c r="G264" s="12" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="H264">
         <v>1</v>
@@ -9584,7 +9587,7 @@
         <v>145</v>
       </c>
       <c r="G265" s="12" t="s">
-        <v>346</v>
+        <v>276</v>
       </c>
       <c r="I265">
         <v>1</v>
@@ -9595,7 +9598,10 @@
         <v>145</v>
       </c>
       <c r="G266" s="12" t="s">
-        <v>303</v>
+        <v>342</v>
+      </c>
+      <c r="H266">
+        <v>1</v>
       </c>
       <c r="I266">
         <v>1</v>
@@ -9606,7 +9612,7 @@
         <v>145</v>
       </c>
       <c r="G267" s="12" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="I267">
         <v>1</v>
@@ -9617,7 +9623,7 @@
         <v>145</v>
       </c>
       <c r="G268" s="12" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="I268">
         <v>1</v>
@@ -9628,7 +9634,7 @@
         <v>145</v>
       </c>
       <c r="G269" s="12" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="I269">
         <v>1</v>
@@ -9639,7 +9645,7 @@
         <v>145</v>
       </c>
       <c r="G270" s="12" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="I270">
         <v>1</v>
@@ -9661,7 +9667,7 @@
         <v>145</v>
       </c>
       <c r="G272" s="12" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="I272">
         <v>1</v>
@@ -9672,7 +9678,7 @@
         <v>145</v>
       </c>
       <c r="G273" s="12" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="I273">
         <v>1</v>
@@ -9682,30 +9688,30 @@
       <c r="F274" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="G274" s="14" t="s">
+      <c r="G274" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="I274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="6:9">
+      <c r="F275" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G275" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="I275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="6:9">
+      <c r="F276" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G276" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="I274">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="6:9">
-      <c r="F275" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="G275" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="I275">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="6:9">
-      <c r="F276" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="G276" s="11" t="s">
-        <v>397</v>
       </c>
       <c r="I276">
         <v>1</v>
@@ -9716,7 +9722,7 @@
         <v>148</v>
       </c>
       <c r="G277" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I277">
         <v>1</v>
@@ -9727,51 +9733,51 @@
         <v>148</v>
       </c>
       <c r="G278" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="I278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="6:9">
+      <c r="F279" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G279" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="I278">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="6:9">
-      <c r="F279" s="14" t="s">
+      <c r="I279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="6:9">
+      <c r="F280" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G280" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="I280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="6:9">
+      <c r="F281" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="G279" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="I279">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="6:9">
-      <c r="F280" s="14" t="s">
+      <c r="G281" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="I281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="6:9">
+      <c r="F282" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="G280" s="14" t="s">
+      <c r="G282" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="I280">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="6:9">
-      <c r="F281" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G281" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="I281">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="6:9">
-      <c r="F282" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G282" s="13" t="s">
-        <v>401</v>
       </c>
       <c r="I282">
         <v>1</v>
@@ -9782,7 +9788,7 @@
         <v>152</v>
       </c>
       <c r="G283" s="13" t="s">
-        <v>95</v>
+        <v>401</v>
       </c>
       <c r="I283">
         <v>1</v>
@@ -9790,7 +9796,7 @@
     </row>
     <row r="284" spans="6:9">
       <c r="F284" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G284" s="13" t="s">
         <v>402</v>
@@ -9801,18 +9807,18 @@
     </row>
     <row r="285" spans="6:9">
       <c r="F285" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G285" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="6:9">
+      <c r="F286" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="G285" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="I285">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="6:9">
-      <c r="F286" s="14" t="s">
-        <v>154</v>
       </c>
       <c r="G286" s="13" t="s">
         <v>403</v>
@@ -9822,11 +9828,11 @@
       </c>
     </row>
     <row r="287" spans="6:9">
-      <c r="F287" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="G287" s="14" t="s">
-        <v>98</v>
+      <c r="F287" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G287" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="I287">
         <v>1</v>
@@ -9834,7 +9840,7 @@
     </row>
     <row r="288" spans="6:9">
       <c r="F288" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G288" s="13" t="s">
         <v>404</v>
@@ -9845,18 +9851,18 @@
     </row>
     <row r="289" spans="6:9">
       <c r="F289" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G289" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="6:9">
+      <c r="F290" s="14" t="s">
         <v>155</v>
-      </c>
-      <c r="G289" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="I289">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="6:9">
-      <c r="F290" s="10" t="s">
-        <v>156</v>
       </c>
       <c r="G290" s="13" t="s">
         <v>405</v>
@@ -9866,11 +9872,11 @@
       </c>
     </row>
     <row r="291" spans="6:9">
-      <c r="F291" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G291" s="13" t="s">
-        <v>406</v>
+      <c r="F291" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G291" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="I291">
         <v>1</v>
@@ -9880,8 +9886,8 @@
       <c r="F292" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="G292" s="13" t="s">
-        <v>407</v>
+      <c r="G292" t="s">
+        <v>406</v>
       </c>
       <c r="I292">
         <v>1</v>
@@ -9892,7 +9898,7 @@
         <v>156</v>
       </c>
       <c r="G293" s="13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I293">
         <v>1</v>
@@ -9903,7 +9909,7 @@
         <v>156</v>
       </c>
       <c r="G294" s="13" t="s">
-        <v>104</v>
+        <v>408</v>
       </c>
       <c r="I294">
         <v>1</v>
@@ -9911,10 +9917,10 @@
     </row>
     <row r="295" spans="6:9">
       <c r="F295" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G295" s="13" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="I295">
         <v>1</v>
@@ -9922,10 +9928,10 @@
     </row>
     <row r="296" spans="6:9">
       <c r="F296" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G296" s="13" t="s">
-        <v>406</v>
+        <v>104</v>
       </c>
       <c r="I296">
         <v>1</v>
@@ -9936,7 +9942,7 @@
         <v>157</v>
       </c>
       <c r="G297" s="13" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I297">
         <v>1</v>
@@ -9947,7 +9953,7 @@
         <v>157</v>
       </c>
       <c r="G298" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I298">
         <v>1</v>
@@ -9969,7 +9975,7 @@
         <v>157</v>
       </c>
       <c r="G300" s="13" t="s">
-        <v>107</v>
+        <v>410</v>
       </c>
       <c r="I300">
         <v>1</v>
@@ -9977,10 +9983,10 @@
     </row>
     <row r="301" spans="6:9">
       <c r="F301" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G301" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I301">
         <v>1</v>
@@ -9988,10 +9994,10 @@
     </row>
     <row r="302" spans="6:9">
       <c r="F302" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G302" s="13" t="s">
-        <v>411</v>
+        <v>107</v>
       </c>
       <c r="I302">
         <v>1</v>
@@ -10002,7 +10008,7 @@
         <v>158</v>
       </c>
       <c r="G303" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I303">
         <v>1</v>
@@ -10013,7 +10019,7 @@
         <v>158</v>
       </c>
       <c r="G304" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I304">
         <v>1</v>
@@ -10024,15 +10030,15 @@
         <v>158</v>
       </c>
       <c r="G305" s="13" t="s">
-        <v>110</v>
+        <v>413</v>
       </c>
       <c r="I305">
         <v>1</v>
       </c>
     </row>
     <row r="306" spans="6:9">
-      <c r="F306" s="14" t="s">
-        <v>159</v>
+      <c r="F306" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="G306" s="13" t="s">
         <v>414</v>
@@ -10042,11 +10048,11 @@
       </c>
     </row>
     <row r="307" spans="6:9">
-      <c r="F307" s="14" t="s">
-        <v>159</v>
+      <c r="F307" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="G307" s="13" t="s">
-        <v>415</v>
+        <v>110</v>
       </c>
       <c r="I307">
         <v>1</v>
@@ -10057,7 +10063,7 @@
         <v>159</v>
       </c>
       <c r="G308" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I308">
         <v>1</v>
@@ -10068,7 +10074,7 @@
         <v>159</v>
       </c>
       <c r="G309" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I309">
         <v>1</v>
@@ -10078,10 +10084,32 @@
       <c r="F310" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="G310" t="s">
+      <c r="G310" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="I310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="6:9">
+      <c r="F311" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G311" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="I311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="6:9">
+      <c r="F312" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G312" t="s">
         <v>113</v>
       </c>
-      <c r="I310">
+      <c r="I312">
         <v>1</v>
       </c>
     </row>
@@ -10115,13 +10143,13 @@
   <sheetData>
     <row r="7" ht="13.95" customHeight="1" spans="4:8">
       <c r="D7" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>260</v>
@@ -10134,7 +10162,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>12</v>
@@ -10144,7 +10172,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>21</v>
@@ -10154,7 +10182,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>24</v>
@@ -10164,7 +10192,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>27</v>
@@ -10174,7 +10202,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>33</v>
@@ -10184,7 +10212,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>36</v>
@@ -10194,7 +10222,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>39</v>
@@ -10204,7 +10232,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>42</v>
@@ -10214,7 +10242,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>45</v>
@@ -10224,7 +10252,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>48</v>
@@ -10234,7 +10262,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>75</v>
@@ -10244,7 +10272,7 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>77</v>
@@ -10254,7 +10282,7 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>80</v>
@@ -10264,7 +10292,7 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>83</v>
@@ -10274,7 +10302,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>85</v>
@@ -10284,7 +10312,7 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>90</v>
@@ -10292,7 +10320,7 @@
     </row>
     <row r="24" spans="6:7">
       <c r="F24" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>12</v>
@@ -10300,7 +10328,7 @@
     </row>
     <row r="25" spans="6:7">
       <c r="F25" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>18</v>
@@ -10308,7 +10336,7 @@
     </row>
     <row r="26" spans="6:7">
       <c r="F26" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>21</v>
@@ -10316,7 +10344,7 @@
     </row>
     <row r="27" spans="6:7">
       <c r="F27" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>24</v>
@@ -10324,7 +10352,7 @@
     </row>
     <row r="28" spans="6:7">
       <c r="F28" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>27</v>
@@ -10332,7 +10360,7 @@
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>30</v>
@@ -10340,7 +10368,7 @@
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>33</v>
@@ -10348,7 +10376,7 @@
     </row>
     <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>36</v>
@@ -10356,7 +10384,7 @@
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>39</v>
@@ -10364,7 +10392,7 @@
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>42</v>
@@ -10372,7 +10400,7 @@
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>45</v>
@@ -10380,7 +10408,7 @@
     </row>
     <row r="35" spans="6:7">
       <c r="F35" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>48</v>
@@ -10388,7 +10416,7 @@
     </row>
     <row r="36" spans="6:7">
       <c r="F36" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>51</v>
@@ -10396,7 +10424,7 @@
     </row>
     <row r="37" spans="6:7">
       <c r="F37" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>54</v>
@@ -10404,7 +10432,7 @@
     </row>
     <row r="38" spans="6:7">
       <c r="F38" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>57</v>
@@ -10412,7 +10440,7 @@
     </row>
     <row r="39" spans="6:7">
       <c r="F39" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>60</v>
@@ -10420,7 +10448,7 @@
     </row>
     <row r="40" spans="6:7">
       <c r="F40" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>63</v>
@@ -10428,7 +10456,7 @@
     </row>
     <row r="41" spans="6:7">
       <c r="F41" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>66</v>
@@ -10436,7 +10464,7 @@
     </row>
     <row r="42" spans="6:7">
       <c r="F42" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>69</v>
@@ -10444,7 +10472,7 @@
     </row>
     <row r="43" spans="6:7">
       <c r="F43" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>72</v>
@@ -10452,7 +10480,7 @@
     </row>
     <row r="44" spans="6:7">
       <c r="F44" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>75</v>
@@ -10460,7 +10488,7 @@
     </row>
     <row r="45" spans="6:7">
       <c r="F45" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>77</v>
@@ -10468,7 +10496,7 @@
     </row>
     <row r="46" spans="6:7">
       <c r="F46" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>80</v>
@@ -10476,7 +10504,7 @@
     </row>
     <row r="47" spans="6:7">
       <c r="F47" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>83</v>
@@ -10484,7 +10512,7 @@
     </row>
     <row r="48" spans="6:7">
       <c r="F48" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>85</v>
@@ -10492,7 +10520,7 @@
     </row>
     <row r="49" spans="6:7">
       <c r="F49" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>87</v>
@@ -10500,7 +10528,7 @@
     </row>
     <row r="50" spans="6:7">
       <c r="F50" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>90</v>
@@ -10508,7 +10536,7 @@
     </row>
     <row r="51" spans="6:7">
       <c r="F51" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>93</v>
@@ -10516,7 +10544,7 @@
     </row>
     <row r="52" spans="6:7">
       <c r="F52" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G52" s="10" t="s">
         <v>95</v>
@@ -10524,7 +10552,7 @@
     </row>
     <row r="53" spans="6:7">
       <c r="F53" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>97</v>
@@ -10532,7 +10560,7 @@
     </row>
     <row r="54" spans="6:7">
       <c r="F54" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G54" s="10" t="s">
         <v>98</v>
@@ -10540,7 +10568,7 @@
     </row>
     <row r="55" spans="6:7">
       <c r="F55" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>101</v>
@@ -10548,7 +10576,7 @@
     </row>
     <row r="56" spans="6:7">
       <c r="F56" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>104</v>
@@ -10556,7 +10584,7 @@
     </row>
     <row r="57" spans="6:7">
       <c r="F57" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>107</v>
@@ -10564,7 +10592,7 @@
     </row>
     <row r="58" spans="6:7">
       <c r="F58" s="11" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>110</v>
@@ -10572,7 +10600,7 @@
     </row>
     <row r="59" spans="6:7">
       <c r="F59" s="11" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>113</v>
@@ -10612,7 +10640,7 @@
   <sheetData>
     <row r="7" spans="4:18">
       <c r="D7" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1</v>
@@ -10621,7 +10649,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>166</v>
@@ -10630,13 +10658,13 @@
         <v>167</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>6</v>
@@ -10648,33 +10676,33 @@
         <v>173</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="5:17">
       <c r="E8" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>431</v>
-      </c>
       <c r="J8" s="4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>189</v>
@@ -10683,10 +10711,10 @@
         <v>15</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O8" s="3">
         <v>1</v>
@@ -10700,22 +10728,22 @@
     </row>
     <row r="9" spans="5:17">
       <c r="E9" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>434</v>
-      </c>
       <c r="J9" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>189</v>
@@ -10724,10 +10752,10 @@
         <v>15</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O9" s="3">
         <v>2</v>
@@ -10741,22 +10769,22 @@
     </row>
     <row r="10" spans="5:17">
       <c r="E10" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>437</v>
-      </c>
       <c r="J10" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>189</v>
@@ -10765,7 +10793,7 @@
         <v>15</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>200</v>
@@ -10782,22 +10810,22 @@
     </row>
     <row r="11" spans="5:17">
       <c r="E11" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>439</v>
-      </c>
       <c r="J11" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>189</v>
@@ -10806,10 +10834,10 @@
         <v>15</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O11" s="3">
         <v>4</v>
@@ -10823,22 +10851,22 @@
     </row>
     <row r="12" spans="5:17">
       <c r="E12" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>442</v>
-      </c>
       <c r="J12" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>189</v>
@@ -10847,10 +10875,10 @@
         <v>15</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O12" s="3">
         <v>5</v>
@@ -10864,22 +10892,22 @@
     </row>
     <row r="13" spans="5:18">
       <c r="E13" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>445</v>
-      </c>
       <c r="J13" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>189</v>
@@ -10888,10 +10916,10 @@
         <v>15</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O13" s="3">
         <v>6</v>
@@ -10903,27 +10931,27 @@
         <v>1</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="5:18">
       <c r="E14" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>449</v>
-      </c>
       <c r="J14" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>189</v>
@@ -10932,10 +10960,10 @@
         <v>15</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O14" s="3">
         <v>7</v>
@@ -10947,7 +10975,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -10977,45 +11005,45 @@
   <sheetData>
     <row r="7" spans="4:11">
       <c r="D7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>172</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="6:11">
       <c r="F8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="J8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K8">
         <v>10</v>
@@ -11023,19 +11051,19 @@
     </row>
     <row r="9" spans="6:11">
       <c r="F9" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J9" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K9">
         <v>20</v>
@@ -11043,19 +11071,19 @@
     </row>
     <row r="10" spans="6:11">
       <c r="F10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J10" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K10">
         <v>30</v>
@@ -11063,19 +11091,19 @@
     </row>
     <row r="11" spans="6:11">
       <c r="F11" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="J11" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K11">
         <v>40</v>
@@ -11083,19 +11111,19 @@
     </row>
     <row r="12" spans="6:11">
       <c r="F12" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J12" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K12">
         <v>50</v>
@@ -11103,19 +11131,19 @@
     </row>
     <row r="13" spans="6:11">
       <c r="F13" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G13" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J13" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K13">
         <v>60</v>
@@ -11123,19 +11151,19 @@
     </row>
     <row r="14" spans="6:11">
       <c r="F14" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G14" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J14" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K14">
         <v>70</v>
@@ -11143,19 +11171,19 @@
     </row>
     <row r="15" spans="6:11">
       <c r="F15" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G15" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J15" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K15">
         <v>80</v>
@@ -11163,19 +11191,19 @@
     </row>
     <row r="16" spans="6:11">
       <c r="F16" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G16" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J16" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K16">
         <v>90</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\agile-service\src\main\resources\script\meta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94EC283-5D56-4E82-8653-C28F0DF1D5E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="1000" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -1543,14 +1549,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="34">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1560,11 +1560,12 @@
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1617,13 +1618,13 @@
       <sz val="10"/>
       <color theme="9"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF494949"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1632,352 +1633,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1985,251 +1655,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -2252,61 +1680,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2591,37 +1975,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:O43"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A20" sqref="$A20:$XFD20"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.552380952381" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.552380952381" customWidth="1"/>
-    <col min="6" max="6" width="57.4380952380952" customWidth="1"/>
-    <col min="7" max="7" width="23.552380952381" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="57.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="18.2190476190476" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.2190476190476" customWidth="1"/>
-    <col min="13" max="13" width="18.552380952381" customWidth="1"/>
-    <col min="14" max="14" width="19.4380952380952" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.552380952381" customWidth="1"/>
+    <col min="16" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:15">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1">
       <c r="D7" s="5" t="s">
         <v>0</v>
       </c>
@@ -2659,7 +2043,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="6:14">
+    <row r="8" spans="4:15">
       <c r="F8" t="s">
         <v>12</v>
       </c>
@@ -2688,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="6:14">
+    <row r="9" spans="4:15">
       <c r="F9" t="s">
         <v>18</v>
       </c>
@@ -2717,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="6:14">
+    <row r="10" spans="4:15">
       <c r="F10" t="s">
         <v>21</v>
       </c>
@@ -2746,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="6:14">
+    <row r="11" spans="4:15">
       <c r="F11" s="6" t="s">
         <v>24</v>
       </c>
@@ -2775,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="6:14">
+    <row r="12" spans="4:15">
       <c r="F12" s="6" t="s">
         <v>27</v>
       </c>
@@ -2804,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="6:14">
+    <row r="13" spans="4:15">
       <c r="F13" s="6" t="s">
         <v>30</v>
       </c>
@@ -2833,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="6:14">
+    <row r="14" spans="4:15">
       <c r="F14" t="s">
         <v>33</v>
       </c>
@@ -2862,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="6:14">
+    <row r="15" spans="4:15">
       <c r="F15" t="s">
         <v>36</v>
       </c>
@@ -2891,7 +2275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="6:14">
+    <row r="16" spans="4:15">
       <c r="F16" t="s">
         <v>39</v>
       </c>
@@ -3704,8 +3088,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -3714,27 +3099,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:I125"/>
   <sheetViews>
     <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.552380952381" customWidth="1"/>
-    <col min="4" max="4" width="23.7809523809524" customWidth="1"/>
-    <col min="5" max="5" width="11.552380952381" customWidth="1"/>
-    <col min="6" max="6" width="30.2190476190476" customWidth="1"/>
-    <col min="7" max="7" width="51.4380952380952" customWidth="1"/>
-    <col min="8" max="8" width="58.4380952380952" customWidth="1"/>
-    <col min="9" max="9" width="31.2190476190476" customWidth="1"/>
-    <col min="10" max="1026" width="11.552380952381" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="51.42578125" customWidth="1"/>
+    <col min="8" max="8" width="58.42578125" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" customWidth="1"/>
+    <col min="10" max="1026" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:9">
+    <row r="7" spans="4:9" ht="12.75" customHeight="1">
       <c r="D7" s="17" t="s">
         <v>116</v>
       </c>
@@ -3754,7 +3138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="4:9">
+    <row r="8" spans="4:9" ht="12.75" customHeight="1">
       <c r="D8" s="17"/>
       <c r="E8" s="5"/>
       <c r="F8" s="17" t="s">
@@ -3768,7 +3152,7 @@
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" customHeight="1" spans="4:9">
+    <row r="9" spans="4:9" ht="12.75" customHeight="1">
       <c r="D9" s="17"/>
       <c r="E9" s="5"/>
       <c r="F9" s="17" t="s">
@@ -3782,7 +3166,7 @@
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" customHeight="1" spans="4:9">
+    <row r="10" spans="4:9" ht="12.75" customHeight="1">
       <c r="D10" s="17"/>
       <c r="E10" s="5"/>
       <c r="F10" s="17" t="s">
@@ -3796,7 +3180,7 @@
       </c>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" customHeight="1" spans="4:9">
+    <row r="11" spans="4:9" ht="12.75" customHeight="1">
       <c r="D11" s="17"/>
       <c r="E11" s="5"/>
       <c r="F11" s="17" t="s">
@@ -3810,7 +3194,7 @@
       </c>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" customHeight="1" spans="4:9">
+    <row r="12" spans="4:9" ht="12.75" customHeight="1">
       <c r="D12" s="17"/>
       <c r="E12" s="5"/>
       <c r="F12" s="17" t="s">
@@ -3824,7 +3208,7 @@
       </c>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" customHeight="1" spans="4:9">
+    <row r="13" spans="4:9" ht="12.75" customHeight="1">
       <c r="D13" s="17"/>
       <c r="E13" s="5"/>
       <c r="F13" s="17" t="s">
@@ -3838,7 +3222,7 @@
       </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" customHeight="1" spans="4:9">
+    <row r="14" spans="4:9" ht="12.75" customHeight="1">
       <c r="D14" s="17"/>
       <c r="E14" s="5"/>
       <c r="F14" s="17" t="s">
@@ -3852,7 +3236,7 @@
       </c>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" customHeight="1" spans="4:9">
+    <row r="15" spans="4:9" ht="12.75" customHeight="1">
       <c r="D15" s="17"/>
       <c r="E15" s="5"/>
       <c r="F15" s="17" t="s">
@@ -3866,7 +3250,7 @@
       </c>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" customHeight="1" spans="4:9">
+    <row r="16" spans="4:9" ht="12.75" customHeight="1">
       <c r="D16" s="17"/>
       <c r="E16" s="5"/>
       <c r="F16" s="17" t="s">
@@ -3880,7 +3264,7 @@
       </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" customHeight="1" spans="4:9">
+    <row r="17" spans="4:9" ht="12.75" customHeight="1">
       <c r="D17" s="17"/>
       <c r="E17" s="5"/>
       <c r="F17" s="17" t="s">
@@ -3894,7 +3278,7 @@
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" customHeight="1" spans="4:9">
+    <row r="18" spans="4:9" ht="12.75" customHeight="1">
       <c r="D18" s="17"/>
       <c r="E18" s="5"/>
       <c r="F18" s="17" t="s">
@@ -3908,7 +3292,7 @@
       </c>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" customHeight="1" spans="4:9">
+    <row r="19" spans="4:9" ht="12.75" customHeight="1">
       <c r="D19" s="17"/>
       <c r="E19" s="5"/>
       <c r="F19" s="17" t="s">
@@ -3922,7 +3306,7 @@
       </c>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" customHeight="1" spans="4:9">
+    <row r="20" spans="4:9" ht="12.75" customHeight="1">
       <c r="D20" s="17"/>
       <c r="E20" s="5"/>
       <c r="F20" s="17" t="s">
@@ -3936,7 +3320,7 @@
       </c>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" customHeight="1" spans="4:9">
+    <row r="21" spans="4:9" ht="12.75" customHeight="1">
       <c r="D21" s="17"/>
       <c r="E21" s="5"/>
       <c r="F21" s="17" t="s">
@@ -3950,7 +3334,7 @@
       </c>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" customHeight="1" spans="4:9">
+    <row r="22" spans="4:9" ht="12.75" customHeight="1">
       <c r="D22" s="17"/>
       <c r="E22" s="5"/>
       <c r="F22" s="17" t="s">
@@ -3964,7 +3348,7 @@
       </c>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" customHeight="1" spans="4:9">
+    <row r="23" spans="4:9" ht="12.75" customHeight="1">
       <c r="D23" s="17"/>
       <c r="E23" s="5"/>
       <c r="F23" s="17" t="s">
@@ -3978,7 +3362,7 @@
       </c>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" customHeight="1" spans="4:9">
+    <row r="24" spans="4:9" ht="12.75" customHeight="1">
       <c r="D24" s="17"/>
       <c r="E24" s="5"/>
       <c r="F24" s="17" t="s">
@@ -3992,7 +3376,7 @@
       </c>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" customHeight="1" spans="4:9">
+    <row r="25" spans="4:9" ht="12.75" customHeight="1">
       <c r="D25" s="17"/>
       <c r="E25" s="5"/>
       <c r="F25" s="17" t="s">
@@ -4006,7 +3390,7 @@
       </c>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" customHeight="1" spans="4:9">
+    <row r="26" spans="4:9" ht="12.75" customHeight="1">
       <c r="D26" s="17"/>
       <c r="E26" s="5"/>
       <c r="F26" s="17" t="s">
@@ -4020,7 +3404,7 @@
       </c>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" customHeight="1" spans="4:9">
+    <row r="27" spans="4:9" ht="12.75" customHeight="1">
       <c r="D27" s="17"/>
       <c r="E27" s="5"/>
       <c r="F27" s="17" t="s">
@@ -4034,7 +3418,7 @@
       </c>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" customHeight="1" spans="4:9">
+    <row r="28" spans="4:9" ht="12.75" customHeight="1">
       <c r="D28" s="17"/>
       <c r="E28" s="5"/>
       <c r="F28" s="17" t="s">
@@ -4048,7 +3432,7 @@
       </c>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" customHeight="1" spans="4:9">
+    <row r="29" spans="4:9" ht="12.75" customHeight="1">
       <c r="D29" s="17"/>
       <c r="E29" s="5"/>
       <c r="F29" s="17" t="s">
@@ -4062,7 +3446,7 @@
       </c>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" customHeight="1" spans="4:9">
+    <row r="30" spans="4:9" ht="12.75" customHeight="1">
       <c r="D30" s="17"/>
       <c r="E30" s="5"/>
       <c r="F30" s="17" t="s">
@@ -4076,7 +3460,7 @@
       </c>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" customHeight="1" spans="4:9">
+    <row r="31" spans="4:9" ht="12.75" customHeight="1">
       <c r="D31" s="17"/>
       <c r="E31" s="5"/>
       <c r="F31" s="17" t="s">
@@ -4090,7 +3474,7 @@
       </c>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" customHeight="1" spans="4:9">
+    <row r="32" spans="4:9" ht="12.75" customHeight="1">
       <c r="D32" s="17"/>
       <c r="E32" s="5"/>
       <c r="F32" s="17" t="s">
@@ -4104,7 +3488,7 @@
       </c>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" customHeight="1" spans="4:9">
+    <row r="33" spans="4:9" ht="12.75" customHeight="1">
       <c r="D33" s="17"/>
       <c r="E33" s="5"/>
       <c r="F33" s="17" t="s">
@@ -4118,7 +3502,7 @@
       </c>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" customHeight="1" spans="4:9">
+    <row r="34" spans="4:9" ht="12.75" customHeight="1">
       <c r="D34" s="17"/>
       <c r="E34" s="5"/>
       <c r="F34" s="17" t="s">
@@ -4132,7 +3516,7 @@
       </c>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" customHeight="1" spans="4:9">
+    <row r="35" spans="4:9" ht="12.75" customHeight="1">
       <c r="D35" s="17"/>
       <c r="E35" s="5"/>
       <c r="F35" s="17" t="s">
@@ -4146,7 +3530,7 @@
       </c>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" customHeight="1" spans="4:9">
+    <row r="36" spans="4:9" ht="12.75" customHeight="1">
       <c r="D36" s="17"/>
       <c r="E36" s="5"/>
       <c r="F36" s="17" t="s">
@@ -4160,7 +3544,7 @@
       </c>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" customHeight="1" spans="4:9">
+    <row r="37" spans="4:9" ht="12.75" customHeight="1">
       <c r="D37" s="17"/>
       <c r="E37" s="5"/>
       <c r="F37" s="17" t="s">
@@ -4174,7 +3558,7 @@
       </c>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" customHeight="1" spans="4:9">
+    <row r="38" spans="4:9" ht="12.75" customHeight="1">
       <c r="D38" s="17"/>
       <c r="E38" s="5"/>
       <c r="F38" s="17" t="s">
@@ -4188,7 +3572,7 @@
       </c>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" customHeight="1" spans="4:9">
+    <row r="39" spans="4:9" ht="12.75" customHeight="1">
       <c r="D39" s="17"/>
       <c r="E39" s="5"/>
       <c r="F39" s="17" t="s">
@@ -4202,7 +3586,7 @@
       </c>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" customHeight="1" spans="4:9">
+    <row r="40" spans="4:9" ht="12.75" customHeight="1">
       <c r="D40" s="17"/>
       <c r="E40" s="5"/>
       <c r="F40" s="17" t="s">
@@ -4216,7 +3600,7 @@
       </c>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" customHeight="1" spans="4:9">
+    <row r="41" spans="4:9" ht="12.75" customHeight="1">
       <c r="D41" s="17"/>
       <c r="E41" s="5"/>
       <c r="F41" s="17" t="s">
@@ -4230,7 +3614,7 @@
       </c>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" customHeight="1" spans="4:9">
+    <row r="42" spans="4:9" ht="12.75" customHeight="1">
       <c r="D42" s="17"/>
       <c r="E42" s="5"/>
       <c r="F42" s="17" t="s">
@@ -4244,7 +3628,7 @@
       </c>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" customHeight="1" spans="4:9">
+    <row r="43" spans="4:9" ht="12.75" customHeight="1">
       <c r="D43" s="17"/>
       <c r="E43" s="5"/>
       <c r="F43" s="17" t="s">
@@ -4258,7 +3642,7 @@
       </c>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" customHeight="1" spans="4:9">
+    <row r="44" spans="4:9" ht="12.75" customHeight="1">
       <c r="D44" s="17"/>
       <c r="E44" s="5"/>
       <c r="F44" s="17" t="s">
@@ -4272,7 +3656,7 @@
       </c>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" customHeight="1" spans="4:9">
+    <row r="45" spans="4:9" ht="12.75" customHeight="1">
       <c r="D45" s="17"/>
       <c r="E45" s="5"/>
       <c r="F45" s="17" t="s">
@@ -4286,7 +3670,7 @@
       </c>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" customHeight="1" spans="4:9">
+    <row r="46" spans="4:9" ht="12.75" customHeight="1">
       <c r="D46" s="17"/>
       <c r="E46" s="5"/>
       <c r="F46" s="17" t="s">
@@ -4300,7 +3684,7 @@
       </c>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" customHeight="1" spans="4:9">
+    <row r="47" spans="4:9" ht="12.75" customHeight="1">
       <c r="D47" s="17"/>
       <c r="E47" s="5"/>
       <c r="F47" s="17" t="s">
@@ -4314,7 +3698,7 @@
       </c>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" customHeight="1" spans="4:9">
+    <row r="48" spans="4:9" ht="12.75" customHeight="1">
       <c r="D48" s="17"/>
       <c r="E48" s="5"/>
       <c r="F48" s="17" t="s">
@@ -4328,7 +3712,7 @@
       </c>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" customHeight="1" spans="4:9">
+    <row r="49" spans="4:9" ht="12.75" customHeight="1">
       <c r="D49" s="17"/>
       <c r="E49" s="5"/>
       <c r="F49" s="17" t="s">
@@ -4342,7 +3726,7 @@
       </c>
       <c r="I49" s="5"/>
     </row>
-    <row r="50" customHeight="1" spans="4:9">
+    <row r="50" spans="4:9" ht="12.75" customHeight="1">
       <c r="D50" s="17"/>
       <c r="E50" s="5"/>
       <c r="F50" s="17" t="s">
@@ -4356,7 +3740,7 @@
       </c>
       <c r="I50" s="5"/>
     </row>
-    <row r="51" customHeight="1" spans="4:9">
+    <row r="51" spans="4:9" ht="12.75" customHeight="1">
       <c r="D51" s="17"/>
       <c r="E51" s="5"/>
       <c r="F51" s="17" t="s">
@@ -4370,7 +3754,7 @@
       </c>
       <c r="I51" s="5"/>
     </row>
-    <row r="52" customHeight="1" spans="4:9">
+    <row r="52" spans="4:9" ht="12.75" customHeight="1">
       <c r="D52" s="17"/>
       <c r="E52" s="5"/>
       <c r="F52" s="17" t="s">
@@ -4384,7 +3768,7 @@
       </c>
       <c r="I52" s="5"/>
     </row>
-    <row r="53" customHeight="1" spans="4:9">
+    <row r="53" spans="4:9" ht="12.75" customHeight="1">
       <c r="D53" s="17"/>
       <c r="E53" s="5"/>
       <c r="F53" s="17" t="s">
@@ -4398,7 +3782,7 @@
       </c>
       <c r="I53" s="5"/>
     </row>
-    <row r="54" customHeight="1" spans="4:9">
+    <row r="54" spans="4:9" ht="12.75" customHeight="1">
       <c r="D54" s="17"/>
       <c r="E54" s="5"/>
       <c r="F54" s="17" t="s">
@@ -4412,7 +3796,7 @@
       </c>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" customHeight="1" spans="4:9">
+    <row r="55" spans="4:9" ht="12.75" customHeight="1">
       <c r="D55" s="17"/>
       <c r="E55" s="5"/>
       <c r="F55" s="17" t="s">
@@ -4426,7 +3810,7 @@
       </c>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" customHeight="1" spans="4:9">
+    <row r="56" spans="4:9" ht="12.75" customHeight="1">
       <c r="D56" s="17"/>
       <c r="E56" s="5"/>
       <c r="F56" s="17" t="s">
@@ -4440,7 +3824,7 @@
       </c>
       <c r="I56" s="5"/>
     </row>
-    <row r="57" customHeight="1" spans="4:9">
+    <row r="57" spans="4:9" ht="12.75" customHeight="1">
       <c r="D57" s="17"/>
       <c r="E57" s="5"/>
       <c r="F57" s="17" t="s">
@@ -4454,7 +3838,7 @@
       </c>
       <c r="I57" s="5"/>
     </row>
-    <row r="58" customHeight="1" spans="4:9">
+    <row r="58" spans="4:9" ht="12.75" customHeight="1">
       <c r="D58" s="17"/>
       <c r="E58" s="5"/>
       <c r="F58" s="17" t="s">
@@ -4468,7 +3852,7 @@
       </c>
       <c r="I58" s="5"/>
     </row>
-    <row r="59" customHeight="1" spans="4:9">
+    <row r="59" spans="4:9" ht="12.75" customHeight="1">
       <c r="D59" s="17"/>
       <c r="E59" s="5"/>
       <c r="F59" s="17" t="s">
@@ -4482,7 +3866,7 @@
       </c>
       <c r="I59" s="5"/>
     </row>
-    <row r="60" customHeight="1" spans="4:9">
+    <row r="60" spans="4:9" ht="12.75" customHeight="1">
       <c r="D60" s="17"/>
       <c r="E60" s="5"/>
       <c r="F60" s="17" t="s">
@@ -4496,7 +3880,7 @@
       </c>
       <c r="I60" s="5"/>
     </row>
-    <row r="61" customHeight="1" spans="4:9">
+    <row r="61" spans="4:9" ht="12.75" customHeight="1">
       <c r="D61" s="17"/>
       <c r="E61" s="5"/>
       <c r="F61" s="17" t="s">
@@ -4510,7 +3894,7 @@
       </c>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" customHeight="1" spans="4:9">
+    <row r="62" spans="4:9" ht="12.75" customHeight="1">
       <c r="D62" s="17"/>
       <c r="E62" s="5"/>
       <c r="F62" s="17" t="s">
@@ -4524,7 +3908,7 @@
       </c>
       <c r="I62" s="5"/>
     </row>
-    <row r="63" customHeight="1" spans="4:9">
+    <row r="63" spans="4:9" ht="12.75" customHeight="1">
       <c r="D63" s="17"/>
       <c r="E63" s="5"/>
       <c r="F63" s="17" t="s">
@@ -4538,7 +3922,7 @@
       </c>
       <c r="I63" s="5"/>
     </row>
-    <row r="64" customHeight="1" spans="4:9">
+    <row r="64" spans="4:9" ht="12.75" customHeight="1">
       <c r="D64" s="17"/>
       <c r="E64" s="5"/>
       <c r="F64" s="17" t="s">
@@ -4552,7 +3936,7 @@
       </c>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" customHeight="1" spans="4:9">
+    <row r="65" spans="4:9" ht="12.75" customHeight="1">
       <c r="D65" s="17"/>
       <c r="E65" s="5"/>
       <c r="F65" s="17" t="s">
@@ -4566,7 +3950,7 @@
       </c>
       <c r="I65" s="5"/>
     </row>
-    <row r="66" customHeight="1" spans="4:9">
+    <row r="66" spans="4:9" ht="12.75" customHeight="1">
       <c r="D66" s="17"/>
       <c r="E66" s="5"/>
       <c r="F66" s="17" t="s">
@@ -4580,7 +3964,7 @@
       </c>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" customHeight="1" spans="4:9">
+    <row r="67" spans="4:9" ht="12.75" customHeight="1">
       <c r="D67" s="17"/>
       <c r="E67" s="5"/>
       <c r="F67" s="17" t="s">
@@ -4594,7 +3978,7 @@
       </c>
       <c r="I67" s="5"/>
     </row>
-    <row r="68" customHeight="1" spans="4:9">
+    <row r="68" spans="4:9" ht="12.75" customHeight="1">
       <c r="D68" s="17"/>
       <c r="E68" s="5"/>
       <c r="F68" s="17" t="s">
@@ -4608,7 +3992,7 @@
       </c>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" customHeight="1" spans="4:9">
+    <row r="69" spans="4:9" ht="12.75" customHeight="1">
       <c r="D69" s="17"/>
       <c r="E69" s="5"/>
       <c r="F69" s="17" t="s">
@@ -4622,7 +4006,7 @@
       </c>
       <c r="I69" s="5"/>
     </row>
-    <row r="70" customHeight="1" spans="4:9">
+    <row r="70" spans="4:9" ht="12.75" customHeight="1">
       <c r="D70" s="17"/>
       <c r="E70" s="5"/>
       <c r="F70" s="17" t="s">
@@ -4636,7 +4020,7 @@
       </c>
       <c r="I70" s="5"/>
     </row>
-    <row r="71" customHeight="1" spans="4:9">
+    <row r="71" spans="4:9" ht="12.75" customHeight="1">
       <c r="D71" s="17"/>
       <c r="E71" s="5"/>
       <c r="F71" s="17" t="s">
@@ -4650,7 +4034,7 @@
       </c>
       <c r="I71" s="5"/>
     </row>
-    <row r="72" customHeight="1" spans="4:9">
+    <row r="72" spans="4:9" ht="12.75" customHeight="1">
       <c r="D72" s="17"/>
       <c r="E72" s="5"/>
       <c r="F72" s="17" t="s">
@@ -4664,7 +4048,7 @@
       </c>
       <c r="I72" s="5"/>
     </row>
-    <row r="73" customHeight="1" spans="4:9">
+    <row r="73" spans="4:9" ht="12.75" customHeight="1">
       <c r="D73" s="17"/>
       <c r="E73" s="5"/>
       <c r="F73" s="17" t="s">
@@ -4678,7 +4062,7 @@
       </c>
       <c r="I73" s="5"/>
     </row>
-    <row r="74" customHeight="1" spans="4:9">
+    <row r="74" spans="4:9" ht="12.75" customHeight="1">
       <c r="D74" s="17"/>
       <c r="E74" s="5"/>
       <c r="F74" s="17" t="s">
@@ -4692,7 +4076,7 @@
       </c>
       <c r="I74" s="5"/>
     </row>
-    <row r="75" customHeight="1" spans="4:9">
+    <row r="75" spans="4:9" ht="12.75" customHeight="1">
       <c r="D75" s="17"/>
       <c r="E75" s="5"/>
       <c r="F75" s="17" t="s">
@@ -4706,7 +4090,7 @@
       </c>
       <c r="I75" s="5"/>
     </row>
-    <row r="76" customHeight="1" spans="4:9">
+    <row r="76" spans="4:9" ht="12.75" customHeight="1">
       <c r="D76" s="17"/>
       <c r="E76" s="5"/>
       <c r="F76" s="17" t="s">
@@ -4720,7 +4104,7 @@
       </c>
       <c r="I76" s="5"/>
     </row>
-    <row r="77" customHeight="1" spans="4:9">
+    <row r="77" spans="4:9" ht="12.75" customHeight="1">
       <c r="D77" s="17"/>
       <c r="E77" s="5"/>
       <c r="F77" s="17" t="s">
@@ -4734,7 +4118,7 @@
       </c>
       <c r="I77" s="5"/>
     </row>
-    <row r="78" customHeight="1" spans="4:9">
+    <row r="78" spans="4:9" ht="12.75" customHeight="1">
       <c r="D78" s="17"/>
       <c r="E78" s="5"/>
       <c r="F78" s="17" t="s">
@@ -4748,7 +4132,7 @@
       </c>
       <c r="I78" s="5"/>
     </row>
-    <row r="79" customHeight="1" spans="4:9">
+    <row r="79" spans="4:9" ht="12.75" customHeight="1">
       <c r="D79" s="17"/>
       <c r="E79" s="5"/>
       <c r="F79" s="17" t="s">
@@ -4762,7 +4146,7 @@
       </c>
       <c r="I79" s="5"/>
     </row>
-    <row r="80" customHeight="1" spans="4:9">
+    <row r="80" spans="4:9" ht="12.75" customHeight="1">
       <c r="D80" s="17"/>
       <c r="E80" s="5"/>
       <c r="F80" s="17" t="s">
@@ -4776,7 +4160,7 @@
       </c>
       <c r="I80" s="5"/>
     </row>
-    <row r="81" customHeight="1" spans="4:9">
+    <row r="81" spans="4:9" ht="12.75" customHeight="1">
       <c r="D81" s="17"/>
       <c r="E81" s="5"/>
       <c r="F81" s="17" t="s">
@@ -4790,7 +4174,7 @@
       </c>
       <c r="I81" s="5"/>
     </row>
-    <row r="82" customHeight="1" spans="4:9">
+    <row r="82" spans="4:9" ht="12.75" customHeight="1">
       <c r="D82" s="17"/>
       <c r="E82" s="5"/>
       <c r="F82" s="17" t="s">
@@ -4804,7 +4188,7 @@
       </c>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" customHeight="1" spans="4:9">
+    <row r="83" spans="4:9" ht="12.75" customHeight="1">
       <c r="D83" s="17"/>
       <c r="E83" s="5"/>
       <c r="F83" s="17" t="s">
@@ -4818,7 +4202,7 @@
       </c>
       <c r="I83" s="5"/>
     </row>
-    <row r="84" customHeight="1" spans="4:9">
+    <row r="84" spans="4:9" ht="12.75" customHeight="1">
       <c r="D84" s="17"/>
       <c r="E84" s="5"/>
       <c r="F84" s="17" t="s">
@@ -4832,7 +4216,7 @@
       </c>
       <c r="I84" s="5"/>
     </row>
-    <row r="85" customHeight="1" spans="4:9">
+    <row r="85" spans="4:9" ht="12.75" customHeight="1">
       <c r="D85" s="17"/>
       <c r="E85" s="5"/>
       <c r="F85" s="17" t="s">
@@ -4846,7 +4230,7 @@
       </c>
       <c r="I85" s="5"/>
     </row>
-    <row r="86" customHeight="1" spans="4:9">
+    <row r="86" spans="4:9" ht="12.75" customHeight="1">
       <c r="D86" s="17"/>
       <c r="E86" s="5"/>
       <c r="F86" s="17" t="s">
@@ -4860,7 +4244,7 @@
       </c>
       <c r="I86" s="5"/>
     </row>
-    <row r="87" customHeight="1" spans="4:9">
+    <row r="87" spans="4:9" ht="12.75" customHeight="1">
       <c r="D87" s="17"/>
       <c r="E87" s="5"/>
       <c r="F87" s="17" t="s">
@@ -4874,7 +4258,7 @@
       </c>
       <c r="I87" s="5"/>
     </row>
-    <row r="88" customHeight="1" spans="4:9">
+    <row r="88" spans="4:9" ht="12.75" customHeight="1">
       <c r="D88" s="17"/>
       <c r="E88" s="5"/>
       <c r="F88" s="17" t="s">
@@ -4888,7 +4272,7 @@
       </c>
       <c r="I88" s="5"/>
     </row>
-    <row r="89" customHeight="1" spans="4:9">
+    <row r="89" spans="4:9" ht="12.75" customHeight="1">
       <c r="D89" s="17"/>
       <c r="E89" s="5"/>
       <c r="F89" s="17" t="s">
@@ -4902,7 +4286,7 @@
       </c>
       <c r="I89" s="5"/>
     </row>
-    <row r="90" customHeight="1" spans="4:9">
+    <row r="90" spans="4:9" ht="12.75" customHeight="1">
       <c r="D90" s="17"/>
       <c r="E90" s="5"/>
       <c r="F90" s="17" t="s">
@@ -4916,7 +4300,7 @@
       </c>
       <c r="I90" s="5"/>
     </row>
-    <row r="91" customHeight="1" spans="4:9">
+    <row r="91" spans="4:9" ht="12.75" customHeight="1">
       <c r="D91" s="17"/>
       <c r="E91" s="5"/>
       <c r="F91" s="17" t="s">
@@ -4930,7 +4314,7 @@
       </c>
       <c r="I91" s="5"/>
     </row>
-    <row r="92" customHeight="1" spans="4:9">
+    <row r="92" spans="4:9" ht="12.75" customHeight="1">
       <c r="D92" s="17"/>
       <c r="E92" s="5"/>
       <c r="F92" s="17" t="s">
@@ -4944,7 +4328,7 @@
       </c>
       <c r="I92" s="5"/>
     </row>
-    <row r="93" customHeight="1" spans="4:9">
+    <row r="93" spans="4:9" ht="12.75" customHeight="1">
       <c r="D93" s="17"/>
       <c r="E93" s="5"/>
       <c r="F93" s="17" t="s">
@@ -4958,7 +4342,7 @@
       </c>
       <c r="I93" s="5"/>
     </row>
-    <row r="94" customHeight="1" spans="4:9">
+    <row r="94" spans="4:9" ht="12.75" customHeight="1">
       <c r="D94" s="17"/>
       <c r="E94" s="5"/>
       <c r="F94" s="17" t="s">
@@ -4972,7 +4356,7 @@
       </c>
       <c r="I94" s="5"/>
     </row>
-    <row r="95" customHeight="1" spans="4:9">
+    <row r="95" spans="4:9" ht="12.75" customHeight="1">
       <c r="D95" s="17"/>
       <c r="E95" s="5"/>
       <c r="F95" s="17" t="s">
@@ -4986,7 +4370,7 @@
       </c>
       <c r="I95" s="5"/>
     </row>
-    <row r="96" customHeight="1" spans="4:9">
+    <row r="96" spans="4:9" ht="12.75" customHeight="1">
       <c r="D96" s="17"/>
       <c r="E96" s="5"/>
       <c r="F96" s="17" t="s">
@@ -5000,7 +4384,7 @@
       </c>
       <c r="I96" s="5"/>
     </row>
-    <row r="97" customHeight="1" spans="4:9">
+    <row r="97" spans="4:9" ht="12.75" customHeight="1">
       <c r="D97" s="17"/>
       <c r="E97" s="5"/>
       <c r="F97" s="17" t="s">
@@ -5014,7 +4398,7 @@
       </c>
       <c r="I97" s="5"/>
     </row>
-    <row r="98" spans="6:8">
+    <row r="98" spans="4:9">
       <c r="F98" s="17" t="s">
         <v>162</v>
       </c>
@@ -5025,7 +4409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="6:8">
+    <row r="99" spans="4:9">
       <c r="F99" s="17" t="s">
         <v>162</v>
       </c>
@@ -5036,7 +4420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="6:8">
+    <row r="100" spans="4:9">
       <c r="F100" s="17" t="s">
         <v>162</v>
       </c>
@@ -5047,7 +4431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="6:8">
+    <row r="101" spans="4:9">
       <c r="F101" s="17" t="s">
         <v>162</v>
       </c>
@@ -5058,7 +4442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="6:8">
+    <row r="102" spans="4:9">
       <c r="F102" s="17" t="s">
         <v>162</v>
       </c>
@@ -5069,7 +4453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="6:8">
+    <row r="103" spans="4:9">
       <c r="F103" s="17" t="s">
         <v>162</v>
       </c>
@@ -5080,7 +4464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="6:8">
+    <row r="104" spans="4:9">
       <c r="F104" s="17" t="s">
         <v>162</v>
       </c>
@@ -5091,7 +4475,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="6:8">
+    <row r="105" spans="4:9">
       <c r="F105" s="17" t="s">
         <v>162</v>
       </c>
@@ -5102,7 +4486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="6:8">
+    <row r="106" spans="4:9">
       <c r="F106" s="17" t="s">
         <v>162</v>
       </c>
@@ -5113,7 +4497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="6:8">
+    <row r="107" spans="4:9">
       <c r="F107" s="17" t="s">
         <v>162</v>
       </c>
@@ -5124,7 +4508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="6:8">
+    <row r="108" spans="4:9">
       <c r="F108" s="17" t="s">
         <v>162</v>
       </c>
@@ -5135,7 +4519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="6:8">
+    <row r="109" spans="4:9">
       <c r="F109" s="17" t="s">
         <v>162</v>
       </c>
@@ -5146,7 +4530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="6:8">
+    <row r="110" spans="4:9">
       <c r="F110" s="17" t="s">
         <v>162</v>
       </c>
@@ -5157,7 +4541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="6:8">
+    <row r="111" spans="4:9">
       <c r="F111" s="17" t="s">
         <v>162</v>
       </c>
@@ -5168,7 +4552,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="6:8">
+    <row r="112" spans="4:9">
       <c r="F112" s="17" t="s">
         <v>163</v>
       </c>
@@ -5323,38 +4707,37 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:Q46"/>
   <sheetViews>
-    <sheetView zoomScale="97" zoomScaleNormal="97" topLeftCell="J6" workbookViewId="0">
+    <sheetView topLeftCell="J6" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.552380952381" customWidth="1"/>
-    <col min="4" max="4" width="15.2190476190476" customWidth="1"/>
-    <col min="5" max="5" width="11.552380952381" customWidth="1"/>
-    <col min="6" max="6" width="64.4380952380952" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="64.42578125" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="35.7809523809524" customWidth="1"/>
-    <col min="9" max="9" width="71.552380952381" customWidth="1"/>
-    <col min="10" max="10" width="18.552380952381" customWidth="1"/>
-    <col min="11" max="11" width="44.7809523809524" customWidth="1"/>
-    <col min="12" max="12" width="19.2190476190476" customWidth="1"/>
-    <col min="13" max="13" width="11.552380952381" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" customWidth="1"/>
+    <col min="9" max="9" width="71.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="44.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
     <col min="14" max="14" width="23" customWidth="1"/>
-    <col min="15" max="1025" width="11.552380952381" customWidth="1"/>
+    <col min="15" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:17">
+    <row r="7" spans="4:17" ht="12.75" customHeight="1">
       <c r="D7" s="5" t="s">
         <v>165</v>
       </c>
@@ -5398,7 +4781,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="6:15">
+    <row r="8" spans="4:17">
       <c r="F8" s="6" t="s">
         <v>121</v>
       </c>
@@ -5430,7 +4813,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="6:16">
+    <row r="9" spans="4:17">
       <c r="F9" s="6" t="s">
         <v>123</v>
       </c>
@@ -5465,7 +4848,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="6:16">
+    <row r="10" spans="4:17">
       <c r="F10" s="6" t="s">
         <v>124</v>
       </c>
@@ -5498,7 +4881,7 @@
       </c>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="6:16">
+    <row r="11" spans="4:17">
       <c r="F11" s="6" t="s">
         <v>125</v>
       </c>
@@ -5531,7 +4914,7 @@
       </c>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="6:16">
+    <row r="12" spans="4:17" ht="12.75">
       <c r="F12" s="6" t="s">
         <v>126</v>
       </c>
@@ -5564,7 +4947,7 @@
       </c>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="6:16">
+    <row r="13" spans="4:17">
       <c r="F13" s="6" t="s">
         <v>127</v>
       </c>
@@ -5597,7 +4980,7 @@
       </c>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="6:16">
+    <row r="14" spans="4:17">
       <c r="F14" s="6" t="s">
         <v>128</v>
       </c>
@@ -5630,7 +5013,7 @@
       </c>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="6:15">
+    <row r="15" spans="4:17">
       <c r="F15" s="7" t="s">
         <v>197</v>
       </c>
@@ -5660,7 +5043,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="6:15">
+    <row r="16" spans="4:17">
       <c r="F16" s="7" t="s">
         <v>129</v>
       </c>
@@ -5692,7 +5075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="6:15">
+    <row r="17" spans="6:16">
       <c r="F17" s="7" t="s">
         <v>130</v>
       </c>
@@ -5724,7 +5107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="6:15">
+    <row r="18" spans="6:16">
       <c r="F18" s="7" t="s">
         <v>131</v>
       </c>
@@ -5756,7 +5139,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="6:15">
+    <row r="19" spans="6:16">
       <c r="F19" s="7" t="s">
         <v>132</v>
       </c>
@@ -5788,7 +5171,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="6:15">
+    <row r="20" spans="6:16">
       <c r="F20" s="7" t="s">
         <v>133</v>
       </c>
@@ -5820,7 +5203,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="6:15">
+    <row r="21" spans="6:16">
       <c r="F21" s="9" t="s">
         <v>134</v>
       </c>
@@ -5852,7 +5235,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="6:15">
+    <row r="22" spans="6:16">
       <c r="F22" s="9" t="s">
         <v>135</v>
       </c>
@@ -5884,7 +5267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="6:15">
+    <row r="23" spans="6:16">
       <c r="F23" s="9" t="s">
         <v>136</v>
       </c>
@@ -5916,7 +5299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="6:15">
+    <row r="24" spans="6:16">
       <c r="F24" s="9" t="s">
         <v>137</v>
       </c>
@@ -5948,7 +5331,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="6:15">
+    <row r="25" spans="6:16">
       <c r="F25" s="9" t="s">
         <v>138</v>
       </c>
@@ -5980,7 +5363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="6:15">
+    <row r="26" spans="6:16">
       <c r="F26" s="9" t="s">
         <v>139</v>
       </c>
@@ -6012,7 +5395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="6:15">
+    <row r="27" spans="6:16">
       <c r="F27" s="9" t="s">
         <v>140</v>
       </c>
@@ -6044,7 +5427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="6:15">
+    <row r="28" spans="6:16">
       <c r="F28" s="9" t="s">
         <v>141</v>
       </c>
@@ -6354,7 +5737,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="6:15">
+    <row r="37" spans="6:16">
       <c r="F37" s="10" t="s">
         <v>150</v>
       </c>
@@ -6384,7 +5767,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="6:15">
+    <row r="38" spans="6:16">
       <c r="F38" s="10" t="s">
         <v>151</v>
       </c>
@@ -6416,7 +5799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="6:15">
+    <row r="39" spans="6:16">
       <c r="F39" s="10" t="s">
         <v>152</v>
       </c>
@@ -6448,7 +5831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="6:15">
+    <row r="40" spans="6:16">
       <c r="F40" s="10" t="s">
         <v>153</v>
       </c>
@@ -6480,7 +5863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="6:15">
+    <row r="41" spans="6:16">
       <c r="F41" s="10" t="s">
         <v>154</v>
       </c>
@@ -6512,7 +5895,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="6:15">
+    <row r="42" spans="6:16">
       <c r="F42" s="10" t="s">
         <v>155</v>
       </c>
@@ -6544,7 +5927,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="6:15">
+    <row r="43" spans="6:16">
       <c r="F43" s="10" t="s">
         <v>156</v>
       </c>
@@ -6576,7 +5959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="6:15">
+    <row r="44" spans="6:16">
       <c r="F44" s="10" t="s">
         <v>157</v>
       </c>
@@ -6608,7 +5991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="6:15">
+    <row r="45" spans="6:16">
       <c r="F45" s="10" t="s">
         <v>158</v>
       </c>
@@ -6640,7 +6023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="6:15">
+    <row r="46" spans="6:16">
       <c r="F46" s="10" t="s">
         <v>159</v>
       </c>
@@ -6673,8 +6056,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -6683,26 +6067,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:I312"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E197" workbookViewId="0">
-      <selection activeCell="H221" sqref="H221"/>
+    <sheetView tabSelected="1" topLeftCell="E182" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G189" sqref="G189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.552380952381" customWidth="1"/>
-    <col min="4" max="4" width="23.7809523809524" customWidth="1"/>
-    <col min="5" max="5" width="11.552380952381" customWidth="1"/>
-    <col min="6" max="6" width="59.7809523809524" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="59.7109375" customWidth="1"/>
     <col min="7" max="7" width="65" customWidth="1"/>
-    <col min="8" max="8" width="31.2190476190476" customWidth="1"/>
-    <col min="9" max="1025" width="11.552380952381" customWidth="1"/>
+    <col min="8" max="8" width="31.28515625" customWidth="1"/>
+    <col min="9" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:9">
+    <row r="7" spans="4:9" ht="12.75" customHeight="1">
       <c r="D7" s="5" t="s">
         <v>259</v>
       </c>
@@ -6722,7 +6105,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="6:9">
+    <row r="8" spans="4:9">
       <c r="F8" t="s">
         <v>121</v>
       </c>
@@ -6733,7 +6116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="6:9">
+    <row r="9" spans="4:9">
       <c r="F9" t="s">
         <v>121</v>
       </c>
@@ -6744,7 +6127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="6:9">
+    <row r="10" spans="4:9">
       <c r="F10" t="s">
         <v>121</v>
       </c>
@@ -6755,7 +6138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="6:9">
+    <row r="11" spans="4:9">
       <c r="F11" t="s">
         <v>121</v>
       </c>
@@ -6766,7 +6149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="6:9">
+    <row r="12" spans="4:9">
       <c r="F12" t="s">
         <v>121</v>
       </c>
@@ -6777,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="6:9">
+    <row r="13" spans="4:9">
       <c r="F13" t="s">
         <v>121</v>
       </c>
@@ -6788,7 +6171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="6:9">
+    <row r="14" spans="4:9">
       <c r="F14" t="s">
         <v>121</v>
       </c>
@@ -6799,7 +6182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="6:9">
+    <row r="15" spans="4:9">
       <c r="F15" t="s">
         <v>121</v>
       </c>
@@ -6810,7 +6193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="6:9">
+    <row r="16" spans="4:9">
       <c r="F16" t="s">
         <v>121</v>
       </c>
@@ -7812,7 +7195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" ht="13.2" customHeight="1" spans="6:9">
+    <row r="106" spans="6:9" ht="13.15" customHeight="1">
       <c r="F106" s="6" t="s">
         <v>125</v>
       </c>
@@ -7823,14 +7206,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" customFormat="1" ht="13.2" customHeight="1" spans="6:9">
+    <row r="107" spans="6:9" ht="13.15" customHeight="1">
       <c r="F107" s="6" t="s">
         <v>125</v>
       </c>
       <c r="G107" t="s">
         <v>342</v>
       </c>
-      <c r="H107"/>
       <c r="I107">
         <v>1</v>
       </c>
@@ -8245,26 +7627,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" customFormat="1" spans="6:9">
+    <row r="145" spans="6:9">
       <c r="F145" s="6" t="s">
         <v>127</v>
       </c>
       <c r="G145" t="s">
         <v>362</v>
       </c>
-      <c r="H145"/>
       <c r="I145">
         <v>1</v>
       </c>
     </row>
-    <row r="146" customFormat="1" spans="6:9">
+    <row r="146" spans="6:9">
       <c r="F146" s="6" t="s">
         <v>127</v>
       </c>
       <c r="G146" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="H146"/>
       <c r="I146">
         <v>1</v>
       </c>
@@ -8741,9 +8121,6 @@
       <c r="G189" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="H189">
-        <v>1</v>
-      </c>
       <c r="I189">
         <v>1</v>
       </c>
@@ -10114,8 +9491,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -10124,24 +9502,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D7:H59"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="28.4380952380952" customWidth="1"/>
-    <col min="5" max="5" width="18.552380952381" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="41" customWidth="1"/>
-    <col min="7" max="7" width="64.4380952380952" customWidth="1"/>
-    <col min="8" max="8" width="16.552380952381" customWidth="1"/>
+    <col min="7" max="7" width="64.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="13.95" customHeight="1" spans="4:8">
+    <row r="7" spans="4:8" ht="13.9" customHeight="1">
       <c r="D7" s="5" t="s">
         <v>419</v>
       </c>
@@ -10158,7 +9535,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="13.95" customHeight="1" spans="4:7">
+    <row r="8" spans="4:8" ht="13.9" customHeight="1">
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
@@ -10168,7 +9545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="13.95" customHeight="1" spans="4:7">
+    <row r="9" spans="4:8" ht="13.9" customHeight="1">
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
@@ -10178,7 +9555,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" ht="13.95" customHeight="1" spans="4:7">
+    <row r="10" spans="4:8" ht="13.9" customHeight="1">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
@@ -10188,7 +9565,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" ht="13.95" customHeight="1" spans="4:7">
+    <row r="11" spans="4:8" ht="13.9" customHeight="1">
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
@@ -10198,7 +9575,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" ht="13.95" customHeight="1" spans="4:7">
+    <row r="12" spans="4:8" ht="13.9" customHeight="1">
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
@@ -10208,7 +9585,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" ht="13.95" customHeight="1" spans="4:7">
+    <row r="13" spans="4:8" ht="13.9" customHeight="1">
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
@@ -10218,7 +9595,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" ht="13.95" customHeight="1" spans="4:7">
+    <row r="14" spans="4:8" ht="13.9" customHeight="1">
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
@@ -10228,7 +9605,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" ht="13.95" customHeight="1" spans="4:7">
+    <row r="15" spans="4:8" ht="13.9" customHeight="1">
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
@@ -10238,7 +9615,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" ht="13.95" customHeight="1" spans="4:7">
+    <row r="16" spans="4:8" ht="13.9" customHeight="1">
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
@@ -10248,7 +9625,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" ht="13.95" customHeight="1" spans="4:7">
+    <row r="17" spans="4:7" ht="13.9" customHeight="1">
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
@@ -10258,7 +9635,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" ht="13.95" customHeight="1" spans="4:7">
+    <row r="18" spans="4:7" ht="13.9" customHeight="1">
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
@@ -10268,7 +9645,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" ht="13.95" customHeight="1" spans="4:7">
+    <row r="19" spans="4:7" ht="13.9" customHeight="1">
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
@@ -10278,7 +9655,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" ht="13.95" customHeight="1" spans="4:7">
+    <row r="20" spans="4:7" ht="13.9" customHeight="1">
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
@@ -10288,7 +9665,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" ht="13.95" customHeight="1" spans="4:7">
+    <row r="21" spans="4:7" ht="13.9" customHeight="1">
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
@@ -10298,7 +9675,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" ht="13.95" customHeight="1" spans="4:7">
+    <row r="22" spans="4:7" ht="13.9" customHeight="1">
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
@@ -10308,7 +9685,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" ht="13.95" customHeight="1" spans="4:7">
+    <row r="23" spans="4:7" ht="13.9" customHeight="1">
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
@@ -10318,7 +9695,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="6:7">
+    <row r="24" spans="4:7">
       <c r="F24" t="s">
         <v>422</v>
       </c>
@@ -10326,7 +9703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="6:7">
+    <row r="25" spans="4:7">
       <c r="F25" t="s">
         <v>422</v>
       </c>
@@ -10334,7 +9711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="6:7">
+    <row r="26" spans="4:7">
       <c r="F26" t="s">
         <v>422</v>
       </c>
@@ -10342,7 +9719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="6:7">
+    <row r="27" spans="4:7">
       <c r="F27" t="s">
         <v>422</v>
       </c>
@@ -10350,7 +9727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="6:7">
+    <row r="28" spans="4:7">
       <c r="F28" t="s">
         <v>422</v>
       </c>
@@ -10358,7 +9735,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="6:7">
+    <row r="29" spans="4:7">
       <c r="F29" t="s">
         <v>422</v>
       </c>
@@ -10366,7 +9743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="6:7">
+    <row r="30" spans="4:7">
       <c r="F30" t="s">
         <v>422</v>
       </c>
@@ -10374,7 +9751,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="6:7">
+    <row r="31" spans="4:7">
       <c r="F31" t="s">
         <v>422</v>
       </c>
@@ -10382,7 +9759,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="6:7">
+    <row r="32" spans="4:7">
       <c r="F32" t="s">
         <v>422</v>
       </c>
@@ -10607,34 +9984,33 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="D7:R14"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.552380952381" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.2190476190476" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.2190476190476" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.4380952380952" style="3" customWidth="1"/>
-    <col min="7" max="8" width="23.7809523809524" style="3" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="23.7109375" style="3" customWidth="1"/>
     <col min="9" max="10" width="24" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.4380952380952" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.552380952381" style="3" customWidth="1"/>
-    <col min="13" max="13" width="28.552380952381" style="3" customWidth="1"/>
-    <col min="14" max="17" width="11.552380952381" style="3" customWidth="1"/>
-    <col min="18" max="18" width="46.4380952380952" style="3" customWidth="1"/>
-    <col min="19" max="1025" width="11.552380952381" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="28.5703125" style="3" customWidth="1"/>
+    <col min="14" max="17" width="11.5703125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="46.42578125" style="3" customWidth="1"/>
+    <col min="19" max="1025" width="11.5703125" style="3" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -10685,7 +10061,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="8" spans="5:17">
+    <row r="8" spans="4:18">
       <c r="E8" s="3" t="s">
         <v>432</v>
       </c>
@@ -10726,7 +10102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="5:17">
+    <row r="9" spans="4:18">
       <c r="E9" s="3" t="s">
         <v>435</v>
       </c>
@@ -10767,7 +10143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="5:17">
+    <row r="10" spans="4:18">
       <c r="E10" s="3" t="s">
         <v>438</v>
       </c>
@@ -10808,7 +10184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="5:17">
+    <row r="11" spans="4:18">
       <c r="E11" s="3" t="s">
         <v>440</v>
       </c>
@@ -10849,7 +10225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="5:17">
+    <row r="12" spans="4:18">
       <c r="E12" s="3" t="s">
         <v>443</v>
       </c>
@@ -10890,7 +10266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="5:18">
+    <row r="13" spans="4:18">
       <c r="E13" s="3" t="s">
         <v>446</v>
       </c>
@@ -10934,7 +10310,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="14" spans="5:18">
+    <row r="14" spans="4:18">
       <c r="E14" s="3" t="s">
         <v>450</v>
       </c>
@@ -10979,28 +10355,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="122" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="D7:K16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21904761904762" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="12.7809523809524" customWidth="1"/>
-    <col min="6" max="6" width="16.7809523809524" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="15.4380952380952" customWidth="1"/>
-    <col min="10" max="10" width="31.7809523809524" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:11">
@@ -11029,7 +10404,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="8" spans="6:11">
+    <row r="8" spans="4:11" ht="12.75">
       <c r="F8" t="s">
         <v>459</v>
       </c>
@@ -11049,7 +10424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="6:11">
+    <row r="9" spans="4:11" ht="12.75">
       <c r="F9" t="s">
         <v>459</v>
       </c>
@@ -11069,7 +10444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="6:11">
+    <row r="10" spans="4:11" ht="12.75">
       <c r="F10" t="s">
         <v>459</v>
       </c>
@@ -11089,7 +10464,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="6:11">
+    <row r="11" spans="4:11" ht="12.75">
       <c r="F11" t="s">
         <v>459</v>
       </c>
@@ -11109,7 +10484,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="6:11">
+    <row r="12" spans="4:11" ht="12.75">
       <c r="F12" t="s">
         <v>459</v>
       </c>
@@ -11129,7 +10504,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="6:11">
+    <row r="13" spans="4:11" ht="12.75">
       <c r="F13" t="s">
         <v>459</v>
       </c>
@@ -11149,7 +10524,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="6:11">
+    <row r="14" spans="4:11" ht="12.75">
       <c r="F14" t="s">
         <v>459</v>
       </c>
@@ -11169,7 +10544,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="6:11">
+    <row r="15" spans="4:11" ht="12.75">
       <c r="F15" t="s">
         <v>459</v>
       </c>
@@ -11189,7 +10564,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="6:11">
+    <row r="16" spans="4:11" ht="12.75">
       <c r="F16" t="s">
         <v>459</v>
       </c>
@@ -11210,8 +10585,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="122" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="122" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\agile-service\src\main\resources\script\meta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F4B2B5-6A12-4CA2-B3AB-90FAE9CB3FC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="1000" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -1540,14 +1546,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="34">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1557,11 +1557,12 @@
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1614,13 +1615,13 @@
       <sz val="10"/>
       <color theme="9"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF494949"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1629,352 +1630,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1982,251 +1652,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -2249,61 +1677,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2588,37 +1972,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:O43"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A20" sqref="$A20:$XFD20"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.552380952381" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.552380952381" customWidth="1"/>
-    <col min="6" max="6" width="57.4380952380952" customWidth="1"/>
-    <col min="7" max="7" width="23.552380952381" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="57.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="18.2190476190476" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.2190476190476" customWidth="1"/>
-    <col min="13" max="13" width="18.552380952381" customWidth="1"/>
-    <col min="14" max="14" width="19.4380952380952" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.552380952381" customWidth="1"/>
+    <col min="16" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:15">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1">
       <c r="D7" s="5" t="s">
         <v>0</v>
       </c>
@@ -2656,7 +2040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="6:14">
+    <row r="8" spans="4:15">
       <c r="F8" t="s">
         <v>12</v>
       </c>
@@ -2685,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="6:14">
+    <row r="9" spans="4:15">
       <c r="F9" t="s">
         <v>18</v>
       </c>
@@ -2714,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="6:14">
+    <row r="10" spans="4:15">
       <c r="F10" t="s">
         <v>21</v>
       </c>
@@ -2743,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="6:14">
+    <row r="11" spans="4:15">
       <c r="F11" s="6" t="s">
         <v>24</v>
       </c>
@@ -2772,7 +2156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="6:14">
+    <row r="12" spans="4:15">
       <c r="F12" s="6" t="s">
         <v>27</v>
       </c>
@@ -2801,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="6:14">
+    <row r="13" spans="4:15">
       <c r="F13" s="6" t="s">
         <v>30</v>
       </c>
@@ -2830,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="6:14">
+    <row r="14" spans="4:15">
       <c r="F14" t="s">
         <v>33</v>
       </c>
@@ -2859,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="6:14">
+    <row r="15" spans="4:15">
       <c r="F15" t="s">
         <v>36</v>
       </c>
@@ -2888,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="6:14">
+    <row r="16" spans="4:15">
       <c r="F16" t="s">
         <v>39</v>
       </c>
@@ -3701,8 +3085,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -3711,27 +3096,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:I125"/>
   <sheetViews>
     <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.552380952381" customWidth="1"/>
-    <col min="4" max="4" width="23.7809523809524" customWidth="1"/>
-    <col min="5" max="5" width="11.552380952381" customWidth="1"/>
-    <col min="6" max="6" width="30.2190476190476" customWidth="1"/>
-    <col min="7" max="7" width="51.4380952380952" customWidth="1"/>
-    <col min="8" max="8" width="58.4380952380952" customWidth="1"/>
-    <col min="9" max="9" width="31.2190476190476" customWidth="1"/>
-    <col min="10" max="1026" width="11.552380952381" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="51.42578125" customWidth="1"/>
+    <col min="8" max="8" width="58.42578125" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" customWidth="1"/>
+    <col min="10" max="1026" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:9">
+    <row r="7" spans="4:9" ht="12.75" customHeight="1">
       <c r="D7" s="17" t="s">
         <v>116</v>
       </c>
@@ -3751,7 +3135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="4:9">
+    <row r="8" spans="4:9" ht="12.75" customHeight="1">
       <c r="D8" s="17"/>
       <c r="E8" s="5"/>
       <c r="F8" s="17" t="s">
@@ -3765,7 +3149,7 @@
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" customHeight="1" spans="4:9">
+    <row r="9" spans="4:9" ht="12.75" customHeight="1">
       <c r="D9" s="17"/>
       <c r="E9" s="5"/>
       <c r="F9" s="17" t="s">
@@ -3779,7 +3163,7 @@
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" customHeight="1" spans="4:9">
+    <row r="10" spans="4:9" ht="12.75" customHeight="1">
       <c r="D10" s="17"/>
       <c r="E10" s="5"/>
       <c r="F10" s="17" t="s">
@@ -3793,7 +3177,7 @@
       </c>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" customHeight="1" spans="4:9">
+    <row r="11" spans="4:9" ht="12.75" customHeight="1">
       <c r="D11" s="17"/>
       <c r="E11" s="5"/>
       <c r="F11" s="17" t="s">
@@ -3807,7 +3191,7 @@
       </c>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" customHeight="1" spans="4:9">
+    <row r="12" spans="4:9" ht="12.75" customHeight="1">
       <c r="D12" s="17"/>
       <c r="E12" s="5"/>
       <c r="F12" s="17" t="s">
@@ -3821,7 +3205,7 @@
       </c>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" customHeight="1" spans="4:9">
+    <row r="13" spans="4:9" ht="12.75" customHeight="1">
       <c r="D13" s="17"/>
       <c r="E13" s="5"/>
       <c r="F13" s="17" t="s">
@@ -3835,7 +3219,7 @@
       </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" customHeight="1" spans="4:9">
+    <row r="14" spans="4:9" ht="12.75" customHeight="1">
       <c r="D14" s="17"/>
       <c r="E14" s="5"/>
       <c r="F14" s="17" t="s">
@@ -3849,7 +3233,7 @@
       </c>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" customHeight="1" spans="4:9">
+    <row r="15" spans="4:9" ht="12.75" customHeight="1">
       <c r="D15" s="17"/>
       <c r="E15" s="5"/>
       <c r="F15" s="17" t="s">
@@ -3863,7 +3247,7 @@
       </c>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" customHeight="1" spans="4:9">
+    <row r="16" spans="4:9" ht="12.75" customHeight="1">
       <c r="D16" s="17"/>
       <c r="E16" s="5"/>
       <c r="F16" s="17" t="s">
@@ -3877,7 +3261,7 @@
       </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" customHeight="1" spans="4:9">
+    <row r="17" spans="4:9" ht="12.75" customHeight="1">
       <c r="D17" s="17"/>
       <c r="E17" s="5"/>
       <c r="F17" s="17" t="s">
@@ -3891,7 +3275,7 @@
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" customHeight="1" spans="4:9">
+    <row r="18" spans="4:9" ht="12.75" customHeight="1">
       <c r="D18" s="17"/>
       <c r="E18" s="5"/>
       <c r="F18" s="17" t="s">
@@ -3905,7 +3289,7 @@
       </c>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" customHeight="1" spans="4:9">
+    <row r="19" spans="4:9" ht="12.75" customHeight="1">
       <c r="D19" s="17"/>
       <c r="E19" s="5"/>
       <c r="F19" s="17" t="s">
@@ -3919,7 +3303,7 @@
       </c>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" customHeight="1" spans="4:9">
+    <row r="20" spans="4:9" ht="12.75" customHeight="1">
       <c r="D20" s="17"/>
       <c r="E20" s="5"/>
       <c r="F20" s="17" t="s">
@@ -3933,7 +3317,7 @@
       </c>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" customHeight="1" spans="4:9">
+    <row r="21" spans="4:9" ht="12.75" customHeight="1">
       <c r="D21" s="17"/>
       <c r="E21" s="5"/>
       <c r="F21" s="17" t="s">
@@ -3947,7 +3331,7 @@
       </c>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" customHeight="1" spans="4:9">
+    <row r="22" spans="4:9" ht="12.75" customHeight="1">
       <c r="D22" s="17"/>
       <c r="E22" s="5"/>
       <c r="F22" s="17" t="s">
@@ -3961,7 +3345,7 @@
       </c>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" customHeight="1" spans="4:9">
+    <row r="23" spans="4:9" ht="12.75" customHeight="1">
       <c r="D23" s="17"/>
       <c r="E23" s="5"/>
       <c r="F23" s="17" t="s">
@@ -3975,7 +3359,7 @@
       </c>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" customHeight="1" spans="4:9">
+    <row r="24" spans="4:9" ht="12.75" customHeight="1">
       <c r="D24" s="17"/>
       <c r="E24" s="5"/>
       <c r="F24" s="17" t="s">
@@ -3989,7 +3373,7 @@
       </c>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" customHeight="1" spans="4:9">
+    <row r="25" spans="4:9" ht="12.75" customHeight="1">
       <c r="D25" s="17"/>
       <c r="E25" s="5"/>
       <c r="F25" s="17" t="s">
@@ -4003,7 +3387,7 @@
       </c>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" customHeight="1" spans="4:9">
+    <row r="26" spans="4:9" ht="12.75" customHeight="1">
       <c r="D26" s="17"/>
       <c r="E26" s="5"/>
       <c r="F26" s="17" t="s">
@@ -4017,7 +3401,7 @@
       </c>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" customHeight="1" spans="4:9">
+    <row r="27" spans="4:9" ht="12.75" customHeight="1">
       <c r="D27" s="17"/>
       <c r="E27" s="5"/>
       <c r="F27" s="17" t="s">
@@ -4031,7 +3415,7 @@
       </c>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" customHeight="1" spans="4:9">
+    <row r="28" spans="4:9" ht="12.75" customHeight="1">
       <c r="D28" s="17"/>
       <c r="E28" s="5"/>
       <c r="F28" s="17" t="s">
@@ -4045,7 +3429,7 @@
       </c>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" customHeight="1" spans="4:9">
+    <row r="29" spans="4:9" ht="12.75" customHeight="1">
       <c r="D29" s="17"/>
       <c r="E29" s="5"/>
       <c r="F29" s="17" t="s">
@@ -4059,7 +3443,7 @@
       </c>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" customHeight="1" spans="4:9">
+    <row r="30" spans="4:9" ht="12.75" customHeight="1">
       <c r="D30" s="17"/>
       <c r="E30" s="5"/>
       <c r="F30" s="17" t="s">
@@ -4073,7 +3457,7 @@
       </c>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" customHeight="1" spans="4:9">
+    <row r="31" spans="4:9" ht="12.75" customHeight="1">
       <c r="D31" s="17"/>
       <c r="E31" s="5"/>
       <c r="F31" s="17" t="s">
@@ -4087,7 +3471,7 @@
       </c>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" customHeight="1" spans="4:9">
+    <row r="32" spans="4:9" ht="12.75" customHeight="1">
       <c r="D32" s="17"/>
       <c r="E32" s="5"/>
       <c r="F32" s="17" t="s">
@@ -4101,7 +3485,7 @@
       </c>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" customHeight="1" spans="4:9">
+    <row r="33" spans="4:9" ht="12.75" customHeight="1">
       <c r="D33" s="17"/>
       <c r="E33" s="5"/>
       <c r="F33" s="17" t="s">
@@ -4115,7 +3499,7 @@
       </c>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" customHeight="1" spans="4:9">
+    <row r="34" spans="4:9" ht="12.75" customHeight="1">
       <c r="D34" s="17"/>
       <c r="E34" s="5"/>
       <c r="F34" s="17" t="s">
@@ -4129,7 +3513,7 @@
       </c>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" customHeight="1" spans="4:9">
+    <row r="35" spans="4:9" ht="12.75" customHeight="1">
       <c r="D35" s="17"/>
       <c r="E35" s="5"/>
       <c r="F35" s="17" t="s">
@@ -4143,7 +3527,7 @@
       </c>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" customHeight="1" spans="4:9">
+    <row r="36" spans="4:9" ht="12.75" customHeight="1">
       <c r="D36" s="17"/>
       <c r="E36" s="5"/>
       <c r="F36" s="17" t="s">
@@ -4157,7 +3541,7 @@
       </c>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" customHeight="1" spans="4:9">
+    <row r="37" spans="4:9" ht="12.75" customHeight="1">
       <c r="D37" s="17"/>
       <c r="E37" s="5"/>
       <c r="F37" s="17" t="s">
@@ -4171,7 +3555,7 @@
       </c>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" customHeight="1" spans="4:9">
+    <row r="38" spans="4:9" ht="12.75" customHeight="1">
       <c r="D38" s="17"/>
       <c r="E38" s="5"/>
       <c r="F38" s="17" t="s">
@@ -4185,7 +3569,7 @@
       </c>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" customHeight="1" spans="4:9">
+    <row r="39" spans="4:9" ht="12.75" customHeight="1">
       <c r="D39" s="17"/>
       <c r="E39" s="5"/>
       <c r="F39" s="17" t="s">
@@ -4199,7 +3583,7 @@
       </c>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" customHeight="1" spans="4:9">
+    <row r="40" spans="4:9" ht="12.75" customHeight="1">
       <c r="D40" s="17"/>
       <c r="E40" s="5"/>
       <c r="F40" s="17" t="s">
@@ -4213,7 +3597,7 @@
       </c>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" customHeight="1" spans="4:9">
+    <row r="41" spans="4:9" ht="12.75" customHeight="1">
       <c r="D41" s="17"/>
       <c r="E41" s="5"/>
       <c r="F41" s="17" t="s">
@@ -4227,7 +3611,7 @@
       </c>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" customHeight="1" spans="4:9">
+    <row r="42" spans="4:9" ht="12.75" customHeight="1">
       <c r="D42" s="17"/>
       <c r="E42" s="5"/>
       <c r="F42" s="17" t="s">
@@ -4241,7 +3625,7 @@
       </c>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" customHeight="1" spans="4:9">
+    <row r="43" spans="4:9" ht="12.75" customHeight="1">
       <c r="D43" s="17"/>
       <c r="E43" s="5"/>
       <c r="F43" s="17" t="s">
@@ -4255,7 +3639,7 @@
       </c>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" customHeight="1" spans="4:9">
+    <row r="44" spans="4:9" ht="12.75" customHeight="1">
       <c r="D44" s="17"/>
       <c r="E44" s="5"/>
       <c r="F44" s="17" t="s">
@@ -4269,7 +3653,7 @@
       </c>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" customHeight="1" spans="4:9">
+    <row r="45" spans="4:9" ht="12.75" customHeight="1">
       <c r="D45" s="17"/>
       <c r="E45" s="5"/>
       <c r="F45" s="17" t="s">
@@ -4283,7 +3667,7 @@
       </c>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" customHeight="1" spans="4:9">
+    <row r="46" spans="4:9" ht="12.75" customHeight="1">
       <c r="D46" s="17"/>
       <c r="E46" s="5"/>
       <c r="F46" s="17" t="s">
@@ -4297,7 +3681,7 @@
       </c>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" customHeight="1" spans="4:9">
+    <row r="47" spans="4:9" ht="12.75" customHeight="1">
       <c r="D47" s="17"/>
       <c r="E47" s="5"/>
       <c r="F47" s="17" t="s">
@@ -4311,7 +3695,7 @@
       </c>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" customHeight="1" spans="4:9">
+    <row r="48" spans="4:9" ht="12.75" customHeight="1">
       <c r="D48" s="17"/>
       <c r="E48" s="5"/>
       <c r="F48" s="17" t="s">
@@ -4325,7 +3709,7 @@
       </c>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" customHeight="1" spans="4:9">
+    <row r="49" spans="4:9" ht="12.75" customHeight="1">
       <c r="D49" s="17"/>
       <c r="E49" s="5"/>
       <c r="F49" s="17" t="s">
@@ -4339,7 +3723,7 @@
       </c>
       <c r="I49" s="5"/>
     </row>
-    <row r="50" customHeight="1" spans="4:9">
+    <row r="50" spans="4:9" ht="12.75" customHeight="1">
       <c r="D50" s="17"/>
       <c r="E50" s="5"/>
       <c r="F50" s="17" t="s">
@@ -4353,7 +3737,7 @@
       </c>
       <c r="I50" s="5"/>
     </row>
-    <row r="51" customHeight="1" spans="4:9">
+    <row r="51" spans="4:9" ht="12.75" customHeight="1">
       <c r="D51" s="17"/>
       <c r="E51" s="5"/>
       <c r="F51" s="17" t="s">
@@ -4367,7 +3751,7 @@
       </c>
       <c r="I51" s="5"/>
     </row>
-    <row r="52" customHeight="1" spans="4:9">
+    <row r="52" spans="4:9" ht="12.75" customHeight="1">
       <c r="D52" s="17"/>
       <c r="E52" s="5"/>
       <c r="F52" s="17" t="s">
@@ -4381,7 +3765,7 @@
       </c>
       <c r="I52" s="5"/>
     </row>
-    <row r="53" customHeight="1" spans="4:9">
+    <row r="53" spans="4:9" ht="12.75" customHeight="1">
       <c r="D53" s="17"/>
       <c r="E53" s="5"/>
       <c r="F53" s="17" t="s">
@@ -4395,7 +3779,7 @@
       </c>
       <c r="I53" s="5"/>
     </row>
-    <row r="54" customHeight="1" spans="4:9">
+    <row r="54" spans="4:9" ht="12.75" customHeight="1">
       <c r="D54" s="17"/>
       <c r="E54" s="5"/>
       <c r="F54" s="17" t="s">
@@ -4409,7 +3793,7 @@
       </c>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" customHeight="1" spans="4:9">
+    <row r="55" spans="4:9" ht="12.75" customHeight="1">
       <c r="D55" s="17"/>
       <c r="E55" s="5"/>
       <c r="F55" s="17" t="s">
@@ -4423,7 +3807,7 @@
       </c>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" customHeight="1" spans="4:9">
+    <row r="56" spans="4:9" ht="12.75" customHeight="1">
       <c r="D56" s="17"/>
       <c r="E56" s="5"/>
       <c r="F56" s="17" t="s">
@@ -4437,7 +3821,7 @@
       </c>
       <c r="I56" s="5"/>
     </row>
-    <row r="57" customHeight="1" spans="4:9">
+    <row r="57" spans="4:9" ht="12.75" customHeight="1">
       <c r="D57" s="17"/>
       <c r="E57" s="5"/>
       <c r="F57" s="17" t="s">
@@ -4451,7 +3835,7 @@
       </c>
       <c r="I57" s="5"/>
     </row>
-    <row r="58" customHeight="1" spans="4:9">
+    <row r="58" spans="4:9" ht="12.75" customHeight="1">
       <c r="D58" s="17"/>
       <c r="E58" s="5"/>
       <c r="F58" s="17" t="s">
@@ -4465,7 +3849,7 @@
       </c>
       <c r="I58" s="5"/>
     </row>
-    <row r="59" customHeight="1" spans="4:9">
+    <row r="59" spans="4:9" ht="12.75" customHeight="1">
       <c r="D59" s="17"/>
       <c r="E59" s="5"/>
       <c r="F59" s="17" t="s">
@@ -4479,7 +3863,7 @@
       </c>
       <c r="I59" s="5"/>
     </row>
-    <row r="60" customHeight="1" spans="4:9">
+    <row r="60" spans="4:9" ht="12.75" customHeight="1">
       <c r="D60" s="17"/>
       <c r="E60" s="5"/>
       <c r="F60" s="17" t="s">
@@ -4493,7 +3877,7 @@
       </c>
       <c r="I60" s="5"/>
     </row>
-    <row r="61" customHeight="1" spans="4:9">
+    <row r="61" spans="4:9" ht="12.75" customHeight="1">
       <c r="D61" s="17"/>
       <c r="E61" s="5"/>
       <c r="F61" s="17" t="s">
@@ -4507,7 +3891,7 @@
       </c>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" customHeight="1" spans="4:9">
+    <row r="62" spans="4:9" ht="12.75" customHeight="1">
       <c r="D62" s="17"/>
       <c r="E62" s="5"/>
       <c r="F62" s="17" t="s">
@@ -4521,7 +3905,7 @@
       </c>
       <c r="I62" s="5"/>
     </row>
-    <row r="63" customHeight="1" spans="4:9">
+    <row r="63" spans="4:9" ht="12.75" customHeight="1">
       <c r="D63" s="17"/>
       <c r="E63" s="5"/>
       <c r="F63" s="17" t="s">
@@ -4535,7 +3919,7 @@
       </c>
       <c r="I63" s="5"/>
     </row>
-    <row r="64" customHeight="1" spans="4:9">
+    <row r="64" spans="4:9" ht="12.75" customHeight="1">
       <c r="D64" s="17"/>
       <c r="E64" s="5"/>
       <c r="F64" s="17" t="s">
@@ -4549,7 +3933,7 @@
       </c>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" customHeight="1" spans="4:9">
+    <row r="65" spans="4:9" ht="12.75" customHeight="1">
       <c r="D65" s="17"/>
       <c r="E65" s="5"/>
       <c r="F65" s="17" t="s">
@@ -4563,7 +3947,7 @@
       </c>
       <c r="I65" s="5"/>
     </row>
-    <row r="66" customHeight="1" spans="4:9">
+    <row r="66" spans="4:9" ht="12.75" customHeight="1">
       <c r="D66" s="17"/>
       <c r="E66" s="5"/>
       <c r="F66" s="17" t="s">
@@ -4577,7 +3961,7 @@
       </c>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" customHeight="1" spans="4:9">
+    <row r="67" spans="4:9" ht="12.75" customHeight="1">
       <c r="D67" s="17"/>
       <c r="E67" s="5"/>
       <c r="F67" s="17" t="s">
@@ -4591,7 +3975,7 @@
       </c>
       <c r="I67" s="5"/>
     </row>
-    <row r="68" customHeight="1" spans="4:9">
+    <row r="68" spans="4:9" ht="12.75" customHeight="1">
       <c r="D68" s="17"/>
       <c r="E68" s="5"/>
       <c r="F68" s="17" t="s">
@@ -4605,7 +3989,7 @@
       </c>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" customHeight="1" spans="4:9">
+    <row r="69" spans="4:9" ht="12.75" customHeight="1">
       <c r="D69" s="17"/>
       <c r="E69" s="5"/>
       <c r="F69" s="17" t="s">
@@ -4619,7 +4003,7 @@
       </c>
       <c r="I69" s="5"/>
     </row>
-    <row r="70" customHeight="1" spans="4:9">
+    <row r="70" spans="4:9" ht="12.75" customHeight="1">
       <c r="D70" s="17"/>
       <c r="E70" s="5"/>
       <c r="F70" s="17" t="s">
@@ -4633,7 +4017,7 @@
       </c>
       <c r="I70" s="5"/>
     </row>
-    <row r="71" customHeight="1" spans="4:9">
+    <row r="71" spans="4:9" ht="12.75" customHeight="1">
       <c r="D71" s="17"/>
       <c r="E71" s="5"/>
       <c r="F71" s="17" t="s">
@@ -4647,7 +4031,7 @@
       </c>
       <c r="I71" s="5"/>
     </row>
-    <row r="72" customHeight="1" spans="4:9">
+    <row r="72" spans="4:9" ht="12.75" customHeight="1">
       <c r="D72" s="17"/>
       <c r="E72" s="5"/>
       <c r="F72" s="17" t="s">
@@ -4661,7 +4045,7 @@
       </c>
       <c r="I72" s="5"/>
     </row>
-    <row r="73" customHeight="1" spans="4:9">
+    <row r="73" spans="4:9" ht="12.75" customHeight="1">
       <c r="D73" s="17"/>
       <c r="E73" s="5"/>
       <c r="F73" s="17" t="s">
@@ -4675,7 +4059,7 @@
       </c>
       <c r="I73" s="5"/>
     </row>
-    <row r="74" customHeight="1" spans="4:9">
+    <row r="74" spans="4:9" ht="12.75" customHeight="1">
       <c r="D74" s="17"/>
       <c r="E74" s="5"/>
       <c r="F74" s="17" t="s">
@@ -4689,7 +4073,7 @@
       </c>
       <c r="I74" s="5"/>
     </row>
-    <row r="75" customHeight="1" spans="4:9">
+    <row r="75" spans="4:9" ht="12.75" customHeight="1">
       <c r="D75" s="17"/>
       <c r="E75" s="5"/>
       <c r="F75" s="17" t="s">
@@ -4703,7 +4087,7 @@
       </c>
       <c r="I75" s="5"/>
     </row>
-    <row r="76" customHeight="1" spans="4:9">
+    <row r="76" spans="4:9" ht="12.75" customHeight="1">
       <c r="D76" s="17"/>
       <c r="E76" s="5"/>
       <c r="F76" s="17" t="s">
@@ -4717,7 +4101,7 @@
       </c>
       <c r="I76" s="5"/>
     </row>
-    <row r="77" customHeight="1" spans="4:9">
+    <row r="77" spans="4:9" ht="12.75" customHeight="1">
       <c r="D77" s="17"/>
       <c r="E77" s="5"/>
       <c r="F77" s="17" t="s">
@@ -4731,7 +4115,7 @@
       </c>
       <c r="I77" s="5"/>
     </row>
-    <row r="78" customHeight="1" spans="4:9">
+    <row r="78" spans="4:9" ht="12.75" customHeight="1">
       <c r="D78" s="17"/>
       <c r="E78" s="5"/>
       <c r="F78" s="17" t="s">
@@ -4745,7 +4129,7 @@
       </c>
       <c r="I78" s="5"/>
     </row>
-    <row r="79" customHeight="1" spans="4:9">
+    <row r="79" spans="4:9" ht="12.75" customHeight="1">
       <c r="D79" s="17"/>
       <c r="E79" s="5"/>
       <c r="F79" s="17" t="s">
@@ -4759,7 +4143,7 @@
       </c>
       <c r="I79" s="5"/>
     </row>
-    <row r="80" customHeight="1" spans="4:9">
+    <row r="80" spans="4:9" ht="12.75" customHeight="1">
       <c r="D80" s="17"/>
       <c r="E80" s="5"/>
       <c r="F80" s="17" t="s">
@@ -4773,7 +4157,7 @@
       </c>
       <c r="I80" s="5"/>
     </row>
-    <row r="81" customHeight="1" spans="4:9">
+    <row r="81" spans="4:9" ht="12.75" customHeight="1">
       <c r="D81" s="17"/>
       <c r="E81" s="5"/>
       <c r="F81" s="17" t="s">
@@ -4787,7 +4171,7 @@
       </c>
       <c r="I81" s="5"/>
     </row>
-    <row r="82" customHeight="1" spans="4:9">
+    <row r="82" spans="4:9" ht="12.75" customHeight="1">
       <c r="D82" s="17"/>
       <c r="E82" s="5"/>
       <c r="F82" s="17" t="s">
@@ -4801,7 +4185,7 @@
       </c>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" customHeight="1" spans="4:9">
+    <row r="83" spans="4:9" ht="12.75" customHeight="1">
       <c r="D83" s="17"/>
       <c r="E83" s="5"/>
       <c r="F83" s="17" t="s">
@@ -4815,7 +4199,7 @@
       </c>
       <c r="I83" s="5"/>
     </row>
-    <row r="84" customHeight="1" spans="4:9">
+    <row r="84" spans="4:9" ht="12.75" customHeight="1">
       <c r="D84" s="17"/>
       <c r="E84" s="5"/>
       <c r="F84" s="17" t="s">
@@ -4829,7 +4213,7 @@
       </c>
       <c r="I84" s="5"/>
     </row>
-    <row r="85" customHeight="1" spans="4:9">
+    <row r="85" spans="4:9" ht="12.75" customHeight="1">
       <c r="D85" s="17"/>
       <c r="E85" s="5"/>
       <c r="F85" s="17" t="s">
@@ -4843,7 +4227,7 @@
       </c>
       <c r="I85" s="5"/>
     </row>
-    <row r="86" customHeight="1" spans="4:9">
+    <row r="86" spans="4:9" ht="12.75" customHeight="1">
       <c r="D86" s="17"/>
       <c r="E86" s="5"/>
       <c r="F86" s="17" t="s">
@@ -4857,7 +4241,7 @@
       </c>
       <c r="I86" s="5"/>
     </row>
-    <row r="87" customHeight="1" spans="4:9">
+    <row r="87" spans="4:9" ht="12.75" customHeight="1">
       <c r="D87" s="17"/>
       <c r="E87" s="5"/>
       <c r="F87" s="17" t="s">
@@ -4871,7 +4255,7 @@
       </c>
       <c r="I87" s="5"/>
     </row>
-    <row r="88" customHeight="1" spans="4:9">
+    <row r="88" spans="4:9" ht="12.75" customHeight="1">
       <c r="D88" s="17"/>
       <c r="E88" s="5"/>
       <c r="F88" s="17" t="s">
@@ -4885,7 +4269,7 @@
       </c>
       <c r="I88" s="5"/>
     </row>
-    <row r="89" customHeight="1" spans="4:9">
+    <row r="89" spans="4:9" ht="12.75" customHeight="1">
       <c r="D89" s="17"/>
       <c r="E89" s="5"/>
       <c r="F89" s="17" t="s">
@@ -4899,7 +4283,7 @@
       </c>
       <c r="I89" s="5"/>
     </row>
-    <row r="90" customHeight="1" spans="4:9">
+    <row r="90" spans="4:9" ht="12.75" customHeight="1">
       <c r="D90" s="17"/>
       <c r="E90" s="5"/>
       <c r="F90" s="17" t="s">
@@ -4913,7 +4297,7 @@
       </c>
       <c r="I90" s="5"/>
     </row>
-    <row r="91" customHeight="1" spans="4:9">
+    <row r="91" spans="4:9" ht="12.75" customHeight="1">
       <c r="D91" s="17"/>
       <c r="E91" s="5"/>
       <c r="F91" s="17" t="s">
@@ -4927,7 +4311,7 @@
       </c>
       <c r="I91" s="5"/>
     </row>
-    <row r="92" customHeight="1" spans="4:9">
+    <row r="92" spans="4:9" ht="12.75" customHeight="1">
       <c r="D92" s="17"/>
       <c r="E92" s="5"/>
       <c r="F92" s="17" t="s">
@@ -4941,7 +4325,7 @@
       </c>
       <c r="I92" s="5"/>
     </row>
-    <row r="93" customHeight="1" spans="4:9">
+    <row r="93" spans="4:9" ht="12.75" customHeight="1">
       <c r="D93" s="17"/>
       <c r="E93" s="5"/>
       <c r="F93" s="17" t="s">
@@ -4955,7 +4339,7 @@
       </c>
       <c r="I93" s="5"/>
     </row>
-    <row r="94" customHeight="1" spans="4:9">
+    <row r="94" spans="4:9" ht="12.75" customHeight="1">
       <c r="D94" s="17"/>
       <c r="E94" s="5"/>
       <c r="F94" s="17" t="s">
@@ -4969,7 +4353,7 @@
       </c>
       <c r="I94" s="5"/>
     </row>
-    <row r="95" customHeight="1" spans="4:9">
+    <row r="95" spans="4:9" ht="12.75" customHeight="1">
       <c r="D95" s="17"/>
       <c r="E95" s="5"/>
       <c r="F95" s="17" t="s">
@@ -4983,7 +4367,7 @@
       </c>
       <c r="I95" s="5"/>
     </row>
-    <row r="96" customHeight="1" spans="4:9">
+    <row r="96" spans="4:9" ht="12.75" customHeight="1">
       <c r="D96" s="17"/>
       <c r="E96" s="5"/>
       <c r="F96" s="17" t="s">
@@ -4997,7 +4381,7 @@
       </c>
       <c r="I96" s="5"/>
     </row>
-    <row r="97" customHeight="1" spans="4:9">
+    <row r="97" spans="4:9" ht="12.75" customHeight="1">
       <c r="D97" s="17"/>
       <c r="E97" s="5"/>
       <c r="F97" s="17" t="s">
@@ -5011,7 +4395,7 @@
       </c>
       <c r="I97" s="5"/>
     </row>
-    <row r="98" spans="6:8">
+    <row r="98" spans="4:9">
       <c r="F98" s="17" t="s">
         <v>162</v>
       </c>
@@ -5022,7 +4406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="6:8">
+    <row r="99" spans="4:9">
       <c r="F99" s="17" t="s">
         <v>162</v>
       </c>
@@ -5033,7 +4417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="6:8">
+    <row r="100" spans="4:9">
       <c r="F100" s="17" t="s">
         <v>162</v>
       </c>
@@ -5044,7 +4428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="6:8">
+    <row r="101" spans="4:9">
       <c r="F101" s="17" t="s">
         <v>162</v>
       </c>
@@ -5055,7 +4439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="6:8">
+    <row r="102" spans="4:9">
       <c r="F102" s="17" t="s">
         <v>162</v>
       </c>
@@ -5066,7 +4450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="6:8">
+    <row r="103" spans="4:9">
       <c r="F103" s="17" t="s">
         <v>162</v>
       </c>
@@ -5077,7 +4461,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="6:8">
+    <row r="104" spans="4:9">
       <c r="F104" s="17" t="s">
         <v>162</v>
       </c>
@@ -5088,7 +4472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="6:8">
+    <row r="105" spans="4:9">
       <c r="F105" s="17" t="s">
         <v>162</v>
       </c>
@@ -5099,7 +4483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="6:8">
+    <row r="106" spans="4:9">
       <c r="F106" s="17" t="s">
         <v>162</v>
       </c>
@@ -5110,7 +4494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="6:8">
+    <row r="107" spans="4:9">
       <c r="F107" s="17" t="s">
         <v>162</v>
       </c>
@@ -5121,7 +4505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="6:8">
+    <row r="108" spans="4:9">
       <c r="F108" s="17" t="s">
         <v>162</v>
       </c>
@@ -5132,7 +4516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="6:8">
+    <row r="109" spans="4:9">
       <c r="F109" s="17" t="s">
         <v>162</v>
       </c>
@@ -5143,7 +4527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="6:8">
+    <row r="110" spans="4:9">
       <c r="F110" s="17" t="s">
         <v>162</v>
       </c>
@@ -5154,7 +4538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="6:8">
+    <row r="111" spans="4:9">
       <c r="F111" s="17" t="s">
         <v>162</v>
       </c>
@@ -5165,7 +4549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="6:8">
+    <row r="112" spans="4:9">
       <c r="F112" s="17" t="s">
         <v>163</v>
       </c>
@@ -5320,38 +4704,37 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" topLeftCell="J6" workbookViewId="0">
+    <sheetView topLeftCell="J6" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.552380952381" customWidth="1"/>
-    <col min="4" max="4" width="15.2190476190476" customWidth="1"/>
-    <col min="5" max="5" width="11.552380952381" customWidth="1"/>
-    <col min="6" max="6" width="64.4380952380952" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="64.42578125" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="35.7809523809524" customWidth="1"/>
-    <col min="9" max="9" width="71.552380952381" customWidth="1"/>
-    <col min="10" max="10" width="18.552380952381" customWidth="1"/>
-    <col min="11" max="11" width="44.7809523809524" customWidth="1"/>
-    <col min="12" max="12" width="19.2190476190476" customWidth="1"/>
-    <col min="13" max="13" width="11.552380952381" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" customWidth="1"/>
+    <col min="9" max="9" width="71.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="44.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
     <col min="14" max="14" width="23" customWidth="1"/>
-    <col min="15" max="1025" width="11.552380952381" customWidth="1"/>
+    <col min="15" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:17">
+    <row r="7" spans="4:17" ht="12.75" customHeight="1">
       <c r="D7" s="5" t="s">
         <v>165</v>
       </c>
@@ -5395,7 +4778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="6:15">
+    <row r="8" spans="4:17">
       <c r="F8" s="6" t="s">
         <v>121</v>
       </c>
@@ -5427,7 +4810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="6:16">
+    <row r="9" spans="4:17">
       <c r="F9" s="6" t="s">
         <v>123</v>
       </c>
@@ -5462,7 +4845,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="6:16">
+    <row r="10" spans="4:17">
       <c r="F10" s="6" t="s">
         <v>124</v>
       </c>
@@ -5495,7 +4878,7 @@
       </c>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="6:16">
+    <row r="11" spans="4:17">
       <c r="F11" s="6" t="s">
         <v>125</v>
       </c>
@@ -5528,7 +4911,7 @@
       </c>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="6:16">
+    <row r="12" spans="4:17" ht="12.75">
       <c r="F12" s="6" t="s">
         <v>126</v>
       </c>
@@ -5561,7 +4944,7 @@
       </c>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="6:16">
+    <row r="13" spans="4:17">
       <c r="F13" s="6" t="s">
         <v>127</v>
       </c>
@@ -5594,7 +4977,7 @@
       </c>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="6:16">
+    <row r="14" spans="4:17">
       <c r="F14" s="6" t="s">
         <v>128</v>
       </c>
@@ -5627,7 +5010,7 @@
       </c>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="6:15">
+    <row r="15" spans="4:17">
       <c r="F15" s="7" t="s">
         <v>197</v>
       </c>
@@ -5657,7 +5040,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="6:15">
+    <row r="16" spans="4:17">
       <c r="F16" s="7" t="s">
         <v>129</v>
       </c>
@@ -5689,7 +5072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="6:15">
+    <row r="17" spans="6:16">
       <c r="F17" s="7" t="s">
         <v>130</v>
       </c>
@@ -5721,7 +5104,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="6:15">
+    <row r="18" spans="6:16">
       <c r="F18" s="7" t="s">
         <v>131</v>
       </c>
@@ -5753,7 +5136,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="6:15">
+    <row r="19" spans="6:16">
       <c r="F19" s="7" t="s">
         <v>132</v>
       </c>
@@ -5785,7 +5168,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="6:15">
+    <row r="20" spans="6:16">
       <c r="F20" s="7" t="s">
         <v>133</v>
       </c>
@@ -5817,7 +5200,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="6:15">
+    <row r="21" spans="6:16">
       <c r="F21" s="9" t="s">
         <v>134</v>
       </c>
@@ -5849,7 +5232,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="6:15">
+    <row r="22" spans="6:16">
       <c r="F22" s="9" t="s">
         <v>135</v>
       </c>
@@ -5881,7 +5264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="6:15">
+    <row r="23" spans="6:16">
       <c r="F23" s="9" t="s">
         <v>136</v>
       </c>
@@ -5913,7 +5296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="6:15">
+    <row r="24" spans="6:16">
       <c r="F24" s="9" t="s">
         <v>137</v>
       </c>
@@ -5945,7 +5328,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="6:15">
+    <row r="25" spans="6:16">
       <c r="F25" s="9" t="s">
         <v>138</v>
       </c>
@@ -5977,7 +5360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="6:15">
+    <row r="26" spans="6:16">
       <c r="F26" s="9" t="s">
         <v>139</v>
       </c>
@@ -6009,7 +5392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="6:15">
+    <row r="27" spans="6:16">
       <c r="F27" s="9" t="s">
         <v>140</v>
       </c>
@@ -6041,7 +5424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="6:15">
+    <row r="28" spans="6:16">
       <c r="F28" s="9" t="s">
         <v>141</v>
       </c>
@@ -6351,7 +5734,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="6:15">
+    <row r="37" spans="6:16">
       <c r="F37" s="10" t="s">
         <v>150</v>
       </c>
@@ -6381,7 +5764,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="6:15">
+    <row r="38" spans="6:16">
       <c r="F38" s="10" t="s">
         <v>151</v>
       </c>
@@ -6413,7 +5796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="6:15">
+    <row r="39" spans="6:16">
       <c r="F39" s="10" t="s">
         <v>152</v>
       </c>
@@ -6445,7 +5828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="6:15">
+    <row r="40" spans="6:16">
       <c r="F40" s="10" t="s">
         <v>153</v>
       </c>
@@ -6477,7 +5860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="6:15">
+    <row r="41" spans="6:16">
       <c r="F41" s="10" t="s">
         <v>154</v>
       </c>
@@ -6509,7 +5892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="6:15">
+    <row r="42" spans="6:16">
       <c r="F42" s="10" t="s">
         <v>155</v>
       </c>
@@ -6541,7 +5924,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="6:15">
+    <row r="43" spans="6:16">
       <c r="F43" s="10" t="s">
         <v>156</v>
       </c>
@@ -6573,7 +5956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="6:15">
+    <row r="44" spans="6:16">
       <c r="F44" s="10" t="s">
         <v>157</v>
       </c>
@@ -6605,7 +5988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="6:15">
+    <row r="45" spans="6:16">
       <c r="F45" s="10" t="s">
         <v>158</v>
       </c>
@@ -6637,7 +6020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="6:15">
+    <row r="46" spans="6:16">
       <c r="F46" s="10" t="s">
         <v>159</v>
       </c>
@@ -6670,8 +6053,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -6680,26 +6064,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:I310"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="G8" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="D64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.552380952381" customWidth="1"/>
-    <col min="4" max="4" width="23.7809523809524" customWidth="1"/>
-    <col min="5" max="5" width="11.552380952381" customWidth="1"/>
-    <col min="6" max="6" width="59.7809523809524" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="59.7109375" customWidth="1"/>
     <col min="7" max="7" width="65" customWidth="1"/>
-    <col min="8" max="8" width="31.2190476190476" customWidth="1"/>
-    <col min="9" max="1025" width="11.552380952381" customWidth="1"/>
+    <col min="8" max="8" width="31.28515625" customWidth="1"/>
+    <col min="9" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:9">
+    <row r="7" spans="4:9" ht="12.75" customHeight="1">
       <c r="D7" s="5" t="s">
         <v>259</v>
       </c>
@@ -6719,7 +6102,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="6:9">
+    <row r="8" spans="4:9">
       <c r="F8" t="s">
         <v>121</v>
       </c>
@@ -6730,7 +6113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="6:9">
+    <row r="9" spans="4:9">
       <c r="F9" t="s">
         <v>121</v>
       </c>
@@ -6741,7 +6124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="6:9">
+    <row r="10" spans="4:9">
       <c r="F10" t="s">
         <v>121</v>
       </c>
@@ -6752,7 +6135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="6:9">
+    <row r="11" spans="4:9">
       <c r="F11" t="s">
         <v>121</v>
       </c>
@@ -6763,7 +6146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="6:9">
+    <row r="12" spans="4:9">
       <c r="F12" t="s">
         <v>121</v>
       </c>
@@ -6774,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="6:9">
+    <row r="13" spans="4:9">
       <c r="F13" t="s">
         <v>121</v>
       </c>
@@ -6785,7 +6168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="6:9">
+    <row r="14" spans="4:9">
       <c r="F14" t="s">
         <v>121</v>
       </c>
@@ -6796,7 +6179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="6:9">
+    <row r="15" spans="4:9">
       <c r="F15" t="s">
         <v>121</v>
       </c>
@@ -6807,7 +6190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="6:9">
+    <row r="16" spans="4:9">
       <c r="F16" t="s">
         <v>121</v>
       </c>
@@ -7579,9 +6962,6 @@
       <c r="G85" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
       <c r="I85">
         <v>1</v>
       </c>
@@ -7809,7 +7189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" ht="13.2" customHeight="1" spans="6:9">
+    <row r="106" spans="6:9" ht="13.15" customHeight="1">
       <c r="F106" s="6" t="s">
         <v>125</v>
       </c>
@@ -10086,8 +9466,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -10096,24 +9477,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D7:H59"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="28.4380952380952" customWidth="1"/>
-    <col min="5" max="5" width="18.552380952381" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="41" customWidth="1"/>
-    <col min="7" max="7" width="64.4380952380952" customWidth="1"/>
-    <col min="8" max="8" width="16.552380952381" customWidth="1"/>
+    <col min="7" max="7" width="64.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="13.95" customHeight="1" spans="4:8">
+    <row r="7" spans="4:8" ht="13.9" customHeight="1">
       <c r="D7" s="5" t="s">
         <v>418</v>
       </c>
@@ -10130,7 +9510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="13.95" customHeight="1" spans="4:7">
+    <row r="8" spans="4:8" ht="13.9" customHeight="1">
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
@@ -10140,7 +9520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="13.95" customHeight="1" spans="4:7">
+    <row r="9" spans="4:8" ht="13.9" customHeight="1">
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
@@ -10150,7 +9530,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" ht="13.95" customHeight="1" spans="4:7">
+    <row r="10" spans="4:8" ht="13.9" customHeight="1">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
@@ -10160,7 +9540,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" ht="13.95" customHeight="1" spans="4:7">
+    <row r="11" spans="4:8" ht="13.9" customHeight="1">
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
@@ -10170,7 +9550,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" ht="13.95" customHeight="1" spans="4:7">
+    <row r="12" spans="4:8" ht="13.9" customHeight="1">
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
@@ -10180,7 +9560,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" ht="13.95" customHeight="1" spans="4:7">
+    <row r="13" spans="4:8" ht="13.9" customHeight="1">
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
@@ -10190,7 +9570,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" ht="13.95" customHeight="1" spans="4:7">
+    <row r="14" spans="4:8" ht="13.9" customHeight="1">
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
@@ -10200,7 +9580,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" ht="13.95" customHeight="1" spans="4:7">
+    <row r="15" spans="4:8" ht="13.9" customHeight="1">
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
@@ -10210,7 +9590,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" ht="13.95" customHeight="1" spans="4:7">
+    <row r="16" spans="4:8" ht="13.9" customHeight="1">
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
@@ -10220,7 +9600,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" ht="13.95" customHeight="1" spans="4:7">
+    <row r="17" spans="4:7" ht="13.9" customHeight="1">
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
@@ -10230,7 +9610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" ht="13.95" customHeight="1" spans="4:7">
+    <row r="18" spans="4:7" ht="13.9" customHeight="1">
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
@@ -10240,7 +9620,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" ht="13.95" customHeight="1" spans="4:7">
+    <row r="19" spans="4:7" ht="13.9" customHeight="1">
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
@@ -10250,7 +9630,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" ht="13.95" customHeight="1" spans="4:7">
+    <row r="20" spans="4:7" ht="13.9" customHeight="1">
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
@@ -10260,7 +9640,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" ht="13.95" customHeight="1" spans="4:7">
+    <row r="21" spans="4:7" ht="13.9" customHeight="1">
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
@@ -10270,7 +9650,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" ht="13.95" customHeight="1" spans="4:7">
+    <row r="22" spans="4:7" ht="13.9" customHeight="1">
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
@@ -10280,7 +9660,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" ht="13.95" customHeight="1" spans="4:7">
+    <row r="23" spans="4:7" ht="13.9" customHeight="1">
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
@@ -10290,7 +9670,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="6:7">
+    <row r="24" spans="4:7">
       <c r="F24" t="s">
         <v>421</v>
       </c>
@@ -10298,7 +9678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="6:7">
+    <row r="25" spans="4:7">
       <c r="F25" t="s">
         <v>421</v>
       </c>
@@ -10306,7 +9686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="6:7">
+    <row r="26" spans="4:7">
       <c r="F26" t="s">
         <v>421</v>
       </c>
@@ -10314,7 +9694,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="6:7">
+    <row r="27" spans="4:7">
       <c r="F27" t="s">
         <v>421</v>
       </c>
@@ -10322,7 +9702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="6:7">
+    <row r="28" spans="4:7">
       <c r="F28" t="s">
         <v>421</v>
       </c>
@@ -10330,7 +9710,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="6:7">
+    <row r="29" spans="4:7">
       <c r="F29" t="s">
         <v>421</v>
       </c>
@@ -10338,7 +9718,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="6:7">
+    <row r="30" spans="4:7">
       <c r="F30" t="s">
         <v>421</v>
       </c>
@@ -10346,7 +9726,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="6:7">
+    <row r="31" spans="4:7">
       <c r="F31" t="s">
         <v>421</v>
       </c>
@@ -10354,7 +9734,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="6:7">
+    <row r="32" spans="4:7">
       <c r="F32" t="s">
         <v>421</v>
       </c>
@@ -10579,34 +9959,33 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="D7:R14"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.552380952381" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.2190476190476" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.2190476190476" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.4380952380952" style="3" customWidth="1"/>
-    <col min="7" max="8" width="23.7809523809524" style="3" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="23.7109375" style="3" customWidth="1"/>
     <col min="9" max="10" width="24" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.4380952380952" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.552380952381" style="3" customWidth="1"/>
-    <col min="13" max="13" width="28.552380952381" style="3" customWidth="1"/>
-    <col min="14" max="17" width="11.552380952381" style="3" customWidth="1"/>
-    <col min="18" max="18" width="46.4380952380952" style="3" customWidth="1"/>
-    <col min="19" max="1025" width="11.552380952381" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="28.5703125" style="3" customWidth="1"/>
+    <col min="14" max="17" width="11.5703125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="46.42578125" style="3" customWidth="1"/>
+    <col min="19" max="1025" width="11.5703125" style="3" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -10657,7 +10036,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="8" spans="5:17">
+    <row r="8" spans="4:18">
       <c r="E8" s="3" t="s">
         <v>431</v>
       </c>
@@ -10698,7 +10077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="5:17">
+    <row r="9" spans="4:18">
       <c r="E9" s="3" t="s">
         <v>434</v>
       </c>
@@ -10739,7 +10118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="5:17">
+    <row r="10" spans="4:18">
       <c r="E10" s="3" t="s">
         <v>437</v>
       </c>
@@ -10780,7 +10159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="5:17">
+    <row r="11" spans="4:18">
       <c r="E11" s="3" t="s">
         <v>439</v>
       </c>
@@ -10821,7 +10200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="5:17">
+    <row r="12" spans="4:18">
       <c r="E12" s="3" t="s">
         <v>442</v>
       </c>
@@ -10862,7 +10241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="5:18">
+    <row r="13" spans="4:18">
       <c r="E13" s="3" t="s">
         <v>445</v>
       </c>
@@ -10906,7 +10285,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="14" spans="5:18">
+    <row r="14" spans="4:18">
       <c r="E14" s="3" t="s">
         <v>449</v>
       </c>
@@ -10951,28 +10330,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="122" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="D7:K16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21904761904762" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="12.7809523809524" customWidth="1"/>
-    <col min="6" max="6" width="16.7809523809524" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="15.4380952380952" customWidth="1"/>
-    <col min="10" max="10" width="31.7809523809524" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:11">
@@ -11001,7 +10379,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="8" spans="6:11">
+    <row r="8" spans="4:11" ht="12.75">
       <c r="F8" t="s">
         <v>458</v>
       </c>
@@ -11021,7 +10399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="6:11">
+    <row r="9" spans="4:11" ht="12.75">
       <c r="F9" t="s">
         <v>458</v>
       </c>
@@ -11041,7 +10419,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="6:11">
+    <row r="10" spans="4:11" ht="12.75">
       <c r="F10" t="s">
         <v>458</v>
       </c>
@@ -11061,7 +10439,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="6:11">
+    <row r="11" spans="4:11" ht="12.75">
       <c r="F11" t="s">
         <v>458</v>
       </c>
@@ -11081,7 +10459,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="6:11">
+    <row r="12" spans="4:11" ht="12.75">
       <c r="F12" t="s">
         <v>458</v>
       </c>
@@ -11101,7 +10479,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="6:11">
+    <row r="13" spans="4:11" ht="12.75">
       <c r="F13" t="s">
         <v>458</v>
       </c>
@@ -11121,7 +10499,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="6:11">
+    <row r="14" spans="4:11" ht="12.75">
       <c r="F14" t="s">
         <v>458</v>
       </c>
@@ -11141,7 +10519,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="6:11">
+    <row r="15" spans="4:11" ht="12.75">
       <c r="F15" t="s">
         <v>458</v>
       </c>
@@ -11161,7 +10539,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="6:11">
+    <row r="16" spans="4:11" ht="12.75">
       <c r="F16" t="s">
         <v>458</v>
       </c>
@@ -11182,8 +10560,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="122" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="122" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\agile-service\src\main\resources\script\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94EC283-5D56-4E82-8653-C28F0DF1D5E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B9A3AC-7895-49C9-A75B-6E4B095882E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="496">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -1544,6 +1544,10 @@
   </si>
   <si>
     <t>/agile/reporthost/versionBurndown</t>
+  </si>
+  <si>
+    <t>agile-service.scheme.queryDefaultByOrganizationId</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6070,8 +6074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:I312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E182" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G189" sqref="G189"/>
+    <sheetView tabSelected="1" topLeftCell="E168" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H189" sqref="H189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -7246,9 +7250,6 @@
       <c r="G110" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="H110">
-        <v>1</v>
-      </c>
       <c r="I110">
         <v>1</v>
       </c>
@@ -8975,10 +8976,7 @@
         <v>145</v>
       </c>
       <c r="G266" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="H266">
-        <v>1</v>
+        <v>495</v>
       </c>
       <c r="I266">
         <v>1</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\agile-service\src\main\resources\script\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F4B2B5-6A12-4CA2-B3AB-90FAE9CB3FC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6762916-0D93-4928-B39E-568406C7C7DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6067,8 +6067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:I310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView tabSelected="1" topLeftCell="D88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -7229,9 +7229,6 @@
       <c r="G109" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="H109">
-        <v>1</v>
-      </c>
       <c r="I109">
         <v>1</v>
       </c>
@@ -8093,9 +8090,6 @@
       <c r="G187" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="H187">
-        <v>1</v>
-      </c>
       <c r="I187">
         <v>1</v>
       </c>
@@ -8951,9 +8945,6 @@
       </c>
       <c r="G264" s="12" t="s">
         <v>343</v>
-      </c>
-      <c r="H264">
-        <v>1</v>
       </c>
       <c r="I264">
         <v>1</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\agile-service\src\main\resources\script\meta\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B9A3AC-7895-49C9-A75B-6E4B095882E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21810" windowHeight="12255" tabRatio="1000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -22,14 +16,14 @@
     <sheet name="FD_REPORT" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">IAM_MENU_PERMISSION!$I$1:$I$312</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">IAM_MENU_PERMISSION!$I$1:$I$324</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="504">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -1006,6 +1000,42 @@
     <t>agile-service.work-log.updateWorkLog</t>
   </si>
   <si>
+    <t>agile-service.scheme.queryStatusByProjectId</t>
+  </si>
+  <si>
+    <t>base-service.time-zone-work-calendar-project.queryTimeZoneWorkCalendarDetail</t>
+  </si>
+  <si>
+    <t>agile-service.scheme.checkCreateStatusForAgile</t>
+  </si>
+  <si>
+    <t>agile-service.work-calendar-ref.querySprintWorkCalendarRefs</t>
+  </si>
+  <si>
+    <t>agile-service.issue-status.listUnCorrespondStatus</t>
+  </si>
+  <si>
+    <t>agile-service.board.updateUserSettingBoard</t>
+  </si>
+  <si>
+    <t>agile-service.board.updateScrumBoard</t>
+  </si>
+  <si>
+    <t>agile-service.board-column.deleteBoardColumn</t>
+  </si>
+  <si>
+    <t>agile-service.scheme.checkRemoveStatusForAgile</t>
+  </si>
+  <si>
+    <t>agile-service.board-column.updateColumnContraint</t>
+  </si>
+  <si>
+    <t>agile-service.lookup-value.queryLookupValueByCode</t>
+  </si>
+  <si>
+    <t>agile-service.status.checkName</t>
+  </si>
+  <si>
     <t>devops-service.issue.countCommitAndMergeRequest</t>
   </si>
   <si>
@@ -1060,9 +1090,6 @@
     <t>agile-service.sprint.queryCompleteMessageBySprintId</t>
   </si>
   <si>
-    <t>base-service.time-zone-work-calendar-project.queryTimeZoneWorkCalendarDetail</t>
-  </si>
-  <si>
     <t>agile-service.sprint.querySprintById</t>
   </si>
   <si>
@@ -1084,9 +1111,6 @@
     <t>agile-service.project-info.queryProjectInfoByProjectId</t>
   </si>
   <si>
-    <t>agile-service.scheme.queryStatusByProjectId</t>
-  </si>
-  <si>
     <t>agile-service.excel.download</t>
   </si>
   <si>
@@ -1187,9 +1211,6 @@
   </si>
   <si>
     <t xml:space="preserve">agile-service.issue.listProgramEpic     </t>
-  </si>
-  <si>
-    <t>agile-service.lookup-value.queryLookupValueByCode</t>
   </si>
   <si>
     <t>agile-service.pi.queryBacklogAll</t>
@@ -1545,16 +1566,18 @@
   <si>
     <t>/agile/reporthost/versionBurndown</t>
   </si>
-  <si>
-    <t>agile-service.scheme.queryDefaultByOrganizationId</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1564,12 +1587,11 @@
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Consolas"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1622,13 +1644,13 @@
       <sz val="10"/>
       <color theme="9"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF494949"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1637,21 +1659,352 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1659,9 +2012,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1684,17 +2279,61 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1979,37 +2618,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:O43"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="A20" sqref="$A20:$XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" customWidth="1"/>
+    <col min="1" max="3" width="11.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="57.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="57.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="23.5714285714286" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.2857142857143" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.2857142857143" customWidth="1"/>
+    <col min="13" max="13" width="18.5714285714286" customWidth="1"/>
+    <col min="14" max="14" width="19.4285714285714" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.5703125" customWidth="1"/>
+    <col min="16" max="1025" width="11.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1">
+    <row r="7" customHeight="1" spans="4:15">
       <c r="D7" s="5" t="s">
         <v>0</v>
       </c>
@@ -2047,7 +2686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:15">
+    <row r="8" spans="6:14">
       <c r="F8" t="s">
         <v>12</v>
       </c>
@@ -2076,7 +2715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:15">
+    <row r="9" spans="6:14">
       <c r="F9" t="s">
         <v>18</v>
       </c>
@@ -2105,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:15">
+    <row r="10" spans="6:14">
       <c r="F10" t="s">
         <v>21</v>
       </c>
@@ -2134,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:15">
+    <row r="11" spans="6:14">
       <c r="F11" s="6" t="s">
         <v>24</v>
       </c>
@@ -2163,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:15">
+    <row r="12" spans="6:14">
       <c r="F12" s="6" t="s">
         <v>27</v>
       </c>
@@ -2192,7 +2831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:15">
+    <row r="13" spans="6:14">
       <c r="F13" s="6" t="s">
         <v>30</v>
       </c>
@@ -2221,7 +2860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:15">
+    <row r="14" spans="6:14">
       <c r="F14" t="s">
         <v>33</v>
       </c>
@@ -2250,7 +2889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:15">
+    <row r="15" spans="6:14">
       <c r="F15" t="s">
         <v>36</v>
       </c>
@@ -2279,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:15">
+    <row r="16" spans="6:14">
       <c r="F16" t="s">
         <v>39</v>
       </c>
@@ -3092,9 +3731,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -3103,26 +3741,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:I125"/>
   <sheetViews>
     <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1"/>
-    <col min="7" max="7" width="51.42578125" customWidth="1"/>
-    <col min="8" max="8" width="58.42578125" customWidth="1"/>
-    <col min="9" max="9" width="31.28515625" customWidth="1"/>
-    <col min="10" max="1026" width="11.5703125" customWidth="1"/>
+    <col min="1" max="3" width="11.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="23.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="11.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="30.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="51.4285714285714" customWidth="1"/>
+    <col min="8" max="8" width="58.4285714285714" customWidth="1"/>
+    <col min="9" max="9" width="31.2857142857143" customWidth="1"/>
+    <col min="10" max="1026" width="11.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" ht="12.75" customHeight="1">
+    <row r="7" customHeight="1" spans="4:9">
       <c r="D7" s="17" t="s">
         <v>116</v>
       </c>
@@ -3142,7 +3781,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:9" ht="12.75" customHeight="1">
+    <row r="8" customHeight="1" spans="4:9">
       <c r="D8" s="17"/>
       <c r="E8" s="5"/>
       <c r="F8" s="17" t="s">
@@ -3156,7 +3795,7 @@
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="4:9" ht="12.75" customHeight="1">
+    <row r="9" customHeight="1" spans="4:9">
       <c r="D9" s="17"/>
       <c r="E9" s="5"/>
       <c r="F9" s="17" t="s">
@@ -3170,7 +3809,7 @@
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="4:9" ht="12.75" customHeight="1">
+    <row r="10" customHeight="1" spans="4:9">
       <c r="D10" s="17"/>
       <c r="E10" s="5"/>
       <c r="F10" s="17" t="s">
@@ -3184,7 +3823,7 @@
       </c>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="4:9" ht="12.75" customHeight="1">
+    <row r="11" customHeight="1" spans="4:9">
       <c r="D11" s="17"/>
       <c r="E11" s="5"/>
       <c r="F11" s="17" t="s">
@@ -3198,7 +3837,7 @@
       </c>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="4:9" ht="12.75" customHeight="1">
+    <row r="12" customHeight="1" spans="4:9">
       <c r="D12" s="17"/>
       <c r="E12" s="5"/>
       <c r="F12" s="17" t="s">
@@ -3212,7 +3851,7 @@
       </c>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="4:9" ht="12.75" customHeight="1">
+    <row r="13" customHeight="1" spans="4:9">
       <c r="D13" s="17"/>
       <c r="E13" s="5"/>
       <c r="F13" s="17" t="s">
@@ -3226,7 +3865,7 @@
       </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="4:9" ht="12.75" customHeight="1">
+    <row r="14" customHeight="1" spans="4:9">
       <c r="D14" s="17"/>
       <c r="E14" s="5"/>
       <c r="F14" s="17" t="s">
@@ -3240,7 +3879,7 @@
       </c>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="4:9" ht="12.75" customHeight="1">
+    <row r="15" customHeight="1" spans="4:9">
       <c r="D15" s="17"/>
       <c r="E15" s="5"/>
       <c r="F15" s="17" t="s">
@@ -3254,7 +3893,7 @@
       </c>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="4:9" ht="12.75" customHeight="1">
+    <row r="16" customHeight="1" spans="4:9">
       <c r="D16" s="17"/>
       <c r="E16" s="5"/>
       <c r="F16" s="17" t="s">
@@ -3268,7 +3907,7 @@
       </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="4:9" ht="12.75" customHeight="1">
+    <row r="17" customHeight="1" spans="4:9">
       <c r="D17" s="17"/>
       <c r="E17" s="5"/>
       <c r="F17" s="17" t="s">
@@ -3282,7 +3921,7 @@
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="4:9" ht="12.75" customHeight="1">
+    <row r="18" customHeight="1" spans="4:9">
       <c r="D18" s="17"/>
       <c r="E18" s="5"/>
       <c r="F18" s="17" t="s">
@@ -3296,7 +3935,7 @@
       </c>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="4:9" ht="12.75" customHeight="1">
+    <row r="19" customHeight="1" spans="4:9">
       <c r="D19" s="17"/>
       <c r="E19" s="5"/>
       <c r="F19" s="17" t="s">
@@ -3310,7 +3949,7 @@
       </c>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="4:9" ht="12.75" customHeight="1">
+    <row r="20" customHeight="1" spans="4:9">
       <c r="D20" s="17"/>
       <c r="E20" s="5"/>
       <c r="F20" s="17" t="s">
@@ -3324,7 +3963,7 @@
       </c>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="4:9" ht="12.75" customHeight="1">
+    <row r="21" customHeight="1" spans="4:9">
       <c r="D21" s="17"/>
       <c r="E21" s="5"/>
       <c r="F21" s="17" t="s">
@@ -3338,7 +3977,7 @@
       </c>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="4:9" ht="12.75" customHeight="1">
+    <row r="22" customHeight="1" spans="4:9">
       <c r="D22" s="17"/>
       <c r="E22" s="5"/>
       <c r="F22" s="17" t="s">
@@ -3352,7 +3991,7 @@
       </c>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="4:9" ht="12.75" customHeight="1">
+    <row r="23" customHeight="1" spans="4:9">
       <c r="D23" s="17"/>
       <c r="E23" s="5"/>
       <c r="F23" s="17" t="s">
@@ -3366,7 +4005,7 @@
       </c>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="4:9" ht="12.75" customHeight="1">
+    <row r="24" customHeight="1" spans="4:9">
       <c r="D24" s="17"/>
       <c r="E24" s="5"/>
       <c r="F24" s="17" t="s">
@@ -3380,7 +4019,7 @@
       </c>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="4:9" ht="12.75" customHeight="1">
+    <row r="25" customHeight="1" spans="4:9">
       <c r="D25" s="17"/>
       <c r="E25" s="5"/>
       <c r="F25" s="17" t="s">
@@ -3394,7 +4033,7 @@
       </c>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="4:9" ht="12.75" customHeight="1">
+    <row r="26" customHeight="1" spans="4:9">
       <c r="D26" s="17"/>
       <c r="E26" s="5"/>
       <c r="F26" s="17" t="s">
@@ -3408,7 +4047,7 @@
       </c>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="4:9" ht="12.75" customHeight="1">
+    <row r="27" customHeight="1" spans="4:9">
       <c r="D27" s="17"/>
       <c r="E27" s="5"/>
       <c r="F27" s="17" t="s">
@@ -3422,7 +4061,7 @@
       </c>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="4:9" ht="12.75" customHeight="1">
+    <row r="28" customHeight="1" spans="4:9">
       <c r="D28" s="17"/>
       <c r="E28" s="5"/>
       <c r="F28" s="17" t="s">
@@ -3436,7 +4075,7 @@
       </c>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="4:9" ht="12.75" customHeight="1">
+    <row r="29" customHeight="1" spans="4:9">
       <c r="D29" s="17"/>
       <c r="E29" s="5"/>
       <c r="F29" s="17" t="s">
@@ -3450,7 +4089,7 @@
       </c>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="4:9" ht="12.75" customHeight="1">
+    <row r="30" customHeight="1" spans="4:9">
       <c r="D30" s="17"/>
       <c r="E30" s="5"/>
       <c r="F30" s="17" t="s">
@@ -3464,7 +4103,7 @@
       </c>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="4:9" ht="12.75" customHeight="1">
+    <row r="31" customHeight="1" spans="4:9">
       <c r="D31" s="17"/>
       <c r="E31" s="5"/>
       <c r="F31" s="17" t="s">
@@ -3478,7 +4117,7 @@
       </c>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="4:9" ht="12.75" customHeight="1">
+    <row r="32" customHeight="1" spans="4:9">
       <c r="D32" s="17"/>
       <c r="E32" s="5"/>
       <c r="F32" s="17" t="s">
@@ -3492,7 +4131,7 @@
       </c>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="4:9" ht="12.75" customHeight="1">
+    <row r="33" customHeight="1" spans="4:9">
       <c r="D33" s="17"/>
       <c r="E33" s="5"/>
       <c r="F33" s="17" t="s">
@@ -3506,7 +4145,7 @@
       </c>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="4:9" ht="12.75" customHeight="1">
+    <row r="34" customHeight="1" spans="4:9">
       <c r="D34" s="17"/>
       <c r="E34" s="5"/>
       <c r="F34" s="17" t="s">
@@ -3520,7 +4159,7 @@
       </c>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="4:9" ht="12.75" customHeight="1">
+    <row r="35" customHeight="1" spans="4:9">
       <c r="D35" s="17"/>
       <c r="E35" s="5"/>
       <c r="F35" s="17" t="s">
@@ -3534,7 +4173,7 @@
       </c>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="4:9" ht="12.75" customHeight="1">
+    <row r="36" customHeight="1" spans="4:9">
       <c r="D36" s="17"/>
       <c r="E36" s="5"/>
       <c r="F36" s="17" t="s">
@@ -3548,7 +4187,7 @@
       </c>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="4:9" ht="12.75" customHeight="1">
+    <row r="37" customHeight="1" spans="4:9">
       <c r="D37" s="17"/>
       <c r="E37" s="5"/>
       <c r="F37" s="17" t="s">
@@ -3562,7 +4201,7 @@
       </c>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="4:9" ht="12.75" customHeight="1">
+    <row r="38" customHeight="1" spans="4:9">
       <c r="D38" s="17"/>
       <c r="E38" s="5"/>
       <c r="F38" s="17" t="s">
@@ -3576,7 +4215,7 @@
       </c>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="4:9" ht="12.75" customHeight="1">
+    <row r="39" customHeight="1" spans="4:9">
       <c r="D39" s="17"/>
       <c r="E39" s="5"/>
       <c r="F39" s="17" t="s">
@@ -3590,7 +4229,7 @@
       </c>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="4:9" ht="12.75" customHeight="1">
+    <row r="40" customHeight="1" spans="4:9">
       <c r="D40" s="17"/>
       <c r="E40" s="5"/>
       <c r="F40" s="17" t="s">
@@ -3604,7 +4243,7 @@
       </c>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="4:9" ht="12.75" customHeight="1">
+    <row r="41" customHeight="1" spans="4:9">
       <c r="D41" s="17"/>
       <c r="E41" s="5"/>
       <c r="F41" s="17" t="s">
@@ -3618,7 +4257,7 @@
       </c>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="4:9" ht="12.75" customHeight="1">
+    <row r="42" customHeight="1" spans="4:9">
       <c r="D42" s="17"/>
       <c r="E42" s="5"/>
       <c r="F42" s="17" t="s">
@@ -3632,7 +4271,7 @@
       </c>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="4:9" ht="12.75" customHeight="1">
+    <row r="43" customHeight="1" spans="4:9">
       <c r="D43" s="17"/>
       <c r="E43" s="5"/>
       <c r="F43" s="17" t="s">
@@ -3646,7 +4285,7 @@
       </c>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="4:9" ht="12.75" customHeight="1">
+    <row r="44" customHeight="1" spans="4:9">
       <c r="D44" s="17"/>
       <c r="E44" s="5"/>
       <c r="F44" s="17" t="s">
@@ -3660,7 +4299,7 @@
       </c>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="4:9" ht="12.75" customHeight="1">
+    <row r="45" customHeight="1" spans="4:9">
       <c r="D45" s="17"/>
       <c r="E45" s="5"/>
       <c r="F45" s="17" t="s">
@@ -3674,7 +4313,7 @@
       </c>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="4:9" ht="12.75" customHeight="1">
+    <row r="46" customHeight="1" spans="4:9">
       <c r="D46" s="17"/>
       <c r="E46" s="5"/>
       <c r="F46" s="17" t="s">
@@ -3688,7 +4327,7 @@
       </c>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="4:9" ht="12.75" customHeight="1">
+    <row r="47" customHeight="1" spans="4:9">
       <c r="D47" s="17"/>
       <c r="E47" s="5"/>
       <c r="F47" s="17" t="s">
@@ -3702,7 +4341,7 @@
       </c>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="4:9" ht="12.75" customHeight="1">
+    <row r="48" customHeight="1" spans="4:9">
       <c r="D48" s="17"/>
       <c r="E48" s="5"/>
       <c r="F48" s="17" t="s">
@@ -3716,7 +4355,7 @@
       </c>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="4:9" ht="12.75" customHeight="1">
+    <row r="49" customHeight="1" spans="4:9">
       <c r="D49" s="17"/>
       <c r="E49" s="5"/>
       <c r="F49" s="17" t="s">
@@ -3730,7 +4369,7 @@
       </c>
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="4:9" ht="12.75" customHeight="1">
+    <row r="50" customHeight="1" spans="4:9">
       <c r="D50" s="17"/>
       <c r="E50" s="5"/>
       <c r="F50" s="17" t="s">
@@ -3744,7 +4383,7 @@
       </c>
       <c r="I50" s="5"/>
     </row>
-    <row r="51" spans="4:9" ht="12.75" customHeight="1">
+    <row r="51" customHeight="1" spans="4:9">
       <c r="D51" s="17"/>
       <c r="E51" s="5"/>
       <c r="F51" s="17" t="s">
@@ -3758,7 +4397,7 @@
       </c>
       <c r="I51" s="5"/>
     </row>
-    <row r="52" spans="4:9" ht="12.75" customHeight="1">
+    <row r="52" customHeight="1" spans="4:9">
       <c r="D52" s="17"/>
       <c r="E52" s="5"/>
       <c r="F52" s="17" t="s">
@@ -3772,7 +4411,7 @@
       </c>
       <c r="I52" s="5"/>
     </row>
-    <row r="53" spans="4:9" ht="12.75" customHeight="1">
+    <row r="53" customHeight="1" spans="4:9">
       <c r="D53" s="17"/>
       <c r="E53" s="5"/>
       <c r="F53" s="17" t="s">
@@ -3786,7 +4425,7 @@
       </c>
       <c r="I53" s="5"/>
     </row>
-    <row r="54" spans="4:9" ht="12.75" customHeight="1">
+    <row r="54" customHeight="1" spans="4:9">
       <c r="D54" s="17"/>
       <c r="E54" s="5"/>
       <c r="F54" s="17" t="s">
@@ -3800,7 +4439,7 @@
       </c>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="4:9" ht="12.75" customHeight="1">
+    <row r="55" customHeight="1" spans="4:9">
       <c r="D55" s="17"/>
       <c r="E55" s="5"/>
       <c r="F55" s="17" t="s">
@@ -3814,7 +4453,7 @@
       </c>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="4:9" ht="12.75" customHeight="1">
+    <row r="56" customHeight="1" spans="4:9">
       <c r="D56" s="17"/>
       <c r="E56" s="5"/>
       <c r="F56" s="17" t="s">
@@ -3828,7 +4467,7 @@
       </c>
       <c r="I56" s="5"/>
     </row>
-    <row r="57" spans="4:9" ht="12.75" customHeight="1">
+    <row r="57" customHeight="1" spans="4:9">
       <c r="D57" s="17"/>
       <c r="E57" s="5"/>
       <c r="F57" s="17" t="s">
@@ -3842,7 +4481,7 @@
       </c>
       <c r="I57" s="5"/>
     </row>
-    <row r="58" spans="4:9" ht="12.75" customHeight="1">
+    <row r="58" customHeight="1" spans="4:9">
       <c r="D58" s="17"/>
       <c r="E58" s="5"/>
       <c r="F58" s="17" t="s">
@@ -3856,7 +4495,7 @@
       </c>
       <c r="I58" s="5"/>
     </row>
-    <row r="59" spans="4:9" ht="12.75" customHeight="1">
+    <row r="59" customHeight="1" spans="4:9">
       <c r="D59" s="17"/>
       <c r="E59" s="5"/>
       <c r="F59" s="17" t="s">
@@ -3870,7 +4509,7 @@
       </c>
       <c r="I59" s="5"/>
     </row>
-    <row r="60" spans="4:9" ht="12.75" customHeight="1">
+    <row r="60" customHeight="1" spans="4:9">
       <c r="D60" s="17"/>
       <c r="E60" s="5"/>
       <c r="F60" s="17" t="s">
@@ -3884,7 +4523,7 @@
       </c>
       <c r="I60" s="5"/>
     </row>
-    <row r="61" spans="4:9" ht="12.75" customHeight="1">
+    <row r="61" customHeight="1" spans="4:9">
       <c r="D61" s="17"/>
       <c r="E61" s="5"/>
       <c r="F61" s="17" t="s">
@@ -3898,7 +4537,7 @@
       </c>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" spans="4:9" ht="12.75" customHeight="1">
+    <row r="62" customHeight="1" spans="4:9">
       <c r="D62" s="17"/>
       <c r="E62" s="5"/>
       <c r="F62" s="17" t="s">
@@ -3912,7 +4551,7 @@
       </c>
       <c r="I62" s="5"/>
     </row>
-    <row r="63" spans="4:9" ht="12.75" customHeight="1">
+    <row r="63" customHeight="1" spans="4:9">
       <c r="D63" s="17"/>
       <c r="E63" s="5"/>
       <c r="F63" s="17" t="s">
@@ -3926,7 +4565,7 @@
       </c>
       <c r="I63" s="5"/>
     </row>
-    <row r="64" spans="4:9" ht="12.75" customHeight="1">
+    <row r="64" customHeight="1" spans="4:9">
       <c r="D64" s="17"/>
       <c r="E64" s="5"/>
       <c r="F64" s="17" t="s">
@@ -3940,7 +4579,7 @@
       </c>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" spans="4:9" ht="12.75" customHeight="1">
+    <row r="65" customHeight="1" spans="4:9">
       <c r="D65" s="17"/>
       <c r="E65" s="5"/>
       <c r="F65" s="17" t="s">
@@ -3954,7 +4593,7 @@
       </c>
       <c r="I65" s="5"/>
     </row>
-    <row r="66" spans="4:9" ht="12.75" customHeight="1">
+    <row r="66" customHeight="1" spans="4:9">
       <c r="D66" s="17"/>
       <c r="E66" s="5"/>
       <c r="F66" s="17" t="s">
@@ -3968,7 +4607,7 @@
       </c>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" spans="4:9" ht="12.75" customHeight="1">
+    <row r="67" customHeight="1" spans="4:9">
       <c r="D67" s="17"/>
       <c r="E67" s="5"/>
       <c r="F67" s="17" t="s">
@@ -3982,7 +4621,7 @@
       </c>
       <c r="I67" s="5"/>
     </row>
-    <row r="68" spans="4:9" ht="12.75" customHeight="1">
+    <row r="68" customHeight="1" spans="4:9">
       <c r="D68" s="17"/>
       <c r="E68" s="5"/>
       <c r="F68" s="17" t="s">
@@ -3996,7 +4635,7 @@
       </c>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" spans="4:9" ht="12.75" customHeight="1">
+    <row r="69" customHeight="1" spans="4:9">
       <c r="D69" s="17"/>
       <c r="E69" s="5"/>
       <c r="F69" s="17" t="s">
@@ -4010,7 +4649,7 @@
       </c>
       <c r="I69" s="5"/>
     </row>
-    <row r="70" spans="4:9" ht="12.75" customHeight="1">
+    <row r="70" customHeight="1" spans="4:9">
       <c r="D70" s="17"/>
       <c r="E70" s="5"/>
       <c r="F70" s="17" t="s">
@@ -4024,7 +4663,7 @@
       </c>
       <c r="I70" s="5"/>
     </row>
-    <row r="71" spans="4:9" ht="12.75" customHeight="1">
+    <row r="71" customHeight="1" spans="4:9">
       <c r="D71" s="17"/>
       <c r="E71" s="5"/>
       <c r="F71" s="17" t="s">
@@ -4038,7 +4677,7 @@
       </c>
       <c r="I71" s="5"/>
     </row>
-    <row r="72" spans="4:9" ht="12.75" customHeight="1">
+    <row r="72" customHeight="1" spans="4:9">
       <c r="D72" s="17"/>
       <c r="E72" s="5"/>
       <c r="F72" s="17" t="s">
@@ -4052,7 +4691,7 @@
       </c>
       <c r="I72" s="5"/>
     </row>
-    <row r="73" spans="4:9" ht="12.75" customHeight="1">
+    <row r="73" customHeight="1" spans="4:9">
       <c r="D73" s="17"/>
       <c r="E73" s="5"/>
       <c r="F73" s="17" t="s">
@@ -4066,7 +4705,7 @@
       </c>
       <c r="I73" s="5"/>
     </row>
-    <row r="74" spans="4:9" ht="12.75" customHeight="1">
+    <row r="74" customHeight="1" spans="4:9">
       <c r="D74" s="17"/>
       <c r="E74" s="5"/>
       <c r="F74" s="17" t="s">
@@ -4080,7 +4719,7 @@
       </c>
       <c r="I74" s="5"/>
     </row>
-    <row r="75" spans="4:9" ht="12.75" customHeight="1">
+    <row r="75" customHeight="1" spans="4:9">
       <c r="D75" s="17"/>
       <c r="E75" s="5"/>
       <c r="F75" s="17" t="s">
@@ -4094,7 +4733,7 @@
       </c>
       <c r="I75" s="5"/>
     </row>
-    <row r="76" spans="4:9" ht="12.75" customHeight="1">
+    <row r="76" customHeight="1" spans="4:9">
       <c r="D76" s="17"/>
       <c r="E76" s="5"/>
       <c r="F76" s="17" t="s">
@@ -4108,7 +4747,7 @@
       </c>
       <c r="I76" s="5"/>
     </row>
-    <row r="77" spans="4:9" ht="12.75" customHeight="1">
+    <row r="77" customHeight="1" spans="4:9">
       <c r="D77" s="17"/>
       <c r="E77" s="5"/>
       <c r="F77" s="17" t="s">
@@ -4122,7 +4761,7 @@
       </c>
       <c r="I77" s="5"/>
     </row>
-    <row r="78" spans="4:9" ht="12.75" customHeight="1">
+    <row r="78" customHeight="1" spans="4:9">
       <c r="D78" s="17"/>
       <c r="E78" s="5"/>
       <c r="F78" s="17" t="s">
@@ -4136,7 +4775,7 @@
       </c>
       <c r="I78" s="5"/>
     </row>
-    <row r="79" spans="4:9" ht="12.75" customHeight="1">
+    <row r="79" customHeight="1" spans="4:9">
       <c r="D79" s="17"/>
       <c r="E79" s="5"/>
       <c r="F79" s="17" t="s">
@@ -4150,7 +4789,7 @@
       </c>
       <c r="I79" s="5"/>
     </row>
-    <row r="80" spans="4:9" ht="12.75" customHeight="1">
+    <row r="80" customHeight="1" spans="4:9">
       <c r="D80" s="17"/>
       <c r="E80" s="5"/>
       <c r="F80" s="17" t="s">
@@ -4164,7 +4803,7 @@
       </c>
       <c r="I80" s="5"/>
     </row>
-    <row r="81" spans="4:9" ht="12.75" customHeight="1">
+    <row r="81" customHeight="1" spans="4:9">
       <c r="D81" s="17"/>
       <c r="E81" s="5"/>
       <c r="F81" s="17" t="s">
@@ -4178,7 +4817,7 @@
       </c>
       <c r="I81" s="5"/>
     </row>
-    <row r="82" spans="4:9" ht="12.75" customHeight="1">
+    <row r="82" customHeight="1" spans="4:9">
       <c r="D82" s="17"/>
       <c r="E82" s="5"/>
       <c r="F82" s="17" t="s">
@@ -4192,7 +4831,7 @@
       </c>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="4:9" ht="12.75" customHeight="1">
+    <row r="83" customHeight="1" spans="4:9">
       <c r="D83" s="17"/>
       <c r="E83" s="5"/>
       <c r="F83" s="17" t="s">
@@ -4206,7 +4845,7 @@
       </c>
       <c r="I83" s="5"/>
     </row>
-    <row r="84" spans="4:9" ht="12.75" customHeight="1">
+    <row r="84" customHeight="1" spans="4:9">
       <c r="D84" s="17"/>
       <c r="E84" s="5"/>
       <c r="F84" s="17" t="s">
@@ -4220,7 +4859,7 @@
       </c>
       <c r="I84" s="5"/>
     </row>
-    <row r="85" spans="4:9" ht="12.75" customHeight="1">
+    <row r="85" customHeight="1" spans="4:9">
       <c r="D85" s="17"/>
       <c r="E85" s="5"/>
       <c r="F85" s="17" t="s">
@@ -4234,7 +4873,7 @@
       </c>
       <c r="I85" s="5"/>
     </row>
-    <row r="86" spans="4:9" ht="12.75" customHeight="1">
+    <row r="86" customHeight="1" spans="4:9">
       <c r="D86" s="17"/>
       <c r="E86" s="5"/>
       <c r="F86" s="17" t="s">
@@ -4248,7 +4887,7 @@
       </c>
       <c r="I86" s="5"/>
     </row>
-    <row r="87" spans="4:9" ht="12.75" customHeight="1">
+    <row r="87" customHeight="1" spans="4:9">
       <c r="D87" s="17"/>
       <c r="E87" s="5"/>
       <c r="F87" s="17" t="s">
@@ -4262,7 +4901,7 @@
       </c>
       <c r="I87" s="5"/>
     </row>
-    <row r="88" spans="4:9" ht="12.75" customHeight="1">
+    <row r="88" customHeight="1" spans="4:9">
       <c r="D88" s="17"/>
       <c r="E88" s="5"/>
       <c r="F88" s="17" t="s">
@@ -4276,7 +4915,7 @@
       </c>
       <c r="I88" s="5"/>
     </row>
-    <row r="89" spans="4:9" ht="12.75" customHeight="1">
+    <row r="89" customHeight="1" spans="4:9">
       <c r="D89" s="17"/>
       <c r="E89" s="5"/>
       <c r="F89" s="17" t="s">
@@ -4290,7 +4929,7 @@
       </c>
       <c r="I89" s="5"/>
     </row>
-    <row r="90" spans="4:9" ht="12.75" customHeight="1">
+    <row r="90" customHeight="1" spans="4:9">
       <c r="D90" s="17"/>
       <c r="E90" s="5"/>
       <c r="F90" s="17" t="s">
@@ -4304,7 +4943,7 @@
       </c>
       <c r="I90" s="5"/>
     </row>
-    <row r="91" spans="4:9" ht="12.75" customHeight="1">
+    <row r="91" customHeight="1" spans="4:9">
       <c r="D91" s="17"/>
       <c r="E91" s="5"/>
       <c r="F91" s="17" t="s">
@@ -4318,7 +4957,7 @@
       </c>
       <c r="I91" s="5"/>
     </row>
-    <row r="92" spans="4:9" ht="12.75" customHeight="1">
+    <row r="92" customHeight="1" spans="4:9">
       <c r="D92" s="17"/>
       <c r="E92" s="5"/>
       <c r="F92" s="17" t="s">
@@ -4332,7 +4971,7 @@
       </c>
       <c r="I92" s="5"/>
     </row>
-    <row r="93" spans="4:9" ht="12.75" customHeight="1">
+    <row r="93" customHeight="1" spans="4:9">
       <c r="D93" s="17"/>
       <c r="E93" s="5"/>
       <c r="F93" s="17" t="s">
@@ -4346,7 +4985,7 @@
       </c>
       <c r="I93" s="5"/>
     </row>
-    <row r="94" spans="4:9" ht="12.75" customHeight="1">
+    <row r="94" customHeight="1" spans="4:9">
       <c r="D94" s="17"/>
       <c r="E94" s="5"/>
       <c r="F94" s="17" t="s">
@@ -4360,7 +4999,7 @@
       </c>
       <c r="I94" s="5"/>
     </row>
-    <row r="95" spans="4:9" ht="12.75" customHeight="1">
+    <row r="95" customHeight="1" spans="4:9">
       <c r="D95" s="17"/>
       <c r="E95" s="5"/>
       <c r="F95" s="17" t="s">
@@ -4374,7 +5013,7 @@
       </c>
       <c r="I95" s="5"/>
     </row>
-    <row r="96" spans="4:9" ht="12.75" customHeight="1">
+    <row r="96" customHeight="1" spans="4:9">
       <c r="D96" s="17"/>
       <c r="E96" s="5"/>
       <c r="F96" s="17" t="s">
@@ -4388,7 +5027,7 @@
       </c>
       <c r="I96" s="5"/>
     </row>
-    <row r="97" spans="4:9" ht="12.75" customHeight="1">
+    <row r="97" customHeight="1" spans="4:9">
       <c r="D97" s="17"/>
       <c r="E97" s="5"/>
       <c r="F97" s="17" t="s">
@@ -4402,7 +5041,7 @@
       </c>
       <c r="I97" s="5"/>
     </row>
-    <row r="98" spans="4:9">
+    <row r="98" spans="6:8">
       <c r="F98" s="17" t="s">
         <v>162</v>
       </c>
@@ -4413,7 +5052,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="4:9">
+    <row r="99" spans="6:8">
       <c r="F99" s="17" t="s">
         <v>162</v>
       </c>
@@ -4424,7 +5063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="4:9">
+    <row r="100" spans="6:8">
       <c r="F100" s="17" t="s">
         <v>162</v>
       </c>
@@ -4435,7 +5074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="4:9">
+    <row r="101" spans="6:8">
       <c r="F101" s="17" t="s">
         <v>162</v>
       </c>
@@ -4446,7 +5085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="4:9">
+    <row r="102" spans="6:8">
       <c r="F102" s="17" t="s">
         <v>162</v>
       </c>
@@ -4457,7 +5096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="4:9">
+    <row r="103" spans="6:8">
       <c r="F103" s="17" t="s">
         <v>162</v>
       </c>
@@ -4468,7 +5107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="4:9">
+    <row r="104" spans="6:8">
       <c r="F104" s="17" t="s">
         <v>162</v>
       </c>
@@ -4479,7 +5118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="4:9">
+    <row r="105" spans="6:8">
       <c r="F105" s="17" t="s">
         <v>162</v>
       </c>
@@ -4490,7 +5129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="4:9">
+    <row r="106" spans="6:8">
       <c r="F106" s="17" t="s">
         <v>162</v>
       </c>
@@ -4501,7 +5140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="4:9">
+    <row r="107" spans="6:8">
       <c r="F107" s="17" t="s">
         <v>162</v>
       </c>
@@ -4512,7 +5151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="4:9">
+    <row r="108" spans="6:8">
       <c r="F108" s="17" t="s">
         <v>162</v>
       </c>
@@ -4523,7 +5162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="4:9">
+    <row r="109" spans="6:8">
       <c r="F109" s="17" t="s">
         <v>162</v>
       </c>
@@ -4534,7 +5173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="4:9">
+    <row r="110" spans="6:8">
       <c r="F110" s="17" t="s">
         <v>162</v>
       </c>
@@ -4545,7 +5184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="4:9">
+    <row r="111" spans="6:8">
       <c r="F111" s="17" t="s">
         <v>162</v>
       </c>
@@ -4556,7 +5195,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="4:9">
+    <row r="112" spans="6:8">
       <c r="F112" s="17" t="s">
         <v>163</v>
       </c>
@@ -4711,37 +5350,38 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:Q46"/>
   <sheetViews>
-    <sheetView topLeftCell="J6" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+    <sheetView zoomScale="97" zoomScaleNormal="97" topLeftCell="J6" workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="64.42578125" customWidth="1"/>
+    <col min="1" max="3" width="11.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="15.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="11.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="64.4285714285714" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="35.7109375" customWidth="1"/>
-    <col min="9" max="9" width="71.5703125" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="44.7109375" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="35.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="71.5714285714286" customWidth="1"/>
+    <col min="10" max="10" width="18.5714285714286" customWidth="1"/>
+    <col min="11" max="11" width="44.7142857142857" customWidth="1"/>
+    <col min="12" max="12" width="19.2857142857143" customWidth="1"/>
+    <col min="13" max="13" width="11.5714285714286" customWidth="1"/>
     <col min="14" max="14" width="23" customWidth="1"/>
-    <col min="15" max="1025" width="11.5703125" customWidth="1"/>
+    <col min="15" max="1025" width="11.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:17" ht="12.75" customHeight="1">
+    <row r="7" customHeight="1" spans="4:17">
       <c r="D7" s="5" t="s">
         <v>165</v>
       </c>
@@ -4785,7 +5425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:17">
+    <row r="8" spans="6:15">
       <c r="F8" s="6" t="s">
         <v>121</v>
       </c>
@@ -4817,7 +5457,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="4:17">
+    <row r="9" spans="6:16">
       <c r="F9" s="6" t="s">
         <v>123</v>
       </c>
@@ -4852,7 +5492,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="4:17">
+    <row r="10" spans="6:16">
       <c r="F10" s="6" t="s">
         <v>124</v>
       </c>
@@ -4885,7 +5525,7 @@
       </c>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="4:17">
+    <row r="11" spans="6:16">
       <c r="F11" s="6" t="s">
         <v>125</v>
       </c>
@@ -4918,7 +5558,7 @@
       </c>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="4:17" ht="12.75">
+    <row r="12" spans="6:16">
       <c r="F12" s="6" t="s">
         <v>126</v>
       </c>
@@ -4951,7 +5591,7 @@
       </c>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="4:17">
+    <row r="13" spans="6:16">
       <c r="F13" s="6" t="s">
         <v>127</v>
       </c>
@@ -4984,7 +5624,7 @@
       </c>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="4:17">
+    <row r="14" spans="6:16">
       <c r="F14" s="6" t="s">
         <v>128</v>
       </c>
@@ -5017,7 +5657,7 @@
       </c>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="4:17">
+    <row r="15" spans="6:15">
       <c r="F15" s="7" t="s">
         <v>197</v>
       </c>
@@ -5047,7 +5687,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="4:17">
+    <row r="16" spans="6:15">
       <c r="F16" s="7" t="s">
         <v>129</v>
       </c>
@@ -5079,7 +5719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="6:16">
+    <row r="17" spans="6:15">
       <c r="F17" s="7" t="s">
         <v>130</v>
       </c>
@@ -5111,7 +5751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="6:16">
+    <row r="18" spans="6:15">
       <c r="F18" s="7" t="s">
         <v>131</v>
       </c>
@@ -5143,7 +5783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="6:16">
+    <row r="19" spans="6:15">
       <c r="F19" s="7" t="s">
         <v>132</v>
       </c>
@@ -5175,7 +5815,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="6:16">
+    <row r="20" spans="6:15">
       <c r="F20" s="7" t="s">
         <v>133</v>
       </c>
@@ -5207,7 +5847,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="6:16">
+    <row r="21" spans="6:15">
       <c r="F21" s="9" t="s">
         <v>134</v>
       </c>
@@ -5239,7 +5879,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="6:16">
+    <row r="22" spans="6:15">
       <c r="F22" s="9" t="s">
         <v>135</v>
       </c>
@@ -5271,7 +5911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="6:16">
+    <row r="23" spans="6:15">
       <c r="F23" s="9" t="s">
         <v>136</v>
       </c>
@@ -5303,7 +5943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="6:16">
+    <row r="24" spans="6:15">
       <c r="F24" s="9" t="s">
         <v>137</v>
       </c>
@@ -5335,7 +5975,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="6:16">
+    <row r="25" spans="6:15">
       <c r="F25" s="9" t="s">
         <v>138</v>
       </c>
@@ -5367,7 +6007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="6:16">
+    <row r="26" spans="6:15">
       <c r="F26" s="9" t="s">
         <v>139</v>
       </c>
@@ -5399,7 +6039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="6:16">
+    <row r="27" spans="6:15">
       <c r="F27" s="9" t="s">
         <v>140</v>
       </c>
@@ -5431,7 +6071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="6:16">
+    <row r="28" spans="6:15">
       <c r="F28" s="9" t="s">
         <v>141</v>
       </c>
@@ -5741,7 +6381,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="6:16">
+    <row r="37" spans="6:15">
       <c r="F37" s="10" t="s">
         <v>150</v>
       </c>
@@ -5771,7 +6411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="6:16">
+    <row r="38" spans="6:15">
       <c r="F38" s="10" t="s">
         <v>151</v>
       </c>
@@ -5803,7 +6443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="6:16">
+    <row r="39" spans="6:15">
       <c r="F39" s="10" t="s">
         <v>152</v>
       </c>
@@ -5835,7 +6475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="6:16">
+    <row r="40" spans="6:15">
       <c r="F40" s="10" t="s">
         <v>153</v>
       </c>
@@ -5867,7 +6507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="6:16">
+    <row r="41" spans="6:15">
       <c r="F41" s="10" t="s">
         <v>154</v>
       </c>
@@ -5899,7 +6539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="6:16">
+    <row r="42" spans="6:15">
       <c r="F42" s="10" t="s">
         <v>155</v>
       </c>
@@ -5931,7 +6571,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="6:16">
+    <row r="43" spans="6:15">
       <c r="F43" s="10" t="s">
         <v>156</v>
       </c>
@@ -5963,7 +6603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="6:16">
+    <row r="44" spans="6:15">
       <c r="F44" s="10" t="s">
         <v>157</v>
       </c>
@@ -5995,7 +6635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="6:16">
+    <row r="45" spans="6:15">
       <c r="F45" s="10" t="s">
         <v>158</v>
       </c>
@@ -6027,7 +6667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="6:16">
+    <row r="46" spans="6:15">
       <c r="F46" s="10" t="s">
         <v>159</v>
       </c>
@@ -6060,9 +6700,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -6071,25 +6710,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="D7:I312"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:I324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E168" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H189" sqref="H189"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E34" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="59.7109375" customWidth="1"/>
+    <col min="1" max="3" width="11.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="23.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="11.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="59.7142857142857" customWidth="1"/>
     <col min="7" max="7" width="65" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" customWidth="1"/>
-    <col min="9" max="1025" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="31.2857142857143" customWidth="1"/>
+    <col min="9" max="1025" width="11.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" ht="12.75" customHeight="1">
+    <row r="7" customHeight="1" spans="4:9">
       <c r="D7" s="5" t="s">
         <v>259</v>
       </c>
@@ -6109,7 +6749,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="4:9">
+    <row r="8" spans="6:9">
       <c r="F8" t="s">
         <v>121</v>
       </c>
@@ -6120,7 +6760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:9">
+    <row r="9" spans="6:9">
       <c r="F9" t="s">
         <v>121</v>
       </c>
@@ -6131,7 +6771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:9">
+    <row r="10" spans="6:9">
       <c r="F10" t="s">
         <v>121</v>
       </c>
@@ -6142,7 +6782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:9">
+    <row r="11" spans="6:9">
       <c r="F11" t="s">
         <v>121</v>
       </c>
@@ -6153,7 +6793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:9">
+    <row r="12" spans="6:9">
       <c r="F12" t="s">
         <v>121</v>
       </c>
@@ -6164,7 +6804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:9">
+    <row r="13" spans="6:9">
       <c r="F13" t="s">
         <v>121</v>
       </c>
@@ -6175,7 +6815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:9">
+    <row r="14" spans="6:9">
       <c r="F14" t="s">
         <v>121</v>
       </c>
@@ -6186,7 +6826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:9">
+    <row r="15" spans="6:9">
       <c r="F15" t="s">
         <v>121</v>
       </c>
@@ -6197,7 +6837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:9">
+    <row r="16" spans="6:9">
       <c r="F16" t="s">
         <v>121</v>
       </c>
@@ -6779,7 +7419,7 @@
       <c r="F68" t="s">
         <v>121</v>
       </c>
-      <c r="G68" s="12" t="s">
+      <c r="G68" t="s">
         <v>320</v>
       </c>
       <c r="I68">
@@ -6790,7 +7430,7 @@
       <c r="F69" t="s">
         <v>121</v>
       </c>
-      <c r="G69" s="12" t="s">
+      <c r="G69" t="s">
         <v>321</v>
       </c>
       <c r="I69">
@@ -6801,7 +7441,7 @@
       <c r="F70" t="s">
         <v>121</v>
       </c>
-      <c r="G70" s="12" t="s">
+      <c r="G70" t="s">
         <v>322</v>
       </c>
       <c r="I70">
@@ -6812,7 +7452,7 @@
       <c r="F71" t="s">
         <v>121</v>
       </c>
-      <c r="G71" s="12" t="s">
+      <c r="G71" t="s">
         <v>323</v>
       </c>
       <c r="I71">
@@ -6823,7 +7463,7 @@
       <c r="F72" t="s">
         <v>121</v>
       </c>
-      <c r="G72" s="12" t="s">
+      <c r="G72" t="s">
         <v>324</v>
       </c>
       <c r="I72">
@@ -6834,8 +7474,8 @@
       <c r="F73" t="s">
         <v>121</v>
       </c>
-      <c r="G73" s="12" t="s">
-        <v>12</v>
+      <c r="G73" t="s">
+        <v>325</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -6843,10 +7483,10 @@
     </row>
     <row r="74" spans="6:9">
       <c r="F74" t="s">
-        <v>124</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>325</v>
+        <v>121</v>
+      </c>
+      <c r="G74" t="s">
+        <v>326</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -6854,10 +7494,10 @@
     </row>
     <row r="75" spans="6:9">
       <c r="F75" t="s">
-        <v>124</v>
-      </c>
-      <c r="G75" s="13" t="s">
-        <v>326</v>
+        <v>121</v>
+      </c>
+      <c r="G75" t="s">
+        <v>327</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -6865,10 +7505,10 @@
     </row>
     <row r="76" spans="6:9">
       <c r="F76" t="s">
-        <v>124</v>
-      </c>
-      <c r="G76" s="13" t="s">
-        <v>327</v>
+        <v>121</v>
+      </c>
+      <c r="G76" t="s">
+        <v>328</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -6876,21 +7516,21 @@
     </row>
     <row r="77" spans="6:9">
       <c r="F77" t="s">
-        <v>124</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>328</v>
+        <v>121</v>
+      </c>
+      <c r="G77" t="s">
+        <v>329</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="6:9">
       <c r="F78" t="s">
-        <v>124</v>
-      </c>
-      <c r="G78" s="13" t="s">
-        <v>303</v>
+        <v>121</v>
+      </c>
+      <c r="G78" t="s">
+        <v>330</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -6898,145 +7538,142 @@
     </row>
     <row r="79" spans="6:9">
       <c r="F79" t="s">
+        <v>121</v>
+      </c>
+      <c r="G79" t="s">
+        <v>331</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="6:9">
+      <c r="F80" t="s">
+        <v>121</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="6:9">
+      <c r="F81" t="s">
+        <v>121</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="6:9">
+      <c r="F82" t="s">
+        <v>121</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="6:9">
+      <c r="F83" t="s">
+        <v>121</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="6:9">
+      <c r="F84" t="s">
+        <v>121</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="6:9">
+      <c r="F85" t="s">
+        <v>121</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="6:9">
+      <c r="F86" t="s">
         <v>124</v>
       </c>
-      <c r="G79" s="13" t="s">
+      <c r="G86" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="6:9">
+      <c r="F87" t="s">
+        <v>124</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="6:9">
+      <c r="F88" t="s">
+        <v>124</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="6:9">
+      <c r="F89" t="s">
+        <v>124</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="6:9">
+      <c r="F90" t="s">
+        <v>124</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="6:9">
+      <c r="F91" t="s">
+        <v>124</v>
+      </c>
+      <c r="G91" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="I79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="6:9">
-      <c r="F80" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G80" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="6:9">
-      <c r="F81" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G81" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="I81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="6:9">
-      <c r="F82" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G82" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="6:9">
-      <c r="F83" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G83" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="6:9">
-      <c r="F84" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G84" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="6:9">
-      <c r="F85" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G85" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="6:9">
-      <c r="F86" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G86" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="I86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="6:9">
-      <c r="F87" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G87" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="I87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="6:9">
-      <c r="F88" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G88" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="6:9">
-      <c r="F89" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G89" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="I89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="6:9">
-      <c r="F90" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G90" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="I90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="6:9">
-      <c r="F91" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G91" s="13" t="s">
-        <v>333</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -7047,10 +7684,10 @@
         <v>125</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="6:9">
@@ -7058,7 +7695,7 @@
         <v>125</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>290</v>
+        <v>337</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -7069,7 +7706,7 @@
         <v>125</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -7080,7 +7717,7 @@
         <v>125</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -7091,10 +7728,7 @@
         <v>125</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="H96">
-        <v>1</v>
+        <v>337</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -7105,7 +7739,10 @@
         <v>125</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>301</v>
+        <v>343</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -7116,7 +7753,7 @@
         <v>125</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -7127,7 +7764,7 @@
         <v>125</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>336</v>
+        <v>262</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -7138,7 +7775,7 @@
         <v>125</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -7149,7 +7786,7 @@
         <v>125</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -7160,7 +7797,7 @@
         <v>125</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -7171,7 +7808,7 @@
         <v>125</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -7182,7 +7819,7 @@
         <v>125</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -7193,29 +7830,29 @@
         <v>125</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="I105">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="6:9" ht="13.15" customHeight="1">
+    <row r="106" spans="6:9">
       <c r="F106" s="6" t="s">
         <v>125</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="I106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="6:9" ht="13.15" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="6:9">
       <c r="F107" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="G107" t="s">
-        <v>342</v>
+      <c r="G107" s="13" t="s">
+        <v>295</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -7226,7 +7863,10 @@
         <v>125</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>24</v>
+        <v>347</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -7234,10 +7874,10 @@
     </row>
     <row r="109" spans="6:9">
       <c r="F109" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>343</v>
+        <v>301</v>
       </c>
       <c r="I109">
         <v>1</v>
@@ -7245,10 +7885,10 @@
     </row>
     <row r="110" spans="6:9">
       <c r="F110" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -7256,10 +7896,10 @@
     </row>
     <row r="111" spans="6:9">
       <c r="F111" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -7267,10 +7907,10 @@
     </row>
     <row r="112" spans="6:9">
       <c r="F112" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -7278,10 +7918,10 @@
     </row>
     <row r="113" spans="6:9">
       <c r="F113" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -7289,10 +7929,10 @@
     </row>
     <row r="114" spans="6:9">
       <c r="F114" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -7300,10 +7940,10 @@
     </row>
     <row r="115" spans="6:9">
       <c r="F115" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -7311,10 +7951,10 @@
     </row>
     <row r="116" spans="6:9">
       <c r="F116" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="I116">
         <v>1</v>
@@ -7322,32 +7962,32 @@
     </row>
     <row r="117" spans="6:9">
       <c r="F117" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="I117">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="6:9">
+    <row r="118" ht="13.15" customHeight="1" spans="6:9">
       <c r="F118" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="I118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="6:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" ht="13.15" customHeight="1" spans="6:9">
       <c r="F119" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G119" s="13" t="s">
-        <v>345</v>
+        <v>125</v>
+      </c>
+      <c r="G119" t="s">
+        <v>353</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -7355,10 +7995,10 @@
     </row>
     <row r="120" spans="6:9">
       <c r="F120" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -7369,7 +8009,7 @@
         <v>126</v>
       </c>
       <c r="G121" s="13" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -7380,7 +8020,7 @@
         <v>126</v>
       </c>
       <c r="G122" s="13" t="s">
-        <v>276</v>
+        <v>353</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -7391,7 +8031,7 @@
         <v>126</v>
       </c>
       <c r="G123" s="13" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I123">
         <v>1</v>
@@ -7402,7 +8042,7 @@
         <v>126</v>
       </c>
       <c r="G124" s="13" t="s">
-        <v>263</v>
+        <v>355</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -7413,7 +8053,7 @@
         <v>126</v>
       </c>
       <c r="G125" s="13" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="I125">
         <v>1</v>
@@ -7424,7 +8064,7 @@
         <v>126</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -7435,7 +8075,7 @@
         <v>126</v>
       </c>
       <c r="G127" s="13" t="s">
-        <v>349</v>
+        <v>293</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -7446,7 +8086,7 @@
         <v>126</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -7457,7 +8097,7 @@
         <v>126</v>
       </c>
       <c r="G129" s="13" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -7468,7 +8108,7 @@
         <v>126</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="I130">
         <v>1</v>
@@ -7479,7 +8119,7 @@
         <v>126</v>
       </c>
       <c r="G131" s="13" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="I131">
         <v>1</v>
@@ -7490,7 +8130,7 @@
         <v>126</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>354</v>
+        <v>262</v>
       </c>
       <c r="I132">
         <v>1</v>
@@ -7501,7 +8141,7 @@
         <v>126</v>
       </c>
       <c r="G133" s="13" t="s">
-        <v>27</v>
+        <v>346</v>
       </c>
       <c r="I133">
         <v>1</v>
@@ -7509,10 +8149,10 @@
     </row>
     <row r="134" spans="6:9">
       <c r="F134" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>30</v>
+        <v>276</v>
       </c>
       <c r="I134">
         <v>1</v>
@@ -7520,10 +8160,10 @@
     </row>
     <row r="135" spans="6:9">
       <c r="F135" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G135" s="13" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -7531,10 +8171,10 @@
     </row>
     <row r="136" spans="6:9">
       <c r="F136" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>356</v>
+        <v>263</v>
       </c>
       <c r="I136">
         <v>1</v>
@@ -7542,7 +8182,7 @@
     </row>
     <row r="137" spans="6:9">
       <c r="F137" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G137" s="13" t="s">
         <v>357</v>
@@ -7553,7 +8193,7 @@
     </row>
     <row r="138" spans="6:9">
       <c r="F138" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G138" s="13" t="s">
         <v>358</v>
@@ -7564,7 +8204,7 @@
     </row>
     <row r="139" spans="6:9">
       <c r="F139" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G139" s="13" t="s">
         <v>359</v>
@@ -7575,10 +8215,10 @@
     </row>
     <row r="140" spans="6:9">
       <c r="F140" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="I140">
         <v>1</v>
@@ -7586,21 +8226,21 @@
     </row>
     <row r="141" spans="6:9">
       <c r="F141" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G141" s="13" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="6:9">
       <c r="F142" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I142">
         <v>1</v>
@@ -7608,10 +8248,10 @@
     </row>
     <row r="143" spans="6:9">
       <c r="F143" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G143" s="13" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="I143">
         <v>1</v>
@@ -7619,10 +8259,10 @@
     </row>
     <row r="144" spans="6:9">
       <c r="F144" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="I144">
         <v>1</v>
@@ -7630,10 +8270,10 @@
     </row>
     <row r="145" spans="6:9">
       <c r="F145" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G145" t="s">
-        <v>362</v>
+        <v>126</v>
+      </c>
+      <c r="G145" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="I145">
         <v>1</v>
@@ -7644,282 +8284,282 @@
         <v>127</v>
       </c>
       <c r="G146" s="13" t="s">
-        <v>326</v>
+        <v>30</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="6:9">
-      <c r="F147" t="s">
+      <c r="F147" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G147" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="6:9">
+      <c r="F148" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G148" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="6:9">
+      <c r="F149" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G149" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="6:9">
+      <c r="F150" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G150" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="6:9">
+      <c r="F151" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G151" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="6:9">
+      <c r="F152" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G152" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="6:9">
+      <c r="F153" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G153" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="6:9">
+      <c r="F154" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G154" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="6:9">
+      <c r="F155" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G155" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="6:9">
+      <c r="F156" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G156" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="6:9">
+      <c r="F157" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G157" t="s">
+        <v>372</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="6:9">
+      <c r="F158" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G158" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="6:9">
+      <c r="F159" t="s">
         <v>128</v>
       </c>
-      <c r="G147" s="13" t="s">
+      <c r="G159" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="I147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="6:9">
-      <c r="F148" t="s">
+      <c r="I159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="6:9">
+      <c r="F160" t="s">
         <v>128</v>
       </c>
-      <c r="G148" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="I148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="6:9">
-      <c r="F149" t="s">
+      <c r="G160" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="6:9">
+      <c r="F161" t="s">
         <v>128</v>
       </c>
-      <c r="G149" s="13" t="s">
+      <c r="G161" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="I149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="6:9">
-      <c r="F150" t="s">
+      <c r="I161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="6:9">
+      <c r="F162" t="s">
         <v>128</v>
       </c>
-      <c r="G150" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="I150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="6:9">
-      <c r="F151" t="s">
+      <c r="G162" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="6:9">
+      <c r="F163" t="s">
         <v>128</v>
       </c>
-      <c r="G151" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="I151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="6:9">
-      <c r="F152" t="s">
+      <c r="G163" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="6:9">
+      <c r="F164" t="s">
         <v>128</v>
       </c>
-      <c r="G152" s="13" t="s">
+      <c r="G164" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="I152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="6:9">
-      <c r="F153" t="s">
+      <c r="I164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="6:9">
+      <c r="F165" t="s">
         <v>128</v>
       </c>
-      <c r="G153" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="I153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="6:9">
-      <c r="F154" t="s">
+      <c r="G165" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="6:9">
+      <c r="F166" t="s">
         <v>128</v>
       </c>
-      <c r="G154" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="I154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="6:9">
-      <c r="F155" t="s">
+      <c r="G166" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="6:9">
+      <c r="F167" t="s">
         <v>128</v>
       </c>
-      <c r="G155" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="I155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="6:9">
-      <c r="F156" t="s">
+      <c r="G167" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="6:9">
+      <c r="F168" t="s">
         <v>128</v>
       </c>
-      <c r="G156" s="13" t="s">
+      <c r="G168" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="6:9">
-      <c r="F157" s="14" t="s">
+      <c r="I168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="6:9">
+      <c r="F169" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="G157" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="I157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="6:9">
-      <c r="F158" s="14" t="s">
+      <c r="G169" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="6:9">
+      <c r="F170" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="G158" s="13" t="s">
+      <c r="G170" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="6:9">
-      <c r="F159" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G159" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="I159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="6:9">
-      <c r="F160" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G160" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="I160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="6:9">
-      <c r="F161" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G161" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="6:9">
-      <c r="F162" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G162" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="I162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="6:9">
-      <c r="F163" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G163" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="6:9">
-      <c r="F164" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G164" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="I164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="6:9">
-      <c r="F165" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G165" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="I165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="6:9">
-      <c r="F166" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G166" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="I166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="6:9">
-      <c r="F167" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G167" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="I167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="6:9">
-      <c r="F168" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G168" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="I168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="6:9">
-      <c r="F169" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G169" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="I169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="6:9">
-      <c r="F170" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G170" s="13" t="s">
-        <v>370</v>
-      </c>
       <c r="I170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="6:9">
       <c r="F171" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G171" s="13" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="I171">
         <v>1</v>
@@ -7927,10 +8567,10 @@
     </row>
     <row r="172" spans="6:9">
       <c r="F172" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G172" s="13" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="I172">
         <v>1</v>
@@ -7938,10 +8578,10 @@
     </row>
     <row r="173" spans="6:9">
       <c r="F173" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G173" s="13" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I173">
         <v>1</v>
@@ -7949,10 +8589,10 @@
     </row>
     <row r="174" spans="6:9">
       <c r="F174" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G174" s="13" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="I174">
         <v>1</v>
@@ -7960,65 +8600,65 @@
     </row>
     <row r="175" spans="6:9">
       <c r="F175" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G175" s="13" t="s">
-        <v>374</v>
+        <v>57</v>
       </c>
       <c r="I175">
         <v>1</v>
       </c>
     </row>
     <row r="176" spans="6:9">
-      <c r="F176" s="9" t="s">
-        <v>139</v>
+      <c r="F176" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="G176" s="13" t="s">
-        <v>375</v>
+        <v>296</v>
       </c>
       <c r="I176">
         <v>1</v>
       </c>
     </row>
     <row r="177" spans="6:9">
-      <c r="F177" s="9" t="s">
-        <v>139</v>
+      <c r="F177" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="G177" s="13" t="s">
-        <v>262</v>
+        <v>380</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="6:9">
-      <c r="F178" s="9" t="s">
-        <v>139</v>
+      <c r="F178" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>66</v>
+        <v>381</v>
       </c>
       <c r="I178">
         <v>1</v>
       </c>
     </row>
     <row r="179" spans="6:9">
-      <c r="F179" s="9" t="s">
-        <v>140</v>
+      <c r="F179" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="G179" s="13" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="I179">
         <v>1</v>
       </c>
     </row>
     <row r="180" spans="6:9">
-      <c r="F180" s="9" t="s">
-        <v>140</v>
+      <c r="F180" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="G180" s="13" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I180">
         <v>1</v>
@@ -8026,10 +8666,10 @@
     </row>
     <row r="181" spans="6:9">
       <c r="F181" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G181" s="13" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -8037,10 +8677,10 @@
     </row>
     <row r="182" spans="6:9">
       <c r="F182" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G182" s="13" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -8048,167 +8688,164 @@
     </row>
     <row r="183" spans="6:9">
       <c r="F183" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G183" s="13" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="6:9">
       <c r="F184" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G184" s="13" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="6:9">
       <c r="F185" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G185" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="6:9">
+      <c r="F186" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G186" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="6:9">
+      <c r="F187" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G187" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="6:9">
+      <c r="F188" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G188" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="6:9">
+      <c r="F189" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G189" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="6:9">
+      <c r="F190" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G190" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="6:9">
+      <c r="F191" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G191" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="6:9">
+      <c r="F192" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G192" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="6:9">
+      <c r="F193" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G185" s="13" t="s">
+      <c r="G193" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="6:9">
+      <c r="F194" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G194" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="6:9">
+      <c r="F195" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G195" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="6:9">
+      <c r="F196" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G196" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="6:9">
+      <c r="F197" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G197" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="I185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="6:9">
-      <c r="F186" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G186" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="I186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="6:9">
-      <c r="F187" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G187" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="H187">
-        <v>1</v>
-      </c>
-      <c r="I187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="6:9">
-      <c r="F188" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G188" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="I188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="6:9">
-      <c r="F189" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G189" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="I189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="6:9">
-      <c r="F190" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G190" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="I190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="6:9">
-      <c r="F191" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G191" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="I191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="6:9">
-      <c r="F192" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G192" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="I192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="6:9">
-      <c r="F193" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G193" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="I193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="6:9">
-      <c r="F194" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G194" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="I194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="6:9">
-      <c r="F195" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G195" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="I195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="6:9">
-      <c r="F196" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G196" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="I196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="6:9">
-      <c r="F197" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G197" s="13" t="s">
-        <v>352</v>
       </c>
       <c r="I197">
         <v>1</v>
@@ -8219,7 +8856,7 @@
         <v>143</v>
       </c>
       <c r="G198" s="13" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="I198">
         <v>1</v>
@@ -8230,7 +8867,10 @@
         <v>143</v>
       </c>
       <c r="G199" s="13" t="s">
-        <v>354</v>
+        <v>330</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
       </c>
       <c r="I199">
         <v>1</v>
@@ -8241,10 +8881,7 @@
         <v>143</v>
       </c>
       <c r="G200" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="H200">
-        <v>1</v>
+        <v>276</v>
       </c>
       <c r="I200">
         <v>1</v>
@@ -8255,10 +8892,7 @@
         <v>143</v>
       </c>
       <c r="G201" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="H201">
-        <v>1</v>
+        <v>353</v>
       </c>
       <c r="I201">
         <v>1</v>
@@ -8269,7 +8903,7 @@
         <v>143</v>
       </c>
       <c r="G202" s="13" t="s">
-        <v>283</v>
+        <v>391</v>
       </c>
       <c r="I202">
         <v>1</v>
@@ -8280,7 +8914,7 @@
         <v>143</v>
       </c>
       <c r="G203" s="13" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="I203">
         <v>1</v>
@@ -8291,7 +8925,7 @@
         <v>143</v>
       </c>
       <c r="G204" s="13" t="s">
-        <v>285</v>
+        <v>392</v>
       </c>
       <c r="I204">
         <v>1</v>
@@ -8302,7 +8936,7 @@
         <v>143</v>
       </c>
       <c r="G205" s="13" t="s">
-        <v>286</v>
+        <v>393</v>
       </c>
       <c r="I205">
         <v>1</v>
@@ -8313,7 +8947,7 @@
         <v>143</v>
       </c>
       <c r="G206" s="13" t="s">
-        <v>287</v>
+        <v>394</v>
       </c>
       <c r="I206">
         <v>1</v>
@@ -8324,7 +8958,7 @@
         <v>143</v>
       </c>
       <c r="G207" s="13" t="s">
-        <v>288</v>
+        <v>354</v>
       </c>
       <c r="I207">
         <v>1</v>
@@ -8335,7 +8969,7 @@
         <v>143</v>
       </c>
       <c r="G208" s="13" t="s">
-        <v>276</v>
+        <v>361</v>
       </c>
       <c r="I208">
         <v>1</v>
@@ -8346,7 +8980,7 @@
         <v>143</v>
       </c>
       <c r="G209" s="13" t="s">
-        <v>289</v>
+        <v>362</v>
       </c>
       <c r="I209">
         <v>1</v>
@@ -8357,7 +8991,7 @@
         <v>143</v>
       </c>
       <c r="G210" s="13" t="s">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="I210">
         <v>1</v>
@@ -8368,7 +9002,7 @@
         <v>143</v>
       </c>
       <c r="G211" s="13" t="s">
-        <v>291</v>
+        <v>364</v>
       </c>
       <c r="I211">
         <v>1</v>
@@ -8379,7 +9013,10 @@
         <v>143</v>
       </c>
       <c r="G212" s="13" t="s">
-        <v>292</v>
+        <v>281</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
       </c>
       <c r="I212">
         <v>1</v>
@@ -8390,7 +9027,10 @@
         <v>143</v>
       </c>
       <c r="G213" s="13" t="s">
-        <v>293</v>
+        <v>282</v>
+      </c>
+      <c r="H213">
+        <v>1</v>
       </c>
       <c r="I213">
         <v>1</v>
@@ -8401,7 +9041,7 @@
         <v>143</v>
       </c>
       <c r="G214" s="13" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="I214">
         <v>1</v>
@@ -8412,7 +9052,7 @@
         <v>143</v>
       </c>
       <c r="G215" s="13" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="I215">
         <v>1</v>
@@ -8423,7 +9063,7 @@
         <v>143</v>
       </c>
       <c r="G216" s="13" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="I216">
         <v>1</v>
@@ -8434,7 +9074,7 @@
         <v>143</v>
       </c>
       <c r="G217" s="13" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="I217">
         <v>1</v>
@@ -8445,7 +9085,7 @@
         <v>143</v>
       </c>
       <c r="G218" s="13" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="I218">
         <v>1</v>
@@ -8456,7 +9096,7 @@
         <v>143</v>
       </c>
       <c r="G219" s="13" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="I219">
         <v>1</v>
@@ -8467,7 +9107,7 @@
         <v>143</v>
       </c>
       <c r="G220" s="13" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="I220">
         <v>1</v>
@@ -8478,7 +9118,7 @@
         <v>143</v>
       </c>
       <c r="G221" s="13" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="I221">
         <v>1</v>
@@ -8489,7 +9129,7 @@
         <v>143</v>
       </c>
       <c r="G222" s="13" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="I222">
         <v>1</v>
@@ -8500,7 +9140,7 @@
         <v>143</v>
       </c>
       <c r="G223" s="13" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="I223">
         <v>1</v>
@@ -8511,7 +9151,7 @@
         <v>143</v>
       </c>
       <c r="G224" s="13" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="I224">
         <v>1</v>
@@ -8522,7 +9162,7 @@
         <v>143</v>
       </c>
       <c r="G225" s="13" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="I225">
         <v>1</v>
@@ -8533,7 +9173,7 @@
         <v>143</v>
       </c>
       <c r="G226" s="13" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="I226">
         <v>1</v>
@@ -8544,10 +9184,10 @@
         <v>143</v>
       </c>
       <c r="G227" s="13" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="I227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="6:9">
@@ -8555,7 +9195,7 @@
         <v>143</v>
       </c>
       <c r="G228" s="13" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="I228">
         <v>1</v>
@@ -8566,7 +9206,7 @@
         <v>143</v>
       </c>
       <c r="G229" s="13" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="I229">
         <v>1</v>
@@ -8577,7 +9217,7 @@
         <v>143</v>
       </c>
       <c r="G230" s="13" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="I230">
         <v>1</v>
@@ -8588,7 +9228,7 @@
         <v>143</v>
       </c>
       <c r="G231" s="13" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="I231">
         <v>1</v>
@@ -8599,7 +9239,7 @@
         <v>143</v>
       </c>
       <c r="G232" s="13" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="I232">
         <v>1</v>
@@ -8610,7 +9250,7 @@
         <v>143</v>
       </c>
       <c r="G233" s="13" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="I233">
         <v>1</v>
@@ -8621,7 +9261,7 @@
         <v>143</v>
       </c>
       <c r="G234" s="13" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="I234">
         <v>1</v>
@@ -8632,7 +9272,7 @@
         <v>143</v>
       </c>
       <c r="G235" s="13" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="I235">
         <v>1</v>
@@ -8643,7 +9283,7 @@
         <v>143</v>
       </c>
       <c r="G236" s="13" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="I236">
         <v>1</v>
@@ -8654,7 +9294,7 @@
         <v>143</v>
       </c>
       <c r="G237" s="13" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="I237">
         <v>1</v>
@@ -8665,7 +9305,7 @@
         <v>143</v>
       </c>
       <c r="G238" s="13" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="I238">
         <v>1</v>
@@ -8676,10 +9316,10 @@
         <v>143</v>
       </c>
       <c r="G239" s="13" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="6:9">
@@ -8687,7 +9327,7 @@
         <v>143</v>
       </c>
       <c r="G240" s="13" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="I240">
         <v>1</v>
@@ -8698,7 +9338,7 @@
         <v>143</v>
       </c>
       <c r="G241" s="13" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="I241">
         <v>1</v>
@@ -8709,7 +9349,7 @@
         <v>143</v>
       </c>
       <c r="G242" s="13" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="I242">
         <v>1</v>
@@ -8720,7 +9360,7 @@
         <v>143</v>
       </c>
       <c r="G243" s="13" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="I243">
         <v>1</v>
@@ -8731,7 +9371,7 @@
         <v>143</v>
       </c>
       <c r="G244" s="13" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="I244">
         <v>1</v>
@@ -8742,7 +9382,7 @@
         <v>143</v>
       </c>
       <c r="G245" s="13" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="I245">
         <v>1</v>
@@ -8752,8 +9392,8 @@
       <c r="F246" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="G246" s="12" t="s">
-        <v>75</v>
+      <c r="G246" s="13" t="s">
+        <v>314</v>
       </c>
       <c r="I246">
         <v>1</v>
@@ -8761,10 +9401,10 @@
     </row>
     <row r="247" spans="6:9">
       <c r="F247" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G247" s="12" t="s">
-        <v>386</v>
+        <v>143</v>
+      </c>
+      <c r="G247" s="13" t="s">
+        <v>315</v>
       </c>
       <c r="I247">
         <v>1</v>
@@ -8772,10 +9412,10 @@
     </row>
     <row r="248" spans="6:9">
       <c r="F248" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G248" s="12" t="s">
-        <v>386</v>
+        <v>143</v>
+      </c>
+      <c r="G248" s="13" t="s">
+        <v>316</v>
       </c>
       <c r="I248">
         <v>1</v>
@@ -8783,10 +9423,10 @@
     </row>
     <row r="249" spans="6:9">
       <c r="F249" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G249" s="12" t="s">
-        <v>264</v>
+        <v>143</v>
+      </c>
+      <c r="G249" s="13" t="s">
+        <v>317</v>
       </c>
       <c r="I249">
         <v>1</v>
@@ -8794,10 +9434,10 @@
     </row>
     <row r="250" spans="6:9">
       <c r="F250" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G250" s="12" t="s">
-        <v>276</v>
+        <v>143</v>
+      </c>
+      <c r="G250" s="13" t="s">
+        <v>318</v>
       </c>
       <c r="I250">
         <v>1</v>
@@ -8805,10 +9445,10 @@
     </row>
     <row r="251" spans="6:9">
       <c r="F251" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G251" s="12" t="s">
-        <v>277</v>
+        <v>143</v>
+      </c>
+      <c r="G251" s="13" t="s">
+        <v>319</v>
       </c>
       <c r="I251">
         <v>1</v>
@@ -8816,10 +9456,10 @@
     </row>
     <row r="252" spans="6:9">
       <c r="F252" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G252" s="12" t="s">
-        <v>386</v>
+        <v>143</v>
+      </c>
+      <c r="G252" s="13" t="s">
+        <v>289</v>
       </c>
       <c r="I252">
         <v>1</v>
@@ -8827,9 +9467,9 @@
     </row>
     <row r="253" spans="6:9">
       <c r="F253" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G253" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G253" s="13" t="s">
         <v>332</v>
       </c>
       <c r="I253">
@@ -8838,10 +9478,10 @@
     </row>
     <row r="254" spans="6:9">
       <c r="F254" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G254" s="12" t="s">
-        <v>387</v>
+        <v>143</v>
+      </c>
+      <c r="G254" s="13" t="s">
+        <v>333</v>
       </c>
       <c r="I254">
         <v>1</v>
@@ -8849,10 +9489,10 @@
     </row>
     <row r="255" spans="6:9">
       <c r="F255" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G255" s="12" t="s">
-        <v>77</v>
+        <v>143</v>
+      </c>
+      <c r="G255" s="13" t="s">
+        <v>334</v>
       </c>
       <c r="I255">
         <v>1</v>
@@ -8860,10 +9500,10 @@
     </row>
     <row r="256" spans="6:9">
       <c r="F256" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="G256" s="12" t="s">
-        <v>388</v>
+        <v>143</v>
+      </c>
+      <c r="G256" s="13" t="s">
+        <v>335</v>
       </c>
       <c r="I256">
         <v>1</v>
@@ -8871,10 +9511,10 @@
     </row>
     <row r="257" spans="6:9">
       <c r="F257" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="G257" s="12" t="s">
-        <v>389</v>
+        <v>143</v>
+      </c>
+      <c r="G257" s="13" t="s">
+        <v>336</v>
       </c>
       <c r="I257">
         <v>1</v>
@@ -8882,10 +9522,10 @@
     </row>
     <row r="258" spans="6:9">
       <c r="F258" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G258" s="12" t="s">
-        <v>390</v>
+        <v>75</v>
       </c>
       <c r="I258">
         <v>1</v>
@@ -8893,10 +9533,10 @@
     </row>
     <row r="259" spans="6:9">
       <c r="F259" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G259" s="12" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="I259">
         <v>1</v>
@@ -8904,10 +9544,10 @@
     </row>
     <row r="260" spans="6:9">
       <c r="F260" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G260" s="12" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="I260">
         <v>1</v>
@@ -8915,10 +9555,10 @@
     </row>
     <row r="261" spans="6:9">
       <c r="F261" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G261" s="12" t="s">
-        <v>393</v>
+        <v>264</v>
       </c>
       <c r="I261">
         <v>1</v>
@@ -8926,10 +9566,10 @@
     </row>
     <row r="262" spans="6:9">
       <c r="F262" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G262" s="12" t="s">
-        <v>394</v>
+        <v>276</v>
       </c>
       <c r="I262">
         <v>1</v>
@@ -8937,10 +9577,10 @@
     </row>
     <row r="263" spans="6:9">
       <c r="F263" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G263" s="12" t="s">
-        <v>395</v>
+        <v>277</v>
       </c>
       <c r="I263">
         <v>1</v>
@@ -8948,13 +9588,10 @@
     </row>
     <row r="264" spans="6:9">
       <c r="F264" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G264" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="H264">
-        <v>1</v>
+        <v>395</v>
       </c>
       <c r="I264">
         <v>1</v>
@@ -8962,10 +9599,10 @@
     </row>
     <row r="265" spans="6:9">
       <c r="F265" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G265" s="12" t="s">
-        <v>276</v>
+        <v>344</v>
       </c>
       <c r="I265">
         <v>1</v>
@@ -8973,10 +9610,10 @@
     </row>
     <row r="266" spans="6:9">
       <c r="F266" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G266" s="12" t="s">
-        <v>495</v>
+        <v>396</v>
       </c>
       <c r="I266">
         <v>1</v>
@@ -8984,10 +9621,10 @@
     </row>
     <row r="267" spans="6:9">
       <c r="F267" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G267" s="12" t="s">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="I267">
         <v>1</v>
@@ -8998,7 +9635,7 @@
         <v>145</v>
       </c>
       <c r="G268" s="12" t="s">
-        <v>303</v>
+        <v>397</v>
       </c>
       <c r="I268">
         <v>1</v>
@@ -9009,7 +9646,7 @@
         <v>145</v>
       </c>
       <c r="G269" s="12" t="s">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="I269">
         <v>1</v>
@@ -9020,7 +9657,7 @@
         <v>145</v>
       </c>
       <c r="G270" s="12" t="s">
-        <v>332</v>
+        <v>399</v>
       </c>
       <c r="I270">
         <v>1</v>
@@ -9031,7 +9668,7 @@
         <v>145</v>
       </c>
       <c r="G271" s="12" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="I271">
         <v>1</v>
@@ -9042,7 +9679,7 @@
         <v>145</v>
       </c>
       <c r="G272" s="12" t="s">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="I272">
         <v>1</v>
@@ -9053,7 +9690,7 @@
         <v>145</v>
       </c>
       <c r="G273" s="12" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="I273">
         <v>1</v>
@@ -9064,7 +9701,7 @@
         <v>145</v>
       </c>
       <c r="G274" s="12" t="s">
-        <v>343</v>
+        <v>403</v>
       </c>
       <c r="I274">
         <v>1</v>
@@ -9075,7 +9712,7 @@
         <v>145</v>
       </c>
       <c r="G275" s="12" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="I275">
         <v>1</v>
@@ -9085,52 +9722,55 @@
       <c r="F276" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="G276" s="14" t="s">
-        <v>80</v>
+      <c r="G276" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="H276">
+        <v>1</v>
       </c>
       <c r="I276">
         <v>1</v>
       </c>
     </row>
     <row r="277" spans="6:9">
-      <c r="F277" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="G277" s="11" t="s">
-        <v>397</v>
+      <c r="F277" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G277" s="12" t="s">
+        <v>276</v>
       </c>
       <c r="I277">
         <v>1</v>
       </c>
     </row>
     <row r="278" spans="6:9">
-      <c r="F278" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="G278" s="11" t="s">
-        <v>398</v>
+      <c r="F278" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G278" s="12" t="s">
+        <v>353</v>
       </c>
       <c r="I278">
         <v>1</v>
       </c>
     </row>
     <row r="279" spans="6:9">
-      <c r="F279" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="G279" s="11" t="s">
-        <v>399</v>
+      <c r="F279" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G279" s="12" t="s">
+        <v>320</v>
       </c>
       <c r="I279">
         <v>1</v>
       </c>
     </row>
     <row r="280" spans="6:9">
-      <c r="F280" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="G280" s="11" t="s">
-        <v>400</v>
+      <c r="F280" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G280" s="12" t="s">
+        <v>303</v>
       </c>
       <c r="I280">
         <v>1</v>
@@ -9138,10 +9778,10 @@
     </row>
     <row r="281" spans="6:9">
       <c r="F281" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="G281" s="13" t="s">
-        <v>401</v>
+        <v>145</v>
+      </c>
+      <c r="G281" s="12" t="s">
+        <v>374</v>
       </c>
       <c r="I281">
         <v>1</v>
@@ -9149,65 +9789,65 @@
     </row>
     <row r="282" spans="6:9">
       <c r="F282" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="G282" s="14" t="s">
-        <v>93</v>
+        <v>145</v>
+      </c>
+      <c r="G282" s="12" t="s">
+        <v>344</v>
       </c>
       <c r="I282">
         <v>1</v>
       </c>
     </row>
     <row r="283" spans="6:9">
-      <c r="F283" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G283" s="13" t="s">
-        <v>401</v>
+      <c r="F283" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G283" s="12" t="s">
+        <v>393</v>
       </c>
       <c r="I283">
         <v>1</v>
       </c>
     </row>
     <row r="284" spans="6:9">
-      <c r="F284" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G284" s="13" t="s">
-        <v>402</v>
+      <c r="F284" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G284" s="12" t="s">
+        <v>301</v>
       </c>
       <c r="I284">
         <v>1</v>
       </c>
     </row>
     <row r="285" spans="6:9">
-      <c r="F285" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G285" s="13" t="s">
-        <v>95</v>
+      <c r="F285" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G285" s="12" t="s">
+        <v>394</v>
       </c>
       <c r="I285">
         <v>1</v>
       </c>
     </row>
     <row r="286" spans="6:9">
-      <c r="F286" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="G286" s="13" t="s">
-        <v>403</v>
+      <c r="F286" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G286" s="12" t="s">
+        <v>354</v>
       </c>
       <c r="I286">
         <v>1</v>
       </c>
     </row>
     <row r="287" spans="6:9">
-      <c r="F287" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="G287" s="13" t="s">
-        <v>97</v>
+      <c r="F287" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G287" s="12" t="s">
+        <v>405</v>
       </c>
       <c r="I287">
         <v>1</v>
@@ -9215,76 +9855,76 @@
     </row>
     <row r="288" spans="6:9">
       <c r="F288" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="G288" s="13" t="s">
-        <v>404</v>
+        <v>145</v>
+      </c>
+      <c r="G288" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="I288">
         <v>1</v>
       </c>
     </row>
     <row r="289" spans="6:9">
-      <c r="F289" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="G289" s="14" t="s">
-        <v>98</v>
+      <c r="F289" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G289" s="11" t="s">
+        <v>406</v>
       </c>
       <c r="I289">
         <v>1</v>
       </c>
     </row>
     <row r="290" spans="6:9">
-      <c r="F290" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G290" s="13" t="s">
-        <v>405</v>
+      <c r="F290" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G290" s="11" t="s">
+        <v>407</v>
       </c>
       <c r="I290">
         <v>1</v>
       </c>
     </row>
     <row r="291" spans="6:9">
-      <c r="F291" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G291" s="14" t="s">
-        <v>101</v>
+      <c r="F291" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G291" s="11" t="s">
+        <v>408</v>
       </c>
       <c r="I291">
         <v>1</v>
       </c>
     </row>
     <row r="292" spans="6:9">
-      <c r="F292" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G292" t="s">
-        <v>406</v>
+      <c r="F292" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G292" s="11" t="s">
+        <v>409</v>
       </c>
       <c r="I292">
         <v>1</v>
       </c>
     </row>
     <row r="293" spans="6:9">
-      <c r="F293" s="10" t="s">
-        <v>156</v>
+      <c r="F293" s="14" t="s">
+        <v>151</v>
       </c>
       <c r="G293" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="I293">
         <v>1</v>
       </c>
     </row>
     <row r="294" spans="6:9">
-      <c r="F294" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G294" s="13" t="s">
-        <v>408</v>
+      <c r="F294" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G294" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="I294">
         <v>1</v>
@@ -9292,10 +9932,10 @@
     </row>
     <row r="295" spans="6:9">
       <c r="F295" s="10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G295" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I295">
         <v>1</v>
@@ -9303,10 +9943,10 @@
     </row>
     <row r="296" spans="6:9">
       <c r="F296" s="10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G296" s="13" t="s">
-        <v>104</v>
+        <v>411</v>
       </c>
       <c r="I296">
         <v>1</v>
@@ -9314,10 +9954,10 @@
     </row>
     <row r="297" spans="6:9">
       <c r="F297" s="10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G297" s="13" t="s">
-        <v>405</v>
+        <v>95</v>
       </c>
       <c r="I297">
         <v>1</v>
@@ -9325,10 +9965,10 @@
     </row>
     <row r="298" spans="6:9">
       <c r="F298" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G298" s="13" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="I298">
         <v>1</v>
@@ -9336,54 +9976,54 @@
     </row>
     <row r="299" spans="6:9">
       <c r="F299" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G299" s="13" t="s">
-        <v>408</v>
+        <v>97</v>
       </c>
       <c r="I299">
         <v>1</v>
       </c>
     </row>
     <row r="300" spans="6:9">
-      <c r="F300" s="10" t="s">
-        <v>157</v>
+      <c r="F300" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="G300" s="13" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="I300">
         <v>1</v>
       </c>
     </row>
     <row r="301" spans="6:9">
-      <c r="F301" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="G301" s="13" t="s">
-        <v>409</v>
+      <c r="F301" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G301" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="I301">
         <v>1</v>
       </c>
     </row>
     <row r="302" spans="6:9">
-      <c r="F302" s="10" t="s">
-        <v>157</v>
+      <c r="F302" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="G302" s="13" t="s">
-        <v>107</v>
+        <v>414</v>
       </c>
       <c r="I302">
         <v>1</v>
       </c>
     </row>
     <row r="303" spans="6:9">
-      <c r="F303" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="G303" s="13" t="s">
-        <v>411</v>
+      <c r="F303" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G303" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="I303">
         <v>1</v>
@@ -9391,10 +10031,10 @@
     </row>
     <row r="304" spans="6:9">
       <c r="F304" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="G304" s="13" t="s">
-        <v>412</v>
+        <v>156</v>
+      </c>
+      <c r="G304" t="s">
+        <v>415</v>
       </c>
       <c r="I304">
         <v>1</v>
@@ -9402,10 +10042,10 @@
     </row>
     <row r="305" spans="6:9">
       <c r="F305" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G305" s="13" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="I305">
         <v>1</v>
@@ -9413,10 +10053,10 @@
     </row>
     <row r="306" spans="6:9">
       <c r="F306" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G306" s="13" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="I306">
         <v>1</v>
@@ -9424,74 +10064,205 @@
     </row>
     <row r="307" spans="6:9">
       <c r="F307" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G307" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="I307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="6:9">
+      <c r="F308" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G308" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="6:9">
+      <c r="F309" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G309" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="I309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="6:9">
+      <c r="F310" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G310" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="I310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="6:9">
+      <c r="F311" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G311" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="I311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="6:9">
+      <c r="F312" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G312" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="I312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="6:9">
+      <c r="F313" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G313" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="I313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="6:9">
+      <c r="F314" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G314" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="6:9">
+      <c r="F315" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="G307" s="13" t="s">
+      <c r="G315" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="I315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="6:9">
+      <c r="F316" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G316" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="I316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="6:9">
+      <c r="F317" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G317" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="I317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="6:9">
+      <c r="F318" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G318" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="I318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="6:9">
+      <c r="F319" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G319" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="I307">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="6:9">
-      <c r="F308" s="14" t="s">
+      <c r="I319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="6:9">
+      <c r="F320" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="G308" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="I308">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="6:9">
-      <c r="F309" s="14" t="s">
+      <c r="G320" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="I320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="6:9">
+      <c r="F321" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="G309" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="I309">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="6:9">
-      <c r="F310" s="14" t="s">
+      <c r="G321" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="I321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="6:9">
+      <c r="F322" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="G310" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="I310">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="6:9">
-      <c r="F311" s="14" t="s">
+      <c r="G322" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="I322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="6:9">
+      <c r="F323" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="G311" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="I311">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="6:9">
-      <c r="F312" s="14" t="s">
+      <c r="G323" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="I323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="6:9">
+      <c r="F324" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="G312" t="s">
+      <c r="G324" t="s">
         <v>113</v>
       </c>
-      <c r="I312">
+      <c r="I324">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -9500,31 +10271,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="4" max="4" width="28.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="18.5714285714286" customWidth="1"/>
     <col min="6" max="6" width="41" customWidth="1"/>
-    <col min="7" max="7" width="64.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="64.4285714285714" customWidth="1"/>
+    <col min="8" max="8" width="16.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" ht="13.9" customHeight="1">
+    <row r="7" ht="13.9" customHeight="1" spans="4:8">
       <c r="D7" s="5" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>260</v>
@@ -9533,233 +10305,233 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:8" ht="13.9" customHeight="1">
+    <row r="8" ht="13.9" customHeight="1" spans="4:7">
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="4:8" ht="13.9" customHeight="1">
+    <row r="9" ht="13.9" customHeight="1" spans="4:7">
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="4:8" ht="13.9" customHeight="1">
+    <row r="10" ht="13.9" customHeight="1" spans="4:7">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="4:8" ht="13.9" customHeight="1">
+    <row r="11" ht="13.9" customHeight="1" spans="4:7">
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="4:8" ht="13.9" customHeight="1">
+    <row r="12" ht="13.9" customHeight="1" spans="4:7">
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="4:8" ht="13.9" customHeight="1">
+    <row r="13" ht="13.9" customHeight="1" spans="4:7">
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="4:8" ht="13.9" customHeight="1">
+    <row r="14" ht="13.9" customHeight="1" spans="4:7">
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="4:8" ht="13.9" customHeight="1">
+    <row r="15" ht="13.9" customHeight="1" spans="4:7">
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="4:8" ht="13.9" customHeight="1">
+    <row r="16" ht="13.9" customHeight="1" spans="4:7">
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="4:7" ht="13.9" customHeight="1">
+    <row r="17" ht="13.9" customHeight="1" spans="4:7">
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="4:7" ht="13.9" customHeight="1">
+    <row r="18" ht="13.9" customHeight="1" spans="4:7">
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="4:7" ht="13.9" customHeight="1">
+    <row r="19" ht="13.9" customHeight="1" spans="4:7">
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="4:7" ht="13.9" customHeight="1">
+    <row r="20" ht="13.9" customHeight="1" spans="4:7">
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="4:7" ht="13.9" customHeight="1">
+    <row r="21" ht="13.9" customHeight="1" spans="4:7">
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="4:7" ht="13.9" customHeight="1">
+    <row r="22" ht="13.9" customHeight="1" spans="4:7">
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="4:7" ht="13.9" customHeight="1">
+    <row r="23" ht="13.9" customHeight="1" spans="4:7">
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="4:7">
+    <row r="24" spans="6:7">
       <c r="F24" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="4:7">
+    <row r="25" spans="6:7">
       <c r="F25" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="4:7">
+    <row r="26" spans="6:7">
       <c r="F26" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="4:7">
+    <row r="27" spans="6:7">
       <c r="F27" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="4:7">
+    <row r="28" spans="6:7">
       <c r="F28" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="4:7">
+    <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="4:7">
+    <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="4:7">
+    <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="4:7">
+    <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>39</v>
@@ -9767,7 +10539,7 @@
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>42</v>
@@ -9775,7 +10547,7 @@
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>45</v>
@@ -9783,7 +10555,7 @@
     </row>
     <row r="35" spans="6:7">
       <c r="F35" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>48</v>
@@ -9791,7 +10563,7 @@
     </row>
     <row r="36" spans="6:7">
       <c r="F36" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>51</v>
@@ -9799,7 +10571,7 @@
     </row>
     <row r="37" spans="6:7">
       <c r="F37" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>54</v>
@@ -9807,7 +10579,7 @@
     </row>
     <row r="38" spans="6:7">
       <c r="F38" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>57</v>
@@ -9815,7 +10587,7 @@
     </row>
     <row r="39" spans="6:7">
       <c r="F39" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>60</v>
@@ -9823,7 +10595,7 @@
     </row>
     <row r="40" spans="6:7">
       <c r="F40" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>63</v>
@@ -9831,7 +10603,7 @@
     </row>
     <row r="41" spans="6:7">
       <c r="F41" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>66</v>
@@ -9839,7 +10611,7 @@
     </row>
     <row r="42" spans="6:7">
       <c r="F42" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>69</v>
@@ -9847,7 +10619,7 @@
     </row>
     <row r="43" spans="6:7">
       <c r="F43" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>72</v>
@@ -9855,7 +10627,7 @@
     </row>
     <row r="44" spans="6:7">
       <c r="F44" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>75</v>
@@ -9863,7 +10635,7 @@
     </row>
     <row r="45" spans="6:7">
       <c r="F45" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>77</v>
@@ -9871,7 +10643,7 @@
     </row>
     <row r="46" spans="6:7">
       <c r="F46" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>80</v>
@@ -9879,7 +10651,7 @@
     </row>
     <row r="47" spans="6:7">
       <c r="F47" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>83</v>
@@ -9887,7 +10659,7 @@
     </row>
     <row r="48" spans="6:7">
       <c r="F48" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>85</v>
@@ -9895,7 +10667,7 @@
     </row>
     <row r="49" spans="6:7">
       <c r="F49" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>87</v>
@@ -9903,7 +10675,7 @@
     </row>
     <row r="50" spans="6:7">
       <c r="F50" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>90</v>
@@ -9911,7 +10683,7 @@
     </row>
     <row r="51" spans="6:7">
       <c r="F51" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>93</v>
@@ -9919,7 +10691,7 @@
     </row>
     <row r="52" spans="6:7">
       <c r="F52" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="G52" s="10" t="s">
         <v>95</v>
@@ -9927,7 +10699,7 @@
     </row>
     <row r="53" spans="6:7">
       <c r="F53" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>97</v>
@@ -9935,7 +10707,7 @@
     </row>
     <row r="54" spans="6:7">
       <c r="F54" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="G54" s="10" t="s">
         <v>98</v>
@@ -9943,7 +10715,7 @@
     </row>
     <row r="55" spans="6:7">
       <c r="F55" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>101</v>
@@ -9951,7 +10723,7 @@
     </row>
     <row r="56" spans="6:7">
       <c r="F56" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>104</v>
@@ -9959,7 +10731,7 @@
     </row>
     <row r="57" spans="6:7">
       <c r="F57" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>107</v>
@@ -9967,7 +10739,7 @@
     </row>
     <row r="58" spans="6:7">
       <c r="F58" s="11" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>110</v>
@@ -9975,46 +10747,47 @@
     </row>
     <row r="59" spans="6:7">
       <c r="F59" s="11" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>113</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:R14"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="23.7109375" style="3" customWidth="1"/>
+    <col min="1" max="3" width="11.5714285714286" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.2857142857143" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.2857142857143" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.4285714285714" style="3" customWidth="1"/>
+    <col min="7" max="8" width="23.7142857142857" style="3" customWidth="1"/>
     <col min="9" max="10" width="24" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="28.5703125" style="3" customWidth="1"/>
-    <col min="14" max="17" width="11.5703125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="46.42578125" style="3" customWidth="1"/>
-    <col min="19" max="1025" width="11.5703125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.4285714285714" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.5714285714286" style="3" customWidth="1"/>
+    <col min="13" max="13" width="28.5714285714286" style="3" customWidth="1"/>
+    <col min="14" max="17" width="11.5714285714286" style="3" customWidth="1"/>
+    <col min="18" max="18" width="46.4285714285714" style="3" customWidth="1"/>
+    <col min="19" max="1025" width="11.5714285714286" style="3" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:18">
       <c r="D7" s="3" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1</v>
@@ -10023,7 +10796,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>166</v>
@@ -10032,13 +10805,13 @@
         <v>167</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>6</v>
@@ -10050,33 +10823,33 @@
         <v>173</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="8" spans="4:18">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="5:17">
       <c r="E8" s="3" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>189</v>
@@ -10085,10 +10858,10 @@
         <v>15</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="O8" s="3">
         <v>1</v>
@@ -10100,24 +10873,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:18">
+    <row r="9" spans="5:17">
       <c r="E9" s="3" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>189</v>
@@ -10126,10 +10899,10 @@
         <v>15</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="O9" s="3">
         <v>2</v>
@@ -10141,24 +10914,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:18">
+    <row r="10" spans="5:17">
       <c r="E10" s="3" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>189</v>
@@ -10167,7 +10940,7 @@
         <v>15</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>200</v>
@@ -10182,24 +10955,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:18">
+    <row r="11" spans="5:17">
       <c r="E11" s="3" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>189</v>
@@ -10208,10 +10981,10 @@
         <v>15</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="O11" s="3">
         <v>4</v>
@@ -10223,24 +10996,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:18">
+    <row r="12" spans="5:17">
       <c r="E12" s="3" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>189</v>
@@ -10249,10 +11022,10 @@
         <v>15</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="O12" s="3">
         <v>5</v>
@@ -10264,24 +11037,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:18">
+    <row r="13" spans="5:18">
       <c r="E13" s="3" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>189</v>
@@ -10290,10 +11063,10 @@
         <v>15</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="O13" s="3">
         <v>6</v>
@@ -10305,27 +11078,27 @@
         <v>1</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="14" spans="4:18">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="14" spans="5:18">
       <c r="E14" s="3" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>189</v>
@@ -10334,10 +11107,10 @@
         <v>15</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="O14" s="3">
         <v>7</v>
@@ -10349,242 +11122,243 @@
         <v>1</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="122" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:K16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.28571428571429" defaultRowHeight="12.75"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="16.7142857142857" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.4285714285714" customWidth="1"/>
+    <col min="10" max="10" width="31.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:11">
       <c r="D7" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>172</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="8" spans="4:11" ht="12.75">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="8" spans="6:11">
       <c r="F8" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="J8" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="K8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:11" ht="12.75">
+    <row r="9" spans="6:11">
       <c r="F9" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="J9" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="K9">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="4:11" ht="12.75">
+    <row r="10" spans="6:11">
       <c r="F10" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="J10" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="K10">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="4:11" ht="12.75">
+    <row r="11" spans="6:11">
       <c r="F11" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="J11" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="K11">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="4:11" ht="12.75">
+    <row r="12" spans="6:11">
       <c r="F12" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="J12" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="K12">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="4:11" ht="12.75">
+    <row r="13" spans="6:11">
       <c r="F13" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="G13" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="J13" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="K13">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="4:11" ht="12.75">
+    <row r="14" spans="6:11">
       <c r="F14" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="G14" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="J14" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="K14">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="4:11" ht="12.75">
+    <row r="15" spans="6:11">
       <c r="F15" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="G15" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="J15" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="K15">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="4:11" ht="12.75">
+    <row r="16" spans="6:11">
       <c r="F16" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="G16" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="J16" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="K16">
         <v>90</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="122" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="122" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21810" windowHeight="12255" tabRatio="1000" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="1000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -1572,10 +1572,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1659,9 +1659,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1670,14 +1684,46 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1690,28 +1736,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1733,47 +1758,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1787,9 +1772,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1804,7 +1804,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1819,37 +1819,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1861,7 +1837,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1879,13 +1855,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1903,7 +1885,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1915,7 +1927,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1927,55 +1975,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1987,19 +1987,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2010,69 +2010,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2096,6 +2033,60 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2110,151 +2101,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6714,8 +6714,8 @@
   <sheetPr/>
   <dimension ref="D7:I324"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E34" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E46" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -7531,6 +7531,9 @@
       </c>
       <c r="G78" t="s">
         <v>330</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
       </c>
       <c r="I78">
         <v>1</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\agile-service\src\main\resources\script\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\分前端\agile-service\src\main\resources\script\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6762916-0D93-4928-B39E-568406C7C7DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -22,14 +21,14 @@
     <sheet name="FD_REPORT" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">IAM_MENU_PERMISSION!$I$1:$I$310</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">IAM_MENU_PERMISSION!$I$1:$I$311</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="495">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -850,9 +849,6 @@
     <t>agile-service.board.move</t>
   </si>
   <si>
-    <t>agile-service.board-column.createBoardColumn</t>
-  </si>
-  <si>
     <t>agile-service.issue-status.createStatus</t>
   </si>
   <si>
@@ -1542,11 +1538,19 @@
   <si>
     <t>/agile/reporthost/versionBurndown</t>
   </si>
+  <si>
+    <t>agile-service.board-column.createBoardColumn</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.board-column.updateBoardColumn</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15">
     <font>
       <sz val="10"/>
@@ -1977,7 +1981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:O43"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -1986,20 +1990,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="57.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="57.44140625" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" customWidth="1"/>
+    <col min="13" max="13" width="18.5546875" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.5703125" customWidth="1"/>
+    <col min="16" max="1025" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:15" ht="12.75" customHeight="1">
@@ -3096,7 +3100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I125"/>
   <sheetViews>
     <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
@@ -3105,14 +3109,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1"/>
-    <col min="7" max="7" width="51.42578125" customWidth="1"/>
-    <col min="8" max="8" width="58.42578125" customWidth="1"/>
-    <col min="9" max="9" width="31.28515625" customWidth="1"/>
-    <col min="10" max="1026" width="11.5703125" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" customWidth="1"/>
+    <col min="7" max="7" width="51.44140625" customWidth="1"/>
+    <col min="8" max="8" width="58.44140625" customWidth="1"/>
+    <col min="9" max="9" width="31.33203125" customWidth="1"/>
+    <col min="10" max="1026" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:9" ht="12.75" customHeight="1">
@@ -4395,7 +4399,7 @@
       </c>
       <c r="I97" s="5"/>
     </row>
-    <row r="98" spans="4:9">
+    <row r="98" spans="4:9" ht="12.6">
       <c r="F98" s="17" t="s">
         <v>162</v>
       </c>
@@ -4406,7 +4410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="4:9">
+    <row r="99" spans="4:9" ht="12.6">
       <c r="F99" s="17" t="s">
         <v>162</v>
       </c>
@@ -4417,7 +4421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="4:9">
+    <row r="100" spans="4:9" ht="12.6">
       <c r="F100" s="17" t="s">
         <v>162</v>
       </c>
@@ -4428,7 +4432,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="4:9">
+    <row r="101" spans="4:9" ht="12.6">
       <c r="F101" s="17" t="s">
         <v>162</v>
       </c>
@@ -4439,7 +4443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="4:9">
+    <row r="102" spans="4:9" ht="12.6">
       <c r="F102" s="17" t="s">
         <v>162</v>
       </c>
@@ -4450,7 +4454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="4:9">
+    <row r="103" spans="4:9" ht="12.6">
       <c r="F103" s="17" t="s">
         <v>162</v>
       </c>
@@ -4461,7 +4465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="4:9">
+    <row r="104" spans="4:9" ht="12.6">
       <c r="F104" s="17" t="s">
         <v>162</v>
       </c>
@@ -4472,7 +4476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="4:9">
+    <row r="105" spans="4:9" ht="12.6">
       <c r="F105" s="17" t="s">
         <v>162</v>
       </c>
@@ -4483,7 +4487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="4:9">
+    <row r="106" spans="4:9" ht="12.6">
       <c r="F106" s="17" t="s">
         <v>162</v>
       </c>
@@ -4494,7 +4498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="4:9">
+    <row r="107" spans="4:9" ht="12.6">
       <c r="F107" s="17" t="s">
         <v>162</v>
       </c>
@@ -4505,7 +4509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="4:9">
+    <row r="108" spans="4:9" ht="12.6">
       <c r="F108" s="17" t="s">
         <v>162</v>
       </c>
@@ -4516,7 +4520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="4:9">
+    <row r="109" spans="4:9" ht="12.6">
       <c r="F109" s="17" t="s">
         <v>162</v>
       </c>
@@ -4527,7 +4531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="4:9">
+    <row r="110" spans="4:9" ht="12.6">
       <c r="F110" s="17" t="s">
         <v>162</v>
       </c>
@@ -4538,7 +4542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="4:9">
+    <row r="111" spans="4:9" ht="12.6">
       <c r="F111" s="17" t="s">
         <v>162</v>
       </c>
@@ -4549,7 +4553,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="4:9">
+    <row r="112" spans="4:9" ht="12.6">
       <c r="F112" s="17" t="s">
         <v>163</v>
       </c>
@@ -4560,7 +4564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="6:8">
+    <row r="113" spans="6:8" ht="12.6">
       <c r="F113" s="17" t="s">
         <v>163</v>
       </c>
@@ -4571,7 +4575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="6:8">
+    <row r="114" spans="6:8" ht="12.6">
       <c r="F114" s="17" t="s">
         <v>163</v>
       </c>
@@ -4582,7 +4586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="6:8">
+    <row r="115" spans="6:8" ht="12.6">
       <c r="F115" s="17" t="s">
         <v>163</v>
       </c>
@@ -4593,7 +4597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="6:8">
+    <row r="116" spans="6:8" ht="12.6">
       <c r="F116" s="17" t="s">
         <v>163</v>
       </c>
@@ -4604,7 +4608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="6:8">
+    <row r="117" spans="6:8" ht="12.6">
       <c r="F117" s="17" t="s">
         <v>163</v>
       </c>
@@ -4615,7 +4619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="6:8">
+    <row r="118" spans="6:8" ht="12.6">
       <c r="F118" s="17" t="s">
         <v>163</v>
       </c>
@@ -4626,7 +4630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="6:8">
+    <row r="119" spans="6:8" ht="12.6">
       <c r="F119" s="17" t="s">
         <v>163</v>
       </c>
@@ -4637,7 +4641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="6:8">
+    <row r="120" spans="6:8" ht="12.6">
       <c r="F120" s="17" t="s">
         <v>163</v>
       </c>
@@ -4648,7 +4652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="6:8">
+    <row r="121" spans="6:8" ht="12.6">
       <c r="F121" s="17" t="s">
         <v>164</v>
       </c>
@@ -4659,7 +4663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="6:8">
+    <row r="122" spans="6:8" ht="12.6">
       <c r="F122" s="17" t="s">
         <v>164</v>
       </c>
@@ -4670,7 +4674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="6:8">
+    <row r="123" spans="6:8" ht="12.6">
       <c r="F123" s="17" t="s">
         <v>164</v>
       </c>
@@ -4681,7 +4685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="6:8">
+    <row r="124" spans="6:8" ht="12.6">
       <c r="F124" s="17" t="s">
         <v>164</v>
       </c>
@@ -4692,7 +4696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="6:8">
+    <row r="125" spans="6:8" ht="12.6">
       <c r="F125" s="17" t="s">
         <v>164</v>
       </c>
@@ -4710,7 +4714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:Q46"/>
   <sheetViews>
     <sheetView topLeftCell="J6" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
@@ -4719,19 +4723,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="64.42578125" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="64.44140625" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="35.7109375" customWidth="1"/>
-    <col min="9" max="9" width="71.5703125" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="44.7109375" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="35.6640625" customWidth="1"/>
+    <col min="9" max="9" width="71.5546875" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" customWidth="1"/>
+    <col min="11" max="11" width="44.6640625" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" customWidth="1"/>
     <col min="14" max="14" width="23" customWidth="1"/>
-    <col min="15" max="1025" width="11.5703125" customWidth="1"/>
+    <col min="15" max="1025" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:17" ht="12.75" customHeight="1">
@@ -4911,7 +4915,7 @@
       </c>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="4:17" ht="12.75">
+    <row r="12" spans="4:17" ht="13.2">
       <c r="F12" s="6" t="s">
         <v>126</v>
       </c>
@@ -6064,22 +6068,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="D7:I310"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:I311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="59.7109375" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="59.6640625" customWidth="1"/>
     <col min="7" max="7" width="65" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" customWidth="1"/>
-    <col min="9" max="1025" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" customWidth="1"/>
+    <col min="9" max="1025" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:9" ht="12.75" customHeight="1">
@@ -6172,8 +6176,8 @@
       <c r="F14" t="s">
         <v>121</v>
       </c>
-      <c r="G14" t="s">
-        <v>268</v>
+      <c r="G14" s="11" t="s">
+        <v>493</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -6183,11 +6187,11 @@
       <c r="F15" t="s">
         <v>121</v>
       </c>
-      <c r="G15" t="s">
-        <v>269</v>
+      <c r="G15" s="11" t="s">
+        <v>494</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="4:9">
@@ -6195,7 +6199,7 @@
         <v>121</v>
       </c>
       <c r="G16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -6206,7 +6210,7 @@
         <v>121</v>
       </c>
       <c r="G17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -6217,7 +6221,7 @@
         <v>121</v>
       </c>
       <c r="G18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -6228,7 +6232,7 @@
         <v>121</v>
       </c>
       <c r="G19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -6239,7 +6243,7 @@
         <v>121</v>
       </c>
       <c r="G20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -6250,7 +6254,7 @@
         <v>121</v>
       </c>
       <c r="G21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -6260,11 +6264,11 @@
       <c r="F22" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="12" t="s">
-        <v>276</v>
+      <c r="G22" t="s">
+        <v>274</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="6:9">
@@ -6272,7 +6276,7 @@
         <v>121</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -6283,7 +6287,7 @@
         <v>121</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -6294,7 +6298,7 @@
         <v>121</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -6305,7 +6309,7 @@
         <v>121</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -6316,10 +6320,7 @@
         <v>121</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
+        <v>279</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -6330,7 +6331,7 @@
         <v>121</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -6344,7 +6345,10 @@
         <v>121</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -6355,7 +6359,7 @@
         <v>121</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -6366,7 +6370,7 @@
         <v>121</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -6377,7 +6381,7 @@
         <v>121</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -6388,7 +6392,7 @@
         <v>121</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -6399,7 +6403,7 @@
         <v>121</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -6410,7 +6414,7 @@
         <v>121</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -6421,7 +6425,7 @@
         <v>121</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -6432,7 +6436,7 @@
         <v>121</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -6443,7 +6447,7 @@
         <v>121</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -6454,7 +6458,7 @@
         <v>121</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -6465,7 +6469,7 @@
         <v>121</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -6476,7 +6480,7 @@
         <v>121</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -6487,7 +6491,7 @@
         <v>121</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -6498,7 +6502,7 @@
         <v>121</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -6509,7 +6513,7 @@
         <v>121</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -6520,7 +6524,7 @@
         <v>121</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -6531,7 +6535,7 @@
         <v>121</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -6542,7 +6546,7 @@
         <v>121</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -6553,7 +6557,7 @@
         <v>121</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -6564,7 +6568,7 @@
         <v>121</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -6575,7 +6579,7 @@
         <v>121</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -6586,7 +6590,7 @@
         <v>121</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -6597,7 +6601,7 @@
         <v>121</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -6608,7 +6612,7 @@
         <v>121</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -6619,10 +6623,10 @@
         <v>121</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="6:9">
@@ -6630,10 +6634,10 @@
         <v>121</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="6:9">
@@ -6641,7 +6645,7 @@
         <v>121</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -6652,7 +6656,7 @@
         <v>121</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -6663,7 +6667,7 @@
         <v>121</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -6674,7 +6678,7 @@
         <v>121</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -6685,7 +6689,7 @@
         <v>121</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -6696,7 +6700,7 @@
         <v>121</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -6707,7 +6711,7 @@
         <v>121</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -6718,7 +6722,7 @@
         <v>121</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -6729,7 +6733,7 @@
         <v>121</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -6740,7 +6744,7 @@
         <v>121</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -6751,7 +6755,7 @@
         <v>121</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -6762,7 +6766,7 @@
         <v>121</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -6773,7 +6777,7 @@
         <v>121</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -6784,7 +6788,7 @@
         <v>121</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -6795,7 +6799,7 @@
         <v>121</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -6806,7 +6810,7 @@
         <v>121</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -6817,7 +6821,7 @@
         <v>121</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -6828,7 +6832,7 @@
         <v>121</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -6836,10 +6840,10 @@
     </row>
     <row r="74" spans="6:9">
       <c r="F74" t="s">
-        <v>124</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>325</v>
+        <v>121</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -6850,7 +6854,7 @@
         <v>124</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -6861,7 +6865,7 @@
         <v>124</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -6872,10 +6876,10 @@
         <v>124</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="6:9">
@@ -6883,10 +6887,10 @@
         <v>124</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="6:9">
@@ -6894,21 +6898,21 @@
         <v>124</v>
       </c>
       <c r="G79" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="6:9">
+      <c r="F80" t="s">
+        <v>124</v>
+      </c>
+      <c r="G80" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="6:9">
-      <c r="F80" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G80" s="13" t="s">
-        <v>307</v>
-      </c>
       <c r="I80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="6:9">
@@ -6916,10 +6920,10 @@
         <v>125</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="6:9">
@@ -6927,7 +6931,7 @@
         <v>125</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -6938,7 +6942,7 @@
         <v>125</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -6949,7 +6953,7 @@
         <v>125</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -6960,7 +6964,7 @@
         <v>125</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -6971,7 +6975,7 @@
         <v>125</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -6982,7 +6986,7 @@
         <v>125</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -6993,7 +6997,7 @@
         <v>125</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>326</v>
+        <v>262</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -7004,7 +7008,7 @@
         <v>125</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -7015,7 +7019,7 @@
         <v>125</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -7026,7 +7030,7 @@
         <v>125</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -7037,7 +7041,7 @@
         <v>125</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -7048,7 +7052,7 @@
         <v>125</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -7059,7 +7063,7 @@
         <v>125</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -7070,7 +7074,7 @@
         <v>125</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -7081,10 +7085,7 @@
         <v>125</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="H96">
-        <v>1</v>
+        <v>294</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -7095,7 +7096,10 @@
         <v>125</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>301</v>
+        <v>334</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -7106,7 +7110,7 @@
         <v>125</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -7117,7 +7121,7 @@
         <v>125</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -7128,7 +7132,7 @@
         <v>125</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -7139,7 +7143,7 @@
         <v>125</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -7150,7 +7154,7 @@
         <v>125</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -7161,7 +7165,7 @@
         <v>125</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>338</v>
+        <v>279</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -7172,7 +7176,7 @@
         <v>125</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -7183,40 +7187,40 @@
         <v>125</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I105">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="6:9" ht="13.15" customHeight="1">
+    <row r="106" spans="6:9">
       <c r="F106" s="6" t="s">
         <v>125</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="6:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="6:9" ht="13.2" customHeight="1">
       <c r="F107" s="6" t="s">
         <v>125</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>24</v>
+        <v>340</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="6:9">
       <c r="F108" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>342</v>
+        <v>24</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -7227,7 +7231,7 @@
         <v>126</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I109">
         <v>1</v>
@@ -7238,7 +7242,7 @@
         <v>126</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -7249,7 +7253,7 @@
         <v>126</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -7260,7 +7264,7 @@
         <v>126</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -7271,7 +7275,7 @@
         <v>126</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -7282,7 +7286,7 @@
         <v>126</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -7293,7 +7297,7 @@
         <v>126</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -7304,7 +7308,7 @@
         <v>126</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="I116">
         <v>1</v>
@@ -7315,7 +7319,7 @@
         <v>126</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -7326,7 +7330,7 @@
         <v>126</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="I118">
         <v>1</v>
@@ -7337,7 +7341,7 @@
         <v>126</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>262</v>
+        <v>344</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -7348,7 +7352,7 @@
         <v>126</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>334</v>
+        <v>262</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -7359,7 +7363,7 @@
         <v>126</v>
       </c>
       <c r="G121" s="13" t="s">
-        <v>276</v>
+        <v>333</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -7370,7 +7374,7 @@
         <v>126</v>
       </c>
       <c r="G122" s="13" t="s">
-        <v>346</v>
+        <v>275</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -7381,7 +7385,7 @@
         <v>126</v>
       </c>
       <c r="G123" s="13" t="s">
-        <v>263</v>
+        <v>345</v>
       </c>
       <c r="I123">
         <v>1</v>
@@ -7392,7 +7396,7 @@
         <v>126</v>
       </c>
       <c r="G124" s="13" t="s">
-        <v>347</v>
+        <v>263</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -7403,7 +7407,7 @@
         <v>126</v>
       </c>
       <c r="G125" s="13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I125">
         <v>1</v>
@@ -7414,7 +7418,7 @@
         <v>126</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -7425,7 +7429,7 @@
         <v>126</v>
       </c>
       <c r="G127" s="13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -7436,7 +7440,7 @@
         <v>126</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -7447,7 +7451,7 @@
         <v>126</v>
       </c>
       <c r="G129" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -7458,7 +7462,7 @@
         <v>126</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I130">
         <v>1</v>
@@ -7469,7 +7473,7 @@
         <v>126</v>
       </c>
       <c r="G131" s="13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I131">
         <v>1</v>
@@ -7480,7 +7484,7 @@
         <v>126</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>27</v>
+        <v>353</v>
       </c>
       <c r="I132">
         <v>1</v>
@@ -7488,10 +7492,10 @@
     </row>
     <row r="133" spans="6:9">
       <c r="F133" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G133" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I133">
         <v>1</v>
@@ -7502,7 +7506,7 @@
         <v>127</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>355</v>
+        <v>30</v>
       </c>
       <c r="I134">
         <v>1</v>
@@ -7513,7 +7517,7 @@
         <v>127</v>
       </c>
       <c r="G135" s="13" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -7524,7 +7528,7 @@
         <v>127</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I136">
         <v>1</v>
@@ -7535,7 +7539,7 @@
         <v>127</v>
       </c>
       <c r="G137" s="13" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I137">
         <v>1</v>
@@ -7546,7 +7550,7 @@
         <v>127</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I138">
         <v>1</v>
@@ -7557,7 +7561,7 @@
         <v>127</v>
       </c>
       <c r="G139" s="13" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="I139">
         <v>1</v>
@@ -7568,10 +7572,10 @@
         <v>127</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="6:9">
@@ -7579,10 +7583,10 @@
         <v>127</v>
       </c>
       <c r="G141" s="13" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="6:9">
@@ -7590,7 +7594,7 @@
         <v>127</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I142">
         <v>1</v>
@@ -7601,7 +7605,7 @@
         <v>127</v>
       </c>
       <c r="G143" s="13" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="I143">
         <v>1</v>
@@ -7612,18 +7616,18 @@
         <v>127</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="6:9">
-      <c r="F145" t="s">
-        <v>128</v>
+      <c r="F145" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="G145" s="13" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="I145">
         <v>1</v>
@@ -7634,7 +7638,7 @@
         <v>128</v>
       </c>
       <c r="G146" s="13" t="s">
-        <v>333</v>
+        <v>275</v>
       </c>
       <c r="I146">
         <v>1</v>
@@ -7645,7 +7649,7 @@
         <v>128</v>
       </c>
       <c r="G147" s="13" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="I147">
         <v>1</v>
@@ -7656,7 +7660,7 @@
         <v>128</v>
       </c>
       <c r="G148" s="13" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="I148">
         <v>1</v>
@@ -7667,7 +7671,7 @@
         <v>128</v>
       </c>
       <c r="G149" s="13" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="I149">
         <v>1</v>
@@ -7678,7 +7682,7 @@
         <v>128</v>
       </c>
       <c r="G150" s="13" t="s">
-        <v>303</v>
+        <v>361</v>
       </c>
       <c r="I150">
         <v>1</v>
@@ -7689,7 +7693,7 @@
         <v>128</v>
       </c>
       <c r="G151" s="13" t="s">
-        <v>363</v>
+        <v>302</v>
       </c>
       <c r="I151">
         <v>1</v>
@@ -7700,7 +7704,7 @@
         <v>128</v>
       </c>
       <c r="G152" s="13" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I152">
         <v>1</v>
@@ -7711,7 +7715,7 @@
         <v>128</v>
       </c>
       <c r="G153" s="13" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I153">
         <v>1</v>
@@ -7722,18 +7726,18 @@
         <v>128</v>
       </c>
       <c r="G154" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="6:9">
+      <c r="F155" t="s">
+        <v>128</v>
+      </c>
+      <c r="G155" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="I154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="6:9">
-      <c r="F155" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="G155" s="13" t="s">
-        <v>366</v>
       </c>
       <c r="I155">
         <v>1</v>
@@ -7744,18 +7748,18 @@
         <v>134</v>
       </c>
       <c r="G156" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="6:9">
+      <c r="F157" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G157" s="13" t="s">
         <v>51</v>
-      </c>
-      <c r="I156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="6:9">
-      <c r="F157" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G157" s="13" t="s">
-        <v>366</v>
       </c>
       <c r="I157">
         <v>1</v>
@@ -7766,7 +7770,7 @@
         <v>135</v>
       </c>
       <c r="G158" s="13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I158">
         <v>1</v>
@@ -7777,7 +7781,7 @@
         <v>135</v>
       </c>
       <c r="G159" s="13" t="s">
-        <v>54</v>
+        <v>366</v>
       </c>
       <c r="I159">
         <v>1</v>
@@ -7785,10 +7789,10 @@
     </row>
     <row r="160" spans="6:9">
       <c r="F160" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>368</v>
+        <v>54</v>
       </c>
       <c r="I160">
         <v>1</v>
@@ -7799,18 +7803,18 @@
         <v>136</v>
       </c>
       <c r="G161" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="6:9">
+      <c r="F162" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G162" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="I161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="6:9">
-      <c r="F162" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G162" s="13" t="s">
-        <v>296</v>
       </c>
       <c r="I162">
         <v>1</v>
@@ -7821,10 +7825,10 @@
         <v>137</v>
       </c>
       <c r="G163" s="13" t="s">
-        <v>369</v>
+        <v>295</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="6:9">
@@ -7832,10 +7836,10 @@
         <v>137</v>
       </c>
       <c r="G164" s="13" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="6:9">
@@ -7843,7 +7847,7 @@
         <v>137</v>
       </c>
       <c r="G165" s="13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I165">
         <v>1</v>
@@ -7854,18 +7858,18 @@
         <v>137</v>
       </c>
       <c r="G166" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="6:9">
+      <c r="F167" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G167" s="13" t="s">
         <v>60</v>
-      </c>
-      <c r="I166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="6:9">
-      <c r="F167" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G167" s="13" t="s">
-        <v>296</v>
       </c>
       <c r="I167">
         <v>1</v>
@@ -7876,10 +7880,10 @@
         <v>138</v>
       </c>
       <c r="G168" s="13" t="s">
-        <v>369</v>
+        <v>295</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="6:9">
@@ -7887,10 +7891,10 @@
         <v>138</v>
       </c>
       <c r="G169" s="13" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="6:9">
@@ -7898,7 +7902,7 @@
         <v>138</v>
       </c>
       <c r="G170" s="13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I170">
         <v>1</v>
@@ -7909,7 +7913,7 @@
         <v>138</v>
       </c>
       <c r="G171" s="13" t="s">
-        <v>63</v>
+        <v>370</v>
       </c>
       <c r="I171">
         <v>1</v>
@@ -7917,10 +7921,10 @@
     </row>
     <row r="172" spans="6:9">
       <c r="F172" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G172" s="13" t="s">
-        <v>372</v>
+        <v>63</v>
       </c>
       <c r="I172">
         <v>1</v>
@@ -7931,7 +7935,7 @@
         <v>139</v>
       </c>
       <c r="G173" s="13" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I173">
         <v>1</v>
@@ -7942,7 +7946,7 @@
         <v>139</v>
       </c>
       <c r="G174" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I174">
         <v>1</v>
@@ -7953,7 +7957,7 @@
         <v>139</v>
       </c>
       <c r="G175" s="13" t="s">
-        <v>262</v>
+        <v>373</v>
       </c>
       <c r="I175">
         <v>1</v>
@@ -7964,7 +7968,7 @@
         <v>139</v>
       </c>
       <c r="G176" s="13" t="s">
-        <v>66</v>
+        <v>262</v>
       </c>
       <c r="I176">
         <v>1</v>
@@ -7972,10 +7976,10 @@
     </row>
     <row r="177" spans="6:9">
       <c r="F177" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G177" s="13" t="s">
-        <v>375</v>
+        <v>66</v>
       </c>
       <c r="I177">
         <v>1</v>
@@ -7986,7 +7990,7 @@
         <v>140</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>69</v>
+        <v>374</v>
       </c>
       <c r="I178">
         <v>1</v>
@@ -7994,10 +7998,10 @@
     </row>
     <row r="179" spans="6:9">
       <c r="F179" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G179" s="13" t="s">
-        <v>336</v>
+        <v>69</v>
       </c>
       <c r="I179">
         <v>1</v>
@@ -8008,10 +8012,10 @@
         <v>141</v>
       </c>
       <c r="G180" s="13" t="s">
-        <v>376</v>
+        <v>335</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="6:9">
@@ -8019,7 +8023,7 @@
         <v>141</v>
       </c>
       <c r="G181" s="13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -8030,7 +8034,7 @@
         <v>141</v>
       </c>
       <c r="G182" s="13" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -8041,18 +8045,18 @@
         <v>141</v>
       </c>
       <c r="G183" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="6:9">
+      <c r="F184" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G184" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="I183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="6:9">
-      <c r="F184" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G184" s="13" t="s">
-        <v>379</v>
       </c>
       <c r="I184">
         <v>1</v>
@@ -8063,10 +8067,7 @@
         <v>143</v>
       </c>
       <c r="G185" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="H185">
-        <v>1</v>
+        <v>378</v>
       </c>
       <c r="I185">
         <v>1</v>
@@ -8077,7 +8078,10 @@
         <v>143</v>
       </c>
       <c r="G186" s="13" t="s">
-        <v>276</v>
+        <v>379</v>
+      </c>
+      <c r="H186">
+        <v>1</v>
       </c>
       <c r="I186">
         <v>1</v>
@@ -8088,7 +8092,7 @@
         <v>143</v>
       </c>
       <c r="G187" s="13" t="s">
-        <v>343</v>
+        <v>275</v>
       </c>
       <c r="I187">
         <v>1</v>
@@ -8099,7 +8103,7 @@
         <v>143</v>
       </c>
       <c r="G188" s="13" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="I188">
         <v>1</v>
@@ -8110,7 +8114,7 @@
         <v>143</v>
       </c>
       <c r="G189" s="13" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="I189">
         <v>1</v>
@@ -8121,7 +8125,7 @@
         <v>143</v>
       </c>
       <c r="G190" s="13" t="s">
-        <v>382</v>
+        <v>345</v>
       </c>
       <c r="I190">
         <v>1</v>
@@ -8132,7 +8136,7 @@
         <v>143</v>
       </c>
       <c r="G191" s="13" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I191">
         <v>1</v>
@@ -8143,7 +8147,7 @@
         <v>143</v>
       </c>
       <c r="G192" s="13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I192">
         <v>1</v>
@@ -8154,7 +8158,7 @@
         <v>143</v>
       </c>
       <c r="G193" s="13" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="I193">
         <v>1</v>
@@ -8165,7 +8169,7 @@
         <v>143</v>
       </c>
       <c r="G194" s="13" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="I194">
         <v>1</v>
@@ -8176,7 +8180,7 @@
         <v>143</v>
       </c>
       <c r="G195" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I195">
         <v>1</v>
@@ -8187,7 +8191,7 @@
         <v>143</v>
       </c>
       <c r="G196" s="13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I196">
         <v>1</v>
@@ -8198,7 +8202,7 @@
         <v>143</v>
       </c>
       <c r="G197" s="13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I197">
         <v>1</v>
@@ -8209,10 +8213,7 @@
         <v>143</v>
       </c>
       <c r="G198" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="H198">
-        <v>1</v>
+        <v>353</v>
       </c>
       <c r="I198">
         <v>1</v>
@@ -8223,7 +8224,7 @@
         <v>143</v>
       </c>
       <c r="G199" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -8237,7 +8238,10 @@
         <v>143</v>
       </c>
       <c r="G200" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
+      </c>
+      <c r="H200">
+        <v>1</v>
       </c>
       <c r="I200">
         <v>1</v>
@@ -8248,7 +8252,7 @@
         <v>143</v>
       </c>
       <c r="G201" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I201">
         <v>1</v>
@@ -8259,7 +8263,7 @@
         <v>143</v>
       </c>
       <c r="G202" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I202">
         <v>1</v>
@@ -8270,7 +8274,7 @@
         <v>143</v>
       </c>
       <c r="G203" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I203">
         <v>1</v>
@@ -8281,7 +8285,7 @@
         <v>143</v>
       </c>
       <c r="G204" s="13" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I204">
         <v>1</v>
@@ -8292,7 +8296,7 @@
         <v>143</v>
       </c>
       <c r="G205" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I205">
         <v>1</v>
@@ -8303,7 +8307,7 @@
         <v>143</v>
       </c>
       <c r="G206" s="13" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="I206">
         <v>1</v>
@@ -8314,7 +8318,7 @@
         <v>143</v>
       </c>
       <c r="G207" s="13" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="I207">
         <v>1</v>
@@ -8325,7 +8329,7 @@
         <v>143</v>
       </c>
       <c r="G208" s="13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I208">
         <v>1</v>
@@ -8336,7 +8340,7 @@
         <v>143</v>
       </c>
       <c r="G209" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I209">
         <v>1</v>
@@ -8347,7 +8351,7 @@
         <v>143</v>
       </c>
       <c r="G210" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I210">
         <v>1</v>
@@ -8358,7 +8362,7 @@
         <v>143</v>
       </c>
       <c r="G211" s="13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I211">
         <v>1</v>
@@ -8369,7 +8373,7 @@
         <v>143</v>
       </c>
       <c r="G212" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I212">
         <v>1</v>
@@ -8380,7 +8384,7 @@
         <v>143</v>
       </c>
       <c r="G213" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I213">
         <v>1</v>
@@ -8391,7 +8395,7 @@
         <v>143</v>
       </c>
       <c r="G214" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I214">
         <v>1</v>
@@ -8402,7 +8406,7 @@
         <v>143</v>
       </c>
       <c r="G215" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I215">
         <v>1</v>
@@ -8413,7 +8417,7 @@
         <v>143</v>
       </c>
       <c r="G216" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I216">
         <v>1</v>
@@ -8424,7 +8428,7 @@
         <v>143</v>
       </c>
       <c r="G217" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I217">
         <v>1</v>
@@ -8435,7 +8439,7 @@
         <v>143</v>
       </c>
       <c r="G218" s="13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I218">
         <v>1</v>
@@ -8446,7 +8450,7 @@
         <v>143</v>
       </c>
       <c r="G219" s="13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I219">
         <v>1</v>
@@ -8457,7 +8461,7 @@
         <v>143</v>
       </c>
       <c r="G220" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I220">
         <v>1</v>
@@ -8468,7 +8472,7 @@
         <v>143</v>
       </c>
       <c r="G221" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I221">
         <v>1</v>
@@ -8479,7 +8483,7 @@
         <v>143</v>
       </c>
       <c r="G222" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I222">
         <v>1</v>
@@ -8490,7 +8494,7 @@
         <v>143</v>
       </c>
       <c r="G223" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I223">
         <v>1</v>
@@ -8501,7 +8505,7 @@
         <v>143</v>
       </c>
       <c r="G224" s="13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I224">
         <v>1</v>
@@ -8512,10 +8516,10 @@
         <v>143</v>
       </c>
       <c r="G225" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="6:9">
@@ -8523,10 +8527,10 @@
         <v>143</v>
       </c>
       <c r="G226" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="6:9">
@@ -8534,7 +8538,7 @@
         <v>143</v>
       </c>
       <c r="G227" s="13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I227">
         <v>1</v>
@@ -8545,7 +8549,7 @@
         <v>143</v>
       </c>
       <c r="G228" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I228">
         <v>1</v>
@@ -8556,7 +8560,7 @@
         <v>143</v>
       </c>
       <c r="G229" s="13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I229">
         <v>1</v>
@@ -8567,7 +8571,7 @@
         <v>143</v>
       </c>
       <c r="G230" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I230">
         <v>1</v>
@@ -8578,7 +8582,7 @@
         <v>143</v>
       </c>
       <c r="G231" s="13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I231">
         <v>1</v>
@@ -8589,7 +8593,7 @@
         <v>143</v>
       </c>
       <c r="G232" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I232">
         <v>1</v>
@@ -8600,7 +8604,7 @@
         <v>143</v>
       </c>
       <c r="G233" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I233">
         <v>1</v>
@@ -8611,7 +8615,7 @@
         <v>143</v>
       </c>
       <c r="G234" s="13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I234">
         <v>1</v>
@@ -8622,7 +8626,7 @@
         <v>143</v>
       </c>
       <c r="G235" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I235">
         <v>1</v>
@@ -8633,7 +8637,7 @@
         <v>143</v>
       </c>
       <c r="G236" s="13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I236">
         <v>1</v>
@@ -8644,7 +8648,7 @@
         <v>143</v>
       </c>
       <c r="G237" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I237">
         <v>1</v>
@@ -8655,7 +8659,7 @@
         <v>143</v>
       </c>
       <c r="G238" s="13" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="I238">
         <v>1</v>
@@ -8666,7 +8670,7 @@
         <v>143</v>
       </c>
       <c r="G239" s="13" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="I239">
         <v>1</v>
@@ -8677,7 +8681,7 @@
         <v>143</v>
       </c>
       <c r="G240" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I240">
         <v>1</v>
@@ -8688,7 +8692,7 @@
         <v>143</v>
       </c>
       <c r="G241" s="13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I241">
         <v>1</v>
@@ -8699,7 +8703,7 @@
         <v>143</v>
       </c>
       <c r="G242" s="13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I242">
         <v>1</v>
@@ -8710,7 +8714,7 @@
         <v>143</v>
       </c>
       <c r="G243" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I243">
         <v>1</v>
@@ -8720,8 +8724,8 @@
       <c r="F244" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="G244" s="12" t="s">
-        <v>75</v>
+      <c r="G244" s="13" t="s">
+        <v>323</v>
       </c>
       <c r="I244">
         <v>1</v>
@@ -8729,10 +8733,10 @@
     </row>
     <row r="245" spans="6:9">
       <c r="F245" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G245" s="12" t="s">
-        <v>385</v>
+        <v>75</v>
       </c>
       <c r="I245">
         <v>1</v>
@@ -8743,7 +8747,7 @@
         <v>144</v>
       </c>
       <c r="G246" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I246">
         <v>1</v>
@@ -8754,7 +8758,7 @@
         <v>144</v>
       </c>
       <c r="G247" s="12" t="s">
-        <v>264</v>
+        <v>384</v>
       </c>
       <c r="I247">
         <v>1</v>
@@ -8765,7 +8769,7 @@
         <v>144</v>
       </c>
       <c r="G248" s="12" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="I248">
         <v>1</v>
@@ -8776,7 +8780,7 @@
         <v>144</v>
       </c>
       <c r="G249" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I249">
         <v>1</v>
@@ -8787,7 +8791,7 @@
         <v>144</v>
       </c>
       <c r="G250" s="12" t="s">
-        <v>385</v>
+        <v>276</v>
       </c>
       <c r="I250">
         <v>1</v>
@@ -8798,7 +8802,7 @@
         <v>144</v>
       </c>
       <c r="G251" s="12" t="s">
-        <v>332</v>
+        <v>384</v>
       </c>
       <c r="I251">
         <v>1</v>
@@ -8809,7 +8813,7 @@
         <v>144</v>
       </c>
       <c r="G252" s="12" t="s">
-        <v>386</v>
+        <v>331</v>
       </c>
       <c r="I252">
         <v>1</v>
@@ -8820,7 +8824,7 @@
         <v>144</v>
       </c>
       <c r="G253" s="12" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="I253">
         <v>1</v>
@@ -8828,10 +8832,10 @@
     </row>
     <row r="254" spans="6:9">
       <c r="F254" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G254" s="12" t="s">
-        <v>387</v>
+        <v>77</v>
       </c>
       <c r="I254">
         <v>1</v>
@@ -8842,7 +8846,7 @@
         <v>145</v>
       </c>
       <c r="G255" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I255">
         <v>1</v>
@@ -8853,7 +8857,7 @@
         <v>145</v>
       </c>
       <c r="G256" s="12" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I256">
         <v>1</v>
@@ -8864,7 +8868,7 @@
         <v>145</v>
       </c>
       <c r="G257" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I257">
         <v>1</v>
@@ -8875,7 +8879,7 @@
         <v>145</v>
       </c>
       <c r="G258" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I258">
         <v>1</v>
@@ -8886,7 +8890,7 @@
         <v>145</v>
       </c>
       <c r="G259" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I259">
         <v>1</v>
@@ -8897,7 +8901,7 @@
         <v>145</v>
       </c>
       <c r="G260" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I260">
         <v>1</v>
@@ -8908,7 +8912,7 @@
         <v>145</v>
       </c>
       <c r="G261" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I261">
         <v>1</v>
@@ -8919,10 +8923,7 @@
         <v>145</v>
       </c>
       <c r="G262" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="H262">
-        <v>1</v>
+        <v>393</v>
       </c>
       <c r="I262">
         <v>1</v>
@@ -8933,7 +8934,10 @@
         <v>145</v>
       </c>
       <c r="G263" s="12" t="s">
-        <v>276</v>
+        <v>379</v>
+      </c>
+      <c r="H263">
+        <v>1</v>
       </c>
       <c r="I263">
         <v>1</v>
@@ -8944,7 +8948,7 @@
         <v>145</v>
       </c>
       <c r="G264" s="12" t="s">
-        <v>343</v>
+        <v>275</v>
       </c>
       <c r="I264">
         <v>1</v>
@@ -8955,7 +8959,7 @@
         <v>145</v>
       </c>
       <c r="G265" s="12" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I265">
         <v>1</v>
@@ -8966,7 +8970,7 @@
         <v>145</v>
       </c>
       <c r="G266" s="12" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="I266">
         <v>1</v>
@@ -8977,7 +8981,7 @@
         <v>145</v>
       </c>
       <c r="G267" s="12" t="s">
-        <v>363</v>
+        <v>302</v>
       </c>
       <c r="I267">
         <v>1</v>
@@ -8988,7 +8992,7 @@
         <v>145</v>
       </c>
       <c r="G268" s="12" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="I268">
         <v>1</v>
@@ -8999,7 +9003,7 @@
         <v>145</v>
       </c>
       <c r="G269" s="12" t="s">
-        <v>383</v>
+        <v>331</v>
       </c>
       <c r="I269">
         <v>1</v>
@@ -9010,7 +9014,7 @@
         <v>145</v>
       </c>
       <c r="G270" s="12" t="s">
-        <v>301</v>
+        <v>382</v>
       </c>
       <c r="I270">
         <v>1</v>
@@ -9021,7 +9025,7 @@
         <v>145</v>
       </c>
       <c r="G271" s="12" t="s">
-        <v>384</v>
+        <v>300</v>
       </c>
       <c r="I271">
         <v>1</v>
@@ -9032,7 +9036,7 @@
         <v>145</v>
       </c>
       <c r="G272" s="12" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="I272">
         <v>1</v>
@@ -9043,7 +9047,7 @@
         <v>145</v>
       </c>
       <c r="G273" s="12" t="s">
-        <v>395</v>
+        <v>341</v>
       </c>
       <c r="I273">
         <v>1</v>
@@ -9053,19 +9057,19 @@
       <c r="F274" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="G274" s="14" t="s">
+      <c r="G274" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="I274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="6:9">
+      <c r="F275" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G275" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="I274">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="6:9">
-      <c r="F275" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="G275" s="11" t="s">
-        <v>396</v>
       </c>
       <c r="I275">
         <v>1</v>
@@ -9076,7 +9080,7 @@
         <v>148</v>
       </c>
       <c r="G276" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I276">
         <v>1</v>
@@ -9087,7 +9091,7 @@
         <v>148</v>
       </c>
       <c r="G277" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I277">
         <v>1</v>
@@ -9098,18 +9102,18 @@
         <v>148</v>
       </c>
       <c r="G278" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I278">
         <v>1</v>
       </c>
     </row>
     <row r="279" spans="6:9">
-      <c r="F279" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="G279" s="13" t="s">
-        <v>400</v>
+      <c r="F279" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G279" s="11" t="s">
+        <v>398</v>
       </c>
       <c r="I279">
         <v>1</v>
@@ -9119,19 +9123,19 @@
       <c r="F280" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="G280" s="14" t="s">
+      <c r="G280" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="I280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="6:9">
+      <c r="F281" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G281" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="I280">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="6:9">
-      <c r="F281" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G281" s="13" t="s">
-        <v>400</v>
       </c>
       <c r="I281">
         <v>1</v>
@@ -9142,7 +9146,7 @@
         <v>152</v>
       </c>
       <c r="G282" s="13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I282">
         <v>1</v>
@@ -9153,7 +9157,7 @@
         <v>152</v>
       </c>
       <c r="G283" s="13" t="s">
-        <v>95</v>
+        <v>400</v>
       </c>
       <c r="I283">
         <v>1</v>
@@ -9161,10 +9165,10 @@
     </row>
     <row r="284" spans="6:9">
       <c r="F284" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G284" s="13" t="s">
-        <v>402</v>
+        <v>95</v>
       </c>
       <c r="I284">
         <v>1</v>
@@ -9175,18 +9179,18 @@
         <v>153</v>
       </c>
       <c r="G285" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="I285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="6:9">
+      <c r="F286" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G286" s="13" t="s">
         <v>97</v>
-      </c>
-      <c r="I285">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="6:9">
-      <c r="F286" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="G286" s="13" t="s">
-        <v>403</v>
       </c>
       <c r="I286">
         <v>1</v>
@@ -9196,8 +9200,8 @@
       <c r="F287" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="G287" s="14" t="s">
-        <v>98</v>
+      <c r="G287" s="13" t="s">
+        <v>402</v>
       </c>
       <c r="I287">
         <v>1</v>
@@ -9205,10 +9209,10 @@
     </row>
     <row r="288" spans="6:9">
       <c r="F288" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G288" s="13" t="s">
-        <v>404</v>
+        <v>154</v>
+      </c>
+      <c r="G288" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="I288">
         <v>1</v>
@@ -9218,19 +9222,19 @@
       <c r="F289" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="G289" s="14" t="s">
+      <c r="G289" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="I289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="6:9">
+      <c r="F290" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G290" s="14" t="s">
         <v>101</v>
-      </c>
-      <c r="I289">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="6:9">
-      <c r="F290" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G290" s="13" t="s">
-        <v>405</v>
       </c>
       <c r="I290">
         <v>1</v>
@@ -9241,7 +9245,7 @@
         <v>156</v>
       </c>
       <c r="G291" s="13" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I291">
         <v>1</v>
@@ -9252,7 +9256,7 @@
         <v>156</v>
       </c>
       <c r="G292" s="13" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I292">
         <v>1</v>
@@ -9263,7 +9267,7 @@
         <v>156</v>
       </c>
       <c r="G293" s="13" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I293">
         <v>1</v>
@@ -9274,7 +9278,7 @@
         <v>156</v>
       </c>
       <c r="G294" s="13" t="s">
-        <v>104</v>
+        <v>407</v>
       </c>
       <c r="I294">
         <v>1</v>
@@ -9282,10 +9286,10 @@
     </row>
     <row r="295" spans="6:9">
       <c r="F295" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G295" s="13" t="s">
-        <v>404</v>
+        <v>104</v>
       </c>
       <c r="I295">
         <v>1</v>
@@ -9296,7 +9300,7 @@
         <v>157</v>
       </c>
       <c r="G296" s="13" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I296">
         <v>1</v>
@@ -9307,7 +9311,7 @@
         <v>157</v>
       </c>
       <c r="G297" s="13" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I297">
         <v>1</v>
@@ -9318,7 +9322,7 @@
         <v>157</v>
       </c>
       <c r="G298" s="13" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="I298">
         <v>1</v>
@@ -9340,7 +9344,7 @@
         <v>157</v>
       </c>
       <c r="G300" s="13" t="s">
-        <v>107</v>
+        <v>407</v>
       </c>
       <c r="I300">
         <v>1</v>
@@ -9348,10 +9352,10 @@
     </row>
     <row r="301" spans="6:9">
       <c r="F301" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G301" s="13" t="s">
-        <v>410</v>
+        <v>107</v>
       </c>
       <c r="I301">
         <v>1</v>
@@ -9362,7 +9366,7 @@
         <v>158</v>
       </c>
       <c r="G302" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I302">
         <v>1</v>
@@ -9373,7 +9377,7 @@
         <v>158</v>
       </c>
       <c r="G303" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I303">
         <v>1</v>
@@ -9384,7 +9388,7 @@
         <v>158</v>
       </c>
       <c r="G304" s="13" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I304">
         <v>1</v>
@@ -9395,18 +9399,18 @@
         <v>158</v>
       </c>
       <c r="G305" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="I305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="6:9">
+      <c r="F306" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G306" s="13" t="s">
         <v>110</v>
-      </c>
-      <c r="I305">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="6:9">
-      <c r="F306" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="G306" s="13" t="s">
-        <v>414</v>
       </c>
       <c r="I306">
         <v>1</v>
@@ -9417,7 +9421,7 @@
         <v>159</v>
       </c>
       <c r="G307" s="13" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I307">
         <v>1</v>
@@ -9428,7 +9432,7 @@
         <v>159</v>
       </c>
       <c r="G308" s="13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I308">
         <v>1</v>
@@ -9439,7 +9443,7 @@
         <v>159</v>
       </c>
       <c r="G309" s="13" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I309">
         <v>1</v>
@@ -9449,10 +9453,21 @@
       <c r="F310" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="G310" t="s">
+      <c r="G310" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="I310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="6:9">
+      <c r="F311" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G311" t="s">
         <v>113</v>
       </c>
-      <c r="I310">
+      <c r="I311">
         <v>1</v>
       </c>
     </row>
@@ -9468,7 +9483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:H59"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -9477,22 +9492,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="28.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
     <col min="6" max="6" width="41" customWidth="1"/>
-    <col min="7" max="7" width="64.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="64.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" ht="13.9" customHeight="1">
+    <row r="7" spans="4:8" ht="13.95" customHeight="1">
       <c r="D7" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>418</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>419</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>260</v>
@@ -9501,161 +9516,161 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:8" ht="13.9" customHeight="1">
+    <row r="8" spans="4:8" ht="13.95" customHeight="1">
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="4:8" ht="13.9" customHeight="1">
+    <row r="9" spans="4:8" ht="13.95" customHeight="1">
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="4:8" ht="13.9" customHeight="1">
+    <row r="10" spans="4:8" ht="13.95" customHeight="1">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="4:8" ht="13.9" customHeight="1">
+    <row r="11" spans="4:8" ht="13.95" customHeight="1">
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="4:8" ht="13.9" customHeight="1">
+    <row r="12" spans="4:8" ht="13.95" customHeight="1">
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="4:8" ht="13.9" customHeight="1">
+    <row r="13" spans="4:8" ht="13.95" customHeight="1">
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="4:8" ht="13.9" customHeight="1">
+    <row r="14" spans="4:8" ht="13.95" customHeight="1">
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="4:8" ht="13.9" customHeight="1">
+    <row r="15" spans="4:8" ht="13.95" customHeight="1">
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="4:8" ht="13.9" customHeight="1">
+    <row r="16" spans="4:8" ht="13.95" customHeight="1">
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="4:7" ht="13.9" customHeight="1">
+    <row r="17" spans="4:7" ht="13.95" customHeight="1">
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="4:7" ht="13.9" customHeight="1">
+    <row r="18" spans="4:7" ht="13.95" customHeight="1">
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="4:7" ht="13.9" customHeight="1">
+    <row r="19" spans="4:7" ht="13.95" customHeight="1">
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="4:7" ht="13.9" customHeight="1">
+    <row r="20" spans="4:7" ht="13.95" customHeight="1">
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="4:7" ht="13.9" customHeight="1">
+    <row r="21" spans="4:7" ht="13.95" customHeight="1">
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="4:7" ht="13.9" customHeight="1">
+    <row r="22" spans="4:7" ht="13.95" customHeight="1">
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="4:7" ht="13.9" customHeight="1">
+    <row r="23" spans="4:7" ht="13.95" customHeight="1">
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>90</v>
@@ -9663,7 +9678,7 @@
     </row>
     <row r="24" spans="4:7">
       <c r="F24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>12</v>
@@ -9671,7 +9686,7 @@
     </row>
     <row r="25" spans="4:7">
       <c r="F25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>18</v>
@@ -9679,7 +9694,7 @@
     </row>
     <row r="26" spans="4:7">
       <c r="F26" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>21</v>
@@ -9687,7 +9702,7 @@
     </row>
     <row r="27" spans="4:7">
       <c r="F27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>24</v>
@@ -9695,7 +9710,7 @@
     </row>
     <row r="28" spans="4:7">
       <c r="F28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>27</v>
@@ -9703,7 +9718,7 @@
     </row>
     <row r="29" spans="4:7">
       <c r="F29" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>30</v>
@@ -9711,7 +9726,7 @@
     </row>
     <row r="30" spans="4:7">
       <c r="F30" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>33</v>
@@ -9719,7 +9734,7 @@
     </row>
     <row r="31" spans="4:7">
       <c r="F31" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>36</v>
@@ -9727,7 +9742,7 @@
     </row>
     <row r="32" spans="4:7">
       <c r="F32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>39</v>
@@ -9735,7 +9750,7 @@
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>42</v>
@@ -9743,7 +9758,7 @@
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>45</v>
@@ -9751,7 +9766,7 @@
     </row>
     <row r="35" spans="6:7">
       <c r="F35" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>48</v>
@@ -9759,7 +9774,7 @@
     </row>
     <row r="36" spans="6:7">
       <c r="F36" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>51</v>
@@ -9767,7 +9782,7 @@
     </row>
     <row r="37" spans="6:7">
       <c r="F37" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>54</v>
@@ -9775,7 +9790,7 @@
     </row>
     <row r="38" spans="6:7">
       <c r="F38" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>57</v>
@@ -9783,7 +9798,7 @@
     </row>
     <row r="39" spans="6:7">
       <c r="F39" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>60</v>
@@ -9791,7 +9806,7 @@
     </row>
     <row r="40" spans="6:7">
       <c r="F40" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>63</v>
@@ -9799,7 +9814,7 @@
     </row>
     <row r="41" spans="6:7">
       <c r="F41" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>66</v>
@@ -9807,7 +9822,7 @@
     </row>
     <row r="42" spans="6:7">
       <c r="F42" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>69</v>
@@ -9815,7 +9830,7 @@
     </row>
     <row r="43" spans="6:7">
       <c r="F43" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>72</v>
@@ -9823,7 +9838,7 @@
     </row>
     <row r="44" spans="6:7">
       <c r="F44" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>75</v>
@@ -9831,7 +9846,7 @@
     </row>
     <row r="45" spans="6:7">
       <c r="F45" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>77</v>
@@ -9839,7 +9854,7 @@
     </row>
     <row r="46" spans="6:7">
       <c r="F46" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>80</v>
@@ -9847,7 +9862,7 @@
     </row>
     <row r="47" spans="6:7">
       <c r="F47" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>83</v>
@@ -9855,7 +9870,7 @@
     </row>
     <row r="48" spans="6:7">
       <c r="F48" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>85</v>
@@ -9863,7 +9878,7 @@
     </row>
     <row r="49" spans="6:7">
       <c r="F49" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>87</v>
@@ -9871,7 +9886,7 @@
     </row>
     <row r="50" spans="6:7">
       <c r="F50" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>90</v>
@@ -9879,7 +9894,7 @@
     </row>
     <row r="51" spans="6:7">
       <c r="F51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>93</v>
@@ -9887,7 +9902,7 @@
     </row>
     <row r="52" spans="6:7">
       <c r="F52" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G52" s="10" t="s">
         <v>95</v>
@@ -9895,7 +9910,7 @@
     </row>
     <row r="53" spans="6:7">
       <c r="F53" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>97</v>
@@ -9903,7 +9918,7 @@
     </row>
     <row r="54" spans="6:7">
       <c r="F54" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G54" s="10" t="s">
         <v>98</v>
@@ -9911,7 +9926,7 @@
     </row>
     <row r="55" spans="6:7">
       <c r="F55" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>101</v>
@@ -9919,7 +9934,7 @@
     </row>
     <row r="56" spans="6:7">
       <c r="F56" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>104</v>
@@ -9927,7 +9942,7 @@
     </row>
     <row r="57" spans="6:7">
       <c r="F57" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>107</v>
@@ -9935,7 +9950,7 @@
     </row>
     <row r="58" spans="6:7">
       <c r="F58" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>110</v>
@@ -9943,7 +9958,7 @@
     </row>
     <row r="59" spans="6:7">
       <c r="F59" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>113</v>
@@ -9956,7 +9971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:R14"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -9965,24 +9980,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="23.7109375" style="3" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" style="3" customWidth="1"/>
+    <col min="7" max="8" width="23.6640625" style="3" customWidth="1"/>
     <col min="9" max="10" width="24" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="28.5703125" style="3" customWidth="1"/>
-    <col min="14" max="17" width="11.5703125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="46.42578125" style="3" customWidth="1"/>
-    <col min="19" max="1025" width="11.5703125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="28.5546875" style="3" customWidth="1"/>
+    <col min="14" max="17" width="11.5546875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="46.44140625" style="3" customWidth="1"/>
+    <col min="19" max="1025" width="11.5546875" style="3" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:18">
       <c r="D7" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1</v>
@@ -9991,7 +10006,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>166</v>
@@ -10000,13 +10015,13 @@
         <v>167</v>
       </c>
       <c r="J7" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>426</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>427</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>6</v>
@@ -10018,33 +10033,33 @@
         <v>173</v>
       </c>
       <c r="P7" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>429</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="8" spans="4:18">
       <c r="E8" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="I8" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>431</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>432</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>189</v>
@@ -10053,10 +10068,10 @@
         <v>15</v>
       </c>
       <c r="M8" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>433</v>
       </c>
       <c r="O8" s="3">
         <v>1</v>
@@ -10070,22 +10085,22 @@
     </row>
     <row r="9" spans="4:18">
       <c r="E9" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="H9" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>435</v>
-      </c>
       <c r="I9" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>435</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>189</v>
@@ -10094,10 +10109,10 @@
         <v>15</v>
       </c>
       <c r="M9" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>435</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>436</v>
       </c>
       <c r="O9" s="3">
         <v>2</v>
@@ -10111,22 +10126,22 @@
     </row>
     <row r="10" spans="4:18">
       <c r="E10" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="H10" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>438</v>
-      </c>
       <c r="I10" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>438</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>189</v>
@@ -10135,7 +10150,7 @@
         <v>15</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>200</v>
@@ -10152,22 +10167,22 @@
     </row>
     <row r="11" spans="4:18">
       <c r="E11" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="H11" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>440</v>
-      </c>
       <c r="I11" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>440</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>189</v>
@@ -10176,10 +10191,10 @@
         <v>15</v>
       </c>
       <c r="M11" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>440</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>441</v>
       </c>
       <c r="O11" s="3">
         <v>4</v>
@@ -10193,22 +10208,22 @@
     </row>
     <row r="12" spans="4:18">
       <c r="E12" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="H12" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>443</v>
-      </c>
       <c r="I12" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>442</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>443</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>189</v>
@@ -10217,10 +10232,10 @@
         <v>15</v>
       </c>
       <c r="M12" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>443</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>444</v>
       </c>
       <c r="O12" s="3">
         <v>5</v>
@@ -10234,22 +10249,22 @@
     </row>
     <row r="13" spans="4:18">
       <c r="E13" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="H13" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>446</v>
-      </c>
       <c r="I13" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>445</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>446</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>189</v>
@@ -10258,10 +10273,10 @@
         <v>15</v>
       </c>
       <c r="M13" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="N13" s="3" t="s">
         <v>446</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>447</v>
       </c>
       <c r="O13" s="3">
         <v>6</v>
@@ -10273,27 +10288,27 @@
         <v>1</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="4:18">
       <c r="E14" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>450</v>
-      </c>
       <c r="I14" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>449</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>450</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>189</v>
@@ -10302,10 +10317,10 @@
         <v>15</v>
       </c>
       <c r="M14" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>451</v>
       </c>
       <c r="O14" s="3">
         <v>7</v>
@@ -10317,7 +10332,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -10328,223 +10343,223 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:K16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+    <col min="10" max="10" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:11">
       <c r="D7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>454</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>172</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="K7" s="1" t="s">
+    </row>
+    <row r="8" spans="4:11" ht="13.2">
+      <c r="F8" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="8" spans="4:11" ht="12.75">
-      <c r="F8" t="s">
+      <c r="G8" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" t="s">
         <v>460</v>
-      </c>
-      <c r="J8" t="s">
-        <v>461</v>
       </c>
       <c r="K8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:11" ht="12.75">
+    <row r="9" spans="4:11" ht="13.2">
       <c r="F9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" t="s">
         <v>464</v>
-      </c>
-      <c r="J9" t="s">
-        <v>465</v>
       </c>
       <c r="K9">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="4:11" ht="12.75">
+    <row r="10" spans="4:11" ht="13.2">
       <c r="F10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" t="s">
         <v>468</v>
-      </c>
-      <c r="J10" t="s">
-        <v>469</v>
       </c>
       <c r="K10">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="4:11" ht="12.75">
+    <row r="11" spans="4:11" ht="13.2">
       <c r="F11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" t="s">
         <v>472</v>
-      </c>
-      <c r="J11" t="s">
-        <v>473</v>
       </c>
       <c r="K11">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="4:11" ht="12.75">
+    <row r="12" spans="4:11" ht="13.2">
       <c r="F12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" t="s">
         <v>476</v>
-      </c>
-      <c r="J12" t="s">
-        <v>477</v>
       </c>
       <c r="K12">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="4:11" ht="12.75">
+    <row r="13" spans="4:11" ht="13.2">
       <c r="F13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G13" t="s">
+        <v>477</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" t="s">
         <v>480</v>
-      </c>
-      <c r="J13" t="s">
-        <v>481</v>
       </c>
       <c r="K13">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="4:11" ht="12.75">
+    <row r="14" spans="4:11" ht="13.2">
       <c r="F14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G14" t="s">
+        <v>481</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" t="s">
         <v>484</v>
-      </c>
-      <c r="J14" t="s">
-        <v>485</v>
       </c>
       <c r="K14">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="4:11" ht="12.75">
+    <row r="15" spans="4:11" ht="13.2">
       <c r="F15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G15" t="s">
+        <v>485</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" t="s">
         <v>488</v>
-      </c>
-      <c r="J15" t="s">
-        <v>489</v>
       </c>
       <c r="K15">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="4:11" ht="12.75">
+    <row r="16" spans="4:11" ht="13.2">
       <c r="F16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G16" t="s">
+        <v>489</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" t="s">
         <v>492</v>
-      </c>
-      <c r="J16" t="s">
-        <v>493</v>
       </c>
       <c r="K16">
         <v>90</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2019work\agile-service\src\main\resources\script\meta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52913BC7-F6E2-4FE2-8E07-C086DCEBAA26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" tabRatio="1000" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="1000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -16,14 +22,14 @@
     <sheet name="FD_REPORT" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">IAM_MENU_PERMISSION!$I$1:$I$216</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">IAM_MENU_PERMISSION!$I$1:$I$222</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="406">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -1223,19 +1229,37 @@
   </si>
   <si>
     <t>/agile/reporthost/versionBurndown</t>
+  </si>
+  <si>
+    <t>agile-service.board.updateScrumBoard</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.work-calendar-ref.deleteProjectWorkCalendarRef</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.work-calendar-ref.createSprintWorkCalendarRef</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.board-column.updateColumnContraint</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.issue-status.moveStatusToUnCorrespond</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.board-column.deleteBoardColumn</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1245,11 +1269,12 @@
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1290,13 +1315,13 @@
       <sz val="10"/>
       <color theme="9"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF494949"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1311,352 +1336,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1664,251 +1358,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1930,61 +1382,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2269,37 +1677,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:O31"/>
   <sheetViews>
     <sheetView topLeftCell="G13" workbookViewId="0">
       <selection activeCell="J21" sqref="J21:N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5555555555556" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="57.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="23.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="57.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="18.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.3333333333333" customWidth="1"/>
-    <col min="13" max="13" width="18.5555555555556" customWidth="1"/>
-    <col min="14" max="14" width="19.4444444444444" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.5555555555556" customWidth="1"/>
+    <col min="16" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:15">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1">
       <c r="D7" s="5" t="s">
         <v>0</v>
       </c>
@@ -2337,7 +1745,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="6:14">
+    <row r="8" spans="4:15">
       <c r="F8" t="s">
         <v>12</v>
       </c>
@@ -2366,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="6:14">
+    <row r="9" spans="4:15">
       <c r="F9" t="s">
         <v>18</v>
       </c>
@@ -2395,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="6:14">
+    <row r="10" spans="4:15">
       <c r="F10" t="s">
         <v>21</v>
       </c>
@@ -2424,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="6:14">
+    <row r="11" spans="4:15">
       <c r="F11" s="6" t="s">
         <v>24</v>
       </c>
@@ -2453,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="6:14">
+    <row r="12" spans="4:15">
       <c r="F12" s="6" t="s">
         <v>27</v>
       </c>
@@ -2482,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="6:14">
+    <row r="13" spans="4:15">
       <c r="F13" s="6" t="s">
         <v>30</v>
       </c>
@@ -2511,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="6:14">
+    <row r="14" spans="4:15">
       <c r="F14" t="s">
         <v>33</v>
       </c>
@@ -2540,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="6:14">
+    <row r="15" spans="4:15">
       <c r="F15" s="12" t="s">
         <v>36</v>
       </c>
@@ -2569,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="6:14">
+    <row r="16" spans="4:15">
       <c r="F16" s="7" t="s">
         <v>39</v>
       </c>
@@ -2743,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="18" customHeight="1" spans="6:14">
+    <row r="22" spans="6:14" ht="18" customHeight="1">
       <c r="F22" s="7" t="s">
         <v>57</v>
       </c>
@@ -3034,8 +2442,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -3044,27 +2453,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:I104"/>
   <sheetViews>
-    <sheetView zoomScale="118" zoomScaleNormal="118" topLeftCell="D20" workbookViewId="0">
+    <sheetView topLeftCell="D20" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="23.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="30.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="51.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="58.4444444444444" customWidth="1"/>
-    <col min="9" max="9" width="31.3333333333333" customWidth="1"/>
-    <col min="10" max="1026" width="11.5555555555556" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="51.42578125" customWidth="1"/>
+    <col min="8" max="8" width="58.42578125" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" customWidth="1"/>
+    <col min="10" max="1026" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:9">
+    <row r="7" spans="4:9" ht="12.75" customHeight="1">
       <c r="D7" s="15" t="s">
         <v>83</v>
       </c>
@@ -3084,7 +2492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1" spans="4:9">
+    <row r="8" spans="4:9" ht="12.75" customHeight="1">
       <c r="D8" s="15"/>
       <c r="E8" s="5"/>
       <c r="F8" s="15" t="s">
@@ -3098,7 +2506,7 @@
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1" spans="4:9">
+    <row r="9" spans="4:9" ht="12.75" customHeight="1">
       <c r="D9" s="15"/>
       <c r="E9" s="5"/>
       <c r="F9" s="15" t="s">
@@ -3112,7 +2520,7 @@
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1" spans="4:9">
+    <row r="10" spans="4:9" ht="12.75" customHeight="1">
       <c r="D10" s="15"/>
       <c r="E10" s="5"/>
       <c r="F10" s="15" t="s">
@@ -3126,7 +2534,7 @@
       </c>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1" spans="4:9">
+    <row r="11" spans="4:9" ht="12.75" customHeight="1">
       <c r="D11" s="15"/>
       <c r="E11" s="5"/>
       <c r="F11" s="15" t="s">
@@ -3140,7 +2548,7 @@
       </c>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1" spans="4:9">
+    <row r="12" spans="4:9" ht="12.75" customHeight="1">
       <c r="D12" s="15"/>
       <c r="E12" s="5"/>
       <c r="F12" s="15" t="s">
@@ -3154,7 +2562,7 @@
       </c>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1" spans="4:9">
+    <row r="13" spans="4:9" ht="12.75" customHeight="1">
       <c r="D13" s="15"/>
       <c r="E13" s="5"/>
       <c r="F13" s="15" t="s">
@@ -3168,7 +2576,7 @@
       </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1" spans="4:9">
+    <row r="14" spans="4:9" ht="12.75" customHeight="1">
       <c r="D14" s="15"/>
       <c r="E14" s="5"/>
       <c r="F14" s="15" t="s">
@@ -3182,47 +2590,42 @@
       </c>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1" spans="4:9">
+    <row r="15" spans="4:9" ht="12.75" customHeight="1">
       <c r="D15" s="15"/>
       <c r="E15" s="5"/>
       <c r="F15" s="15"/>
       <c r="G15" s="16"/>
-      <c r="H15"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1" spans="4:9">
+    <row r="16" spans="4:9" ht="12.75" customHeight="1">
       <c r="D16" s="15"/>
       <c r="E16" s="5"/>
       <c r="F16" s="15"/>
       <c r="G16" s="16"/>
-      <c r="H16"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1" spans="4:9">
+    <row r="17" spans="4:9" ht="12.75" customHeight="1">
       <c r="D17" s="15"/>
       <c r="E17" s="5"/>
       <c r="F17" s="15"/>
       <c r="G17" s="16"/>
-      <c r="H17"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" ht="12.75" customHeight="1" spans="4:9">
+    <row r="18" spans="4:9" ht="12.75" customHeight="1">
       <c r="D18" s="15"/>
       <c r="E18" s="5"/>
       <c r="F18" s="15"/>
       <c r="G18" s="16"/>
-      <c r="H18"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1" spans="4:9">
+    <row r="19" spans="4:9" ht="12.75" customHeight="1">
       <c r="D19" s="15"/>
       <c r="E19" s="5"/>
       <c r="F19" s="15"/>
       <c r="G19" s="16"/>
-      <c r="H19"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" ht="12.75" customHeight="1" spans="4:9">
+    <row r="20" spans="4:9" ht="12.75" customHeight="1">
       <c r="D20" s="15"/>
       <c r="E20" s="5"/>
       <c r="F20" s="15" t="s">
@@ -3236,7 +2639,7 @@
       </c>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1" spans="4:9">
+    <row r="21" spans="4:9" ht="12.75" customHeight="1">
       <c r="D21" s="15"/>
       <c r="E21" s="5"/>
       <c r="F21" s="15" t="s">
@@ -3250,7 +2653,7 @@
       </c>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" ht="12.75" customHeight="1" spans="4:9">
+    <row r="22" spans="4:9" ht="12.75" customHeight="1">
       <c r="D22" s="15"/>
       <c r="E22" s="5"/>
       <c r="F22" s="15" t="s">
@@ -3264,7 +2667,7 @@
       </c>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" ht="12.75" customHeight="1" spans="4:9">
+    <row r="23" spans="4:9" ht="12.75" customHeight="1">
       <c r="D23" s="15"/>
       <c r="E23" s="5"/>
       <c r="F23" s="15" t="s">
@@ -3278,7 +2681,7 @@
       </c>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" ht="12.75" customHeight="1" spans="4:9">
+    <row r="24" spans="4:9" ht="12.75" customHeight="1">
       <c r="D24" s="15"/>
       <c r="E24" s="5"/>
       <c r="F24" s="15" t="s">
@@ -3292,7 +2695,7 @@
       </c>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" ht="12.75" customHeight="1" spans="4:9">
+    <row r="25" spans="4:9" ht="12.75" customHeight="1">
       <c r="D25" s="15"/>
       <c r="E25" s="5"/>
       <c r="F25" s="15" t="s">
@@ -3306,7 +2709,7 @@
       </c>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" ht="12.75" customHeight="1" spans="4:9">
+    <row r="26" spans="4:9" ht="12.75" customHeight="1">
       <c r="D26" s="15"/>
       <c r="E26" s="5"/>
       <c r="F26" s="15" t="s">
@@ -3320,7 +2723,7 @@
       </c>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" ht="12.75" customHeight="1" spans="4:9">
+    <row r="27" spans="4:9" ht="12.75" customHeight="1">
       <c r="D27" s="15"/>
       <c r="E27" s="5"/>
       <c r="F27" s="15" t="s">
@@ -3334,7 +2737,7 @@
       </c>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" ht="12.75" customHeight="1" spans="4:9">
+    <row r="28" spans="4:9" ht="12.75" customHeight="1">
       <c r="D28" s="15"/>
       <c r="E28" s="5"/>
       <c r="F28" s="15" t="s">
@@ -3348,7 +2751,7 @@
       </c>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" ht="12.75" customHeight="1" spans="4:9">
+    <row r="29" spans="4:9" ht="12.75" customHeight="1">
       <c r="D29" s="15"/>
       <c r="E29" s="5"/>
       <c r="F29" s="15" t="s">
@@ -3362,7 +2765,7 @@
       </c>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" ht="12.75" customHeight="1" spans="4:9">
+    <row r="30" spans="4:9" ht="12.75" customHeight="1">
       <c r="D30" s="15"/>
       <c r="E30" s="5"/>
       <c r="F30" s="15" t="s">
@@ -3376,7 +2779,7 @@
       </c>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" ht="12.75" customHeight="1" spans="4:9">
+    <row r="31" spans="4:9" ht="12.75" customHeight="1">
       <c r="D31" s="15"/>
       <c r="E31" s="5"/>
       <c r="F31" s="15" t="s">
@@ -3390,7 +2793,7 @@
       </c>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" ht="12.75" customHeight="1" spans="4:9">
+    <row r="32" spans="4:9" ht="12.75" customHeight="1">
       <c r="D32" s="15"/>
       <c r="E32" s="5"/>
       <c r="F32" s="15" t="s">
@@ -3404,7 +2807,7 @@
       </c>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" ht="12.75" customHeight="1" spans="4:9">
+    <row r="33" spans="4:9" ht="12.75" customHeight="1">
       <c r="D33" s="15"/>
       <c r="E33" s="5"/>
       <c r="F33" s="15" t="s">
@@ -3418,7 +2821,7 @@
       </c>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" ht="12.75" customHeight="1" spans="4:9">
+    <row r="34" spans="4:9" ht="12.75" customHeight="1">
       <c r="D34" s="15"/>
       <c r="E34" s="5"/>
       <c r="F34" s="15" t="s">
@@ -3432,7 +2835,7 @@
       </c>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" ht="12.75" customHeight="1" spans="4:9">
+    <row r="35" spans="4:9" ht="12.75" customHeight="1">
       <c r="D35" s="15"/>
       <c r="E35" s="5"/>
       <c r="F35" s="15" t="s">
@@ -3446,7 +2849,7 @@
       </c>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" ht="12.75" customHeight="1" spans="4:9">
+    <row r="36" spans="4:9" ht="12.75" customHeight="1">
       <c r="D36" s="15"/>
       <c r="E36" s="5"/>
       <c r="F36" s="15" t="s">
@@ -3460,7 +2863,7 @@
       </c>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" ht="12.75" customHeight="1" spans="4:9">
+    <row r="37" spans="4:9" ht="12.75" customHeight="1">
       <c r="D37" s="15"/>
       <c r="E37" s="5"/>
       <c r="F37" s="15" t="s">
@@ -3474,7 +2877,7 @@
       </c>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" ht="12.75" customHeight="1" spans="4:9">
+    <row r="38" spans="4:9" ht="12.75" customHeight="1">
       <c r="D38" s="15"/>
       <c r="E38" s="5"/>
       <c r="F38" s="15" t="s">
@@ -3488,7 +2891,7 @@
       </c>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" ht="12.75" customHeight="1" spans="4:9">
+    <row r="39" spans="4:9" ht="12.75" customHeight="1">
       <c r="D39" s="15"/>
       <c r="E39" s="5"/>
       <c r="F39" s="15" t="s">
@@ -3502,7 +2905,7 @@
       </c>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" ht="12.75" customHeight="1" spans="4:9">
+    <row r="40" spans="4:9" ht="12.75" customHeight="1">
       <c r="D40" s="15"/>
       <c r="E40" s="5"/>
       <c r="F40" s="15" t="s">
@@ -3516,7 +2919,7 @@
       </c>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" ht="12.75" customHeight="1" spans="4:9">
+    <row r="41" spans="4:9" ht="12.75" customHeight="1">
       <c r="D41" s="15"/>
       <c r="E41" s="5"/>
       <c r="F41" s="15" t="s">
@@ -3530,7 +2933,7 @@
       </c>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" ht="12.75" customHeight="1" spans="4:9">
+    <row r="42" spans="4:9" ht="12.75" customHeight="1">
       <c r="D42" s="15"/>
       <c r="E42" s="5"/>
       <c r="F42" s="15" t="s">
@@ -3544,7 +2947,7 @@
       </c>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" ht="12.75" customHeight="1" spans="4:9">
+    <row r="43" spans="4:9" ht="12.75" customHeight="1">
       <c r="D43" s="15"/>
       <c r="E43" s="5"/>
       <c r="F43" s="15" t="s">
@@ -3558,7 +2961,7 @@
       </c>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" ht="12.75" customHeight="1" spans="4:9">
+    <row r="44" spans="4:9" ht="12.75" customHeight="1">
       <c r="D44" s="15"/>
       <c r="E44" s="5"/>
       <c r="F44" s="15" t="s">
@@ -3572,7 +2975,7 @@
       </c>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" ht="12.75" customHeight="1" spans="4:9">
+    <row r="45" spans="4:9" ht="12.75" customHeight="1">
       <c r="D45" s="15"/>
       <c r="E45" s="5"/>
       <c r="F45" s="15" t="s">
@@ -3586,7 +2989,7 @@
       </c>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" ht="12.75" customHeight="1" spans="4:9">
+    <row r="46" spans="4:9" ht="12.75" customHeight="1">
       <c r="D46" s="15"/>
       <c r="E46" s="5"/>
       <c r="F46" s="15" t="s">
@@ -3600,7 +3003,7 @@
       </c>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" ht="12.75" customHeight="1" spans="4:9">
+    <row r="47" spans="4:9" ht="12.75" customHeight="1">
       <c r="D47" s="15"/>
       <c r="E47" s="5"/>
       <c r="F47" s="15" t="s">
@@ -3614,7 +3017,7 @@
       </c>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" ht="12.75" customHeight="1" spans="4:9">
+    <row r="48" spans="4:9" ht="12.75" customHeight="1">
       <c r="D48" s="15"/>
       <c r="E48" s="5"/>
       <c r="F48" s="15" t="s">
@@ -3628,7 +3031,7 @@
       </c>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" ht="12.75" customHeight="1" spans="4:9">
+    <row r="49" spans="4:9" ht="12.75" customHeight="1">
       <c r="D49" s="15"/>
       <c r="E49" s="5"/>
       <c r="F49" s="15" t="s">
@@ -3642,7 +3045,7 @@
       </c>
       <c r="I49" s="5"/>
     </row>
-    <row r="50" ht="12.75" customHeight="1" spans="4:9">
+    <row r="50" spans="4:9" ht="12.75" customHeight="1">
       <c r="D50" s="15"/>
       <c r="E50" s="5"/>
       <c r="F50" s="15" t="s">
@@ -3656,7 +3059,7 @@
       </c>
       <c r="I50" s="5"/>
     </row>
-    <row r="51" ht="12.75" customHeight="1" spans="4:9">
+    <row r="51" spans="4:9" ht="12.75" customHeight="1">
       <c r="D51" s="15"/>
       <c r="E51" s="5"/>
       <c r="F51" s="15" t="s">
@@ -3670,7 +3073,7 @@
       </c>
       <c r="I51" s="5"/>
     </row>
-    <row r="52" ht="12.75" customHeight="1" spans="4:9">
+    <row r="52" spans="4:9" ht="12.75" customHeight="1">
       <c r="D52" s="15"/>
       <c r="E52" s="5"/>
       <c r="F52" s="15" t="s">
@@ -3684,7 +3087,7 @@
       </c>
       <c r="I52" s="5"/>
     </row>
-    <row r="53" ht="12.75" customHeight="1" spans="4:9">
+    <row r="53" spans="4:9" ht="12.75" customHeight="1">
       <c r="D53" s="15"/>
       <c r="E53" s="5"/>
       <c r="F53" s="15" t="s">
@@ -3698,7 +3101,7 @@
       </c>
       <c r="I53" s="5"/>
     </row>
-    <row r="54" ht="12.75" customHeight="1" spans="4:9">
+    <row r="54" spans="4:9" ht="12.75" customHeight="1">
       <c r="D54" s="15"/>
       <c r="E54" s="5"/>
       <c r="F54" s="15" t="s">
@@ -3712,7 +3115,7 @@
       </c>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" ht="12.75" customHeight="1" spans="4:9">
+    <row r="55" spans="4:9" ht="12.75" customHeight="1">
       <c r="D55" s="15"/>
       <c r="E55" s="5"/>
       <c r="F55" s="15" t="s">
@@ -3726,7 +3129,7 @@
       </c>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" ht="12.75" customHeight="1" spans="4:9">
+    <row r="56" spans="4:9" ht="12.75" customHeight="1">
       <c r="D56" s="15"/>
       <c r="E56" s="5"/>
       <c r="F56" s="15" t="s">
@@ -3740,7 +3143,7 @@
       </c>
       <c r="I56" s="5"/>
     </row>
-    <row r="57" ht="12.75" customHeight="1" spans="4:9">
+    <row r="57" spans="4:9" ht="12.75" customHeight="1">
       <c r="D57" s="15"/>
       <c r="E57" s="5"/>
       <c r="F57" s="15" t="s">
@@ -3754,7 +3157,7 @@
       </c>
       <c r="I57" s="5"/>
     </row>
-    <row r="58" ht="12.75" customHeight="1" spans="4:9">
+    <row r="58" spans="4:9" ht="12.75" customHeight="1">
       <c r="D58" s="15"/>
       <c r="E58" s="5"/>
       <c r="F58" s="15" t="s">
@@ -3768,7 +3171,7 @@
       </c>
       <c r="I58" s="5"/>
     </row>
-    <row r="59" ht="12.75" customHeight="1" spans="4:9">
+    <row r="59" spans="4:9" ht="12.75" customHeight="1">
       <c r="D59" s="15"/>
       <c r="E59" s="5"/>
       <c r="F59" s="15" t="s">
@@ -3782,7 +3185,7 @@
       </c>
       <c r="I59" s="5"/>
     </row>
-    <row r="60" ht="12.75" customHeight="1" spans="4:9">
+    <row r="60" spans="4:9" ht="12.75" customHeight="1">
       <c r="D60" s="15"/>
       <c r="E60" s="5"/>
       <c r="F60" s="15" t="s">
@@ -3796,7 +3199,7 @@
       </c>
       <c r="I60" s="5"/>
     </row>
-    <row r="61" ht="12.75" customHeight="1" spans="4:9">
+    <row r="61" spans="4:9" ht="12.75" customHeight="1">
       <c r="D61" s="15"/>
       <c r="E61" s="5"/>
       <c r="F61" s="15" t="s">
@@ -3810,7 +3213,7 @@
       </c>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" ht="12.75" customHeight="1" spans="4:9">
+    <row r="62" spans="4:9" ht="12.75" customHeight="1">
       <c r="D62" s="15"/>
       <c r="E62" s="5"/>
       <c r="F62" s="15" t="s">
@@ -3824,7 +3227,7 @@
       </c>
       <c r="I62" s="5"/>
     </row>
-    <row r="63" ht="12.75" customHeight="1" spans="4:9">
+    <row r="63" spans="4:9" ht="12.75" customHeight="1">
       <c r="D63" s="15"/>
       <c r="E63" s="5"/>
       <c r="F63" s="15" t="s">
@@ -3838,7 +3241,7 @@
       </c>
       <c r="I63" s="5"/>
     </row>
-    <row r="64" ht="12.75" customHeight="1" spans="4:9">
+    <row r="64" spans="4:9" ht="12.75" customHeight="1">
       <c r="D64" s="15"/>
       <c r="E64" s="5"/>
       <c r="F64" s="15" t="s">
@@ -3852,7 +3255,7 @@
       </c>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" ht="12.75" customHeight="1" spans="4:9">
+    <row r="65" spans="4:9" ht="12.75" customHeight="1">
       <c r="D65" s="15"/>
       <c r="E65" s="5"/>
       <c r="F65" s="15" t="s">
@@ -3866,7 +3269,7 @@
       </c>
       <c r="I65" s="5"/>
     </row>
-    <row r="66" ht="12.75" customHeight="1" spans="4:9">
+    <row r="66" spans="4:9" ht="12.75" customHeight="1">
       <c r="D66" s="15"/>
       <c r="E66" s="5"/>
       <c r="F66" s="15" t="s">
@@ -3880,7 +3283,7 @@
       </c>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" ht="12.75" customHeight="1" spans="4:9">
+    <row r="67" spans="4:9" ht="12.75" customHeight="1">
       <c r="D67" s="15"/>
       <c r="E67" s="5"/>
       <c r="F67" s="15" t="s">
@@ -3894,7 +3297,7 @@
       </c>
       <c r="I67" s="5"/>
     </row>
-    <row r="68" ht="12.75" customHeight="1" spans="4:9">
+    <row r="68" spans="4:9" ht="12.75" customHeight="1">
       <c r="D68" s="15"/>
       <c r="E68" s="5"/>
       <c r="F68" s="15" t="s">
@@ -3908,7 +3311,7 @@
       </c>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" ht="12.75" customHeight="1" spans="4:9">
+    <row r="69" spans="4:9" ht="12.75" customHeight="1">
       <c r="D69" s="15"/>
       <c r="E69" s="5"/>
       <c r="F69" s="15" t="s">
@@ -3922,7 +3325,7 @@
       </c>
       <c r="I69" s="5"/>
     </row>
-    <row r="70" ht="12.75" customHeight="1" spans="4:9">
+    <row r="70" spans="4:9" ht="12.75" customHeight="1">
       <c r="D70" s="15"/>
       <c r="E70" s="5"/>
       <c r="F70" s="15" t="s">
@@ -3936,7 +3339,7 @@
       </c>
       <c r="I70" s="5"/>
     </row>
-    <row r="71" ht="12.75" customHeight="1" spans="4:9">
+    <row r="71" spans="4:9" ht="12.75" customHeight="1">
       <c r="D71" s="15"/>
       <c r="E71" s="5"/>
       <c r="F71" s="15" t="s">
@@ -3950,7 +3353,7 @@
       </c>
       <c r="I71" s="5"/>
     </row>
-    <row r="72" ht="12.75" customHeight="1" spans="4:9">
+    <row r="72" spans="4:9" ht="12.75" customHeight="1">
       <c r="D72" s="15"/>
       <c r="E72" s="5"/>
       <c r="F72" s="15" t="s">
@@ -3964,7 +3367,7 @@
       </c>
       <c r="I72" s="5"/>
     </row>
-    <row r="73" ht="12.75" customHeight="1" spans="4:9">
+    <row r="73" spans="4:9" ht="12.75" customHeight="1">
       <c r="D73" s="15"/>
       <c r="E73" s="5"/>
       <c r="F73" s="15" t="s">
@@ -3978,7 +3381,7 @@
       </c>
       <c r="I73" s="5"/>
     </row>
-    <row r="74" ht="12.75" customHeight="1" spans="4:9">
+    <row r="74" spans="4:9" ht="12.75" customHeight="1">
       <c r="D74" s="15"/>
       <c r="E74" s="5"/>
       <c r="F74" s="15" t="s">
@@ -3992,7 +3395,7 @@
       </c>
       <c r="I74" s="5"/>
     </row>
-    <row r="75" ht="12.75" customHeight="1" spans="4:9">
+    <row r="75" spans="4:9" ht="12.75" customHeight="1">
       <c r="D75" s="15"/>
       <c r="E75" s="5"/>
       <c r="F75" s="15" t="s">
@@ -4006,7 +3409,7 @@
       </c>
       <c r="I75" s="5"/>
     </row>
-    <row r="76" ht="12.75" customHeight="1" spans="4:9">
+    <row r="76" spans="4:9" ht="12.75" customHeight="1">
       <c r="D76" s="15"/>
       <c r="E76" s="5"/>
       <c r="F76" s="15" t="s">
@@ -4020,7 +3423,7 @@
       </c>
       <c r="I76" s="5"/>
     </row>
-    <row r="77" spans="6:8">
+    <row r="77" spans="4:9">
       <c r="F77" s="15" t="s">
         <v>116</v>
       </c>
@@ -4031,7 +3434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="6:8">
+    <row r="78" spans="4:9">
       <c r="F78" s="15" t="s">
         <v>116</v>
       </c>
@@ -4042,7 +3445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="6:8">
+    <row r="79" spans="4:9">
       <c r="F79" s="15" t="s">
         <v>116</v>
       </c>
@@ -4053,7 +3456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="6:8">
+    <row r="80" spans="4:9">
       <c r="F80" s="15" t="s">
         <v>116</v>
       </c>
@@ -4174,27 +3577,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="6:7">
+    <row r="91" spans="6:8">
       <c r="F91" s="15"/>
       <c r="G91" s="6"/>
     </row>
-    <row r="92" spans="6:7">
+    <row r="92" spans="6:8">
       <c r="F92" s="15"/>
       <c r="G92" s="6"/>
     </row>
-    <row r="93" spans="6:7">
+    <row r="93" spans="6:8">
       <c r="F93" s="15"/>
       <c r="G93" s="6"/>
     </row>
-    <row r="94" spans="6:7">
+    <row r="94" spans="6:8">
       <c r="F94" s="15"/>
       <c r="G94" s="6"/>
     </row>
-    <row r="95" spans="6:7">
+    <row r="95" spans="6:8">
       <c r="F95" s="15"/>
       <c r="G95" s="6"/>
     </row>
-    <row r="96" spans="6:7">
+    <row r="96" spans="6:8">
       <c r="F96" s="15"/>
       <c r="G96" s="6"/>
     </row>
@@ -4231,38 +3634,37 @@
       <c r="G104" s="17"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:Q32"/>
   <sheetViews>
-    <sheetView zoomScale="97" zoomScaleNormal="97" topLeftCell="E10" workbookViewId="0">
+    <sheetView topLeftCell="L5" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="15.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="11.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="64.4444444444444" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="64.42578125" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="35.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="71.5555555555556" customWidth="1"/>
-    <col min="10" max="10" width="18.5555555555556" customWidth="1"/>
-    <col min="11" max="11" width="44.6666666666667" customWidth="1"/>
-    <col min="12" max="12" width="19.3333333333333" customWidth="1"/>
-    <col min="13" max="13" width="11.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" customWidth="1"/>
+    <col min="9" max="9" width="71.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="44.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
     <col min="14" max="14" width="23" customWidth="1"/>
-    <col min="15" max="1025" width="11.5555555555556" customWidth="1"/>
+    <col min="15" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:17">
+    <row r="7" spans="4:17" ht="12.75" customHeight="1">
       <c r="D7" s="5" t="s">
         <v>117</v>
       </c>
@@ -4306,7 +3708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="6:15">
+    <row r="8" spans="4:17">
       <c r="F8" s="6" t="s">
         <v>88</v>
       </c>
@@ -4338,7 +3740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="6:16">
+    <row r="9" spans="4:17">
       <c r="F9" s="6" t="s">
         <v>90</v>
       </c>
@@ -4373,7 +3775,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="6:16">
+    <row r="10" spans="4:17">
       <c r="F10" s="6" t="s">
         <v>91</v>
       </c>
@@ -4406,7 +3808,7 @@
       </c>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="6:16">
+    <row r="11" spans="4:17">
       <c r="F11" s="6" t="s">
         <v>92</v>
       </c>
@@ -4439,7 +3841,7 @@
       </c>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="6:16">
+    <row r="12" spans="4:17" ht="12.75">
       <c r="F12" s="6" t="s">
         <v>93</v>
       </c>
@@ -4472,7 +3874,7 @@
       </c>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="6:16">
+    <row r="13" spans="4:17">
       <c r="F13" s="6" t="s">
         <v>94</v>
       </c>
@@ -4505,7 +3907,7 @@
       </c>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="6:16">
+    <row r="14" spans="4:17">
       <c r="F14" s="6" t="s">
         <v>95</v>
       </c>
@@ -4538,7 +3940,7 @@
       </c>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="6:15">
+    <row r="15" spans="4:17">
       <c r="F15" s="7" t="s">
         <v>96</v>
       </c>
@@ -4570,7 +3972,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="6:15">
+    <row r="16" spans="4:17">
       <c r="F16" s="7" t="s">
         <v>97</v>
       </c>
@@ -5113,8 +4515,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -5123,26 +4526,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="D7:I216"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="D7:I222"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="D78" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView tabSelected="1" topLeftCell="G5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="23.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="59.6666666666667" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="59.7109375" customWidth="1"/>
     <col min="7" max="7" width="65" customWidth="1"/>
-    <col min="8" max="8" width="31.3333333333333" customWidth="1"/>
-    <col min="9" max="1025" width="11.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="31.28515625" customWidth="1"/>
+    <col min="9" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:9">
+    <row r="7" spans="4:9" ht="12.75" customHeight="1">
       <c r="D7" s="5" t="s">
         <v>185</v>
       </c>
@@ -5162,7 +4564,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="6:9">
+    <row r="8" spans="4:9">
       <c r="F8" t="s">
         <v>88</v>
       </c>
@@ -5173,7 +4575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="6:9">
+    <row r="9" spans="4:9">
       <c r="F9" t="s">
         <v>88</v>
       </c>
@@ -5184,7 +4586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="6:9">
+    <row r="10" spans="4:9">
       <c r="F10" t="s">
         <v>88</v>
       </c>
@@ -5195,7 +4597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="6:9">
+    <row r="11" spans="4:9">
       <c r="F11" t="s">
         <v>88</v>
       </c>
@@ -5206,7 +4608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="6:9">
+    <row r="12" spans="4:9">
       <c r="F12" t="s">
         <v>88</v>
       </c>
@@ -5217,45 +4619,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="6:9">
+    <row r="13" spans="4:9">
       <c r="F13" t="s">
         <v>88</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>193</v>
+        <v>400</v>
       </c>
       <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="6:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9">
       <c r="F14" t="s">
         <v>88</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>194</v>
+      <c r="G14" s="10" t="s">
+        <v>403</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="6:9">
+    <row r="15" spans="4:9">
       <c r="F15" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>195</v>
+      <c r="G15" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="6:9">
+    <row r="16" spans="4:9">
       <c r="F16" t="s">
         <v>88</v>
       </c>
-      <c r="G16" t="s">
-        <v>196</v>
+      <c r="G16" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -5265,8 +4667,8 @@
       <c r="F17" t="s">
         <v>88</v>
       </c>
-      <c r="G17" t="s">
-        <v>197</v>
+      <c r="G17" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -5276,8 +4678,8 @@
       <c r="F18" t="s">
         <v>88</v>
       </c>
-      <c r="G18" t="s">
-        <v>198</v>
+      <c r="G18" s="9" t="s">
+        <v>401</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -5287,8 +4689,8 @@
       <c r="F19" t="s">
         <v>88</v>
       </c>
-      <c r="G19" t="s">
-        <v>199</v>
+      <c r="G19" s="9" t="s">
+        <v>402</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -5299,7 +4701,7 @@
         <v>88</v>
       </c>
       <c r="G20" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -5310,7 +4712,7 @@
         <v>88</v>
       </c>
       <c r="G21" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -5321,7 +4723,7 @@
         <v>88</v>
       </c>
       <c r="G22" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -5331,69 +4733,66 @@
       <c r="F23" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="10" t="s">
-        <v>203</v>
+      <c r="G23" t="s">
+        <v>199</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="6:9">
       <c r="F24" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="10" t="s">
-        <v>204</v>
+      <c r="G24" s="9" t="s">
+        <v>404</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="6:9">
       <c r="F25" t="s">
         <v>88</v>
       </c>
-      <c r="G25" s="10" t="s">
-        <v>205</v>
+      <c r="G25" t="s">
+        <v>200</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="6:9">
       <c r="F26" t="s">
         <v>88</v>
       </c>
-      <c r="G26" s="10" t="s">
-        <v>206</v>
+      <c r="G26" s="9" t="s">
+        <v>405</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="6:9">
       <c r="F27" t="s">
         <v>88</v>
       </c>
-      <c r="G27" s="10" t="s">
-        <v>207</v>
+      <c r="G27" t="s">
+        <v>201</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="6:9">
       <c r="F28" t="s">
         <v>88</v>
       </c>
-      <c r="G28" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
+      <c r="G28" t="s">
+        <v>202</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="6:9">
@@ -5401,10 +4800,7 @@
         <v>88</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -5415,7 +4811,7 @@
         <v>88</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -5426,7 +4822,7 @@
         <v>88</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -5437,7 +4833,7 @@
         <v>88</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -5448,10 +4844,10 @@
         <v>88</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="6:9">
@@ -5459,7 +4855,10 @@
         <v>88</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>214</v>
+        <v>208</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -5470,7 +4869,10 @@
         <v>88</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>215</v>
+        <v>209</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -5481,7 +4883,7 @@
         <v>88</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -5492,7 +4894,7 @@
         <v>88</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -5503,7 +4905,7 @@
         <v>88</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -5514,7 +4916,7 @@
         <v>88</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -5525,7 +4927,7 @@
         <v>88</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -5536,7 +4938,7 @@
         <v>88</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -5547,7 +4949,7 @@
         <v>88</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -5558,7 +4960,7 @@
         <v>88</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -5569,7 +4971,7 @@
         <v>88</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -5580,7 +4982,7 @@
         <v>88</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -5591,7 +4993,7 @@
         <v>88</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -5602,7 +5004,7 @@
         <v>88</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -5613,7 +5015,7 @@
         <v>88</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -5624,7 +5026,7 @@
         <v>88</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -5635,7 +5037,7 @@
         <v>88</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -5646,7 +5048,7 @@
         <v>88</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -5657,7 +5059,7 @@
         <v>88</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -5668,7 +5070,7 @@
         <v>88</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -5679,7 +5081,7 @@
         <v>88</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -5690,10 +5092,10 @@
         <v>88</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="6:9">
@@ -5701,7 +5103,7 @@
         <v>88</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -5712,7 +5114,7 @@
         <v>88</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -5723,7 +5125,7 @@
         <v>88</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -5734,7 +5136,7 @@
         <v>88</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -5745,7 +5147,7 @@
         <v>88</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -5756,10 +5158,10 @@
         <v>88</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="6:9">
@@ -5767,7 +5169,7 @@
         <v>88</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -5778,7 +5180,7 @@
         <v>88</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -5789,7 +5191,7 @@
         <v>88</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -5800,7 +5202,7 @@
         <v>88</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -5811,7 +5213,7 @@
         <v>88</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -5822,7 +5224,7 @@
         <v>88</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -5833,7 +5235,7 @@
         <v>88</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -5844,7 +5246,7 @@
         <v>88</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -5855,7 +5257,7 @@
         <v>88</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -5866,7 +5268,7 @@
         <v>88</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -5877,7 +5279,7 @@
         <v>88</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -5888,7 +5290,7 @@
         <v>88</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -5899,7 +5301,7 @@
         <v>88</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -5907,10 +5309,10 @@
     </row>
     <row r="75" spans="6:9">
       <c r="F75" t="s">
-        <v>91</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>252</v>
+        <v>88</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>247</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -5918,10 +5320,10 @@
     </row>
     <row r="76" spans="6:9">
       <c r="F76" t="s">
-        <v>91</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>253</v>
+        <v>88</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>248</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -5929,10 +5331,10 @@
     </row>
     <row r="77" spans="6:9">
       <c r="F77" t="s">
-        <v>91</v>
-      </c>
-      <c r="G77" s="11" t="s">
-        <v>254</v>
+        <v>88</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>249</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -5940,21 +5342,21 @@
     </row>
     <row r="78" spans="6:9">
       <c r="F78" t="s">
-        <v>91</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>255</v>
+        <v>88</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>250</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="6:9">
       <c r="F79" t="s">
-        <v>91</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>230</v>
+        <v>88</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>251</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -5962,76 +5364,76 @@
     </row>
     <row r="80" spans="6:9">
       <c r="F80" t="s">
+        <v>88</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="6:9">
+      <c r="F81" t="s">
         <v>91</v>
       </c>
-      <c r="G80" s="11" t="s">
+      <c r="G81" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="6:9">
+      <c r="F82" t="s">
+        <v>91</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="6:9">
+      <c r="F83" t="s">
+        <v>91</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="6:9">
+      <c r="F84" t="s">
+        <v>91</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="6:9">
+      <c r="F85" t="s">
+        <v>91</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="6:9">
+      <c r="F86" t="s">
+        <v>91</v>
+      </c>
+      <c r="G86" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="6:9">
-      <c r="F81" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="6:9">
-      <c r="F82" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G82" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="6:9">
-      <c r="F83" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="6:9">
-      <c r="F84" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="6:9">
-      <c r="F85" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="6:9">
-      <c r="F86" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>258</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -6042,10 +5444,10 @@
         <v>92</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="6:9">
@@ -6053,7 +5455,7 @@
         <v>92</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -6064,7 +5466,7 @@
         <v>92</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -6075,7 +5477,7 @@
         <v>92</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -6086,7 +5488,7 @@
         <v>92</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -6097,7 +5499,7 @@
         <v>92</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -6108,7 +5510,7 @@
         <v>92</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>261</v>
+        <v>203</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -6119,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -6130,7 +5532,7 @@
         <v>92</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -6141,7 +5543,7 @@
         <v>92</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -6152,10 +5554,7 @@
         <v>92</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="H97">
-        <v>1</v>
+        <v>259</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -6166,7 +5565,7 @@
         <v>92</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -6177,7 +5576,7 @@
         <v>92</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -6188,7 +5587,7 @@
         <v>92</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -6199,7 +5598,7 @@
         <v>92</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -6210,7 +5609,7 @@
         <v>92</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -6221,7 +5620,10 @@
         <v>92</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>207</v>
+        <v>262</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -6232,7 +5634,7 @@
         <v>92</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -6243,7 +5645,7 @@
         <v>92</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -6254,21 +5656,21 @@
         <v>92</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I106">
         <v>1</v>
       </c>
     </row>
-    <row r="107" customHeight="1" spans="6:9">
+    <row r="107" spans="6:9">
       <c r="F107" s="6" t="s">
         <v>92</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="6:9">
@@ -6276,7 +5678,7 @@
         <v>92</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>24</v>
+        <v>264</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -6284,21 +5686,21 @@
     </row>
     <row r="109" spans="6:9">
       <c r="F109" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="6:9">
       <c r="F110" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -6306,10 +5708,10 @@
     </row>
     <row r="111" spans="6:9">
       <c r="F111" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -6317,32 +5719,32 @@
     </row>
     <row r="112" spans="6:9">
       <c r="F112" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="6:9">
+    <row r="113" spans="6:9" ht="13.15" customHeight="1">
       <c r="F113" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="6:9">
       <c r="F114" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>252</v>
+        <v>24</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -6353,7 +5755,7 @@
         <v>93</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -6364,7 +5766,7 @@
         <v>93</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="I116">
         <v>1</v>
@@ -6375,7 +5777,7 @@
         <v>93</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -6386,7 +5788,7 @@
         <v>93</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="I118">
         <v>1</v>
@@ -6397,7 +5799,7 @@
         <v>93</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -6408,7 +5810,7 @@
         <v>93</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -6419,7 +5821,7 @@
         <v>93</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -6430,7 +5832,7 @@
         <v>93</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -6441,7 +5843,7 @@
         <v>93</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="I123">
         <v>1</v>
@@ -6452,7 +5854,7 @@
         <v>93</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>189</v>
+        <v>253</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -6463,7 +5865,7 @@
         <v>93</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I125">
         <v>1</v>
@@ -6474,7 +5876,7 @@
         <v>93</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>275</v>
+        <v>188</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -6485,7 +5887,7 @@
         <v>93</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -6496,7 +5898,7 @@
         <v>93</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>277</v>
+        <v>203</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -6507,7 +5909,7 @@
         <v>93</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -6518,7 +5920,7 @@
         <v>93</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>279</v>
+        <v>189</v>
       </c>
       <c r="I130">
         <v>1</v>
@@ -6529,7 +5931,7 @@
         <v>93</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="I131">
         <v>1</v>
@@ -6540,7 +5942,7 @@
         <v>93</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="I132">
         <v>1</v>
@@ -6551,7 +5953,7 @@
         <v>93</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>27</v>
+        <v>276</v>
       </c>
       <c r="I133">
         <v>1</v>
@@ -6559,10 +5961,10 @@
     </row>
     <row r="134" spans="6:9">
       <c r="F134" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>30</v>
+        <v>277</v>
       </c>
       <c r="I134">
         <v>1</v>
@@ -6570,10 +5972,10 @@
     </row>
     <row r="135" spans="6:9">
       <c r="F135" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -6581,10 +5983,10 @@
     </row>
     <row r="136" spans="6:9">
       <c r="F136" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I136">
         <v>1</v>
@@ -6592,10 +5994,10 @@
     </row>
     <row r="137" spans="6:9">
       <c r="F137" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I137">
         <v>1</v>
@@ -6603,10 +6005,10 @@
     </row>
     <row r="138" spans="6:9">
       <c r="F138" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I138">
         <v>1</v>
@@ -6614,10 +6016,10 @@
     </row>
     <row r="139" spans="6:9">
       <c r="F139" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>286</v>
+        <v>27</v>
       </c>
       <c r="I139">
         <v>1</v>
@@ -6628,7 +6030,7 @@
         <v>94</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>268</v>
+        <v>30</v>
       </c>
       <c r="I140">
         <v>1</v>
@@ -6639,10 +6041,10 @@
         <v>94</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="6:9">
@@ -6650,7 +6052,7 @@
         <v>94</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I142">
         <v>1</v>
@@ -6661,7 +6063,7 @@
         <v>94</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="I143">
         <v>1</v>
@@ -6672,7 +6074,7 @@
         <v>94</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="I144">
         <v>1</v>
@@ -6683,73 +6085,73 @@
         <v>94</v>
       </c>
       <c r="G145" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="6:9">
+      <c r="F146" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="6:9">
+      <c r="F147" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="6:9">
+      <c r="F148" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="6:9">
+      <c r="F149" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G149" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="6:9">
+      <c r="F150" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G150" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="6:9">
+      <c r="F151" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G151" s="11" t="s">
         <v>253</v>
-      </c>
-      <c r="I145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="6:9">
-      <c r="F146" t="s">
-        <v>95</v>
-      </c>
-      <c r="G146" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="I146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="6:9">
-      <c r="F147" t="s">
-        <v>95</v>
-      </c>
-      <c r="G147" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="I147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="6:9">
-      <c r="F148" t="s">
-        <v>95</v>
-      </c>
-      <c r="G148" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="I148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="6:9">
-      <c r="F149" t="s">
-        <v>95</v>
-      </c>
-      <c r="G149" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="I149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="6:9">
-      <c r="F150" t="s">
-        <v>95</v>
-      </c>
-      <c r="G150" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="I150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="6:9">
-      <c r="F151" t="s">
-        <v>95</v>
-      </c>
-      <c r="G151" s="11" t="s">
-        <v>230</v>
       </c>
       <c r="I151">
         <v>1</v>
@@ -6760,7 +6162,7 @@
         <v>95</v>
       </c>
       <c r="G152" s="11" t="s">
-        <v>290</v>
+        <v>203</v>
       </c>
       <c r="I152">
         <v>1</v>
@@ -6771,7 +6173,7 @@
         <v>95</v>
       </c>
       <c r="G153" s="11" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="I153">
         <v>1</v>
@@ -6782,7 +6184,7 @@
         <v>95</v>
       </c>
       <c r="G154" s="11" t="s">
-        <v>292</v>
+        <v>217</v>
       </c>
       <c r="I154">
         <v>1</v>
@@ -6793,84 +6195,84 @@
         <v>95</v>
       </c>
       <c r="G155" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="6:9">
+      <c r="F156" t="s">
+        <v>95</v>
+      </c>
+      <c r="G156" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="6:9">
+      <c r="F157" t="s">
+        <v>95</v>
+      </c>
+      <c r="G157" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="6:9">
+      <c r="F158" t="s">
+        <v>95</v>
+      </c>
+      <c r="G158" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="6:9">
+      <c r="F159" t="s">
+        <v>95</v>
+      </c>
+      <c r="G159" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="6:9">
+      <c r="F160" t="s">
+        <v>95</v>
+      </c>
+      <c r="G160" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="6:9">
+      <c r="F161" t="s">
+        <v>95</v>
+      </c>
+      <c r="G161" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="6:9">
-      <c r="F156" s="12" t="s">
+      <c r="I161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="6:9">
+      <c r="F162" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="G156" s="11" t="s">
+      <c r="G162" s="11" t="s">
         <v>293</v>
-      </c>
-      <c r="I156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="6:9">
-      <c r="F157" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G157" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="6:9">
-      <c r="F158" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G158" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="I158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="6:9">
-      <c r="F159" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G159" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="I159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="6:9">
-      <c r="F160" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G160" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="6:9">
-      <c r="F161" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G161" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="I161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="6:9">
-      <c r="F162" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G162" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="I162">
         <v>1</v>
@@ -6878,54 +6280,54 @@
     </row>
     <row r="163" spans="6:9">
       <c r="F163" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G163" s="11" t="s">
-        <v>223</v>
+        <v>36</v>
       </c>
       <c r="I163">
         <v>1</v>
       </c>
     </row>
     <row r="164" spans="6:9">
-      <c r="F164" s="12" t="s">
-        <v>99</v>
+      <c r="F164" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="G164" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="6:9">
-      <c r="F165" s="12" t="s">
-        <v>99</v>
+      <c r="F165" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="G165" s="11" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I165">
         <v>1</v>
       </c>
     </row>
     <row r="166" spans="6:9">
-      <c r="F166" s="12" t="s">
-        <v>99</v>
+      <c r="F166" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="G166" s="11" t="s">
-        <v>298</v>
+        <v>39</v>
       </c>
       <c r="I166">
         <v>1</v>
       </c>
     </row>
     <row r="167" spans="6:9">
-      <c r="F167" s="12" t="s">
-        <v>99</v>
+      <c r="F167" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="G167" s="11" t="s">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="I167">
         <v>1</v>
@@ -6933,65 +6335,65 @@
     </row>
     <row r="168" spans="6:9">
       <c r="F168" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G168" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="6:9">
+      <c r="F169" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G169" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="I168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="6:9">
-      <c r="F169" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G169" s="11" t="s">
+      <c r="I169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="6:9">
+      <c r="F170" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G170" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="I169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="6:9">
-      <c r="F170" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G170" s="11" t="s">
+      <c r="I170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="6:9">
+      <c r="F171" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G171" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="I170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="6:9">
-      <c r="F171" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G171" s="11" t="s">
+      <c r="I171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="6:9">
+      <c r="F172" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G172" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="I171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="6:9">
-      <c r="F172" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G172" s="11" t="s">
-        <v>48</v>
-      </c>
       <c r="I172">
         <v>1</v>
       </c>
     </row>
     <row r="173" spans="6:9">
-      <c r="F173" s="7" t="s">
-        <v>101</v>
+      <c r="F173" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="G173" s="11" t="s">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="I173">
         <v>1</v>
@@ -6999,10 +6401,10 @@
     </row>
     <row r="174" spans="6:9">
       <c r="F174" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G174" s="11" t="s">
-        <v>300</v>
+        <v>223</v>
       </c>
       <c r="I174">
         <v>1</v>
@@ -7010,21 +6412,21 @@
     </row>
     <row r="175" spans="6:9">
       <c r="F175" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G175" s="11" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="6:9">
       <c r="F176" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G176" s="11" t="s">
-        <v>188</v>
+        <v>297</v>
       </c>
       <c r="I176">
         <v>1</v>
@@ -7032,10 +6434,10 @@
     </row>
     <row r="177" spans="6:9">
       <c r="F177" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G177" s="11" t="s">
-        <v>51</v>
+        <v>298</v>
       </c>
       <c r="I177">
         <v>1</v>
@@ -7043,10 +6445,10 @@
     </row>
     <row r="178" spans="6:9">
       <c r="F178" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G178" s="11" t="s">
-        <v>302</v>
+        <v>48</v>
       </c>
       <c r="I178">
         <v>1</v>
@@ -7054,10 +6456,10 @@
     </row>
     <row r="179" spans="6:9">
       <c r="F179" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G179" s="11" t="s">
-        <v>54</v>
+        <v>299</v>
       </c>
       <c r="I179">
         <v>1</v>
@@ -7065,10 +6467,10 @@
     </row>
     <row r="180" spans="6:9">
       <c r="F180" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G180" s="11" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="I180">
         <v>1</v>
@@ -7076,120 +6478,120 @@
     </row>
     <row r="181" spans="6:9">
       <c r="F181" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G181" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="6:9">
       <c r="F182" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G182" s="11" t="s">
-        <v>304</v>
+        <v>188</v>
       </c>
       <c r="I182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="6:9">
       <c r="F183" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G183" s="11" t="s">
-        <v>305</v>
+        <v>51</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="6:9">
       <c r="F184" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G184" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="6:9">
+      <c r="F185" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G185" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="6:9">
+      <c r="F186" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G184" s="11" t="s">
+      <c r="G186" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="6:9">
+      <c r="F187" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G187" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="6:9">
+      <c r="F188" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G188" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="6:9">
+      <c r="F189" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G189" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="6:9">
+      <c r="F190" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G190" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="6:9">
-      <c r="F185" s="12" t="s">
+      <c r="I190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="6:9">
+      <c r="F191" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G185" s="11" t="s">
+      <c r="G191" s="11" t="s">
         <v>306</v>
-      </c>
-      <c r="I185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="6:9">
-      <c r="F186" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G186" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="6:9">
-      <c r="F187" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G187" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="I187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="6:9">
-      <c r="F188" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G188" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="I188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="6:9">
-      <c r="F189" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G189" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="6:9">
-      <c r="F190" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G190" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="I190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="6:9">
-      <c r="F191" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G191" s="11" t="s">
-        <v>64</v>
       </c>
       <c r="I191">
         <v>1</v>
@@ -7197,43 +6599,43 @@
     </row>
     <row r="192" spans="6:9">
       <c r="F192" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="G192" s="11" t="s">
-        <v>309</v>
+        <v>105</v>
+      </c>
+      <c r="G192" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="I192">
         <v>1</v>
       </c>
     </row>
     <row r="193" spans="6:9">
-      <c r="F193" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="G193" s="12" t="s">
-        <v>65</v>
+      <c r="F193" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G193" s="11" t="s">
+        <v>306</v>
       </c>
       <c r="I193">
         <v>1</v>
       </c>
     </row>
     <row r="194" spans="6:9">
-      <c r="F194" s="12" t="s">
-        <v>109</v>
+      <c r="F194" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="G194" s="11" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I194">
         <v>1</v>
       </c>
     </row>
     <row r="195" spans="6:9">
-      <c r="F195" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G195" s="12" t="s">
-        <v>68</v>
+      <c r="F195" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G195" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="I195">
         <v>1</v>
@@ -7241,10 +6643,10 @@
     </row>
     <row r="196" spans="6:9">
       <c r="F196" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G196" s="11" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I196">
         <v>1</v>
@@ -7252,54 +6654,54 @@
     </row>
     <row r="197" spans="6:9">
       <c r="F197" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G197" s="11" t="s">
-        <v>312</v>
+        <v>64</v>
       </c>
       <c r="I197">
         <v>1</v>
       </c>
     </row>
     <row r="198" spans="6:9">
-      <c r="F198" s="8" t="s">
-        <v>110</v>
+      <c r="F198" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="G198" s="11" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I198">
         <v>1</v>
       </c>
     </row>
     <row r="199" spans="6:9">
-      <c r="F199" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="G199" s="11" t="s">
-        <v>314</v>
+      <c r="F199" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G199" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="I199">
         <v>1</v>
       </c>
     </row>
     <row r="200" spans="6:9">
-      <c r="F200" s="8" t="s">
-        <v>110</v>
+      <c r="F200" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="G200" s="11" t="s">
-        <v>71</v>
+        <v>310</v>
       </c>
       <c r="I200">
         <v>1</v>
       </c>
     </row>
     <row r="201" spans="6:9">
-      <c r="F201" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G201" s="11" t="s">
-        <v>310</v>
+      <c r="F201" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G201" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="I201">
         <v>1</v>
@@ -7307,10 +6709,10 @@
     </row>
     <row r="202" spans="6:9">
       <c r="F202" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G202" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I202">
         <v>1</v>
@@ -7318,10 +6720,10 @@
     </row>
     <row r="203" spans="6:9">
       <c r="F203" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G203" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I203">
         <v>1</v>
@@ -7329,10 +6731,10 @@
     </row>
     <row r="204" spans="6:9">
       <c r="F204" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G204" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I204">
         <v>1</v>
@@ -7340,7 +6742,7 @@
     </row>
     <row r="205" spans="6:9">
       <c r="F205" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G205" s="11" t="s">
         <v>314</v>
@@ -7351,10 +6753,10 @@
     </row>
     <row r="206" spans="6:9">
       <c r="F206" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G206" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I206">
         <v>1</v>
@@ -7362,10 +6764,10 @@
     </row>
     <row r="207" spans="6:9">
       <c r="F207" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G207" s="11" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I207">
         <v>1</v>
@@ -7373,10 +6775,10 @@
     </row>
     <row r="208" spans="6:9">
       <c r="F208" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G208" s="11" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="I208">
         <v>1</v>
@@ -7384,10 +6786,10 @@
     </row>
     <row r="209" spans="6:9">
       <c r="F209" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G209" s="11" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="I209">
         <v>1</v>
@@ -7395,10 +6797,10 @@
     </row>
     <row r="210" spans="6:9">
       <c r="F210" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G210" s="11" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I210">
         <v>1</v>
@@ -7406,73 +6808,140 @@
     </row>
     <row r="211" spans="6:9">
       <c r="F211" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G211" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="6:9">
+      <c r="F212" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G212" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="6:9">
+      <c r="F213" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G211" s="11" t="s">
+      <c r="G213" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="6:9">
+      <c r="F214" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G214" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="6:9">
+      <c r="F215" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G215" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="6:9">
+      <c r="F216" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G216" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="6:9">
+      <c r="F217" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G217" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="6:9">
-      <c r="F212" s="12" t="s">
+      <c r="I217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="6:9">
+      <c r="F218" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G212" s="11" t="s">
+      <c r="G218" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="I212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="6:9">
-      <c r="F213" s="12" t="s">
+      <c r="I218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="6:9">
+      <c r="F219" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G213" s="11" t="s">
+      <c r="G219" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="I213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="6:9">
-      <c r="F214" s="12" t="s">
+      <c r="I219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="6:9">
+      <c r="F220" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G214" s="11" t="s">
+      <c r="G220" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="I214">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="6:9">
-      <c r="F215" s="12" t="s">
+      <c r="I220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="6:9">
+      <c r="F221" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G215" s="11" t="s">
+      <c r="G221" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="I215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="6:9">
-      <c r="F216" s="12" t="s">
+      <c r="I221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="6:9">
+      <c r="F222" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G216" t="s">
+      <c r="G222" t="s">
         <v>80</v>
       </c>
-      <c r="I216">
+      <c r="I222">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -7481,24 +6950,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D7:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="E13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="28.4444444444444" customWidth="1"/>
-    <col min="5" max="5" width="18.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="41" customWidth="1"/>
-    <col min="7" max="7" width="64.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="16.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="64.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="13.95" customHeight="1" spans="4:8">
+    <row r="7" spans="4:8" ht="13.9" customHeight="1">
       <c r="D7" s="5" t="s">
         <v>324</v>
       </c>
@@ -7515,7 +6983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="13.95" customHeight="1" spans="4:7">
+    <row r="8" spans="4:8" ht="13.9" customHeight="1">
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
@@ -7525,7 +6993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="13.95" customHeight="1" spans="4:7">
+    <row r="9" spans="4:8" ht="13.9" customHeight="1">
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
@@ -7535,7 +7003,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" ht="13.95" customHeight="1" spans="4:7">
+    <row r="10" spans="4:8" ht="13.9" customHeight="1">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
@@ -7545,7 +7013,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" ht="13.95" customHeight="1" spans="4:7">
+    <row r="11" spans="4:8" ht="13.9" customHeight="1">
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
@@ -7555,7 +7023,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" ht="13.95" customHeight="1" spans="4:7">
+    <row r="12" spans="4:8" ht="13.9" customHeight="1">
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
@@ -7565,7 +7033,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="6:7">
+    <row r="13" spans="4:8">
       <c r="F13" t="s">
         <v>327</v>
       </c>
@@ -7573,7 +7041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="6:7">
+    <row r="14" spans="4:8">
       <c r="F14" t="s">
         <v>327</v>
       </c>
@@ -7581,7 +7049,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="6:7">
+    <row r="15" spans="4:8">
       <c r="F15" t="s">
         <v>327</v>
       </c>
@@ -7589,7 +7057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="6:7">
+    <row r="16" spans="4:8">
       <c r="F16" t="s">
         <v>327</v>
       </c>
@@ -7758,34 +7226,33 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="D7:R14"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5555555555556" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.3333333333333" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.3333333333333" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.4444444444444" style="3" customWidth="1"/>
-    <col min="7" max="8" width="23.6666666666667" style="3" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="23.7109375" style="3" customWidth="1"/>
     <col min="9" max="10" width="24" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.4444444444444" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.5555555555556" style="3" customWidth="1"/>
-    <col min="13" max="13" width="28.5555555555556" style="3" customWidth="1"/>
-    <col min="14" max="17" width="11.5555555555556" style="3" customWidth="1"/>
-    <col min="18" max="18" width="46.4444444444444" style="3" customWidth="1"/>
-    <col min="19" max="1025" width="11.5555555555556" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="28.5703125" style="3" customWidth="1"/>
+    <col min="14" max="17" width="11.5703125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="46.42578125" style="3" customWidth="1"/>
+    <col min="19" max="1025" width="11.5703125" style="3" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -7836,7 +7303,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="8" spans="5:17">
+    <row r="8" spans="4:18">
       <c r="E8" s="3" t="s">
         <v>337</v>
       </c>
@@ -7877,7 +7344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="5:17">
+    <row r="9" spans="4:18">
       <c r="E9" s="3" t="s">
         <v>340</v>
       </c>
@@ -7918,7 +7385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="5:17">
+    <row r="10" spans="4:18">
       <c r="E10" s="3" t="s">
         <v>343</v>
       </c>
@@ -7959,7 +7426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="5:17">
+    <row r="11" spans="4:18">
       <c r="E11" s="3" t="s">
         <v>345</v>
       </c>
@@ -8000,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="5:17">
+    <row r="12" spans="4:18">
       <c r="E12" s="3" t="s">
         <v>348</v>
       </c>
@@ -8041,7 +7508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="5:18">
+    <row r="13" spans="4:18">
       <c r="E13" s="3" t="s">
         <v>351</v>
       </c>
@@ -8085,7 +7552,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="14" spans="5:18">
+    <row r="14" spans="4:18">
       <c r="E14" s="3" t="s">
         <v>355</v>
       </c>
@@ -8130,28 +7597,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="122" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="D7:K16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="12.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="16.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="15.4444444444444" customWidth="1"/>
-    <col min="10" max="10" width="31.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:11">
@@ -8180,7 +7646,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="8" spans="6:11">
+    <row r="8" spans="4:11" ht="12.75">
       <c r="F8" t="s">
         <v>364</v>
       </c>
@@ -8200,7 +7666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="6:11">
+    <row r="9" spans="4:11" ht="12.75">
       <c r="F9" t="s">
         <v>364</v>
       </c>
@@ -8220,7 +7686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="6:11">
+    <row r="10" spans="4:11" ht="12.75">
       <c r="F10" t="s">
         <v>364</v>
       </c>
@@ -8240,7 +7706,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="6:11">
+    <row r="11" spans="4:11" ht="12.75">
       <c r="F11" t="s">
         <v>364</v>
       </c>
@@ -8260,7 +7726,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="6:11">
+    <row r="12" spans="4:11" ht="12.75">
       <c r="F12" t="s">
         <v>364</v>
       </c>
@@ -8280,7 +7746,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="6:11">
+    <row r="13" spans="4:11" ht="12.75">
       <c r="F13" t="s">
         <v>364</v>
       </c>
@@ -8300,7 +7766,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="6:11">
+    <row r="14" spans="4:11" ht="12.75">
       <c r="F14" t="s">
         <v>364</v>
       </c>
@@ -8320,7 +7786,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="6:11">
+    <row r="15" spans="4:11" ht="12.75">
       <c r="F15" t="s">
         <v>364</v>
       </c>
@@ -8340,7 +7806,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="6:11">
+    <row r="16" spans="4:11" ht="12.75">
       <c r="F16" t="s">
         <v>364</v>
       </c>
@@ -8361,8 +7827,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="122" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="122" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2019work\agile-service\src\main\resources\script\meta\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52913BC7-F6E2-4FE2-8E07-C086DCEBAA26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="1000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9347" tabRatio="1000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -22,14 +16,14 @@
     <sheet name="FD_REPORT" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">IAM_MENU_PERMISSION!$I$1:$I$222</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">IAM_MENU_PERMISSION!$I$1:$I$223</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="407">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -610,6 +604,12 @@
     <t>agile-service.board.createScrumBoard</t>
   </si>
   <si>
+    <t>agile-service.board.updateScrumBoard</t>
+  </si>
+  <si>
+    <t>agile-service.board-column.updateColumnContraint</t>
+  </si>
+  <si>
     <t>agile-service.board.move</t>
   </si>
   <si>
@@ -619,6 +619,12 @@
     <t>agile-service.board-column.updateBoardColumn</t>
   </si>
   <si>
+    <t>agile-service.work-calendar-ref.deleteProjectWorkCalendarRef</t>
+  </si>
+  <si>
+    <t>agile-service.work-calendar-ref.createSprintWorkCalendarRef</t>
+  </si>
+  <si>
     <t>agile-service.issue-status.createStatus</t>
   </si>
   <si>
@@ -631,9 +637,15 @@
     <t>agile-service.board-column.columnSortByProgram</t>
   </si>
   <si>
+    <t>agile-service.issue-status.moveStatusToUnCorrespond</t>
+  </si>
+  <si>
     <t>agile-service.issue-status.moveStatusToColumn</t>
   </si>
   <si>
+    <t>agile-service.board-column.deleteBoardColumn</t>
+  </si>
+  <si>
     <t>agile-service.project-info.updateProjectInfo</t>
   </si>
   <si>
@@ -877,6 +889,9 @@
     <t>agile-service.personal-filter.deleteById</t>
   </si>
   <si>
+    <t>agile-service.field-value.batchUpdateFieldsValue</t>
+  </si>
+  <si>
     <t>agile-service.product-version.releaseVersion</t>
   </si>
   <si>
@@ -1229,37 +1244,19 @@
   </si>
   <si>
     <t>/agile/reporthost/versionBurndown</t>
-  </si>
-  <si>
-    <t>agile-service.board.updateScrumBoard</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>agile-service.work-calendar-ref.deleteProjectWorkCalendarRef</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>agile-service.work-calendar-ref.createSprintWorkCalendarRef</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>agile-service.board-column.updateColumnContraint</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>agile-service.issue-status.moveStatusToUnCorrespond</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>agile-service.board-column.deleteBoardColumn</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1269,12 +1266,11 @@
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Consolas"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1315,13 +1311,13 @@
       <sz val="10"/>
       <color theme="9"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF494949"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1336,21 +1332,352 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1358,9 +1685,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1382,17 +1951,61 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1677,37 +2290,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:O31"/>
   <sheetViews>
     <sheetView topLeftCell="G13" workbookViewId="0">
       <selection activeCell="J21" sqref="J21:N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" customWidth="1"/>
+    <col min="1" max="3" width="11.5740740740741" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="57.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.5740740740741" customWidth="1"/>
+    <col min="6" max="6" width="57.4259259259259" customWidth="1"/>
+    <col min="7" max="7" width="23.5740740740741" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.287037037037" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.287037037037" customWidth="1"/>
+    <col min="13" max="13" width="18.5740740740741" customWidth="1"/>
+    <col min="14" max="14" width="19.4259259259259" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.5703125" customWidth="1"/>
+    <col min="16" max="1025" width="11.5740740740741" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1" spans="4:15">
       <c r="D7" s="5" t="s">
         <v>0</v>
       </c>
@@ -1745,7 +2358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:15">
+    <row r="8" spans="6:14">
       <c r="F8" t="s">
         <v>12</v>
       </c>
@@ -1774,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:15">
+    <row r="9" spans="6:14">
       <c r="F9" t="s">
         <v>18</v>
       </c>
@@ -1803,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:15">
+    <row r="10" spans="6:14">
       <c r="F10" t="s">
         <v>21</v>
       </c>
@@ -1832,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:15">
+    <row r="11" spans="6:14">
       <c r="F11" s="6" t="s">
         <v>24</v>
       </c>
@@ -1861,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:15">
+    <row r="12" spans="6:14">
       <c r="F12" s="6" t="s">
         <v>27</v>
       </c>
@@ -1890,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:15">
+    <row r="13" spans="6:14">
       <c r="F13" s="6" t="s">
         <v>30</v>
       </c>
@@ -1919,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:15">
+    <row r="14" spans="6:14">
       <c r="F14" t="s">
         <v>33</v>
       </c>
@@ -1948,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:15">
+    <row r="15" spans="6:14">
       <c r="F15" s="12" t="s">
         <v>36</v>
       </c>
@@ -1977,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:15">
+    <row r="16" spans="6:14">
       <c r="F16" s="7" t="s">
         <v>39</v>
       </c>
@@ -2151,7 +2764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="6:14" ht="18" customHeight="1">
+    <row r="22" ht="18" customHeight="1" spans="6:14">
       <c r="F22" s="7" t="s">
         <v>57</v>
       </c>
@@ -2442,9 +3055,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -2453,26 +3065,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:I104"/>
   <sheetViews>
-    <sheetView topLeftCell="D20" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView zoomScale="118" zoomScaleNormal="118" topLeftCell="D20" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1"/>
-    <col min="7" max="7" width="51.42578125" customWidth="1"/>
-    <col min="8" max="8" width="58.42578125" customWidth="1"/>
-    <col min="9" max="9" width="31.28515625" customWidth="1"/>
-    <col min="10" max="1026" width="11.5703125" customWidth="1"/>
+    <col min="1" max="3" width="11.5740740740741" customWidth="1"/>
+    <col min="4" max="4" width="23.712962962963" customWidth="1"/>
+    <col min="5" max="5" width="11.5740740740741" customWidth="1"/>
+    <col min="6" max="6" width="30.287037037037" customWidth="1"/>
+    <col min="7" max="7" width="51.4259259259259" customWidth="1"/>
+    <col min="8" max="8" width="58.4259259259259" customWidth="1"/>
+    <col min="9" max="9" width="31.287037037037" customWidth="1"/>
+    <col min="10" max="1026" width="11.5740740740741" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1" spans="4:9">
       <c r="D7" s="15" t="s">
         <v>83</v>
       </c>
@@ -2492,7 +3105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:9" ht="12.75" customHeight="1">
+    <row r="8" ht="12.75" customHeight="1" spans="4:9">
       <c r="D8" s="15"/>
       <c r="E8" s="5"/>
       <c r="F8" s="15" t="s">
@@ -2506,7 +3119,7 @@
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="4:9" ht="12.75" customHeight="1">
+    <row r="9" ht="12.75" customHeight="1" spans="4:9">
       <c r="D9" s="15"/>
       <c r="E9" s="5"/>
       <c r="F9" s="15" t="s">
@@ -2520,7 +3133,7 @@
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="4:9" ht="12.75" customHeight="1">
+    <row r="10" ht="12.75" customHeight="1" spans="4:9">
       <c r="D10" s="15"/>
       <c r="E10" s="5"/>
       <c r="F10" s="15" t="s">
@@ -2534,7 +3147,7 @@
       </c>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="4:9" ht="12.75" customHeight="1">
+    <row r="11" ht="12.75" customHeight="1" spans="4:9">
       <c r="D11" s="15"/>
       <c r="E11" s="5"/>
       <c r="F11" s="15" t="s">
@@ -2548,7 +3161,7 @@
       </c>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="4:9" ht="12.75" customHeight="1">
+    <row r="12" ht="12.75" customHeight="1" spans="4:9">
       <c r="D12" s="15"/>
       <c r="E12" s="5"/>
       <c r="F12" s="15" t="s">
@@ -2562,7 +3175,7 @@
       </c>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="4:9" ht="12.75" customHeight="1">
+    <row r="13" ht="12.75" customHeight="1" spans="4:9">
       <c r="D13" s="15"/>
       <c r="E13" s="5"/>
       <c r="F13" s="15" t="s">
@@ -2576,7 +3189,7 @@
       </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="4:9" ht="12.75" customHeight="1">
+    <row r="14" ht="12.75" customHeight="1" spans="4:9">
       <c r="D14" s="15"/>
       <c r="E14" s="5"/>
       <c r="F14" s="15" t="s">
@@ -2590,42 +3203,42 @@
       </c>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="4:9" ht="12.75" customHeight="1">
+    <row r="15" ht="12.75" customHeight="1" spans="4:9">
       <c r="D15" s="15"/>
       <c r="E15" s="5"/>
       <c r="F15" s="15"/>
       <c r="G15" s="16"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="4:9" ht="12.75" customHeight="1">
+    <row r="16" ht="12.75" customHeight="1" spans="4:9">
       <c r="D16" s="15"/>
       <c r="E16" s="5"/>
       <c r="F16" s="15"/>
       <c r="G16" s="16"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="4:9" ht="12.75" customHeight="1">
+    <row r="17" ht="12.75" customHeight="1" spans="4:9">
       <c r="D17" s="15"/>
       <c r="E17" s="5"/>
       <c r="F17" s="15"/>
       <c r="G17" s="16"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="4:9" ht="12.75" customHeight="1">
+    <row r="18" ht="12.75" customHeight="1" spans="4:9">
       <c r="D18" s="15"/>
       <c r="E18" s="5"/>
       <c r="F18" s="15"/>
       <c r="G18" s="16"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="4:9" ht="12.75" customHeight="1">
+    <row r="19" ht="12.75" customHeight="1" spans="4:9">
       <c r="D19" s="15"/>
       <c r="E19" s="5"/>
       <c r="F19" s="15"/>
       <c r="G19" s="16"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="4:9" ht="12.75" customHeight="1">
+    <row r="20" ht="12.75" customHeight="1" spans="4:9">
       <c r="D20" s="15"/>
       <c r="E20" s="5"/>
       <c r="F20" s="15" t="s">
@@ -2639,7 +3252,7 @@
       </c>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="4:9" ht="12.75" customHeight="1">
+    <row r="21" ht="12.75" customHeight="1" spans="4:9">
       <c r="D21" s="15"/>
       <c r="E21" s="5"/>
       <c r="F21" s="15" t="s">
@@ -2653,7 +3266,7 @@
       </c>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="4:9" ht="12.75" customHeight="1">
+    <row r="22" ht="12.75" customHeight="1" spans="4:9">
       <c r="D22" s="15"/>
       <c r="E22" s="5"/>
       <c r="F22" s="15" t="s">
@@ -2667,7 +3280,7 @@
       </c>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="4:9" ht="12.75" customHeight="1">
+    <row r="23" ht="12.75" customHeight="1" spans="4:9">
       <c r="D23" s="15"/>
       <c r="E23" s="5"/>
       <c r="F23" s="15" t="s">
@@ -2681,7 +3294,7 @@
       </c>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="4:9" ht="12.75" customHeight="1">
+    <row r="24" ht="12.75" customHeight="1" spans="4:9">
       <c r="D24" s="15"/>
       <c r="E24" s="5"/>
       <c r="F24" s="15" t="s">
@@ -2695,7 +3308,7 @@
       </c>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="4:9" ht="12.75" customHeight="1">
+    <row r="25" ht="12.75" customHeight="1" spans="4:9">
       <c r="D25" s="15"/>
       <c r="E25" s="5"/>
       <c r="F25" s="15" t="s">
@@ -2709,7 +3322,7 @@
       </c>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="4:9" ht="12.75" customHeight="1">
+    <row r="26" ht="12.75" customHeight="1" spans="4:9">
       <c r="D26" s="15"/>
       <c r="E26" s="5"/>
       <c r="F26" s="15" t="s">
@@ -2723,7 +3336,7 @@
       </c>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="4:9" ht="12.75" customHeight="1">
+    <row r="27" ht="12.75" customHeight="1" spans="4:9">
       <c r="D27" s="15"/>
       <c r="E27" s="5"/>
       <c r="F27" s="15" t="s">
@@ -2737,7 +3350,7 @@
       </c>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="4:9" ht="12.75" customHeight="1">
+    <row r="28" ht="12.75" customHeight="1" spans="4:9">
       <c r="D28" s="15"/>
       <c r="E28" s="5"/>
       <c r="F28" s="15" t="s">
@@ -2751,7 +3364,7 @@
       </c>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="4:9" ht="12.75" customHeight="1">
+    <row r="29" ht="12.75" customHeight="1" spans="4:9">
       <c r="D29" s="15"/>
       <c r="E29" s="5"/>
       <c r="F29" s="15" t="s">
@@ -2765,7 +3378,7 @@
       </c>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="4:9" ht="12.75" customHeight="1">
+    <row r="30" ht="12.75" customHeight="1" spans="4:9">
       <c r="D30" s="15"/>
       <c r="E30" s="5"/>
       <c r="F30" s="15" t="s">
@@ -2779,7 +3392,7 @@
       </c>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="4:9" ht="12.75" customHeight="1">
+    <row r="31" ht="12.75" customHeight="1" spans="4:9">
       <c r="D31" s="15"/>
       <c r="E31" s="5"/>
       <c r="F31" s="15" t="s">
@@ -2793,7 +3406,7 @@
       </c>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="4:9" ht="12.75" customHeight="1">
+    <row r="32" ht="12.75" customHeight="1" spans="4:9">
       <c r="D32" s="15"/>
       <c r="E32" s="5"/>
       <c r="F32" s="15" t="s">
@@ -2807,7 +3420,7 @@
       </c>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="4:9" ht="12.75" customHeight="1">
+    <row r="33" ht="12.75" customHeight="1" spans="4:9">
       <c r="D33" s="15"/>
       <c r="E33" s="5"/>
       <c r="F33" s="15" t="s">
@@ -2821,7 +3434,7 @@
       </c>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="4:9" ht="12.75" customHeight="1">
+    <row r="34" ht="12.75" customHeight="1" spans="4:9">
       <c r="D34" s="15"/>
       <c r="E34" s="5"/>
       <c r="F34" s="15" t="s">
@@ -2835,7 +3448,7 @@
       </c>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="4:9" ht="12.75" customHeight="1">
+    <row r="35" ht="12.75" customHeight="1" spans="4:9">
       <c r="D35" s="15"/>
       <c r="E35" s="5"/>
       <c r="F35" s="15" t="s">
@@ -2849,7 +3462,7 @@
       </c>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="4:9" ht="12.75" customHeight="1">
+    <row r="36" ht="12.75" customHeight="1" spans="4:9">
       <c r="D36" s="15"/>
       <c r="E36" s="5"/>
       <c r="F36" s="15" t="s">
@@ -2863,7 +3476,7 @@
       </c>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="4:9" ht="12.75" customHeight="1">
+    <row r="37" ht="12.75" customHeight="1" spans="4:9">
       <c r="D37" s="15"/>
       <c r="E37" s="5"/>
       <c r="F37" s="15" t="s">
@@ -2877,7 +3490,7 @@
       </c>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="4:9" ht="12.75" customHeight="1">
+    <row r="38" ht="12.75" customHeight="1" spans="4:9">
       <c r="D38" s="15"/>
       <c r="E38" s="5"/>
       <c r="F38" s="15" t="s">
@@ -2891,7 +3504,7 @@
       </c>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="4:9" ht="12.75" customHeight="1">
+    <row r="39" ht="12.75" customHeight="1" spans="4:9">
       <c r="D39" s="15"/>
       <c r="E39" s="5"/>
       <c r="F39" s="15" t="s">
@@ -2905,7 +3518,7 @@
       </c>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="4:9" ht="12.75" customHeight="1">
+    <row r="40" ht="12.75" customHeight="1" spans="4:9">
       <c r="D40" s="15"/>
       <c r="E40" s="5"/>
       <c r="F40" s="15" t="s">
@@ -2919,7 +3532,7 @@
       </c>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="4:9" ht="12.75" customHeight="1">
+    <row r="41" ht="12.75" customHeight="1" spans="4:9">
       <c r="D41" s="15"/>
       <c r="E41" s="5"/>
       <c r="F41" s="15" t="s">
@@ -2933,7 +3546,7 @@
       </c>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="4:9" ht="12.75" customHeight="1">
+    <row r="42" ht="12.75" customHeight="1" spans="4:9">
       <c r="D42" s="15"/>
       <c r="E42" s="5"/>
       <c r="F42" s="15" t="s">
@@ -2947,7 +3560,7 @@
       </c>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="4:9" ht="12.75" customHeight="1">
+    <row r="43" ht="12.75" customHeight="1" spans="4:9">
       <c r="D43" s="15"/>
       <c r="E43" s="5"/>
       <c r="F43" s="15" t="s">
@@ -2961,7 +3574,7 @@
       </c>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="4:9" ht="12.75" customHeight="1">
+    <row r="44" ht="12.75" customHeight="1" spans="4:9">
       <c r="D44" s="15"/>
       <c r="E44" s="5"/>
       <c r="F44" s="15" t="s">
@@ -2975,7 +3588,7 @@
       </c>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="4:9" ht="12.75" customHeight="1">
+    <row r="45" ht="12.75" customHeight="1" spans="4:9">
       <c r="D45" s="15"/>
       <c r="E45" s="5"/>
       <c r="F45" s="15" t="s">
@@ -2989,7 +3602,7 @@
       </c>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="4:9" ht="12.75" customHeight="1">
+    <row r="46" ht="12.75" customHeight="1" spans="4:9">
       <c r="D46" s="15"/>
       <c r="E46" s="5"/>
       <c r="F46" s="15" t="s">
@@ -3003,7 +3616,7 @@
       </c>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="4:9" ht="12.75" customHeight="1">
+    <row r="47" ht="12.75" customHeight="1" spans="4:9">
       <c r="D47" s="15"/>
       <c r="E47" s="5"/>
       <c r="F47" s="15" t="s">
@@ -3017,7 +3630,7 @@
       </c>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="4:9" ht="12.75" customHeight="1">
+    <row r="48" ht="12.75" customHeight="1" spans="4:9">
       <c r="D48" s="15"/>
       <c r="E48" s="5"/>
       <c r="F48" s="15" t="s">
@@ -3031,7 +3644,7 @@
       </c>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="4:9" ht="12.75" customHeight="1">
+    <row r="49" ht="12.75" customHeight="1" spans="4:9">
       <c r="D49" s="15"/>
       <c r="E49" s="5"/>
       <c r="F49" s="15" t="s">
@@ -3045,7 +3658,7 @@
       </c>
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="4:9" ht="12.75" customHeight="1">
+    <row r="50" ht="12.75" customHeight="1" spans="4:9">
       <c r="D50" s="15"/>
       <c r="E50" s="5"/>
       <c r="F50" s="15" t="s">
@@ -3059,7 +3672,7 @@
       </c>
       <c r="I50" s="5"/>
     </row>
-    <row r="51" spans="4:9" ht="12.75" customHeight="1">
+    <row r="51" ht="12.75" customHeight="1" spans="4:9">
       <c r="D51" s="15"/>
       <c r="E51" s="5"/>
       <c r="F51" s="15" t="s">
@@ -3073,7 +3686,7 @@
       </c>
       <c r="I51" s="5"/>
     </row>
-    <row r="52" spans="4:9" ht="12.75" customHeight="1">
+    <row r="52" ht="12.75" customHeight="1" spans="4:9">
       <c r="D52" s="15"/>
       <c r="E52" s="5"/>
       <c r="F52" s="15" t="s">
@@ -3087,7 +3700,7 @@
       </c>
       <c r="I52" s="5"/>
     </row>
-    <row r="53" spans="4:9" ht="12.75" customHeight="1">
+    <row r="53" ht="12.75" customHeight="1" spans="4:9">
       <c r="D53" s="15"/>
       <c r="E53" s="5"/>
       <c r="F53" s="15" t="s">
@@ -3101,7 +3714,7 @@
       </c>
       <c r="I53" s="5"/>
     </row>
-    <row r="54" spans="4:9" ht="12.75" customHeight="1">
+    <row r="54" ht="12.75" customHeight="1" spans="4:9">
       <c r="D54" s="15"/>
       <c r="E54" s="5"/>
       <c r="F54" s="15" t="s">
@@ -3115,7 +3728,7 @@
       </c>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="4:9" ht="12.75" customHeight="1">
+    <row r="55" ht="12.75" customHeight="1" spans="4:9">
       <c r="D55" s="15"/>
       <c r="E55" s="5"/>
       <c r="F55" s="15" t="s">
@@ -3129,7 +3742,7 @@
       </c>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="4:9" ht="12.75" customHeight="1">
+    <row r="56" ht="12.75" customHeight="1" spans="4:9">
       <c r="D56" s="15"/>
       <c r="E56" s="5"/>
       <c r="F56" s="15" t="s">
@@ -3143,7 +3756,7 @@
       </c>
       <c r="I56" s="5"/>
     </row>
-    <row r="57" spans="4:9" ht="12.75" customHeight="1">
+    <row r="57" ht="12.75" customHeight="1" spans="4:9">
       <c r="D57" s="15"/>
       <c r="E57" s="5"/>
       <c r="F57" s="15" t="s">
@@ -3157,7 +3770,7 @@
       </c>
       <c r="I57" s="5"/>
     </row>
-    <row r="58" spans="4:9" ht="12.75" customHeight="1">
+    <row r="58" ht="12.75" customHeight="1" spans="4:9">
       <c r="D58" s="15"/>
       <c r="E58" s="5"/>
       <c r="F58" s="15" t="s">
@@ -3171,7 +3784,7 @@
       </c>
       <c r="I58" s="5"/>
     </row>
-    <row r="59" spans="4:9" ht="12.75" customHeight="1">
+    <row r="59" ht="12.75" customHeight="1" spans="4:9">
       <c r="D59" s="15"/>
       <c r="E59" s="5"/>
       <c r="F59" s="15" t="s">
@@ -3185,7 +3798,7 @@
       </c>
       <c r="I59" s="5"/>
     </row>
-    <row r="60" spans="4:9" ht="12.75" customHeight="1">
+    <row r="60" ht="12.75" customHeight="1" spans="4:9">
       <c r="D60" s="15"/>
       <c r="E60" s="5"/>
       <c r="F60" s="15" t="s">
@@ -3199,7 +3812,7 @@
       </c>
       <c r="I60" s="5"/>
     </row>
-    <row r="61" spans="4:9" ht="12.75" customHeight="1">
+    <row r="61" ht="12.75" customHeight="1" spans="4:9">
       <c r="D61" s="15"/>
       <c r="E61" s="5"/>
       <c r="F61" s="15" t="s">
@@ -3213,7 +3826,7 @@
       </c>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" spans="4:9" ht="12.75" customHeight="1">
+    <row r="62" ht="12.75" customHeight="1" spans="4:9">
       <c r="D62" s="15"/>
       <c r="E62" s="5"/>
       <c r="F62" s="15" t="s">
@@ -3227,7 +3840,7 @@
       </c>
       <c r="I62" s="5"/>
     </row>
-    <row r="63" spans="4:9" ht="12.75" customHeight="1">
+    <row r="63" ht="12.75" customHeight="1" spans="4:9">
       <c r="D63" s="15"/>
       <c r="E63" s="5"/>
       <c r="F63" s="15" t="s">
@@ -3241,7 +3854,7 @@
       </c>
       <c r="I63" s="5"/>
     </row>
-    <row r="64" spans="4:9" ht="12.75" customHeight="1">
+    <row r="64" ht="12.75" customHeight="1" spans="4:9">
       <c r="D64" s="15"/>
       <c r="E64" s="5"/>
       <c r="F64" s="15" t="s">
@@ -3255,7 +3868,7 @@
       </c>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" spans="4:9" ht="12.75" customHeight="1">
+    <row r="65" ht="12.75" customHeight="1" spans="4:9">
       <c r="D65" s="15"/>
       <c r="E65" s="5"/>
       <c r="F65" s="15" t="s">
@@ -3269,7 +3882,7 @@
       </c>
       <c r="I65" s="5"/>
     </row>
-    <row r="66" spans="4:9" ht="12.75" customHeight="1">
+    <row r="66" ht="12.75" customHeight="1" spans="4:9">
       <c r="D66" s="15"/>
       <c r="E66" s="5"/>
       <c r="F66" s="15" t="s">
@@ -3283,7 +3896,7 @@
       </c>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" spans="4:9" ht="12.75" customHeight="1">
+    <row r="67" ht="12.75" customHeight="1" spans="4:9">
       <c r="D67" s="15"/>
       <c r="E67" s="5"/>
       <c r="F67" s="15" t="s">
@@ -3297,7 +3910,7 @@
       </c>
       <c r="I67" s="5"/>
     </row>
-    <row r="68" spans="4:9" ht="12.75" customHeight="1">
+    <row r="68" ht="12.75" customHeight="1" spans="4:9">
       <c r="D68" s="15"/>
       <c r="E68" s="5"/>
       <c r="F68" s="15" t="s">
@@ -3311,7 +3924,7 @@
       </c>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" spans="4:9" ht="12.75" customHeight="1">
+    <row r="69" ht="12.75" customHeight="1" spans="4:9">
       <c r="D69" s="15"/>
       <c r="E69" s="5"/>
       <c r="F69" s="15" t="s">
@@ -3325,7 +3938,7 @@
       </c>
       <c r="I69" s="5"/>
     </row>
-    <row r="70" spans="4:9" ht="12.75" customHeight="1">
+    <row r="70" ht="12.75" customHeight="1" spans="4:9">
       <c r="D70" s="15"/>
       <c r="E70" s="5"/>
       <c r="F70" s="15" t="s">
@@ -3339,7 +3952,7 @@
       </c>
       <c r="I70" s="5"/>
     </row>
-    <row r="71" spans="4:9" ht="12.75" customHeight="1">
+    <row r="71" ht="12.75" customHeight="1" spans="4:9">
       <c r="D71" s="15"/>
       <c r="E71" s="5"/>
       <c r="F71" s="15" t="s">
@@ -3353,7 +3966,7 @@
       </c>
       <c r="I71" s="5"/>
     </row>
-    <row r="72" spans="4:9" ht="12.75" customHeight="1">
+    <row r="72" ht="12.75" customHeight="1" spans="4:9">
       <c r="D72" s="15"/>
       <c r="E72" s="5"/>
       <c r="F72" s="15" t="s">
@@ -3367,7 +3980,7 @@
       </c>
       <c r="I72" s="5"/>
     </row>
-    <row r="73" spans="4:9" ht="12.75" customHeight="1">
+    <row r="73" ht="12.75" customHeight="1" spans="4:9">
       <c r="D73" s="15"/>
       <c r="E73" s="5"/>
       <c r="F73" s="15" t="s">
@@ -3381,7 +3994,7 @@
       </c>
       <c r="I73" s="5"/>
     </row>
-    <row r="74" spans="4:9" ht="12.75" customHeight="1">
+    <row r="74" ht="12.75" customHeight="1" spans="4:9">
       <c r="D74" s="15"/>
       <c r="E74" s="5"/>
       <c r="F74" s="15" t="s">
@@ -3395,7 +4008,7 @@
       </c>
       <c r="I74" s="5"/>
     </row>
-    <row r="75" spans="4:9" ht="12.75" customHeight="1">
+    <row r="75" ht="12.75" customHeight="1" spans="4:9">
       <c r="D75" s="15"/>
       <c r="E75" s="5"/>
       <c r="F75" s="15" t="s">
@@ -3409,7 +4022,7 @@
       </c>
       <c r="I75" s="5"/>
     </row>
-    <row r="76" spans="4:9" ht="12.75" customHeight="1">
+    <row r="76" ht="12.75" customHeight="1" spans="4:9">
       <c r="D76" s="15"/>
       <c r="E76" s="5"/>
       <c r="F76" s="15" t="s">
@@ -3423,7 +4036,7 @@
       </c>
       <c r="I76" s="5"/>
     </row>
-    <row r="77" spans="4:9">
+    <row r="77" spans="6:8">
       <c r="F77" s="15" t="s">
         <v>116</v>
       </c>
@@ -3434,7 +4047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="4:9">
+    <row r="78" spans="6:8">
       <c r="F78" s="15" t="s">
         <v>116</v>
       </c>
@@ -3445,7 +4058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="4:9">
+    <row r="79" spans="6:8">
       <c r="F79" s="15" t="s">
         <v>116</v>
       </c>
@@ -3456,7 +4069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="4:9">
+    <row r="80" spans="6:8">
       <c r="F80" s="15" t="s">
         <v>116</v>
       </c>
@@ -3577,27 +4190,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="6:8">
+    <row r="91" spans="6:7">
       <c r="F91" s="15"/>
       <c r="G91" s="6"/>
     </row>
-    <row r="92" spans="6:8">
+    <row r="92" spans="6:7">
       <c r="F92" s="15"/>
       <c r="G92" s="6"/>
     </row>
-    <row r="93" spans="6:8">
+    <row r="93" spans="6:7">
       <c r="F93" s="15"/>
       <c r="G93" s="6"/>
     </row>
-    <row r="94" spans="6:8">
+    <row r="94" spans="6:7">
       <c r="F94" s="15"/>
       <c r="G94" s="6"/>
     </row>
-    <row r="95" spans="6:8">
+    <row r="95" spans="6:7">
       <c r="F95" s="15"/>
       <c r="G95" s="6"/>
     </row>
-    <row r="96" spans="6:8">
+    <row r="96" spans="6:7">
       <c r="F96" s="15"/>
       <c r="G96" s="6"/>
     </row>
@@ -3634,37 +4247,38 @@
       <c r="G104" s="17"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:Q32"/>
   <sheetViews>
-    <sheetView topLeftCell="L5" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+    <sheetView zoomScale="97" zoomScaleNormal="97" topLeftCell="L5" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="64.42578125" customWidth="1"/>
+    <col min="1" max="3" width="11.5740740740741" customWidth="1"/>
+    <col min="4" max="4" width="15.287037037037" customWidth="1"/>
+    <col min="5" max="5" width="11.5740740740741" customWidth="1"/>
+    <col min="6" max="6" width="64.4259259259259" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="35.7109375" customWidth="1"/>
-    <col min="9" max="9" width="71.5703125" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="44.7109375" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="35.712962962963" customWidth="1"/>
+    <col min="9" max="9" width="71.5740740740741" customWidth="1"/>
+    <col min="10" max="10" width="18.5740740740741" customWidth="1"/>
+    <col min="11" max="11" width="44.712962962963" customWidth="1"/>
+    <col min="12" max="12" width="19.287037037037" customWidth="1"/>
+    <col min="13" max="13" width="11.5740740740741" customWidth="1"/>
     <col min="14" max="14" width="23" customWidth="1"/>
-    <col min="15" max="1025" width="11.5703125" customWidth="1"/>
+    <col min="15" max="1025" width="11.5740740740741" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:17" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1" spans="4:17">
       <c r="D7" s="5" t="s">
         <v>117</v>
       </c>
@@ -3708,7 +4322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:17">
+    <row r="8" spans="6:15">
       <c r="F8" s="6" t="s">
         <v>88</v>
       </c>
@@ -3740,7 +4354,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="4:17">
+    <row r="9" spans="6:16">
       <c r="F9" s="6" t="s">
         <v>90</v>
       </c>
@@ -3775,7 +4389,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="4:17">
+    <row r="10" spans="6:16">
       <c r="F10" s="6" t="s">
         <v>91</v>
       </c>
@@ -3808,7 +4422,7 @@
       </c>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="4:17">
+    <row r="11" spans="6:16">
       <c r="F11" s="6" t="s">
         <v>92</v>
       </c>
@@ -3841,7 +4455,7 @@
       </c>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="4:17" ht="12.75">
+    <row r="12" spans="6:16">
       <c r="F12" s="6" t="s">
         <v>93</v>
       </c>
@@ -3874,7 +4488,7 @@
       </c>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="4:17">
+    <row r="13" spans="6:16">
       <c r="F13" s="6" t="s">
         <v>94</v>
       </c>
@@ -3907,7 +4521,7 @@
       </c>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="4:17">
+    <row r="14" spans="6:16">
       <c r="F14" s="6" t="s">
         <v>95</v>
       </c>
@@ -3940,7 +4554,7 @@
       </c>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="4:17">
+    <row r="15" spans="6:15">
       <c r="F15" s="7" t="s">
         <v>96</v>
       </c>
@@ -3972,7 +4586,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="4:17">
+    <row r="16" spans="6:15">
       <c r="F16" s="7" t="s">
         <v>97</v>
       </c>
@@ -4515,9 +5129,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -4526,25 +5139,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="D7:I222"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:I223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E124" workbookViewId="0">
+      <selection activeCell="G142" sqref="G142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="59.7109375" customWidth="1"/>
+    <col min="1" max="3" width="11.5740740740741" customWidth="1"/>
+    <col min="4" max="4" width="23.712962962963" customWidth="1"/>
+    <col min="5" max="5" width="11.5740740740741" customWidth="1"/>
+    <col min="6" max="6" width="59.712962962963" customWidth="1"/>
     <col min="7" max="7" width="65" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" customWidth="1"/>
-    <col min="9" max="1025" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="31.287037037037" customWidth="1"/>
+    <col min="9" max="1025" width="11.5740740740741" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1" spans="4:9">
       <c r="D7" s="5" t="s">
         <v>185</v>
       </c>
@@ -4564,7 +5178,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="4:9">
+    <row r="8" spans="6:9">
       <c r="F8" t="s">
         <v>88</v>
       </c>
@@ -4575,7 +5189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:9">
+    <row r="9" spans="6:9">
       <c r="F9" t="s">
         <v>88</v>
       </c>
@@ -4586,7 +5200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:9">
+    <row r="10" spans="6:9">
       <c r="F10" t="s">
         <v>88</v>
       </c>
@@ -4597,7 +5211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:9">
+    <row r="11" spans="6:9">
       <c r="F11" t="s">
         <v>88</v>
       </c>
@@ -4608,7 +5222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:9">
+    <row r="12" spans="6:9">
       <c r="F12" t="s">
         <v>88</v>
       </c>
@@ -4619,45 +5233,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:9">
+    <row r="13" spans="6:9">
       <c r="F13" t="s">
         <v>88</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>400</v>
+        <v>193</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:9">
+    <row r="14" spans="6:9">
       <c r="F14" t="s">
         <v>88</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>403</v>
+        <v>194</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:9">
+    <row r="15" spans="6:9">
       <c r="F15" t="s">
         <v>88</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:9">
+    <row r="16" spans="6:9">
       <c r="F16" t="s">
         <v>88</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -4668,7 +5282,7 @@
         <v>88</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -4679,7 +5293,7 @@
         <v>88</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>401</v>
+        <v>198</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -4690,7 +5304,7 @@
         <v>88</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>402</v>
+        <v>199</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -4701,7 +5315,7 @@
         <v>88</v>
       </c>
       <c r="G20" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -4712,7 +5326,7 @@
         <v>88</v>
       </c>
       <c r="G21" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -4723,7 +5337,7 @@
         <v>88</v>
       </c>
       <c r="G22" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -4734,7 +5348,7 @@
         <v>88</v>
       </c>
       <c r="G23" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -4745,7 +5359,7 @@
         <v>88</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>404</v>
+        <v>204</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -4756,7 +5370,7 @@
         <v>88</v>
       </c>
       <c r="G25" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -4767,7 +5381,7 @@
         <v>88</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>405</v>
+        <v>206</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -4778,7 +5392,7 @@
         <v>88</v>
       </c>
       <c r="G27" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -4789,7 +5403,7 @@
         <v>88</v>
       </c>
       <c r="G28" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -4800,7 +5414,7 @@
         <v>88</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -4811,7 +5425,7 @@
         <v>88</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -4822,7 +5436,7 @@
         <v>88</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -4833,7 +5447,7 @@
         <v>88</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -4844,7 +5458,7 @@
         <v>88</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -4855,7 +5469,7 @@
         <v>88</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -4869,7 +5483,7 @@
         <v>88</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -4883,7 +5497,7 @@
         <v>88</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -4894,7 +5508,7 @@
         <v>88</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -4905,7 +5519,7 @@
         <v>88</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -4916,7 +5530,7 @@
         <v>88</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -4927,7 +5541,7 @@
         <v>88</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -4938,7 +5552,7 @@
         <v>88</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -4949,7 +5563,7 @@
         <v>88</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -4960,7 +5574,7 @@
         <v>88</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -4971,7 +5585,7 @@
         <v>88</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -4982,7 +5596,7 @@
         <v>88</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -4993,7 +5607,7 @@
         <v>88</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -5004,7 +5618,7 @@
         <v>88</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -5015,7 +5629,7 @@
         <v>88</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -5026,7 +5640,7 @@
         <v>88</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -5037,7 +5651,7 @@
         <v>88</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -5048,7 +5662,7 @@
         <v>88</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -5059,7 +5673,7 @@
         <v>88</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -5070,7 +5684,7 @@
         <v>88</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -5081,7 +5695,7 @@
         <v>88</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -5092,7 +5706,7 @@
         <v>88</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -5103,7 +5717,7 @@
         <v>88</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -5114,7 +5728,7 @@
         <v>88</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -5125,7 +5739,7 @@
         <v>88</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -5136,7 +5750,7 @@
         <v>88</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -5147,7 +5761,7 @@
         <v>88</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -5158,7 +5772,7 @@
         <v>88</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -5169,7 +5783,7 @@
         <v>88</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -5180,7 +5794,7 @@
         <v>88</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -5191,7 +5805,7 @@
         <v>88</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -5202,7 +5816,7 @@
         <v>88</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -5213,7 +5827,7 @@
         <v>88</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -5224,7 +5838,7 @@
         <v>88</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -5235,7 +5849,7 @@
         <v>88</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -5246,7 +5860,7 @@
         <v>88</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -5257,7 +5871,7 @@
         <v>88</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -5268,7 +5882,7 @@
         <v>88</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -5279,7 +5893,7 @@
         <v>88</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -5290,7 +5904,7 @@
         <v>88</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -5301,7 +5915,7 @@
         <v>88</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -5312,7 +5926,7 @@
         <v>88</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -5323,7 +5937,7 @@
         <v>88</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -5334,7 +5948,7 @@
         <v>88</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -5345,7 +5959,7 @@
         <v>88</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -5356,7 +5970,7 @@
         <v>88</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -5378,7 +5992,7 @@
         <v>91</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -5389,7 +6003,7 @@
         <v>91</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -5400,7 +6014,7 @@
         <v>91</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -5411,7 +6025,7 @@
         <v>91</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -5422,7 +6036,7 @@
         <v>91</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -5444,7 +6058,7 @@
         <v>92</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -5455,7 +6069,7 @@
         <v>92</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -5466,7 +6080,7 @@
         <v>92</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -5477,7 +6091,7 @@
         <v>92</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -5488,7 +6102,7 @@
         <v>92</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -5499,7 +6113,7 @@
         <v>92</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -5510,7 +6124,7 @@
         <v>92</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -5532,7 +6146,7 @@
         <v>92</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -5543,7 +6157,7 @@
         <v>92</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -5554,7 +6168,7 @@
         <v>92</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -5565,7 +6179,7 @@
         <v>92</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -5576,7 +6190,7 @@
         <v>92</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -5587,7 +6201,7 @@
         <v>92</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -5598,7 +6212,7 @@
         <v>92</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -5609,7 +6223,7 @@
         <v>92</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -5620,7 +6234,7 @@
         <v>92</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -5634,7 +6248,7 @@
         <v>92</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -5645,7 +6259,7 @@
         <v>92</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -5656,7 +6270,7 @@
         <v>92</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -5667,7 +6281,7 @@
         <v>92</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -5678,7 +6292,7 @@
         <v>92</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -5689,7 +6303,7 @@
         <v>92</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -5700,7 +6314,7 @@
         <v>92</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -5711,7 +6325,7 @@
         <v>92</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -5722,18 +6336,18 @@
         <v>92</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="I112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="6:9" ht="13.15" customHeight="1">
+    <row r="113" ht="13.15" customHeight="1" spans="6:9">
       <c r="F113" s="6" t="s">
         <v>92</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -5755,7 +6369,7 @@
         <v>93</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -5766,7 +6380,7 @@
         <v>93</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="I116">
         <v>1</v>
@@ -5777,7 +6391,7 @@
         <v>93</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -5788,7 +6402,7 @@
         <v>93</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="I118">
         <v>1</v>
@@ -5799,7 +6413,7 @@
         <v>93</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -5810,7 +6424,7 @@
         <v>93</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -5821,7 +6435,7 @@
         <v>93</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -5832,7 +6446,7 @@
         <v>93</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -5843,7 +6457,7 @@
         <v>93</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="I123">
         <v>1</v>
@@ -5854,7 +6468,7 @@
         <v>93</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -5865,7 +6479,7 @@
         <v>93</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="I125">
         <v>1</v>
@@ -5887,7 +6501,7 @@
         <v>93</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -5898,7 +6512,7 @@
         <v>93</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -5909,7 +6523,7 @@
         <v>93</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -5931,7 +6545,7 @@
         <v>93</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="I131">
         <v>1</v>
@@ -5942,7 +6556,7 @@
         <v>93</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="I132">
         <v>1</v>
@@ -5953,7 +6567,7 @@
         <v>93</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="I133">
         <v>1</v>
@@ -5964,7 +6578,7 @@
         <v>93</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="I134">
         <v>1</v>
@@ -5975,7 +6589,7 @@
         <v>93</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -5986,7 +6600,7 @@
         <v>93</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="I136">
         <v>1</v>
@@ -5997,19 +6611,20 @@
         <v>93</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="6:9">
+    <row r="138" customFormat="1" spans="6:9">
       <c r="F138" s="6" t="s">
         <v>93</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>281</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="H138"/>
       <c r="I138">
         <v>1</v>
       </c>
@@ -6019,7 +6634,7 @@
         <v>93</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>27</v>
+        <v>288</v>
       </c>
       <c r="I139">
         <v>1</v>
@@ -6027,10 +6642,10 @@
     </row>
     <row r="140" spans="6:9">
       <c r="F140" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I140">
         <v>1</v>
@@ -6041,7 +6656,7 @@
         <v>94</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>282</v>
+        <v>30</v>
       </c>
       <c r="I141">
         <v>1</v>
@@ -6052,7 +6667,7 @@
         <v>94</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="I142">
         <v>1</v>
@@ -6063,7 +6678,7 @@
         <v>94</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="I143">
         <v>1</v>
@@ -6074,7 +6689,7 @@
         <v>94</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="I144">
         <v>1</v>
@@ -6085,7 +6700,7 @@
         <v>94</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="I145">
         <v>1</v>
@@ -6096,7 +6711,7 @@
         <v>94</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="I146">
         <v>1</v>
@@ -6107,10 +6722,10 @@
         <v>94</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="6:9">
@@ -6118,10 +6733,10 @@
         <v>94</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="6:9">
@@ -6129,7 +6744,7 @@
         <v>94</v>
       </c>
       <c r="G149" s="11" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="I149">
         <v>1</v>
@@ -6140,7 +6755,7 @@
         <v>94</v>
       </c>
       <c r="G150" s="11" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="I150">
         <v>1</v>
@@ -6151,18 +6766,18 @@
         <v>94</v>
       </c>
       <c r="G151" s="11" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="I151">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="6:9">
-      <c r="F152" t="s">
-        <v>95</v>
+      <c r="F152" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="G152" s="11" t="s">
-        <v>203</v>
+        <v>259</v>
       </c>
       <c r="I152">
         <v>1</v>
@@ -6173,7 +6788,7 @@
         <v>95</v>
       </c>
       <c r="G153" s="11" t="s">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="I153">
         <v>1</v>
@@ -6184,7 +6799,7 @@
         <v>95</v>
       </c>
       <c r="G154" s="11" t="s">
-        <v>217</v>
+        <v>266</v>
       </c>
       <c r="I154">
         <v>1</v>
@@ -6195,7 +6810,7 @@
         <v>95</v>
       </c>
       <c r="G155" s="11" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="I155">
         <v>1</v>
@@ -6206,7 +6821,7 @@
         <v>95</v>
       </c>
       <c r="G156" s="11" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="I156">
         <v>1</v>
@@ -6217,7 +6832,7 @@
         <v>95</v>
       </c>
       <c r="G157" s="11" t="s">
-        <v>230</v>
+        <v>296</v>
       </c>
       <c r="I157">
         <v>1</v>
@@ -6228,7 +6843,7 @@
         <v>95</v>
       </c>
       <c r="G158" s="11" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="I158">
         <v>1</v>
@@ -6239,7 +6854,7 @@
         <v>95</v>
       </c>
       <c r="G159" s="11" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="I159">
         <v>1</v>
@@ -6250,7 +6865,7 @@
         <v>95</v>
       </c>
       <c r="G160" s="11" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="I160">
         <v>1</v>
@@ -6261,18 +6876,18 @@
         <v>95</v>
       </c>
       <c r="G161" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="6:9">
+      <c r="F162" t="s">
+        <v>95</v>
+      </c>
+      <c r="G162" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="I161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="6:9">
-      <c r="F162" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G162" s="11" t="s">
-        <v>293</v>
       </c>
       <c r="I162">
         <v>1</v>
@@ -6283,18 +6898,18 @@
         <v>96</v>
       </c>
       <c r="G163" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="6:9">
+      <c r="F164" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G164" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="I163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="6:9">
-      <c r="F164" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G164" s="11" t="s">
-        <v>293</v>
       </c>
       <c r="I164">
         <v>1</v>
@@ -6305,7 +6920,7 @@
         <v>97</v>
       </c>
       <c r="G165" s="11" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="I165">
         <v>1</v>
@@ -6316,7 +6931,7 @@
         <v>97</v>
       </c>
       <c r="G166" s="11" t="s">
-        <v>39</v>
+        <v>301</v>
       </c>
       <c r="I166">
         <v>1</v>
@@ -6324,10 +6939,10 @@
     </row>
     <row r="167" spans="6:9">
       <c r="F167" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G167" s="11" t="s">
-        <v>295</v>
+        <v>39</v>
       </c>
       <c r="I167">
         <v>1</v>
@@ -6338,18 +6953,18 @@
         <v>98</v>
       </c>
       <c r="G168" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="6:9">
+      <c r="F169" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G169" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="I168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="6:9">
-      <c r="F169" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G169" s="11" t="s">
-        <v>223</v>
       </c>
       <c r="I169">
         <v>1</v>
@@ -6360,10 +6975,10 @@
         <v>99</v>
       </c>
       <c r="G170" s="11" t="s">
-        <v>296</v>
+        <v>229</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="6:9">
@@ -6371,10 +6986,10 @@
         <v>99</v>
       </c>
       <c r="G171" s="11" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="6:9">
@@ -6382,7 +6997,7 @@
         <v>99</v>
       </c>
       <c r="G172" s="11" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="I172">
         <v>1</v>
@@ -6393,18 +7008,18 @@
         <v>99</v>
       </c>
       <c r="G173" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="6:9">
+      <c r="F174" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G174" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="I173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="6:9">
-      <c r="F174" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G174" s="11" t="s">
-        <v>223</v>
       </c>
       <c r="I174">
         <v>1</v>
@@ -6415,10 +7030,10 @@
         <v>100</v>
       </c>
       <c r="G175" s="11" t="s">
-        <v>296</v>
+        <v>229</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="6:9">
@@ -6426,10 +7041,10 @@
         <v>100</v>
       </c>
       <c r="G176" s="11" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="6:9">
@@ -6437,7 +7052,7 @@
         <v>100</v>
       </c>
       <c r="G177" s="11" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="I177">
         <v>1</v>
@@ -6448,7 +7063,7 @@
         <v>100</v>
       </c>
       <c r="G178" s="11" t="s">
-        <v>48</v>
+        <v>305</v>
       </c>
       <c r="I178">
         <v>1</v>
@@ -6456,10 +7071,10 @@
     </row>
     <row r="179" spans="6:9">
       <c r="F179" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G179" s="11" t="s">
-        <v>299</v>
+        <v>48</v>
       </c>
       <c r="I179">
         <v>1</v>
@@ -6470,7 +7085,7 @@
         <v>101</v>
       </c>
       <c r="G180" s="11" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="I180">
         <v>1</v>
@@ -6481,7 +7096,7 @@
         <v>101</v>
       </c>
       <c r="G181" s="11" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -6492,7 +7107,7 @@
         <v>101</v>
       </c>
       <c r="G182" s="11" t="s">
-        <v>188</v>
+        <v>308</v>
       </c>
       <c r="I182">
         <v>1</v>
@@ -6503,7 +7118,7 @@
         <v>101</v>
       </c>
       <c r="G183" s="11" t="s">
-        <v>51</v>
+        <v>188</v>
       </c>
       <c r="I183">
         <v>1</v>
@@ -6511,10 +7126,10 @@
     </row>
     <row r="184" spans="6:9">
       <c r="F184" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G184" s="11" t="s">
-        <v>302</v>
+        <v>51</v>
       </c>
       <c r="I184">
         <v>1</v>
@@ -6525,7 +7140,7 @@
         <v>102</v>
       </c>
       <c r="G185" s="11" t="s">
-        <v>54</v>
+        <v>309</v>
       </c>
       <c r="I185">
         <v>1</v>
@@ -6533,10 +7148,10 @@
     </row>
     <row r="186" spans="6:9">
       <c r="F186" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G186" s="11" t="s">
-        <v>263</v>
+        <v>54</v>
       </c>
       <c r="I186">
         <v>1</v>
@@ -6547,10 +7162,10 @@
         <v>103</v>
       </c>
       <c r="G187" s="11" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="6:9">
@@ -6558,7 +7173,7 @@
         <v>103</v>
       </c>
       <c r="G188" s="11" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -6569,7 +7184,7 @@
         <v>103</v>
       </c>
       <c r="G189" s="11" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -6580,18 +7195,18 @@
         <v>103</v>
       </c>
       <c r="G190" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="6:9">
+      <c r="F191" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G191" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="I190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="6:9">
-      <c r="F191" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G191" s="11" t="s">
-        <v>306</v>
       </c>
       <c r="I191">
         <v>1</v>
@@ -6601,19 +7216,19 @@
       <c r="F192" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G192" s="12" t="s">
+      <c r="G192" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="6:9">
+      <c r="F193" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G193" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="I192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="6:9">
-      <c r="F193" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G193" s="11" t="s">
-        <v>306</v>
       </c>
       <c r="I193">
         <v>1</v>
@@ -6624,7 +7239,7 @@
         <v>106</v>
       </c>
       <c r="G194" s="11" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="I194">
         <v>1</v>
@@ -6635,7 +7250,7 @@
         <v>106</v>
       </c>
       <c r="G195" s="11" t="s">
-        <v>62</v>
+        <v>314</v>
       </c>
       <c r="I195">
         <v>1</v>
@@ -6643,10 +7258,10 @@
     </row>
     <row r="196" spans="6:9">
       <c r="F196" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G196" s="11" t="s">
-        <v>308</v>
+        <v>62</v>
       </c>
       <c r="I196">
         <v>1</v>
@@ -6657,18 +7272,18 @@
         <v>107</v>
       </c>
       <c r="G197" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="6:9">
+      <c r="F198" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G198" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="I197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="6:9">
-      <c r="F198" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="G198" s="11" t="s">
-        <v>309</v>
       </c>
       <c r="I198">
         <v>1</v>
@@ -6678,8 +7293,8 @@
       <c r="F199" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="G199" s="12" t="s">
-        <v>65</v>
+      <c r="G199" s="11" t="s">
+        <v>316</v>
       </c>
       <c r="I199">
         <v>1</v>
@@ -6687,10 +7302,10 @@
     </row>
     <row r="200" spans="6:9">
       <c r="F200" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G200" s="11" t="s">
-        <v>310</v>
+        <v>108</v>
+      </c>
+      <c r="G200" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="I200">
         <v>1</v>
@@ -6700,19 +7315,19 @@
       <c r="F201" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="G201" s="12" t="s">
+      <c r="G201" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="6:9">
+      <c r="F202" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G202" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="I201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="6:9">
-      <c r="F202" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="G202" s="11" t="s">
-        <v>311</v>
       </c>
       <c r="I202">
         <v>1</v>
@@ -6723,7 +7338,7 @@
         <v>110</v>
       </c>
       <c r="G203" s="11" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="I203">
         <v>1</v>
@@ -6734,7 +7349,7 @@
         <v>110</v>
       </c>
       <c r="G204" s="11" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="I204">
         <v>1</v>
@@ -6745,7 +7360,7 @@
         <v>110</v>
       </c>
       <c r="G205" s="11" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="I205">
         <v>1</v>
@@ -6756,7 +7371,7 @@
         <v>110</v>
       </c>
       <c r="G206" s="11" t="s">
-        <v>71</v>
+        <v>321</v>
       </c>
       <c r="I206">
         <v>1</v>
@@ -6764,10 +7379,10 @@
     </row>
     <row r="207" spans="6:9">
       <c r="F207" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G207" s="11" t="s">
-        <v>310</v>
+        <v>71</v>
       </c>
       <c r="I207">
         <v>1</v>
@@ -6778,7 +7393,7 @@
         <v>111</v>
       </c>
       <c r="G208" s="11" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="I208">
         <v>1</v>
@@ -6789,7 +7404,7 @@
         <v>111</v>
       </c>
       <c r="G209" s="11" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="I209">
         <v>1</v>
@@ -6800,7 +7415,7 @@
         <v>111</v>
       </c>
       <c r="G210" s="11" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="I210">
         <v>1</v>
@@ -6811,7 +7426,7 @@
         <v>111</v>
       </c>
       <c r="G211" s="11" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="I211">
         <v>1</v>
@@ -6822,7 +7437,7 @@
         <v>111</v>
       </c>
       <c r="G212" s="11" t="s">
-        <v>74</v>
+        <v>321</v>
       </c>
       <c r="I212">
         <v>1</v>
@@ -6830,10 +7445,10 @@
     </row>
     <row r="213" spans="6:9">
       <c r="F213" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G213" s="11" t="s">
-        <v>316</v>
+        <v>74</v>
       </c>
       <c r="I213">
         <v>1</v>
@@ -6844,7 +7459,7 @@
         <v>112</v>
       </c>
       <c r="G214" s="11" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="I214">
         <v>1</v>
@@ -6855,7 +7470,7 @@
         <v>112</v>
       </c>
       <c r="G215" s="11" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="I215">
         <v>1</v>
@@ -6866,7 +7481,7 @@
         <v>112</v>
       </c>
       <c r="G216" s="11" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="I216">
         <v>1</v>
@@ -6877,18 +7492,18 @@
         <v>112</v>
       </c>
       <c r="G217" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="6:9">
+      <c r="F218" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G218" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="I217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="6:9">
-      <c r="F218" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="G218" s="11" t="s">
-        <v>320</v>
       </c>
       <c r="I218">
         <v>1</v>
@@ -6899,7 +7514,7 @@
         <v>113</v>
       </c>
       <c r="G219" s="11" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="I219">
         <v>1</v>
@@ -6910,7 +7525,7 @@
         <v>113</v>
       </c>
       <c r="G220" s="11" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="I220">
         <v>1</v>
@@ -6921,7 +7536,7 @@
         <v>113</v>
       </c>
       <c r="G221" s="11" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I221">
         <v>1</v>
@@ -6931,17 +7546,27 @@
       <c r="F222" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G222" t="s">
+      <c r="G222" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="6:9">
+      <c r="F223" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G223" t="s">
         <v>80</v>
       </c>
-      <c r="I222">
+      <c r="I223">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -6950,31 +7575,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="E13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="E13" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="7"/>
   <cols>
-    <col min="4" max="4" width="28.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.4259259259259" customWidth="1"/>
+    <col min="5" max="5" width="18.5740740740741" customWidth="1"/>
     <col min="6" max="6" width="41" customWidth="1"/>
-    <col min="7" max="7" width="64.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="64.4259259259259" customWidth="1"/>
+    <col min="8" max="8" width="16.5740740740741" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" ht="13.9" customHeight="1">
+    <row r="7" ht="13.9" customHeight="1" spans="4:8">
       <c r="D7" s="5" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>186</v>
@@ -6983,83 +7609,83 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:8" ht="13.9" customHeight="1">
+    <row r="8" ht="13.9" customHeight="1" spans="4:7">
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="4:8" ht="13.9" customHeight="1">
+    <row r="9" ht="13.9" customHeight="1" spans="4:7">
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="4:8" ht="13.9" customHeight="1">
+    <row r="10" ht="13.9" customHeight="1" spans="4:7">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="4:8" ht="13.9" customHeight="1">
+    <row r="11" ht="13.9" customHeight="1" spans="4:7">
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="4:8" ht="13.9" customHeight="1">
+    <row r="12" ht="13.9" customHeight="1" spans="4:7">
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="4:8">
+    <row r="13" spans="6:7">
       <c r="F13" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="4:8">
+    <row r="14" spans="6:7">
       <c r="F14" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="4:8">
+    <row r="15" spans="6:7">
       <c r="F15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="4:8">
+    <row r="16" spans="6:7">
       <c r="F16" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>24</v>
@@ -7067,7 +7693,7 @@
     </row>
     <row r="17" spans="6:7">
       <c r="F17" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>27</v>
@@ -7075,7 +7701,7 @@
     </row>
     <row r="18" spans="6:7">
       <c r="F18" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>30</v>
@@ -7083,7 +7709,7 @@
     </row>
     <row r="19" spans="6:7">
       <c r="F19" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>33</v>
@@ -7091,7 +7717,7 @@
     </row>
     <row r="20" spans="6:7">
       <c r="F20" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>36</v>
@@ -7099,7 +7725,7 @@
     </row>
     <row r="21" spans="6:7">
       <c r="F21" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>39</v>
@@ -7107,7 +7733,7 @@
     </row>
     <row r="22" spans="6:7">
       <c r="F22" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>42</v>
@@ -7115,7 +7741,7 @@
     </row>
     <row r="23" spans="6:7">
       <c r="F23" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>45</v>
@@ -7123,7 +7749,7 @@
     </row>
     <row r="24" spans="6:7">
       <c r="F24" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>48</v>
@@ -7131,7 +7757,7 @@
     </row>
     <row r="25" spans="6:7">
       <c r="F25" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>51</v>
@@ -7139,7 +7765,7 @@
     </row>
     <row r="26" spans="6:7">
       <c r="F26" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>54</v>
@@ -7147,7 +7773,7 @@
     </row>
     <row r="27" spans="6:7">
       <c r="F27" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>57</v>
@@ -7155,7 +7781,7 @@
     </row>
     <row r="28" spans="6:7">
       <c r="F28" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>60</v>
@@ -7163,7 +7789,7 @@
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>62</v>
@@ -7171,7 +7797,7 @@
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>64</v>
@@ -7179,7 +7805,7 @@
     </row>
     <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>65</v>
@@ -7187,7 +7813,7 @@
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>68</v>
@@ -7195,7 +7821,7 @@
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>71</v>
@@ -7203,7 +7829,7 @@
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>74</v>
@@ -7211,7 +7837,7 @@
     </row>
     <row r="35" spans="6:7">
       <c r="F35" s="9" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>77</v>
@@ -7219,46 +7845,47 @@
     </row>
     <row r="36" spans="6:7">
       <c r="F36" s="9" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:R14"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="23.7109375" style="3" customWidth="1"/>
+    <col min="1" max="3" width="11.5740740740741" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.287037037037" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.287037037037" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.4259259259259" style="3" customWidth="1"/>
+    <col min="7" max="8" width="23.712962962963" style="3" customWidth="1"/>
     <col min="9" max="10" width="24" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="28.5703125" style="3" customWidth="1"/>
-    <col min="14" max="17" width="11.5703125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="46.42578125" style="3" customWidth="1"/>
-    <col min="19" max="1025" width="11.5703125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.4259259259259" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.5740740740741" style="3" customWidth="1"/>
+    <col min="13" max="13" width="28.5740740740741" style="3" customWidth="1"/>
+    <col min="14" max="17" width="11.5740740740741" style="3" customWidth="1"/>
+    <col min="18" max="18" width="46.4259259259259" style="3" customWidth="1"/>
+    <col min="19" max="1025" width="11.5740740740741" style="3" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:18">
       <c r="D7" s="3" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1</v>
@@ -7267,7 +7894,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>118</v>
@@ -7276,13 +7903,13 @@
         <v>119</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>6</v>
@@ -7294,33 +7921,33 @@
         <v>125</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="8" spans="4:18">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="5:17">
       <c r="E8" s="3" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>142</v>
@@ -7329,10 +7956,10 @@
         <v>15</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="O8" s="3">
         <v>1</v>
@@ -7344,24 +7971,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:18">
+    <row r="9" spans="5:17">
       <c r="E9" s="3" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>142</v>
@@ -7370,10 +7997,10 @@
         <v>15</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="O9" s="3">
         <v>2</v>
@@ -7385,24 +8012,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:18">
+    <row r="10" spans="5:17">
       <c r="E10" s="3" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>142</v>
@@ -7411,7 +8038,7 @@
         <v>15</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>169</v>
@@ -7426,24 +8053,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:18">
+    <row r="11" spans="5:17">
       <c r="E11" s="3" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>142</v>
@@ -7452,10 +8079,10 @@
         <v>15</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="O11" s="3">
         <v>4</v>
@@ -7467,24 +8094,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:18">
+    <row r="12" spans="5:17">
       <c r="E12" s="3" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>142</v>
@@ -7493,10 +8120,10 @@
         <v>15</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="O12" s="3">
         <v>5</v>
@@ -7508,24 +8135,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:18">
+    <row r="13" spans="5:18">
       <c r="E13" s="3" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>142</v>
@@ -7534,10 +8161,10 @@
         <v>15</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="O13" s="3">
         <v>6</v>
@@ -7549,27 +8176,27 @@
         <v>1</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="14" spans="4:18">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="14" spans="5:18">
       <c r="E14" s="3" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>142</v>
@@ -7578,10 +8205,10 @@
         <v>15</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="O14" s="3">
         <v>7</v>
@@ -7593,242 +8220,243 @@
         <v>1</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="122" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:K16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.28703703703704" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.712962962963" customWidth="1"/>
+    <col min="6" max="6" width="16.712962962963" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.4259259259259" customWidth="1"/>
+    <col min="10" max="10" width="31.712962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:11">
       <c r="D7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>124</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="8" spans="4:11" ht="12.75">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="6:11">
       <c r="F8" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="J8" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="K8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:11" ht="12.75">
+    <row r="9" spans="6:11">
       <c r="F9" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="J9" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="K9">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="4:11" ht="12.75">
+    <row r="10" spans="6:11">
       <c r="F10" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="J10" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="K10">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="4:11" ht="12.75">
+    <row r="11" spans="6:11">
       <c r="F11" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="J11" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="K11">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="4:11" ht="12.75">
+    <row r="12" spans="6:11">
       <c r="F12" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="J12" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="K12">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="4:11" ht="12.75">
+    <row r="13" spans="6:11">
       <c r="F13" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="G13" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="J13" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="K13">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="4:11" ht="12.75">
+    <row r="14" spans="6:11">
       <c r="F14" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="G14" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="J14" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="K14">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="4:11" ht="12.75">
+    <row r="15" spans="6:11">
       <c r="F15" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="G15" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="J15" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="K15">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="4:11" ht="12.75">
+    <row r="16" spans="6:11">
       <c r="F16" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="G16" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="J16" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="K16">
         <v>90</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="122" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="122" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -16,14 +16,14 @@
     <sheet name="FD_REPORT" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">IAM_MENU_PERMISSION!$I$1:$I$223</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">IAM_MENU_PERMISSION!$I$1:$I$224</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="408">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -809,6 +809,9 @@
   </si>
   <si>
     <t>agile-service.product-version.createVersion</t>
+  </si>
+  <si>
+    <t>agile-service.issue.deleteSelfIssue</t>
   </si>
   <si>
     <t>agile-service.issue.listFeature</t>
@@ -1333,21 +1336,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1375,13 +1364,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1391,15 +1373,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1429,21 +1403,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1461,7 +1420,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1475,9 +1464,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1492,7 +1495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1504,13 +1513,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1534,7 +1543,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1546,37 +1627,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1594,85 +1675,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1683,15 +1686,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1719,6 +1713,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1734,22 +1737,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1769,165 +1767,170 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5141,10 +5144,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:I223"/>
+  <dimension ref="D7:I224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E124" workbookViewId="0">
-      <selection activeCell="G142" sqref="G142"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E80" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -6053,13 +6056,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="6:9">
+    <row r="87" customFormat="1" spans="6:9">
       <c r="F87" s="6" t="s">
         <v>92</v>
       </c>
       <c r="G87" s="11" t="s">
         <v>240</v>
       </c>
+      <c r="H87"/>
       <c r="I87">
         <v>0</v>
       </c>
@@ -6069,7 +6073,7 @@
         <v>92</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -6080,7 +6084,7 @@
         <v>92</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -6102,7 +6106,7 @@
         <v>92</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -6113,7 +6117,7 @@
         <v>92</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -6124,7 +6128,7 @@
         <v>92</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>209</v>
+        <v>265</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -6135,7 +6139,7 @@
         <v>92</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -6146,7 +6150,7 @@
         <v>92</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -6157,7 +6161,7 @@
         <v>92</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -6168,7 +6172,7 @@
         <v>92</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -6201,7 +6205,7 @@
         <v>92</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -6212,7 +6216,7 @@
         <v>92</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -6223,7 +6227,7 @@
         <v>92</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -6234,10 +6238,7 @@
         <v>92</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="H103">
-        <v>1</v>
+        <v>228</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -6248,7 +6249,10 @@
         <v>92</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>234</v>
+        <v>269</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -6259,7 +6263,7 @@
         <v>92</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -6270,7 +6274,7 @@
         <v>92</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -6281,7 +6285,7 @@
         <v>92</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -6292,7 +6296,7 @@
         <v>92</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -6303,10 +6307,10 @@
         <v>92</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="6:9">
@@ -6314,10 +6318,10 @@
         <v>92</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>271</v>
+        <v>213</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="6:9">
@@ -6342,7 +6346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" ht="13.15" customHeight="1" spans="6:9">
+    <row r="113" spans="6:9">
       <c r="F113" s="6" t="s">
         <v>92</v>
       </c>
@@ -6353,23 +6357,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="6:9">
+    <row r="114" ht="13.15" customHeight="1" spans="6:9">
       <c r="F114" s="6" t="s">
         <v>92</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>24</v>
+        <v>275</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="6:9">
       <c r="F115" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>275</v>
+        <v>24</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -6391,7 +6395,7 @@
         <v>93</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -6402,7 +6406,7 @@
         <v>93</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="I118">
         <v>1</v>
@@ -6413,7 +6417,7 @@
         <v>93</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -6424,7 +6428,7 @@
         <v>93</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -6435,7 +6439,7 @@
         <v>93</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -6446,7 +6450,7 @@
         <v>93</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -6457,7 +6461,7 @@
         <v>93</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I123">
         <v>1</v>
@@ -6468,7 +6472,7 @@
         <v>93</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -6479,7 +6483,7 @@
         <v>93</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="I125">
         <v>1</v>
@@ -6490,7 +6494,7 @@
         <v>93</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>188</v>
+        <v>279</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -6501,7 +6505,7 @@
         <v>93</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>267</v>
+        <v>188</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -6512,7 +6516,7 @@
         <v>93</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>209</v>
+        <v>268</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -6523,7 +6527,7 @@
         <v>93</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>279</v>
+        <v>209</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -6534,7 +6538,7 @@
         <v>93</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>189</v>
+        <v>280</v>
       </c>
       <c r="I130">
         <v>1</v>
@@ -6545,7 +6549,7 @@
         <v>93</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>280</v>
+        <v>189</v>
       </c>
       <c r="I131">
         <v>1</v>
@@ -6617,19 +6621,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" customFormat="1" spans="6:9">
+    <row r="138" spans="6:9">
       <c r="F138" s="6" t="s">
         <v>93</v>
       </c>
       <c r="G138" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="H138"/>
       <c r="I138">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="6:9">
+    <row r="139" customFormat="1" spans="6:9">
       <c r="F139" s="6" t="s">
         <v>93</v>
       </c>
@@ -6645,7 +6648,7 @@
         <v>93</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>27</v>
+        <v>289</v>
       </c>
       <c r="I140">
         <v>1</v>
@@ -6653,10 +6656,10 @@
     </row>
     <row r="141" spans="6:9">
       <c r="F141" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I141">
         <v>1</v>
@@ -6667,7 +6670,7 @@
         <v>94</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>289</v>
+        <v>30</v>
       </c>
       <c r="I142">
         <v>1</v>
@@ -6681,7 +6684,7 @@
         <v>290</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="6:9">
@@ -6692,7 +6695,7 @@
         <v>291</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="6:9">
@@ -6703,7 +6706,7 @@
         <v>292</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="6:9">
@@ -6714,7 +6717,7 @@
         <v>293</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="6:9">
@@ -6722,10 +6725,10 @@
         <v>94</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="6:9">
@@ -6733,10 +6736,10 @@
         <v>94</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="6:9">
@@ -6744,10 +6747,10 @@
         <v>94</v>
       </c>
       <c r="G149" s="11" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="6:9">
@@ -6766,7 +6769,7 @@
         <v>94</v>
       </c>
       <c r="G151" s="11" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="I151">
         <v>1</v>
@@ -6777,18 +6780,18 @@
         <v>94</v>
       </c>
       <c r="G152" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="6:9">
+      <c r="F153" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G153" s="11" t="s">
         <v>259</v>
-      </c>
-      <c r="I152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="6:9">
-      <c r="F153" t="s">
-        <v>95</v>
-      </c>
-      <c r="G153" s="11" t="s">
-        <v>209</v>
       </c>
       <c r="I153">
         <v>1</v>
@@ -6799,7 +6802,7 @@
         <v>95</v>
       </c>
       <c r="G154" s="11" t="s">
-        <v>266</v>
+        <v>209</v>
       </c>
       <c r="I154">
         <v>1</v>
@@ -6810,7 +6813,7 @@
         <v>95</v>
       </c>
       <c r="G155" s="11" t="s">
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="I155">
         <v>1</v>
@@ -6821,7 +6824,7 @@
         <v>95</v>
       </c>
       <c r="G156" s="11" t="s">
-        <v>279</v>
+        <v>223</v>
       </c>
       <c r="I156">
         <v>1</v>
@@ -6832,7 +6835,7 @@
         <v>95</v>
       </c>
       <c r="G157" s="11" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="I157">
         <v>1</v>
@@ -6843,7 +6846,7 @@
         <v>95</v>
       </c>
       <c r="G158" s="11" t="s">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="I158">
         <v>1</v>
@@ -6854,7 +6857,7 @@
         <v>95</v>
       </c>
       <c r="G159" s="11" t="s">
-        <v>297</v>
+        <v>236</v>
       </c>
       <c r="I159">
         <v>1</v>
@@ -6887,18 +6890,18 @@
         <v>95</v>
       </c>
       <c r="G162" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="6:9">
+      <c r="F163" t="s">
+        <v>95</v>
+      </c>
+      <c r="G163" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="I162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="6:9">
-      <c r="F163" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G163" s="11" t="s">
-        <v>300</v>
       </c>
       <c r="I163">
         <v>1</v>
@@ -6909,18 +6912,18 @@
         <v>96</v>
       </c>
       <c r="G164" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="6:9">
+      <c r="F165" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G165" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="I164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="6:9">
-      <c r="F165" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G165" s="11" t="s">
-        <v>300</v>
       </c>
       <c r="I165">
         <v>1</v>
@@ -6942,7 +6945,7 @@
         <v>97</v>
       </c>
       <c r="G167" s="11" t="s">
-        <v>39</v>
+        <v>302</v>
       </c>
       <c r="I167">
         <v>1</v>
@@ -6950,10 +6953,10 @@
     </row>
     <row r="168" spans="6:9">
       <c r="F168" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G168" s="11" t="s">
-        <v>302</v>
+        <v>39</v>
       </c>
       <c r="I168">
         <v>1</v>
@@ -6964,18 +6967,18 @@
         <v>98</v>
       </c>
       <c r="G169" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="6:9">
+      <c r="F170" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G170" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="I169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="6:9">
-      <c r="F170" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G170" s="11" t="s">
-        <v>229</v>
       </c>
       <c r="I170">
         <v>1</v>
@@ -6986,10 +6989,10 @@
         <v>99</v>
       </c>
       <c r="G171" s="11" t="s">
-        <v>303</v>
+        <v>229</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="6:9">
@@ -7000,7 +7003,7 @@
         <v>304</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="6:9">
@@ -7019,18 +7022,18 @@
         <v>99</v>
       </c>
       <c r="G174" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="6:9">
+      <c r="F175" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G175" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="I174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="6:9">
-      <c r="F175" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G175" s="11" t="s">
-        <v>229</v>
       </c>
       <c r="I175">
         <v>1</v>
@@ -7041,10 +7044,10 @@
         <v>100</v>
       </c>
       <c r="G176" s="11" t="s">
-        <v>303</v>
+        <v>229</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="6:9">
@@ -7055,7 +7058,7 @@
         <v>304</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="6:9">
@@ -7074,7 +7077,7 @@
         <v>100</v>
       </c>
       <c r="G179" s="11" t="s">
-        <v>48</v>
+        <v>306</v>
       </c>
       <c r="I179">
         <v>1</v>
@@ -7082,10 +7085,10 @@
     </row>
     <row r="180" spans="6:9">
       <c r="F180" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G180" s="11" t="s">
-        <v>306</v>
+        <v>48</v>
       </c>
       <c r="I180">
         <v>1</v>
@@ -7118,7 +7121,7 @@
         <v>101</v>
       </c>
       <c r="G183" s="11" t="s">
-        <v>188</v>
+        <v>309</v>
       </c>
       <c r="I183">
         <v>1</v>
@@ -7129,7 +7132,7 @@
         <v>101</v>
       </c>
       <c r="G184" s="11" t="s">
-        <v>51</v>
+        <v>188</v>
       </c>
       <c r="I184">
         <v>1</v>
@@ -7137,10 +7140,10 @@
     </row>
     <row r="185" spans="6:9">
       <c r="F185" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G185" s="11" t="s">
-        <v>309</v>
+        <v>51</v>
       </c>
       <c r="I185">
         <v>1</v>
@@ -7151,7 +7154,7 @@
         <v>102</v>
       </c>
       <c r="G186" s="11" t="s">
-        <v>54</v>
+        <v>310</v>
       </c>
       <c r="I186">
         <v>1</v>
@@ -7159,10 +7162,10 @@
     </row>
     <row r="187" spans="6:9">
       <c r="F187" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G187" s="11" t="s">
-        <v>269</v>
+        <v>54</v>
       </c>
       <c r="I187">
         <v>1</v>
@@ -7173,10 +7176,10 @@
         <v>103</v>
       </c>
       <c r="G188" s="11" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="6:9">
@@ -7206,18 +7209,18 @@
         <v>103</v>
       </c>
       <c r="G191" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="6:9">
+      <c r="F192" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G192" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="I191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="6:9">
-      <c r="F192" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G192" s="11" t="s">
-        <v>313</v>
       </c>
       <c r="I192">
         <v>1</v>
@@ -7227,19 +7230,19 @@
       <c r="F193" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G193" s="12" t="s">
+      <c r="G193" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="6:9">
+      <c r="F194" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G194" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="I193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="6:9">
-      <c r="F194" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G194" s="11" t="s">
-        <v>313</v>
       </c>
       <c r="I194">
         <v>1</v>
@@ -7261,7 +7264,7 @@
         <v>106</v>
       </c>
       <c r="G196" s="11" t="s">
-        <v>62</v>
+        <v>315</v>
       </c>
       <c r="I196">
         <v>1</v>
@@ -7269,10 +7272,10 @@
     </row>
     <row r="197" spans="6:9">
       <c r="F197" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G197" s="11" t="s">
-        <v>315</v>
+        <v>62</v>
       </c>
       <c r="I197">
         <v>1</v>
@@ -7283,18 +7286,18 @@
         <v>107</v>
       </c>
       <c r="G198" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="6:9">
+      <c r="F199" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G199" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="I198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="6:9">
-      <c r="F199" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="G199" s="11" t="s">
-        <v>316</v>
       </c>
       <c r="I199">
         <v>1</v>
@@ -7304,8 +7307,8 @@
       <c r="F200" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="G200" s="12" t="s">
-        <v>65</v>
+      <c r="G200" s="11" t="s">
+        <v>317</v>
       </c>
       <c r="I200">
         <v>1</v>
@@ -7313,10 +7316,10 @@
     </row>
     <row r="201" spans="6:9">
       <c r="F201" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G201" s="11" t="s">
-        <v>317</v>
+        <v>108</v>
+      </c>
+      <c r="G201" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="I201">
         <v>1</v>
@@ -7326,19 +7329,19 @@
       <c r="F202" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="G202" s="12" t="s">
+      <c r="G202" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="6:9">
+      <c r="F203" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G203" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="I202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="6:9">
-      <c r="F203" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="G203" s="11" t="s">
-        <v>318</v>
       </c>
       <c r="I203">
         <v>1</v>
@@ -7382,7 +7385,7 @@
         <v>110</v>
       </c>
       <c r="G207" s="11" t="s">
-        <v>71</v>
+        <v>322</v>
       </c>
       <c r="I207">
         <v>1</v>
@@ -7390,10 +7393,10 @@
     </row>
     <row r="208" spans="6:9">
       <c r="F208" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G208" s="11" t="s">
-        <v>317</v>
+        <v>71</v>
       </c>
       <c r="I208">
         <v>1</v>
@@ -7404,7 +7407,7 @@
         <v>111</v>
       </c>
       <c r="G209" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I209">
         <v>1</v>
@@ -7426,7 +7429,7 @@
         <v>111</v>
       </c>
       <c r="G211" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I211">
         <v>1</v>
@@ -7437,7 +7440,7 @@
         <v>111</v>
       </c>
       <c r="G212" s="11" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I212">
         <v>1</v>
@@ -7448,7 +7451,7 @@
         <v>111</v>
       </c>
       <c r="G213" s="11" t="s">
-        <v>74</v>
+        <v>322</v>
       </c>
       <c r="I213">
         <v>1</v>
@@ -7456,10 +7459,10 @@
     </row>
     <row r="214" spans="6:9">
       <c r="F214" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G214" s="11" t="s">
-        <v>323</v>
+        <v>74</v>
       </c>
       <c r="I214">
         <v>1</v>
@@ -7503,18 +7506,18 @@
         <v>112</v>
       </c>
       <c r="G218" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="I218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="6:9">
+      <c r="F219" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G219" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="I218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="6:9">
-      <c r="F219" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="G219" s="11" t="s">
-        <v>327</v>
       </c>
       <c r="I219">
         <v>1</v>
@@ -7557,10 +7560,21 @@
       <c r="F223" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G223" t="s">
+      <c r="G223" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="6:9">
+      <c r="F224" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G224" t="s">
         <v>80</v>
       </c>
-      <c r="I223">
+      <c r="I224">
         <v>1</v>
       </c>
     </row>
@@ -7594,13 +7608,13 @@
   <sheetData>
     <row r="7" ht="13.9" customHeight="1" spans="4:8">
       <c r="D7" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>186</v>
@@ -7613,7 +7627,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>12</v>
@@ -7623,7 +7637,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>21</v>
@@ -7633,7 +7647,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>24</v>
@@ -7643,7 +7657,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>27</v>
@@ -7653,7 +7667,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>33</v>
@@ -7661,7 +7675,7 @@
     </row>
     <row r="13" spans="6:7">
       <c r="F13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>12</v>
@@ -7669,7 +7683,7 @@
     </row>
     <row r="14" spans="6:7">
       <c r="F14" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>18</v>
@@ -7677,7 +7691,7 @@
     </row>
     <row r="15" spans="6:7">
       <c r="F15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>21</v>
@@ -7685,7 +7699,7 @@
     </row>
     <row r="16" spans="6:7">
       <c r="F16" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>24</v>
@@ -7693,7 +7707,7 @@
     </row>
     <row r="17" spans="6:7">
       <c r="F17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>27</v>
@@ -7701,7 +7715,7 @@
     </row>
     <row r="18" spans="6:7">
       <c r="F18" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>30</v>
@@ -7709,7 +7723,7 @@
     </row>
     <row r="19" spans="6:7">
       <c r="F19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>33</v>
@@ -7717,7 +7731,7 @@
     </row>
     <row r="20" spans="6:7">
       <c r="F20" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>36</v>
@@ -7725,7 +7739,7 @@
     </row>
     <row r="21" spans="6:7">
       <c r="F21" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>39</v>
@@ -7733,7 +7747,7 @@
     </row>
     <row r="22" spans="6:7">
       <c r="F22" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>42</v>
@@ -7741,7 +7755,7 @@
     </row>
     <row r="23" spans="6:7">
       <c r="F23" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>45</v>
@@ -7749,7 +7763,7 @@
     </row>
     <row r="24" spans="6:7">
       <c r="F24" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>48</v>
@@ -7757,7 +7771,7 @@
     </row>
     <row r="25" spans="6:7">
       <c r="F25" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>51</v>
@@ -7765,7 +7779,7 @@
     </row>
     <row r="26" spans="6:7">
       <c r="F26" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>54</v>
@@ -7773,7 +7787,7 @@
     </row>
     <row r="27" spans="6:7">
       <c r="F27" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>57</v>
@@ -7781,7 +7795,7 @@
     </row>
     <row r="28" spans="6:7">
       <c r="F28" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>60</v>
@@ -7789,7 +7803,7 @@
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>62</v>
@@ -7797,7 +7811,7 @@
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>64</v>
@@ -7805,7 +7819,7 @@
     </row>
     <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>65</v>
@@ -7813,7 +7827,7 @@
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>68</v>
@@ -7821,7 +7835,7 @@
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>71</v>
@@ -7829,7 +7843,7 @@
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>74</v>
@@ -7837,7 +7851,7 @@
     </row>
     <row r="35" spans="6:7">
       <c r="F35" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>77</v>
@@ -7845,7 +7859,7 @@
     </row>
     <row r="36" spans="6:7">
       <c r="F36" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>80</v>
@@ -7885,7 +7899,7 @@
   <sheetData>
     <row r="7" spans="4:18">
       <c r="D7" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1</v>
@@ -7894,7 +7908,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>118</v>
@@ -7903,13 +7917,13 @@
         <v>119</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>6</v>
@@ -7921,33 +7935,33 @@
         <v>125</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="5:17">
       <c r="E8" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>344</v>
-      </c>
       <c r="J8" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>142</v>
@@ -7956,10 +7970,10 @@
         <v>15</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O8" s="3">
         <v>1</v>
@@ -7973,22 +7987,22 @@
     </row>
     <row r="9" spans="5:17">
       <c r="E9" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>347</v>
-      </c>
       <c r="J9" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>142</v>
@@ -7997,10 +8011,10 @@
         <v>15</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O9" s="3">
         <v>2</v>
@@ -8014,22 +8028,22 @@
     </row>
     <row r="10" spans="5:17">
       <c r="E10" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>350</v>
-      </c>
       <c r="J10" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>142</v>
@@ -8038,7 +8052,7 @@
         <v>15</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>169</v>
@@ -8055,22 +8069,22 @@
     </row>
     <row r="11" spans="5:17">
       <c r="E11" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>352</v>
-      </c>
       <c r="J11" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>142</v>
@@ -8079,10 +8093,10 @@
         <v>15</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O11" s="3">
         <v>4</v>
@@ -8096,22 +8110,22 @@
     </row>
     <row r="12" spans="5:17">
       <c r="E12" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="J12" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>142</v>
@@ -8120,10 +8134,10 @@
         <v>15</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O12" s="3">
         <v>5</v>
@@ -8137,22 +8151,22 @@
     </row>
     <row r="13" spans="5:18">
       <c r="E13" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>358</v>
-      </c>
       <c r="J13" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>142</v>
@@ -8161,10 +8175,10 @@
         <v>15</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O13" s="3">
         <v>6</v>
@@ -8176,27 +8190,27 @@
         <v>1</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="5:18">
       <c r="E14" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>362</v>
-      </c>
       <c r="J14" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>142</v>
@@ -8205,10 +8219,10 @@
         <v>15</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O14" s="3">
         <v>7</v>
@@ -8220,7 +8234,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -8250,45 +8264,45 @@
   <sheetData>
     <row r="7" spans="4:11">
       <c r="D7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>124</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="6:11">
       <c r="F8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K8">
         <v>10</v>
@@ -8296,19 +8310,19 @@
     </row>
     <row r="9" spans="6:11">
       <c r="F9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K9">
         <v>20</v>
@@ -8316,19 +8330,19 @@
     </row>
     <row r="10" spans="6:11">
       <c r="F10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K10">
         <v>30</v>
@@ -8336,19 +8350,19 @@
     </row>
     <row r="11" spans="6:11">
       <c r="F11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K11">
         <v>40</v>
@@ -8356,19 +8370,19 @@
     </row>
     <row r="12" spans="6:11">
       <c r="F12" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J12" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K12">
         <v>50</v>
@@ -8376,19 +8390,19 @@
     </row>
     <row r="13" spans="6:11">
       <c r="F13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K13">
         <v>60</v>
@@ -8396,19 +8410,19 @@
     </row>
     <row r="14" spans="6:11">
       <c r="F14" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G14" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J14" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K14">
         <v>70</v>
@@ -8416,19 +8430,19 @@
     </row>
     <row r="15" spans="6:11">
       <c r="F15" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K15">
         <v>80</v>
@@ -8436,19 +8450,19 @@
     </row>
     <row r="16" spans="6:11">
       <c r="F16" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J16" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K16">
         <v>90</v>
